--- a/Individual Treasure Averages.xlsx
+++ b/Individual Treasure Averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4FF9EE-9EA4-4C08-AF79-3207D823B25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5937DBC2-7C6D-4910-9585-3D5ABE662A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Treasure" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="80">
   <si>
     <t>Individual gp Per Formula</t>
   </si>
@@ -198,6 +198,87 @@
   <si>
     <t>CR 1/2: Humanoid</t>
   </si>
+  <si>
+    <t>CR 1/2: Medium Beast</t>
+  </si>
+  <si>
+    <t>CR 1 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 1: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 2 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 2: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 3 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 3: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 4 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 4: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 5 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 5: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 6 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 6: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 7 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 7: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 8 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 8: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 9 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 9: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 10 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 11 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 10: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 11: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 12 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 12: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 13 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 13: Humanoid</t>
+  </si>
 </sst>
 </file>
 
@@ -205,8 +286,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -440,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,22 +529,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -481,31 +559,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,17 +577,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -541,9 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -553,11 +607,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,6 +618,67 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,69 +692,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,10 +1039,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
@@ -983,10 +1055,10 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -995,23 +1067,23 @@
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>(2.58912 *EXP(0.437456*A2))</f>
         <v>0.69694418498261168</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.7</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>4.97</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1028,14 +1100,14 @@
       <c r="A3" s="1">
         <v>-2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B35" si="0">(2.58912 *EXP(0.437456*A3))</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>4.97</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1044,7 +1116,7 @@
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>4.97</v>
       </c>
     </row>
@@ -1052,14 +1124,14 @@
       <c r="A4" s="1">
         <v>-1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
         <v>1.6717350674697367</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1.7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>4.97</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1068,7 +1140,7 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>92.5</v>
       </c>
     </row>
@@ -1076,14 +1148,14 @@
       <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>2.5891199999999999</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2.6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4.97</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1092,7 +1164,7 @@
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>946.75</v>
       </c>
     </row>
@@ -1100,21 +1172,21 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4.0099310619512103</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4.97</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1122,14 +1194,14 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>6.2104294592761873</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>6.2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>4.97</v>
       </c>
     </row>
@@ -1137,14 +1209,14 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>9.6184780917100969</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>9.6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>4.97</v>
       </c>
     </row>
@@ -1152,14 +1224,14 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>14.89673482443669</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>4.97</v>
       </c>
     </row>
@@ -1167,14 +1239,14 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>23.071499078512772</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>92.5</v>
       </c>
     </row>
@@ -1182,14 +1254,14 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>35.732264553480377</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>36</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>92.5</v>
       </c>
     </row>
@@ -1197,14 +1269,14 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>55.340778931397217</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>55</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>92.5</v>
       </c>
     </row>
@@ -1212,14 +1284,14 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>85.709703849023938</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>85</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>92.5</v>
       </c>
     </row>
@@ -1227,14 +1299,14 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>132.7439453462336</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>130</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>92.5</v>
       </c>
     </row>
@@ -1242,14 +1314,14 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>205.58879840633722</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>200</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>92.5</v>
       </c>
     </row>
@@ -1257,14 +1329,14 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>318.40814976470659</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>320</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>946.75</v>
       </c>
     </row>
@@ -1272,14 +1344,14 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>493.13849111663814</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>500</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>946.75</v>
       </c>
     </row>
@@ -1287,14 +1359,14 @@
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>763.75423053869986</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>750</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>946.75</v>
       </c>
     </row>
@@ -1302,14 +1374,14 @@
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>1182.8736453829017</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1200</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>946.75</v>
       </c>
     </row>
@@ -1317,14 +1389,14 @@
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>1831.989932094441</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1800</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>946.75</v>
       </c>
     </row>
@@ -1332,14 +1404,14 @@
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>2837.3166689405625</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>2800</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>946.75</v>
       </c>
     </row>
@@ -1347,14 +1419,14 @@
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>4394.3286689596089</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>4400</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1362,14 +1434,14 @@
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>6805.7699241764976</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>6800</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1377,14 +1449,14 @@
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>10540.518871063789</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>10500</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1392,14 +1464,14 @@
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>16324.756685731661</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>16000</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1407,14 +1479,14 @@
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>25283.165288944179</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>25000</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1422,14 +1494,14 @@
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>39157.609472169628</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>40000</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1437,14 +1509,14 @@
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>60645.823497639387</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>60000</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1452,14 +1524,14 @@
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>93925.956085772239</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>95000</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1467,14 +1539,14 @@
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>145468.96583851028</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>150000</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1482,14 +1554,14 @@
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>225296.82852311266</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>225000</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1497,14 +1569,14 @@
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>348931.20089216641</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>350000</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1512,14 +1584,14 @@
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>540411.4374542064</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>540000</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1527,14 +1599,14 @@
       <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>836968.78062095551</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>840000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1542,14 +1614,14 @@
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>1296265.5694967383</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>1000000</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>8470</v>
       </c>
     </row>
@@ -1565,949 +1637,3469 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD8D082-213D-4692-B6C5-868C3C1BDB24}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AD160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="9"/>
-    <col min="16" max="16" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="9"/>
-    <col min="21" max="21" width="10.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="9"/>
-    <col min="24" max="24" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="9" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="9"/>
-    <col min="27" max="27" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="9"/>
-    <col min="30" max="30" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="11.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="8"/>
+    <col min="16" max="16" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="8"/>
+    <col min="21" max="21" width="10.7109375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="8"/>
+    <col min="24" max="24" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="8"/>
+    <col min="27" max="27" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="8"/>
+    <col min="30" max="30" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
     </row>
     <row r="2" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-    </row>
-    <row r="3" spans="1:30" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+    </row>
+    <row r="3" spans="1:30" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="65">
-        <v>3</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="21">
+        <v>3</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-    </row>
-    <row r="4" spans="1:30" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+    </row>
+    <row r="4" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="66">
+      <c r="A5" s="43">
         <f>C3+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="31">
         <f>((B5-A5+1)*0.05)</f>
         <v>0.1</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="18">
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="19">
         <f>D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="66">
+      <c r="A6" s="43">
         <f>B5+1</f>
         <v>6</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="8">
         <v>11</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="31">
         <f t="shared" ref="C6:C9" si="0">((B6-A6+1)*0.05)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="D6" s="24">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>0.5</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="19">
         <f t="shared" ref="F6:F9" si="1">D6*E6</f>
         <v>0.5</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+      <c r="A7" s="43">
         <f t="shared" ref="A7:A9" si="2">B6+1</f>
         <v>12</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="8">
         <v>16</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="31">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="D7" s="24">
-        <v>2</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.5</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+      <c r="A8" s="43">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="8">
         <v>20</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="31">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="D8" s="24">
-        <v>3</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="D8" s="18">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8">
         <v>0.5</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="19">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
+      <c r="A9" s="43">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="44">
         <f>20+C3</f>
         <v>23</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="31">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="D9" s="27">
-        <v>2</v>
-      </c>
-      <c r="E9" s="37">
-        <v>1</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="47">
+      <c r="B10" s="55"/>
+      <c r="C10" s="33">
         <f>'Individual Treasure'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="48">
+      <c r="E10" s="57"/>
+      <c r="F10" s="34">
         <f>SUMPRODUCT(C5:C9,F5:F9)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="14"/>
+      <c r="G10" s="18"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="13"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="13"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="65">
-        <v>3</v>
-      </c>
-      <c r="D13" s="60" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="21">
+        <v>3</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
     </row>
     <row r="14" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="66">
+      <c r="A15" s="43">
         <f>C13+1</f>
         <v>4</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="8">
         <v>5</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="31">
         <f>((B15-A15+1)*0.05)</f>
         <v>0.1</v>
       </c>
-      <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
         <v>0.5</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="19">
         <f>D15*E15</f>
         <v>0.5</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="66">
+      <c r="A16" s="43">
         <f>B15+1</f>
         <v>6</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="8">
         <v>8</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="31">
         <f t="shared" ref="C16:C19" si="3">((B16-A16+1)*0.05)</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="D16" s="24">
-        <v>2</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8">
         <v>0.5</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="19">
         <f t="shared" ref="F16:F19" si="4">D16*E16</f>
         <v>1</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="66">
+      <c r="A17" s="43">
         <f t="shared" ref="A17:A19" si="5">B16+1</f>
         <v>9</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="31">
         <f t="shared" si="3"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="D17" s="24">
-        <v>3</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="18">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8">
         <v>0.5</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="19">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
+      <c r="A18" s="43">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="8">
         <v>20</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="31">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="D18" s="24">
-        <v>2</v>
-      </c>
-      <c r="E18" s="25">
-        <v>1</v>
-      </c>
-      <c r="F18" s="26">
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="66">
+      <c r="A19" s="43">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="44">
         <f>20+C13</f>
         <v>23</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="31">
         <f t="shared" si="3"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="D19" s="27">
-        <v>3</v>
-      </c>
-      <c r="E19" s="37">
-        <v>1</v>
-      </c>
-      <c r="F19" s="30">
+      <c r="D19" s="20">
+        <v>3</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="47">
+      <c r="B20" s="55"/>
+      <c r="C20" s="33">
         <f>'Individual Treasure'!B4</f>
         <v>1.6717350674697367</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="48">
+      <c r="E20" s="57"/>
+      <c r="F20" s="34">
         <f>SUMPRODUCT(C15:C19,F15:F19)</f>
         <v>1.6750000000000003</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="65">
-        <v>3</v>
-      </c>
-      <c r="D23" s="60" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="21">
+        <v>3</v>
+      </c>
+      <c r="D23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="21">
+        <v>3</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="17" t="s">
         <v>44</v>
       </c>
+      <c r="G24" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
+      <c r="A25" s="43">
         <f>C23+1</f>
         <v>4</v>
       </c>
-      <c r="B25" s="25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="41">
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25" s="31">
         <f>((B25-A25+1)*0.05)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="24">
-        <v>1</v>
-      </c>
-      <c r="E25" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
         <v>0.5</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="19">
         <f>D25*E25</f>
         <v>0.5</v>
       </c>
+      <c r="G25" s="43">
+        <f>I23+1</f>
+        <v>4</v>
+      </c>
+      <c r="H25" s="8">
+        <v>6</v>
+      </c>
+      <c r="I25" s="31">
+        <f>((H25-G25+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J25" s="18">
+        <v>2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="19">
+        <f>J25*K25</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="66">
+      <c r="A26" s="43">
         <f>B25+1</f>
+        <v>5</v>
+      </c>
+      <c r="B26" s="8">
         <v>6</v>
       </c>
-      <c r="B26" s="25">
-        <v>8</v>
-      </c>
-      <c r="C26" s="41">
+      <c r="C26" s="31">
         <f t="shared" ref="C26:C29" si="6">((B26-A26+1)*0.05)</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="D26" s="24">
-        <v>2</v>
-      </c>
-      <c r="E26" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8">
         <v>0.5</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="19">
         <f t="shared" ref="F26:F29" si="7">D26*E26</f>
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="43">
+        <f>H25+1</f>
+        <v>7</v>
+      </c>
+      <c r="H26" s="8">
+        <v>10</v>
+      </c>
+      <c r="I26" s="31">
+        <f t="shared" ref="I26:I29" si="8">((H26-G26+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" ref="L26:L29" si="9">J26*K26</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="66">
-        <f t="shared" ref="A27:A29" si="8">B26+1</f>
-        <v>9</v>
-      </c>
-      <c r="B27" s="25">
+      <c r="A27" s="43">
+        <f t="shared" ref="A27:A29" si="10">B26+1</f>
+        <v>7</v>
+      </c>
+      <c r="B27" s="8">
+        <v>12</v>
+      </c>
+      <c r="C27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="43">
+        <f t="shared" ref="G27:G29" si="11">H26+1</f>
+        <v>11</v>
+      </c>
+      <c r="H27" s="8">
+        <v>14</v>
+      </c>
+      <c r="I27" s="31">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>2</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="B28" s="8">
+        <v>20</v>
+      </c>
+      <c r="C28" s="31">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="D28" s="18">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="43">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="C27" s="41">
-        <f t="shared" si="6"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="D27" s="24">
-        <v>3</v>
-      </c>
-      <c r="E27" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="26">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="66">
+      <c r="H28" s="8">
+        <v>18</v>
+      </c>
+      <c r="I28" s="31">
         <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="B28" s="25">
-        <v>20</v>
-      </c>
-      <c r="C28" s="41">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="D28" s="24">
-        <v>2</v>
-      </c>
-      <c r="E28" s="25">
-        <v>1</v>
-      </c>
-      <c r="F28" s="26">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="J28" s="18">
+        <v>2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2</v>
+      </c>
+      <c r="L28" s="19">
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="66">
-        <f t="shared" si="8"/>
+      <c r="A29" s="43">
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="44">
         <f>20+C23</f>
         <v>23</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="31">
         <f t="shared" si="6"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="D29" s="27">
-        <v>3</v>
-      </c>
-      <c r="E29" s="37">
-        <v>1</v>
-      </c>
-      <c r="F29" s="30">
+      <c r="D29" s="20">
+        <v>2</v>
+      </c>
+      <c r="E29" s="28">
+        <v>2</v>
+      </c>
+      <c r="F29" s="22">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G29" s="43">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="H29" s="44">
+        <f>20+I23</f>
+        <v>23</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="J29" s="20">
+        <v>2</v>
+      </c>
+      <c r="K29" s="28">
+        <v>2</v>
+      </c>
+      <c r="L29" s="22">
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="47">
+      <c r="B30" s="55"/>
+      <c r="C30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="48">
+      <c r="E30" s="57"/>
+      <c r="F30" s="34">
         <f>SUMPRODUCT(C25:C29,F25:F29)</f>
-        <v>1.6750000000000003</v>
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="55"/>
+      <c r="I30" s="33">
+        <f>'Individual Treasure'!B5</f>
+        <v>2.5891199999999999</v>
+      </c>
+      <c r="J30" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="57"/>
+      <c r="L30" s="34">
+        <f>SUMPRODUCT(I25:I29,L25:L29)</f>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="21">
+        <v>3</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="43">
+        <f>C33+1</f>
+        <v>4</v>
+      </c>
+      <c r="B35" s="8">
+        <v>5</v>
+      </c>
+      <c r="C35" s="31">
+        <f>((B35-A35+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="19">
+        <f>D35*E35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
+        <f>B35+1</f>
+        <v>6</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9</v>
+      </c>
+      <c r="C36" s="31">
+        <f t="shared" ref="C36:C39" si="12">((B36-A36+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" ref="F36:F39" si="13">D36*E36</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
+        <f t="shared" ref="A37:A39" si="14">B36+1</f>
+        <v>10</v>
+      </c>
+      <c r="B37" s="8">
+        <v>16</v>
+      </c>
+      <c r="C37" s="31">
+        <f t="shared" si="12"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D37" s="18">
+        <v>3</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="B38" s="8">
+        <v>20</v>
+      </c>
+      <c r="C38" s="31">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="18">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>5</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="43">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="B39" s="44">
+        <f>20+C33</f>
+        <v>23</v>
+      </c>
+      <c r="C39" s="31">
+        <f t="shared" si="12"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D39" s="20">
+        <v>1</v>
+      </c>
+      <c r="E39" s="28">
+        <v>10</v>
+      </c>
+      <c r="F39" s="22">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="33">
+        <f>'Individual Treasure'!B6</f>
+        <v>4.0099310619512103</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="57"/>
+      <c r="F40" s="34">
+        <f>SUMPRODUCT(C35:C39,F35:F39)</f>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+    </row>
+    <row r="42" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+    </row>
+    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="21">
+        <v>3</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="53"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <f>C43+1</f>
+        <v>4</v>
+      </c>
+      <c r="B45" s="8">
+        <v>4</v>
+      </c>
+      <c r="C45" s="31">
+        <f>((B45-A45+1)*0.05)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D45" s="18">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="19">
+        <f>D45*E45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <f>B45+1</f>
+        <v>5</v>
+      </c>
+      <c r="B46" s="8">
+        <v>6</v>
+      </c>
+      <c r="C46" s="31">
+        <f t="shared" ref="C46:C49" si="15">((B46-A46+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" ref="F46:F49" si="16">D46*E46</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
+        <f t="shared" ref="A47:A49" si="17">B46+1</f>
+        <v>7</v>
+      </c>
+      <c r="B47" s="8">
+        <v>10</v>
+      </c>
+      <c r="C47" s="31">
+        <f t="shared" si="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="D47" s="18">
+        <v>3</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2</v>
+      </c>
+      <c r="F47" s="19">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="B48" s="8">
+        <v>17</v>
+      </c>
+      <c r="C48" s="31">
+        <f t="shared" si="15"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D48" s="18">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
+        <v>5</v>
+      </c>
+      <c r="F48" s="19">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="43">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="B49" s="44">
+        <f>20+C43</f>
+        <v>23</v>
+      </c>
+      <c r="C49" s="31">
+        <f t="shared" si="15"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D49" s="20">
+        <v>1</v>
+      </c>
+      <c r="E49" s="28">
+        <v>10</v>
+      </c>
+      <c r="F49" s="22">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="33">
+        <f>'Individual Treasure'!B7</f>
+        <v>6.2104294592761873</v>
+      </c>
+      <c r="D50" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="57"/>
+      <c r="F50" s="34">
+        <f>SUMPRODUCT(C45:C49,F45:F49)</f>
+        <v>6.2000000000000011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+    </row>
+    <row r="52" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A52" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+    </row>
+    <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="50"/>
+      <c r="C53" s="21">
+        <v>3</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="53"/>
+    </row>
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
+        <f>C53+1</f>
+        <v>4</v>
+      </c>
+      <c r="B55" s="8">
+        <v>4</v>
+      </c>
+      <c r="C55" s="31">
+        <f>((B55-A55+1)*0.05)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1</v>
+      </c>
+      <c r="F55" s="19">
+        <f>D55*E55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <f>B55+1</f>
+        <v>5</v>
+      </c>
+      <c r="B56" s="8">
+        <v>6</v>
+      </c>
+      <c r="C56" s="31">
+        <f t="shared" ref="C56:C59" si="18">((B56-A56+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D56" s="18">
+        <v>3</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19">
+        <f t="shared" ref="F56:F59" si="19">D56*E56</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
+        <f t="shared" ref="A57:A59" si="20">B56+1</f>
+        <v>7</v>
+      </c>
+      <c r="B57" s="8">
+        <v>15</v>
+      </c>
+      <c r="C57" s="31">
+        <f t="shared" si="18"/>
+        <v>0.45</v>
+      </c>
+      <c r="D57" s="18">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8">
+        <v>5</v>
+      </c>
+      <c r="F57" s="19">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="B58" s="8">
+        <v>17</v>
+      </c>
+      <c r="C58" s="31">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="D58" s="18">
+        <v>2</v>
+      </c>
+      <c r="E58" s="8">
+        <v>5</v>
+      </c>
+      <c r="F58" s="19">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="43">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="B59" s="44">
+        <f>20+C53</f>
+        <v>23</v>
+      </c>
+      <c r="C59" s="31">
+        <f t="shared" si="18"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D59" s="20">
+        <v>2</v>
+      </c>
+      <c r="E59" s="28">
+        <v>10</v>
+      </c>
+      <c r="F59" s="22">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="55"/>
+      <c r="C60" s="33">
+        <f>'Individual Treasure'!B8</f>
+        <v>9.6184780917100969</v>
+      </c>
+      <c r="D60" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="57"/>
+      <c r="F60" s="34">
+        <f>SUMPRODUCT(C55:C59,F55:F59)</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+    </row>
+    <row r="62" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A62" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="48"/>
+    </row>
+    <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="50"/>
+      <c r="C63" s="21">
+        <v>3</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="52"/>
+      <c r="F63" s="53"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="43">
+        <f>C63+1</f>
+        <v>4</v>
+      </c>
+      <c r="B65" s="8">
+        <v>5</v>
+      </c>
+      <c r="C65" s="31">
+        <f>((B65-A65+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D65" s="18">
+        <v>2</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1</v>
+      </c>
+      <c r="F65" s="19">
+        <f>D65*E65</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="43">
+        <f>B65+1</f>
+        <v>6</v>
+      </c>
+      <c r="B66" s="8">
+        <v>8</v>
+      </c>
+      <c r="C66" s="31">
+        <f t="shared" ref="C66:C69" si="21">((B66-A66+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D66" s="18">
+        <v>3</v>
+      </c>
+      <c r="E66" s="8">
+        <v>1</v>
+      </c>
+      <c r="F66" s="19">
+        <f t="shared" ref="F66:F69" si="22">D66*E66</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="43">
+        <f t="shared" ref="A67:A69" si="23">B66+1</f>
+        <v>9</v>
+      </c>
+      <c r="B67" s="8">
+        <v>15</v>
+      </c>
+      <c r="C67" s="31">
+        <f t="shared" si="21"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D67" s="18">
+        <v>3</v>
+      </c>
+      <c r="E67" s="8">
+        <v>5</v>
+      </c>
+      <c r="F67" s="19">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="43">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="B68" s="8">
+        <v>21</v>
+      </c>
+      <c r="C68" s="31">
+        <f t="shared" si="21"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D68" s="18">
+        <v>2</v>
+      </c>
+      <c r="E68" s="8">
+        <v>10</v>
+      </c>
+      <c r="F68" s="19">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="43">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="B69" s="44">
+        <f>20+C63</f>
+        <v>23</v>
+      </c>
+      <c r="C69" s="31">
+        <f t="shared" si="21"/>
+        <v>0.1</v>
+      </c>
+      <c r="D69" s="20">
+        <v>3</v>
+      </c>
+      <c r="E69" s="28">
+        <v>10</v>
+      </c>
+      <c r="F69" s="22">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="55"/>
+      <c r="C70" s="33">
+        <f>'Individual Treasure'!B9</f>
+        <v>14.89673482443669</v>
+      </c>
+      <c r="D70" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="57"/>
+      <c r="F70" s="34">
+        <f>SUMPRODUCT(C65:C69,F65:F69)</f>
+        <v>14.900000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+    </row>
+    <row r="72" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A72" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="48"/>
+    </row>
+    <row r="73" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="50"/>
+      <c r="C73" s="21">
+        <v>5</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="52"/>
+      <c r="F73" s="53"/>
+    </row>
+    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="43">
+        <f>C73+1</f>
+        <v>6</v>
+      </c>
+      <c r="B75" s="8">
+        <v>7</v>
+      </c>
+      <c r="C75" s="31">
+        <f>((B75-A75+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D75" s="18">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8">
+        <v>5</v>
+      </c>
+      <c r="F75" s="19">
+        <f>D75*E75</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="43">
+        <f>B75+1</f>
+        <v>8</v>
+      </c>
+      <c r="B76" s="8">
+        <v>10</v>
+      </c>
+      <c r="C76" s="31">
+        <f t="shared" ref="C76:C79" si="24">((B76-A76+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D76" s="18">
+        <v>2</v>
+      </c>
+      <c r="E76" s="8">
+        <v>5</v>
+      </c>
+      <c r="F76" s="19">
+        <f t="shared" ref="F76:F79" si="25">D76*E76</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="43">
+        <f t="shared" ref="A77:A79" si="26">B76+1</f>
+        <v>11</v>
+      </c>
+      <c r="B77" s="8">
+        <v>16</v>
+      </c>
+      <c r="C77" s="31">
+        <f t="shared" si="24"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D77" s="18">
+        <v>2</v>
+      </c>
+      <c r="E77" s="8">
+        <v>10</v>
+      </c>
+      <c r="F77" s="19">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="43">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="B78" s="8">
+        <v>22</v>
+      </c>
+      <c r="C78" s="31">
+        <f t="shared" si="24"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D78" s="18">
+        <v>3</v>
+      </c>
+      <c r="E78" s="8">
+        <v>10</v>
+      </c>
+      <c r="F78" s="19">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="43">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="B79" s="44">
+        <f>20+C73</f>
+        <v>25</v>
+      </c>
+      <c r="C79" s="31">
+        <f t="shared" si="24"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D79" s="20">
+        <v>2</v>
+      </c>
+      <c r="E79" s="28">
+        <v>20</v>
+      </c>
+      <c r="F79" s="22">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="55"/>
+      <c r="C80" s="33">
+        <f>'Individual Treasure'!B10</f>
+        <v>23.071499078512772</v>
+      </c>
+      <c r="D80" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="57"/>
+      <c r="F80" s="34">
+        <f>SUMPRODUCT(C75:C79,F75:F79)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+    </row>
+    <row r="82" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A82" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="48"/>
+    </row>
+    <row r="83" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="50"/>
+      <c r="C83" s="21">
+        <v>5</v>
+      </c>
+      <c r="D83" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="52"/>
+      <c r="F83" s="53"/>
+    </row>
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="43">
+        <f>C83+1</f>
+        <v>6</v>
+      </c>
+      <c r="B85" s="8">
+        <v>7</v>
+      </c>
+      <c r="C85" s="31">
+        <f>((B85-A85+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D85" s="18">
+        <v>3</v>
+      </c>
+      <c r="E85" s="8">
+        <v>5</v>
+      </c>
+      <c r="F85" s="19">
+        <f>D85*E85</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="43">
+        <f>B85+1</f>
+        <v>8</v>
+      </c>
+      <c r="B86" s="8">
+        <v>10</v>
+      </c>
+      <c r="C86" s="31">
+        <f t="shared" ref="C86:C89" si="27">((B86-A86+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D86" s="18">
+        <v>2</v>
+      </c>
+      <c r="E86" s="8">
+        <v>10</v>
+      </c>
+      <c r="F86" s="19">
+        <f t="shared" ref="F86:F89" si="28">D86*E86</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="43">
+        <f t="shared" ref="A87:A89" si="29">B86+1</f>
+        <v>11</v>
+      </c>
+      <c r="B87" s="8">
+        <v>17</v>
+      </c>
+      <c r="C87" s="31">
+        <f t="shared" si="27"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D87" s="18">
+        <v>3</v>
+      </c>
+      <c r="E87" s="8">
+        <v>10</v>
+      </c>
+      <c r="F87" s="19">
+        <f t="shared" si="28"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="43">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="B88" s="8">
+        <v>21</v>
+      </c>
+      <c r="C88" s="31">
+        <f t="shared" si="27"/>
+        <v>0.2</v>
+      </c>
+      <c r="D88" s="18">
+        <v>2</v>
+      </c>
+      <c r="E88" s="8">
+        <v>20</v>
+      </c>
+      <c r="F88" s="19">
+        <f t="shared" si="28"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="43">
+        <f t="shared" si="29"/>
+        <v>22</v>
+      </c>
+      <c r="B89" s="44">
+        <f>20+C83</f>
+        <v>25</v>
+      </c>
+      <c r="C89" s="31">
+        <f t="shared" si="27"/>
+        <v>0.2</v>
+      </c>
+      <c r="D89" s="20">
+        <v>3</v>
+      </c>
+      <c r="E89" s="28">
+        <v>20</v>
+      </c>
+      <c r="F89" s="22">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="55"/>
+      <c r="C90" s="33">
+        <f>'Individual Treasure'!B11</f>
+        <v>35.732264553480377</v>
+      </c>
+      <c r="D90" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="57"/>
+      <c r="F90" s="34">
+        <f>SUMPRODUCT(C85:C89,F85:F89)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+    </row>
+    <row r="92" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A92" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="48"/>
+    </row>
+    <row r="93" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" s="50"/>
+      <c r="C93" s="21">
+        <v>5</v>
+      </c>
+      <c r="D93" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="52"/>
+      <c r="F93" s="53"/>
+    </row>
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="43">
+        <f>C93+1</f>
+        <v>6</v>
+      </c>
+      <c r="B95" s="8">
+        <v>8</v>
+      </c>
+      <c r="C95" s="31">
+        <f>((B95-A95+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D95" s="18">
+        <v>3</v>
+      </c>
+      <c r="E95" s="8">
+        <v>5</v>
+      </c>
+      <c r="F95" s="19">
+        <f>D95*E95</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="43">
+        <f>B95+1</f>
+        <v>9</v>
+      </c>
+      <c r="B96" s="8">
+        <v>15</v>
+      </c>
+      <c r="C96" s="31">
+        <f t="shared" ref="C96:C99" si="30">((B96-A96+1)*0.05)</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D96" s="18">
+        <v>3</v>
+      </c>
+      <c r="E96" s="8">
+        <v>10</v>
+      </c>
+      <c r="F96" s="19">
+        <f t="shared" ref="F96:F99" si="31">D96*E96</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="43">
+        <f t="shared" ref="A97:A99" si="32">B96+1</f>
+        <v>16</v>
+      </c>
+      <c r="B97" s="8">
+        <v>20</v>
+      </c>
+      <c r="C97" s="31">
+        <f t="shared" si="30"/>
+        <v>0.25</v>
+      </c>
+      <c r="D97" s="18">
+        <v>1</v>
+      </c>
+      <c r="E97" s="8">
+        <v>50</v>
+      </c>
+      <c r="F97" s="19">
+        <f t="shared" si="31"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="43">
+        <f t="shared" si="32"/>
+        <v>21</v>
+      </c>
+      <c r="B98" s="8">
+        <v>24</v>
+      </c>
+      <c r="C98" s="31">
+        <f t="shared" si="30"/>
+        <v>0.2</v>
+      </c>
+      <c r="D98" s="18">
+        <v>1</v>
+      </c>
+      <c r="E98" s="8">
+        <v>100</v>
+      </c>
+      <c r="F98" s="19">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="43">
+        <f t="shared" si="32"/>
+        <v>25</v>
+      </c>
+      <c r="B99" s="44">
+        <f>20+C93</f>
+        <v>25</v>
+      </c>
+      <c r="C99" s="31">
+        <f t="shared" si="30"/>
+        <v>0.05</v>
+      </c>
+      <c r="D99" s="20">
+        <v>2</v>
+      </c>
+      <c r="E99" s="28">
+        <v>100</v>
+      </c>
+      <c r="F99" s="22">
+        <f t="shared" si="31"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="55"/>
+      <c r="C100" s="33">
+        <f>'Individual Treasure'!B12</f>
+        <v>55.340778931397217</v>
+      </c>
+      <c r="D100" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="57"/>
+      <c r="F100" s="34">
+        <f>SUMPRODUCT(C95:C99,F95:F99)</f>
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+    </row>
+    <row r="102" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A102" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="48"/>
+    </row>
+    <row r="103" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="50"/>
+      <c r="C103" s="21">
+        <v>5</v>
+      </c>
+      <c r="D103" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="52"/>
+      <c r="F103" s="53"/>
+    </row>
+    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="43">
+        <f>C103+1</f>
+        <v>6</v>
+      </c>
+      <c r="B105" s="8">
+        <v>7</v>
+      </c>
+      <c r="C105" s="31">
+        <f>((B105-A105+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D105" s="18">
+        <v>3</v>
+      </c>
+      <c r="E105" s="8">
+        <v>10</v>
+      </c>
+      <c r="F105" s="19">
+        <f>D105*E105</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="43">
+        <f>B105+1</f>
+        <v>8</v>
+      </c>
+      <c r="B106" s="8">
+        <v>12</v>
+      </c>
+      <c r="C106" s="31">
+        <f t="shared" ref="C106:C109" si="33">((B106-A106+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D106" s="18">
+        <v>2</v>
+      </c>
+      <c r="E106" s="8">
+        <v>20</v>
+      </c>
+      <c r="F106" s="19">
+        <f t="shared" ref="F106:F109" si="34">D106*E106</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="43">
+        <f t="shared" ref="A107:A109" si="35">B106+1</f>
+        <v>13</v>
+      </c>
+      <c r="B107" s="8">
+        <v>17</v>
+      </c>
+      <c r="C107" s="31">
+        <f t="shared" si="33"/>
+        <v>0.25</v>
+      </c>
+      <c r="D107" s="18">
+        <v>1</v>
+      </c>
+      <c r="E107" s="8">
+        <v>50</v>
+      </c>
+      <c r="F107" s="19">
+        <f t="shared" si="34"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="43">
+        <f t="shared" si="35"/>
+        <v>18</v>
+      </c>
+      <c r="B108" s="8">
+        <v>21</v>
+      </c>
+      <c r="C108" s="31">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+      <c r="D108" s="18">
+        <v>2</v>
+      </c>
+      <c r="E108" s="8">
+        <v>50</v>
+      </c>
+      <c r="F108" s="19">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="43">
+        <f t="shared" si="35"/>
+        <v>22</v>
+      </c>
+      <c r="B109" s="44">
+        <f>20+C103</f>
+        <v>25</v>
+      </c>
+      <c r="C109" s="31">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+      <c r="D109" s="20">
+        <v>2</v>
+      </c>
+      <c r="E109" s="28">
+        <v>100</v>
+      </c>
+      <c r="F109" s="22">
+        <f t="shared" si="34"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" s="55"/>
+      <c r="C110" s="33">
+        <f>'Individual Treasure'!B13</f>
+        <v>85.709703849023938</v>
+      </c>
+      <c r="D110" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" s="57"/>
+      <c r="F110" s="34">
+        <f>SUMPRODUCT(C105:C109,F105:F109)</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="46"/>
+    </row>
+    <row r="112" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A112" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="48"/>
+    </row>
+    <row r="113" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" s="50"/>
+      <c r="C113" s="21">
+        <v>5</v>
+      </c>
+      <c r="D113" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113" s="52"/>
+      <c r="F113" s="53"/>
+    </row>
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="43">
+        <f>C113+1</f>
+        <v>6</v>
+      </c>
+      <c r="B115" s="8">
+        <v>7</v>
+      </c>
+      <c r="C115" s="31">
+        <f>((B115-A115+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D115" s="18">
+        <v>3</v>
+      </c>
+      <c r="E115" s="8">
+        <v>10</v>
+      </c>
+      <c r="F115" s="19">
+        <f>D115*E115</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="43">
+        <f>B115+1</f>
+        <v>8</v>
+      </c>
+      <c r="B116" s="8">
+        <v>12</v>
+      </c>
+      <c r="C116" s="31">
+        <f t="shared" ref="C116:C119" si="36">((B116-A116+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D116" s="18">
+        <v>3</v>
+      </c>
+      <c r="E116" s="8">
+        <v>20</v>
+      </c>
+      <c r="F116" s="19">
+        <f t="shared" ref="F116:F119" si="37">D116*E116</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="43">
+        <f t="shared" ref="A117:A119" si="38">B116+1</f>
+        <v>13</v>
+      </c>
+      <c r="B117" s="8">
+        <v>17</v>
+      </c>
+      <c r="C117" s="31">
+        <f t="shared" si="36"/>
+        <v>0.25</v>
+      </c>
+      <c r="D117" s="18">
+        <v>2</v>
+      </c>
+      <c r="E117" s="8">
+        <v>50</v>
+      </c>
+      <c r="F117" s="19">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="43">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="B118" s="8">
+        <v>24</v>
+      </c>
+      <c r="C118" s="31">
+        <f t="shared" si="36"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D118" s="18">
+        <v>2</v>
+      </c>
+      <c r="E118" s="8">
+        <v>100</v>
+      </c>
+      <c r="F118" s="19">
+        <f t="shared" si="37"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="43">
+        <f t="shared" si="38"/>
+        <v>25</v>
+      </c>
+      <c r="B119" s="44">
+        <f>20+C113</f>
+        <v>25</v>
+      </c>
+      <c r="C119" s="31">
+        <f t="shared" si="36"/>
+        <v>0.05</v>
+      </c>
+      <c r="D119" s="20">
+        <v>2</v>
+      </c>
+      <c r="E119" s="28">
+        <v>200</v>
+      </c>
+      <c r="F119" s="22">
+        <f t="shared" si="37"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" s="55"/>
+      <c r="C120" s="33">
+        <f>'Individual Treasure'!B14</f>
+        <v>132.7439453462336</v>
+      </c>
+      <c r="D120" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="57"/>
+      <c r="F120" s="34">
+        <f>SUMPRODUCT(C115:C119,F115:F119)</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="46"/>
+      <c r="L121" s="46"/>
+    </row>
+    <row r="122" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A122" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="48"/>
+    </row>
+    <row r="123" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" s="50"/>
+      <c r="C123" s="21">
+        <v>5</v>
+      </c>
+      <c r="D123" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="52"/>
+      <c r="F123" s="53"/>
+    </row>
+    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="43">
+        <f>C123+1</f>
+        <v>6</v>
+      </c>
+      <c r="B125" s="8">
+        <v>7</v>
+      </c>
+      <c r="C125" s="31">
+        <f>((B125-A125+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D125" s="18">
+        <v>1</v>
+      </c>
+      <c r="E125" s="8">
+        <v>50</v>
+      </c>
+      <c r="F125" s="19">
+        <f>D125*E125</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="43">
+        <f>B125+1</f>
+        <v>8</v>
+      </c>
+      <c r="B126" s="8">
+        <v>9</v>
+      </c>
+      <c r="C126" s="31">
+        <f t="shared" ref="C126:C129" si="39">((B126-A126+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D126" s="18">
+        <v>2</v>
+      </c>
+      <c r="E126" s="8">
+        <v>50</v>
+      </c>
+      <c r="F126" s="19">
+        <f t="shared" ref="F126:F129" si="40">D126*E126</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="43">
+        <f t="shared" ref="A127:A129" si="41">B126+1</f>
+        <v>10</v>
+      </c>
+      <c r="B127" s="8">
+        <v>13</v>
+      </c>
+      <c r="C127" s="31">
+        <f t="shared" si="39"/>
+        <v>0.2</v>
+      </c>
+      <c r="D127" s="18">
+        <v>3</v>
+      </c>
+      <c r="E127" s="8">
+        <v>50</v>
+      </c>
+      <c r="F127" s="19">
+        <f t="shared" si="40"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="43">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="B128" s="8">
+        <v>21</v>
+      </c>
+      <c r="C128" s="31">
+        <f t="shared" si="39"/>
+        <v>0.4</v>
+      </c>
+      <c r="D128" s="18">
+        <v>2</v>
+      </c>
+      <c r="E128" s="8">
+        <v>100</v>
+      </c>
+      <c r="F128" s="19">
+        <f t="shared" si="40"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="43">
+        <f t="shared" si="41"/>
+        <v>22</v>
+      </c>
+      <c r="B129" s="44">
+        <f>20+C123</f>
+        <v>25</v>
+      </c>
+      <c r="C129" s="31">
+        <f t="shared" si="39"/>
+        <v>0.2</v>
+      </c>
+      <c r="D129" s="20">
+        <v>2</v>
+      </c>
+      <c r="E129" s="28">
+        <v>200</v>
+      </c>
+      <c r="F129" s="22">
+        <f t="shared" si="40"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="55"/>
+      <c r="C130" s="33">
+        <f>'Individual Treasure'!B15</f>
+        <v>205.58879840633722</v>
+      </c>
+      <c r="D130" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E130" s="57"/>
+      <c r="F130" s="34">
+        <f>SUMPRODUCT(C125:C129,F125:F129)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B131" s="46"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="46"/>
+      <c r="I131" s="46"/>
+      <c r="J131" s="46"/>
+      <c r="K131" s="46"/>
+      <c r="L131" s="46"/>
+    </row>
+    <row r="132" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A132" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="48"/>
+    </row>
+    <row r="133" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" s="50"/>
+      <c r="C133" s="21">
+        <v>7</v>
+      </c>
+      <c r="D133" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" s="52"/>
+      <c r="F133" s="53"/>
+    </row>
+    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="43">
+        <f>C133+1</f>
+        <v>8</v>
+      </c>
+      <c r="B135" s="8">
+        <v>8</v>
+      </c>
+      <c r="C135" s="31">
+        <f>((B135-A135+1)*0.05)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D135" s="18">
+        <v>2</v>
+      </c>
+      <c r="E135" s="8">
+        <v>50</v>
+      </c>
+      <c r="F135" s="19">
+        <f>D135*E135</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="43">
+        <f>B135+1</f>
+        <v>9</v>
+      </c>
+      <c r="B136" s="8">
+        <v>11</v>
+      </c>
+      <c r="C136" s="31">
+        <f t="shared" ref="C136:C139" si="42">((B136-A136+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D136" s="18">
+        <v>3</v>
+      </c>
+      <c r="E136" s="8">
+        <v>50</v>
+      </c>
+      <c r="F136" s="19">
+        <f t="shared" ref="F136:F139" si="43">D136*E136</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="43">
+        <f t="shared" ref="A137:A139" si="44">B136+1</f>
+        <v>12</v>
+      </c>
+      <c r="B137" s="8">
+        <v>18</v>
+      </c>
+      <c r="C137" s="31">
+        <f t="shared" si="42"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D137" s="18">
+        <v>2</v>
+      </c>
+      <c r="E137" s="8">
+        <v>100</v>
+      </c>
+      <c r="F137" s="19">
+        <f t="shared" si="43"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="43">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="B138" s="8">
+        <v>23</v>
+      </c>
+      <c r="C138" s="31">
+        <f t="shared" si="42"/>
+        <v>0.25</v>
+      </c>
+      <c r="D138" s="18">
+        <v>2</v>
+      </c>
+      <c r="E138" s="8">
+        <v>200</v>
+      </c>
+      <c r="F138" s="19">
+        <f t="shared" si="43"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="43">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="B139" s="44">
+        <f>20+C133</f>
+        <v>27</v>
+      </c>
+      <c r="C139" s="31">
+        <f t="shared" si="42"/>
+        <v>0.2</v>
+      </c>
+      <c r="D139" s="20">
+        <v>3</v>
+      </c>
+      <c r="E139" s="28">
+        <v>200</v>
+      </c>
+      <c r="F139" s="22">
+        <f t="shared" si="43"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" s="55"/>
+      <c r="C140" s="33">
+        <f>'Individual Treasure'!B16</f>
+        <v>318.40814976470659</v>
+      </c>
+      <c r="D140" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E140" s="57"/>
+      <c r="F140" s="34">
+        <f>SUMPRODUCT(C135:C139,F135:F139)</f>
+        <v>317.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
+      <c r="I141" s="46"/>
+      <c r="J141" s="46"/>
+      <c r="K141" s="46"/>
+      <c r="L141" s="46"/>
+    </row>
+    <row r="142" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A142" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" s="47"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="48"/>
+    </row>
+    <row r="143" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" s="50"/>
+      <c r="C143" s="21">
+        <v>7</v>
+      </c>
+      <c r="D143" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E143" s="52"/>
+      <c r="F143" s="53"/>
+    </row>
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="43">
+        <f>C143+1</f>
+        <v>8</v>
+      </c>
+      <c r="B145" s="8">
+        <v>8</v>
+      </c>
+      <c r="C145" s="31">
+        <f>((B145-A145+1)*0.05)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D145" s="18">
+        <v>2</v>
+      </c>
+      <c r="E145" s="8">
+        <v>50</v>
+      </c>
+      <c r="F145" s="19">
+        <f>D145*E145</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="43">
+        <f>B145+1</f>
+        <v>9</v>
+      </c>
+      <c r="B146" s="8">
+        <v>14</v>
+      </c>
+      <c r="C146" s="31">
+        <f t="shared" ref="C146:C149" si="45">((B146-A146+1)*0.05)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D146" s="18">
+        <v>3</v>
+      </c>
+      <c r="E146" s="8">
+        <v>100</v>
+      </c>
+      <c r="F146" s="19">
+        <f t="shared" ref="F146:F149" si="46">D146*E146</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="43">
+        <f t="shared" ref="A147:A149" si="47">B146+1</f>
+        <v>15</v>
+      </c>
+      <c r="B147" s="8">
+        <v>19</v>
+      </c>
+      <c r="C147" s="31">
+        <f t="shared" si="45"/>
+        <v>0.25</v>
+      </c>
+      <c r="D147" s="18">
+        <v>2</v>
+      </c>
+      <c r="E147" s="8">
+        <v>200</v>
+      </c>
+      <c r="F147" s="19">
+        <f t="shared" si="46"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="43">
+        <f t="shared" si="47"/>
+        <v>20</v>
+      </c>
+      <c r="B148" s="8">
+        <v>23</v>
+      </c>
+      <c r="C148" s="31">
+        <f t="shared" si="45"/>
+        <v>0.2</v>
+      </c>
+      <c r="D148" s="18">
+        <v>1</v>
+      </c>
+      <c r="E148" s="8">
+        <v>500</v>
+      </c>
+      <c r="F148" s="19">
+        <f t="shared" si="46"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="43">
+        <f t="shared" si="47"/>
+        <v>24</v>
+      </c>
+      <c r="B149" s="44">
+        <f>20+C143</f>
+        <v>27</v>
+      </c>
+      <c r="C149" s="31">
+        <f t="shared" si="45"/>
+        <v>0.2</v>
+      </c>
+      <c r="D149" s="20">
+        <v>1</v>
+      </c>
+      <c r="E149" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F149" s="22">
+        <f t="shared" si="46"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B150" s="55"/>
+      <c r="C150" s="33">
+        <f>'Individual Treasure'!B17</f>
+        <v>493.13849111663814</v>
+      </c>
+      <c r="D150" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E150" s="57"/>
+      <c r="F150" s="34">
+        <f>SUMPRODUCT(C145:C149,F145:F149)</f>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" s="46"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="46"/>
+      <c r="J151" s="46"/>
+      <c r="K151" s="46"/>
+      <c r="L151" s="46"/>
+    </row>
+    <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A152" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B152" s="47"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="48"/>
+    </row>
+    <row r="153" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B153" s="50"/>
+      <c r="C153" s="21">
+        <v>7</v>
+      </c>
+      <c r="D153" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" s="52"/>
+      <c r="F153" s="53"/>
+    </row>
+    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="43">
+        <f>C153+1</f>
+        <v>8</v>
+      </c>
+      <c r="B155" s="8">
+        <v>8</v>
+      </c>
+      <c r="C155" s="31">
+        <f>((B155-A155+1)*0.05)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D155" s="18">
+        <v>2</v>
+      </c>
+      <c r="E155" s="8">
+        <v>100</v>
+      </c>
+      <c r="F155" s="19">
+        <f>D155*E155</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="43">
+        <f>B155+1</f>
+        <v>9</v>
+      </c>
+      <c r="B156" s="8">
+        <v>13</v>
+      </c>
+      <c r="C156" s="31">
+        <f t="shared" ref="C156:C159" si="48">((B156-A156+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D156" s="18">
+        <v>3</v>
+      </c>
+      <c r="E156" s="8">
+        <v>100</v>
+      </c>
+      <c r="F156" s="19">
+        <f t="shared" ref="F156:F159" si="49">D156*E156</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="43">
+        <f t="shared" ref="A157:A159" si="50">B156+1</f>
+        <v>14</v>
+      </c>
+      <c r="B157" s="8">
+        <v>18</v>
+      </c>
+      <c r="C157" s="31">
+        <f t="shared" si="48"/>
+        <v>0.25</v>
+      </c>
+      <c r="D157" s="18">
+        <v>1</v>
+      </c>
+      <c r="E157" s="8">
+        <v>500</v>
+      </c>
+      <c r="F157" s="19">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="43">
+        <f t="shared" si="50"/>
+        <v>19</v>
+      </c>
+      <c r="B158" s="8">
+        <v>25</v>
+      </c>
+      <c r="C158" s="31">
+        <f t="shared" si="48"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D158" s="18">
+        <v>1</v>
+      </c>
+      <c r="E158" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F158" s="19">
+        <f t="shared" si="49"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="43">
+        <f t="shared" si="50"/>
+        <v>26</v>
+      </c>
+      <c r="B159" s="44">
+        <f>20+C153</f>
+        <v>27</v>
+      </c>
+      <c r="C159" s="31">
+        <f t="shared" si="48"/>
+        <v>0.1</v>
+      </c>
+      <c r="D159" s="20">
+        <v>2</v>
+      </c>
+      <c r="E159" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F159" s="22">
+        <f t="shared" si="49"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160" s="55"/>
+      <c r="C160" s="33">
+        <f>'Individual Treasure'!B18</f>
+        <v>763.75423053869986</v>
+      </c>
+      <c r="D160" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" s="57"/>
+      <c r="F160" s="34">
+        <f>SUMPRODUCT(C155:C159,F155:F159)</f>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
+  <mergeCells count="101">
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A11:L11"/>
@@ -2520,6 +5112,84 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A91:L91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A131:L131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A121:L121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="A151:L151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="A141:L141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:E150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2536,901 +5206,896 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="9"/>
-    <col min="14" max="14" width="10.7109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="9"/>
-    <col min="17" max="17" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="9"/>
-    <col min="20" max="20" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="9" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="9"/>
-    <col min="23" max="23" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
+    <col min="14" max="14" width="10.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="8"/>
+    <col min="20" max="20" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="8"/>
+    <col min="23" max="23" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="18" t="s">
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:23" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+    </row>
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="18">
         <v>4</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="19">
         <v>5</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(C4*D4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="24">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>0.5</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(F4*G4)</f>
         <v>0.05</v>
       </c>
-      <c r="I4" s="24">
-        <v>2</v>
-      </c>
-      <c r="J4" s="25">
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
         <v>0.5</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(I4*J4)</f>
         <v>0.1</v>
       </c>
-      <c r="L4" s="24">
-        <v>2</v>
-      </c>
-      <c r="M4" s="25">
+      <c r="L4" s="18">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
         <v>0.5</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(L4*M4)</f>
         <v>0.1</v>
       </c>
-      <c r="O4" s="24">
-        <v>2</v>
-      </c>
-      <c r="P4" s="25">
+      <c r="O4" s="18">
+        <v>2</v>
+      </c>
+      <c r="P4" s="8">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(O4*P4)</f>
         <v>0.1</v>
       </c>
-      <c r="R4" s="24">
-        <v>1</v>
-      </c>
-      <c r="S4" s="25">
-        <v>1</v>
-      </c>
-      <c r="T4" s="26">
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1</v>
+      </c>
+      <c r="T4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(R4*S4)</f>
         <v>0.1</v>
       </c>
-      <c r="U4" s="24">
-        <v>1</v>
-      </c>
-      <c r="V4" s="25">
-        <v>1</v>
-      </c>
-      <c r="W4" s="26">
+      <c r="U4" s="18">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(U4*V4)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>6</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="19">
         <v>12</v>
       </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>0.5</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(C5*D5)</f>
         <v>0.17500000000000002</v>
       </c>
-      <c r="F5" s="24">
-        <v>2</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
         <v>0.5</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(F5*G5)</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="I5" s="24">
-        <v>3</v>
-      </c>
-      <c r="J5" s="25">
+      <c r="I5" s="18">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8">
         <v>0.5</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(I5*J5)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="L5" s="24">
-        <v>2</v>
-      </c>
-      <c r="M5" s="25">
-        <v>1</v>
-      </c>
-      <c r="N5" s="26">
+      <c r="L5" s="18">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(L5*M5)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="O5" s="24">
-        <v>2</v>
-      </c>
-      <c r="P5" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="26">
+      <c r="O5" s="18">
+        <v>2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(O5*P5)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="R5" s="24">
-        <v>1</v>
-      </c>
-      <c r="S5" s="25">
+      <c r="R5" s="18">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
         <v>5</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(R5*S5)</f>
         <v>1.7500000000000002</v>
       </c>
-      <c r="U5" s="24">
-        <v>2</v>
-      </c>
-      <c r="V5" s="25">
+      <c r="U5" s="18">
+        <v>2</v>
+      </c>
+      <c r="V5" s="8">
         <v>5</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(U5*V5)</f>
         <v>3.5000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>13</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="19">
         <v>16</v>
       </c>
-      <c r="C6" s="24">
-        <v>2</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.5</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(C6*D6)</f>
         <v>0.2</v>
       </c>
-      <c r="F6" s="24">
-        <v>3</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
         <v>0.5</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(F6*G6)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I6" s="24">
-        <v>2</v>
-      </c>
-      <c r="J6" s="25">
-        <v>1</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="I6" s="18">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(I6*J6)</f>
         <v>0.4</v>
       </c>
-      <c r="L6" s="24">
-        <v>3</v>
-      </c>
-      <c r="M6" s="25">
-        <v>1</v>
-      </c>
-      <c r="N6" s="26">
+      <c r="L6" s="18">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(L6*M6)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="O6" s="24">
-        <v>1</v>
-      </c>
-      <c r="P6" s="25">
+      <c r="O6" s="18">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
         <v>5</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(O6*P6)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="24">
-        <v>2</v>
-      </c>
-      <c r="S6" s="25">
+      <c r="R6" s="18">
+        <v>2</v>
+      </c>
+      <c r="S6" s="8">
         <v>5</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(R6*S6)</f>
         <v>2</v>
       </c>
-      <c r="U6" s="24">
-        <v>3</v>
-      </c>
-      <c r="V6" s="25">
+      <c r="U6" s="18">
+        <v>3</v>
+      </c>
+      <c r="V6" s="8">
         <v>5</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(U6*V6)</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>17</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="19">
         <v>20</v>
       </c>
-      <c r="C7" s="24">
-        <v>3</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
         <v>0.5</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(C7*D7)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F7" s="24">
-        <v>2</v>
-      </c>
-      <c r="G7" s="25">
-        <v>1</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(F7*G7)</f>
         <v>0.4</v>
       </c>
-      <c r="I7" s="24">
-        <v>3</v>
-      </c>
-      <c r="J7" s="25">
-        <v>1</v>
-      </c>
-      <c r="K7" s="26">
+      <c r="I7" s="18">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(I7*J7)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="L7" s="24">
-        <v>1</v>
-      </c>
-      <c r="M7" s="25">
+      <c r="L7" s="18">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
         <v>5</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(L7*M7)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="24">
-        <v>2</v>
-      </c>
-      <c r="P7" s="25">
+      <c r="O7" s="18">
+        <v>2</v>
+      </c>
+      <c r="P7" s="8">
         <v>5</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(O7*P7)</f>
         <v>2</v>
       </c>
-      <c r="R7" s="24">
-        <v>3</v>
-      </c>
-      <c r="S7" s="25">
+      <c r="R7" s="18">
+        <v>3</v>
+      </c>
+      <c r="S7" s="8">
         <v>5</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(R7*S7)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="24">
-        <v>2</v>
-      </c>
-      <c r="V7" s="25">
+      <c r="U7" s="18">
+        <v>2</v>
+      </c>
+      <c r="V7" s="8">
         <v>10</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(U7*V7)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>21</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="19">
         <v>23</v>
       </c>
-      <c r="C8" s="24">
-        <v>2</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(C8*D8)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F8" s="24">
-        <v>3</v>
-      </c>
-      <c r="G8" s="25">
-        <v>1</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(F8*G8)</f>
         <v>0.45000000000000007</v>
       </c>
-      <c r="I8" s="24">
-        <v>1</v>
-      </c>
-      <c r="J8" s="25">
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
         <v>5</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(I8*J8)</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="L8" s="24">
-        <v>2</v>
-      </c>
-      <c r="M8" s="25">
+      <c r="L8" s="18">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8">
         <v>5</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(L8*M8)</f>
         <v>1.5000000000000002</v>
       </c>
-      <c r="O8" s="24">
-        <v>3</v>
-      </c>
-      <c r="P8" s="25">
+      <c r="O8" s="18">
+        <v>3</v>
+      </c>
+      <c r="P8" s="8">
         <v>5</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(O8*P8)</f>
         <v>2.2500000000000004</v>
       </c>
-      <c r="R8" s="24">
-        <v>2</v>
-      </c>
-      <c r="S8" s="25">
+      <c r="R8" s="18">
+        <v>2</v>
+      </c>
+      <c r="S8" s="8">
         <v>10</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(R8*S8)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="U8" s="24">
-        <v>3</v>
-      </c>
-      <c r="V8" s="25">
+      <c r="U8" s="18">
+        <v>3</v>
+      </c>
+      <c r="V8" s="8">
         <v>10</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(U8*V8)</f>
         <v>4.5000000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="27">
         <f>'Individual Treasure'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>SUM(E4:E8)</f>
         <v>0.97500000000000009</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="27">
         <f>'Individual Treasure'!$C4</f>
         <v>1.7</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f>SUM(H4:H8)</f>
         <v>1.5500000000000003</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="27">
         <f>'Individual Treasure'!$C5</f>
         <v>2.6</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f>SUM(K4:K8)</f>
         <v>2.375</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="27">
         <f>'Individual Treasure'!$C6</f>
         <v>4</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <f>SUM(N4:N8)</f>
         <v>3.9000000000000004</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="27">
         <f>'Individual Treasure'!$C7</f>
         <v>6.2</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <f>SUM(Q4:Q8)</f>
         <v>6.0500000000000007</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="27">
         <f>'Individual Treasure'!$C8</f>
         <v>9.6</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <f>SUM(T4:T8)</f>
         <v>9.8500000000000014</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="27">
         <f>'Individual Treasure'!$C9</f>
         <v>15</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="10">
         <f>SUM(W4:W8)</f>
         <v>15.100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="24">
-        <v>3</v>
-      </c>
-      <c r="D14" s="25">
-        <v>1</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
         <f>(($B$14-$A$14+1)*0.05)*(C14*D14)</f>
         <v>0.75</v>
       </c>
-      <c r="F14" s="24">
-        <v>3</v>
-      </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19">
         <f>(($B$14-$A$14+1)*0.05)*(F14*G14)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="24">
-        <v>2</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="C15" s="18">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
         <v>5</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="19">
         <f>(($B$15-$A$15+1)*0.05)*(C15*D15)</f>
         <v>1.5000000000000002</v>
       </c>
-      <c r="F15" s="24">
-        <v>3</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="F15" s="18">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
         <v>5</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="19">
         <f>(($B$15-$A$15+1)*0.05)*(F15*G15)</f>
         <v>2.2500000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>15</v>
       </c>
-      <c r="C16" s="24">
-        <v>3</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
         <v>5</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="19">
         <f>(($B$16-$A$16+1)*0.05)*(C16*D16)</f>
         <v>1.5</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="18">
         <v>5</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="8">
         <v>5</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="19">
         <f>(($B$16-$A$16+1)*0.05)*(F16*G16)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>20</v>
       </c>
-      <c r="C17" s="24">
-        <v>3</v>
-      </c>
-      <c r="D17" s="25">
+      <c r="C17" s="18">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
         <v>10</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="19">
         <f>(($B$17-$A$17+1)*0.05)*(C17*D17)</f>
         <v>7.5</v>
       </c>
-      <c r="F17" s="24">
-        <v>3</v>
-      </c>
-      <c r="G17" s="25">
+      <c r="F17" s="18">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8">
         <v>10</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="19">
         <f>(($B$17-$A$17+1)*0.05)*(F17*G17)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>21</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>25</v>
       </c>
-      <c r="C18" s="24">
-        <v>1</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <v>50</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="19">
         <f>(($B$18-$A$18+1)*0.05)*(C18*D18)</f>
         <v>12.5</v>
       </c>
-      <c r="F18" s="24">
-        <v>2</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="19">
         <f>(($B$18-$A$18+1)*0.05)*(F18*G18)</f>
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>SUM(E14:E18)</f>
         <v>23.75</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <f>SUM(H14:H18)</f>
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A11:W11"/>
     <mergeCell ref="C12:E12"/>
@@ -3439,6 +6104,11 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3455,890 +6125,890 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="9"/>
-    <col min="14" max="14" width="10.7109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="9"/>
-    <col min="17" max="17" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="9"/>
-    <col min="20" max="20" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="9"/>
-    <col min="23" max="23" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="11.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
+    <col min="14" max="14" width="10.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="8"/>
+    <col min="20" max="20" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="8"/>
+    <col min="23" max="23" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="18" t="s">
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:23" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+    </row>
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="18">
         <v>4</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="19">
         <v>5</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(C4*D4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="24">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>0.5</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(F4*G4)</f>
         <v>0.05</v>
       </c>
-      <c r="I4" s="24">
-        <v>2</v>
-      </c>
-      <c r="J4" s="25">
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
         <v>0.5</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(I4*J4)</f>
         <v>0.1</v>
       </c>
-      <c r="L4" s="24">
-        <v>2</v>
-      </c>
-      <c r="M4" s="25">
+      <c r="L4" s="18">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
         <v>0.5</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(L4*M4)</f>
         <v>0.1</v>
       </c>
-      <c r="O4" s="24">
-        <v>2</v>
-      </c>
-      <c r="P4" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="26">
+      <c r="O4" s="18">
+        <v>2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(O4*P4)</f>
         <v>0.2</v>
       </c>
-      <c r="R4" s="24">
-        <v>1</v>
-      </c>
-      <c r="S4" s="25">
-        <v>1</v>
-      </c>
-      <c r="T4" s="26">
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1</v>
+      </c>
+      <c r="T4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(R4*S4)</f>
         <v>0.1</v>
       </c>
-      <c r="U4" s="24">
-        <v>1</v>
-      </c>
-      <c r="V4" s="25">
-        <v>1</v>
-      </c>
-      <c r="W4" s="26">
+      <c r="U4" s="18">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(U4*V4)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>6</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="19">
         <v>12</v>
       </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>0.5</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(C5*D5)</f>
         <v>0.17500000000000002</v>
       </c>
-      <c r="F5" s="24">
-        <v>2</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
         <v>0.5</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(F5*G5)</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="I5" s="24">
-        <v>3</v>
-      </c>
-      <c r="J5" s="25">
+      <c r="I5" s="18">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8">
         <v>0.5</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(I5*J5)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="L5" s="24">
-        <v>2</v>
-      </c>
-      <c r="M5" s="25">
-        <v>1</v>
-      </c>
-      <c r="N5" s="26">
+      <c r="L5" s="18">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(L5*M5)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="O5" s="24">
-        <v>3</v>
-      </c>
-      <c r="P5" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="26">
+      <c r="O5" s="18">
+        <v>3</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(O5*P5)</f>
         <v>1.05</v>
       </c>
-      <c r="R5" s="24">
-        <v>1</v>
-      </c>
-      <c r="S5" s="25">
+      <c r="R5" s="18">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
         <v>5</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(R5*S5)</f>
         <v>1.7500000000000002</v>
       </c>
-      <c r="U5" s="24">
-        <v>2</v>
-      </c>
-      <c r="V5" s="25">
+      <c r="U5" s="18">
+        <v>2</v>
+      </c>
+      <c r="V5" s="8">
         <v>5</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(U5*V5)</f>
         <v>3.5000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>13</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="19">
         <v>16</v>
       </c>
-      <c r="C6" s="24">
-        <v>2</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.5</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(C6*D6)</f>
         <v>0.2</v>
       </c>
-      <c r="F6" s="24">
-        <v>3</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
         <v>0.5</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(F6*G6)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I6" s="24">
-        <v>2</v>
-      </c>
-      <c r="J6" s="25">
-        <v>1</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="I6" s="18">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(I6*J6)</f>
         <v>0.4</v>
       </c>
-      <c r="L6" s="24">
-        <v>3</v>
-      </c>
-      <c r="M6" s="25">
-        <v>1</v>
-      </c>
-      <c r="N6" s="26">
+      <c r="L6" s="18">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(L6*M6)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="O6" s="24">
-        <v>1</v>
-      </c>
-      <c r="P6" s="25">
+      <c r="O6" s="18">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
         <v>5</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(O6*P6)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="24">
-        <v>2</v>
-      </c>
-      <c r="S6" s="25">
+      <c r="R6" s="18">
+        <v>2</v>
+      </c>
+      <c r="S6" s="8">
         <v>5</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(R6*S6)</f>
         <v>2</v>
       </c>
-      <c r="U6" s="24">
-        <v>3</v>
-      </c>
-      <c r="V6" s="25">
+      <c r="U6" s="18">
+        <v>3</v>
+      </c>
+      <c r="V6" s="8">
         <v>5</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(U6*V6)</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>17</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="19">
         <v>20</v>
       </c>
-      <c r="C7" s="24">
-        <v>3</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
         <v>0.5</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(C7*D7)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F7" s="24">
-        <v>2</v>
-      </c>
-      <c r="G7" s="25">
-        <v>1</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(F7*G7)</f>
         <v>0.4</v>
       </c>
-      <c r="I7" s="24">
-        <v>3</v>
-      </c>
-      <c r="J7" s="25">
-        <v>1</v>
-      </c>
-      <c r="K7" s="26">
+      <c r="I7" s="18">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(I7*J7)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="L7" s="24">
-        <v>3</v>
-      </c>
-      <c r="M7" s="25">
-        <v>2</v>
-      </c>
-      <c r="N7" s="26">
+      <c r="L7" s="18">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(L7*M7)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="O7" s="24">
-        <v>2</v>
-      </c>
-      <c r="P7" s="25">
+      <c r="O7" s="18">
+        <v>2</v>
+      </c>
+      <c r="P7" s="8">
         <v>5</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(O7*P7)</f>
         <v>2</v>
       </c>
-      <c r="R7" s="24">
-        <v>3</v>
-      </c>
-      <c r="S7" s="25">
+      <c r="R7" s="18">
+        <v>3</v>
+      </c>
+      <c r="S7" s="8">
         <v>5</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(R7*S7)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="24">
-        <v>2</v>
-      </c>
-      <c r="V7" s="25">
+      <c r="U7" s="18">
+        <v>2</v>
+      </c>
+      <c r="V7" s="8">
         <v>10</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(U7*V7)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>21</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="19">
         <v>23</v>
       </c>
-      <c r="C8" s="24">
-        <v>2</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(C8*D8)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F8" s="24">
-        <v>2</v>
-      </c>
-      <c r="G8" s="25">
-        <v>2</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(F8*G8)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I8" s="24">
-        <v>3</v>
-      </c>
-      <c r="J8" s="25">
-        <v>2</v>
-      </c>
-      <c r="K8" s="26">
+      <c r="I8" s="18">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(I8*J8)</f>
         <v>0.90000000000000013</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="18">
         <v>5</v>
       </c>
-      <c r="M8" s="25">
-        <v>2</v>
-      </c>
-      <c r="N8" s="26">
+      <c r="M8" s="8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(L8*M8)</f>
         <v>1.5000000000000002</v>
       </c>
-      <c r="O8" s="24">
-        <v>1</v>
-      </c>
-      <c r="P8" s="25">
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
         <v>10</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(O8*P8)</f>
         <v>1.5000000000000002</v>
       </c>
-      <c r="R8" s="24">
-        <v>2</v>
-      </c>
-      <c r="S8" s="25">
+      <c r="R8" s="18">
+        <v>2</v>
+      </c>
+      <c r="S8" s="8">
         <v>10</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(R8*S8)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="U8" s="24">
-        <v>3</v>
-      </c>
-      <c r="V8" s="25">
+      <c r="U8" s="18">
+        <v>3</v>
+      </c>
+      <c r="V8" s="8">
         <v>10</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(U8*V8)</f>
         <v>4.5000000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="27">
         <f>'Individual Treasure'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>SUM(E4:E8)</f>
         <v>0.97500000000000009</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="27">
         <f>'Individual Treasure'!$C4</f>
         <v>1.7</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f>SUM(H4:H8)</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="27">
         <f>'Individual Treasure'!$C5</f>
         <v>2.6</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f>SUM(K4:K8)</f>
         <v>2.5250000000000004</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="27">
         <f>'Individual Treasure'!$C6</f>
         <v>4</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <f>SUM(N4:N8)</f>
         <v>4.1000000000000005</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="27">
         <f>'Individual Treasure'!$C7</f>
         <v>6.2</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <f>SUM(Q4:Q8)</f>
         <v>5.75</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="27">
         <f>'Individual Treasure'!$C8</f>
         <v>9.6</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <f>SUM(T4:T8)</f>
         <v>9.8500000000000014</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="27">
         <f>'Individual Treasure'!$C9</f>
         <v>15</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="10">
         <f>SUM(W4:W8)</f>
         <v>15.100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="24">
-        <v>3</v>
-      </c>
-      <c r="D14" s="25">
-        <v>1</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
         <f>(($B$14-$A$14+1)*0.05)*(C14*D14)</f>
         <v>0.75</v>
       </c>
-      <c r="F14" s="24">
-        <v>3</v>
-      </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19">
         <f>(($B$14-$A$14+1)*0.05)*(F14*G14)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="24">
-        <v>2</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="C15" s="18">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
         <v>5</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="19">
         <f>(($B$15-$A$15+1)*0.05)*(C15*D15)</f>
         <v>1.5000000000000002</v>
       </c>
-      <c r="F15" s="24">
-        <v>3</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="F15" s="18">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
         <v>5</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="19">
         <f>(($B$15-$A$15+1)*0.05)*(F15*G15)</f>
         <v>2.2500000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>15</v>
       </c>
-      <c r="C16" s="24">
-        <v>3</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
         <v>5</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="19">
         <f>(($B$16-$A$16+1)*0.05)*(C16*D16)</f>
         <v>1.5</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="18">
         <v>5</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="8">
         <v>5</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="19">
         <f>(($B$16-$A$16+1)*0.05)*(F16*G16)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>20</v>
       </c>
-      <c r="C17" s="24">
-        <v>3</v>
-      </c>
-      <c r="D17" s="25">
+      <c r="C17" s="18">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
         <v>10</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="19">
         <f>(($B$17-$A$17+1)*0.05)*(C17*D17)</f>
         <v>7.5</v>
       </c>
-      <c r="F17" s="24">
-        <v>3</v>
-      </c>
-      <c r="G17" s="25">
+      <c r="F17" s="18">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8">
         <v>10</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="19">
         <f>(($B$17-$A$17+1)*0.05)*(F17*G17)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>21</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>25</v>
       </c>
-      <c r="C18" s="24">
-        <v>1</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <v>50</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="19">
         <f>(($B$18-$A$18+1)*0.05)*(C18*D18)</f>
         <v>12.5</v>
       </c>
-      <c r="F18" s="24">
-        <v>2</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="19">
         <f>(($B$18-$A$18+1)*0.05)*(F18*G18)</f>
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>SUM(E14:E18)</f>
         <v>23.75</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <f>SUM(H14:H18)</f>
         <v>38</v>
       </c>
@@ -4374,890 +7044,890 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="9"/>
-    <col min="11" max="11" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="9"/>
-    <col min="14" max="14" width="10.7109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="9"/>
-    <col min="17" max="17" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="9"/>
-    <col min="20" max="20" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="9"/>
-    <col min="23" max="23" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="11.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
+    <col min="14" max="14" width="10.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="8"/>
+    <col min="20" max="20" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="8"/>
+    <col min="23" max="23" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="18" t="s">
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:23" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+    </row>
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="18">
         <v>4</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="19">
         <v>5</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(C4*D4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="24">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>0.5</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(F4*G4)</f>
         <v>0.05</v>
       </c>
-      <c r="I4" s="24">
-        <v>2</v>
-      </c>
-      <c r="J4" s="25">
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
         <v>0.5</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(I4*J4)</f>
         <v>0.1</v>
       </c>
-      <c r="L4" s="24">
-        <v>2</v>
-      </c>
-      <c r="M4" s="25">
+      <c r="L4" s="18">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
         <v>0.5</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(L4*M4)</f>
         <v>0.1</v>
       </c>
-      <c r="O4" s="24">
-        <v>1</v>
-      </c>
-      <c r="P4" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="26">
+      <c r="O4" s="18">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(O4*P4)</f>
         <v>0.1</v>
       </c>
-      <c r="R4" s="24">
-        <v>1</v>
-      </c>
-      <c r="S4" s="25">
-        <v>1</v>
-      </c>
-      <c r="T4" s="26">
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1</v>
+      </c>
+      <c r="T4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(R4*S4)</f>
         <v>0.1</v>
       </c>
-      <c r="U4" s="24">
-        <v>1</v>
-      </c>
-      <c r="V4" s="25">
-        <v>1</v>
-      </c>
-      <c r="W4" s="26">
+      <c r="U4" s="18">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="19">
         <f>(($B$4-$A$4+1)*0.05)*(U4*V4)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>6</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="19">
         <v>12</v>
       </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>0.5</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(C5*D5)</f>
         <v>0.17500000000000002</v>
       </c>
-      <c r="F5" s="24">
-        <v>2</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
         <v>0.5</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(F5*G5)</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="I5" s="24">
-        <v>3</v>
-      </c>
-      <c r="J5" s="25">
+      <c r="I5" s="18">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8">
         <v>0.5</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(I5*J5)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="L5" s="24">
-        <v>2</v>
-      </c>
-      <c r="M5" s="25">
-        <v>1</v>
-      </c>
-      <c r="N5" s="26">
+      <c r="L5" s="18">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(L5*M5)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="O5" s="24">
-        <v>2</v>
-      </c>
-      <c r="P5" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="26">
+      <c r="O5" s="18">
+        <v>2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(O5*P5)</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="R5" s="24">
-        <v>2</v>
-      </c>
-      <c r="S5" s="25">
-        <v>2</v>
-      </c>
-      <c r="T5" s="26">
+      <c r="R5" s="18">
+        <v>2</v>
+      </c>
+      <c r="S5" s="8">
+        <v>2</v>
+      </c>
+      <c r="T5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(R5*S5)</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="U5" s="24">
-        <v>2</v>
-      </c>
-      <c r="V5" s="25">
+      <c r="U5" s="18">
+        <v>2</v>
+      </c>
+      <c r="V5" s="8">
         <v>5</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="19">
         <f>(($B$5-$A$5+1)*0.05)*(U5*V5)</f>
         <v>3.5000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>13</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="19">
         <v>16</v>
       </c>
-      <c r="C6" s="24">
-        <v>2</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.5</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(C6*D6)</f>
         <v>0.2</v>
       </c>
-      <c r="F6" s="24">
-        <v>3</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
         <v>0.5</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(F6*G6)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I6" s="24">
-        <v>2</v>
-      </c>
-      <c r="J6" s="25">
-        <v>1</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="I6" s="18">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(I6*J6)</f>
         <v>0.4</v>
       </c>
-      <c r="L6" s="24">
-        <v>2</v>
-      </c>
-      <c r="M6" s="25">
-        <v>2</v>
-      </c>
-      <c r="N6" s="26">
+      <c r="L6" s="18">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(L6*M6)</f>
         <v>0.8</v>
       </c>
-      <c r="O6" s="24">
-        <v>3</v>
-      </c>
-      <c r="P6" s="25">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="26">
+      <c r="O6" s="18">
+        <v>3</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(O6*P6)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="R6" s="24">
-        <v>3</v>
-      </c>
-      <c r="S6" s="25">
+      <c r="R6" s="18">
+        <v>3</v>
+      </c>
+      <c r="S6" s="8">
         <v>5</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(R6*S6)</f>
         <v>3</v>
       </c>
-      <c r="U6" s="24">
-        <v>3</v>
-      </c>
-      <c r="V6" s="25">
+      <c r="U6" s="18">
+        <v>3</v>
+      </c>
+      <c r="V6" s="8">
         <v>5</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="19">
         <f>(($B$6-$A$6+1)*0.05)*(U6*V6)</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>17</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="19">
         <v>20</v>
       </c>
-      <c r="C7" s="24">
-        <v>3</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
         <v>0.5</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(C7*D7)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F7" s="24">
-        <v>2</v>
-      </c>
-      <c r="G7" s="25">
-        <v>1</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(F7*G7)</f>
         <v>0.4</v>
       </c>
-      <c r="I7" s="24">
-        <v>3</v>
-      </c>
-      <c r="J7" s="25">
-        <v>1</v>
-      </c>
-      <c r="K7" s="26">
+      <c r="I7" s="18">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(I7*J7)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="L7" s="24">
-        <v>3</v>
-      </c>
-      <c r="M7" s="25">
-        <v>2</v>
-      </c>
-      <c r="N7" s="26">
+      <c r="L7" s="18">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(L7*M7)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="O7" s="24">
-        <v>2</v>
-      </c>
-      <c r="P7" s="25">
+      <c r="O7" s="18">
+        <v>2</v>
+      </c>
+      <c r="P7" s="8">
         <v>5</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(O7*P7)</f>
         <v>2</v>
       </c>
-      <c r="R7" s="24">
-        <v>2</v>
-      </c>
-      <c r="S7" s="25">
+      <c r="R7" s="18">
+        <v>2</v>
+      </c>
+      <c r="S7" s="8">
         <v>5</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(R7*S7)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="24">
-        <v>2</v>
-      </c>
-      <c r="V7" s="25">
+      <c r="U7" s="18">
+        <v>2</v>
+      </c>
+      <c r="V7" s="8">
         <v>10</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="19">
         <f>(($B$7-$A$7+1)*0.05)*(U7*V7)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>21</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="19">
         <v>23</v>
       </c>
-      <c r="C8" s="24">
-        <v>2</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(C8*D8)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F8" s="24">
-        <v>2</v>
-      </c>
-      <c r="G8" s="25">
-        <v>2</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(F8*G8)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I8" s="24">
-        <v>3</v>
-      </c>
-      <c r="J8" s="25">
-        <v>2</v>
-      </c>
-      <c r="K8" s="26">
+      <c r="I8" s="18">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(I8*J8)</f>
         <v>0.90000000000000013</v>
       </c>
-      <c r="L8" s="24">
-        <v>2</v>
-      </c>
-      <c r="M8" s="25">
+      <c r="L8" s="18">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8">
         <v>4</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(L8*M8)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="O8" s="24">
-        <v>1</v>
-      </c>
-      <c r="P8" s="25">
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
         <v>10</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(O8*P8)</f>
         <v>1.5000000000000002</v>
       </c>
-      <c r="R8" s="24">
-        <v>2</v>
-      </c>
-      <c r="S8" s="25">
+      <c r="R8" s="18">
+        <v>2</v>
+      </c>
+      <c r="S8" s="8">
         <v>10</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(R8*S8)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="U8" s="24">
-        <v>3</v>
-      </c>
-      <c r="V8" s="25">
+      <c r="U8" s="18">
+        <v>3</v>
+      </c>
+      <c r="V8" s="8">
         <v>10</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="19">
         <f>(($B$8-$A$8+1)*0.05)*(U8*V8)</f>
         <v>4.5000000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="27">
         <f>'Individual Treasure'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>SUM(E4:E8)</f>
         <v>0.97500000000000009</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="27">
         <f>'Individual Treasure'!$C4</f>
         <v>1.7</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f>SUM(H4:H8)</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="27">
         <f>'Individual Treasure'!$C5</f>
         <v>2.6</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f>SUM(K4:K8)</f>
         <v>2.5250000000000004</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="27">
         <f>'Individual Treasure'!$C6</f>
         <v>4</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <f>SUM(N4:N8)</f>
         <v>4</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="27">
         <f>'Individual Treasure'!$C7</f>
         <v>6.2</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <f>SUM(Q4:Q8)</f>
         <v>6.2</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="27">
         <f>'Individual Treasure'!$C8</f>
         <v>9.6</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <f>SUM(T4:T8)</f>
         <v>9.5</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="27">
         <f>'Individual Treasure'!$C9</f>
         <v>15</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="10">
         <f>SUM(W4:W8)</f>
         <v>15.100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="24">
-        <v>3</v>
-      </c>
-      <c r="D14" s="25">
-        <v>1</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
         <f>(($B$14-$A$14+1)*0.05)*(C14*D14)</f>
         <v>0.75</v>
       </c>
-      <c r="F14" s="24">
-        <v>3</v>
-      </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19">
         <f>(($B$14-$A$14+1)*0.05)*(F14*G14)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="24">
-        <v>2</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="C15" s="18">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
         <v>5</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="19">
         <f>(($B$15-$A$15+1)*0.05)*(C15*D15)</f>
         <v>1.5000000000000002</v>
       </c>
-      <c r="F15" s="24">
-        <v>3</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="F15" s="18">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
         <v>5</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="19">
         <f>(($B$15-$A$15+1)*0.05)*(F15*G15)</f>
         <v>2.2500000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>15</v>
       </c>
-      <c r="C16" s="24">
-        <v>3</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
         <v>5</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="19">
         <f>(($B$16-$A$16+1)*0.05)*(C16*D16)</f>
         <v>1.5</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="18">
         <v>5</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="8">
         <v>5</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="19">
         <f>(($B$16-$A$16+1)*0.05)*(F16*G16)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>20</v>
       </c>
-      <c r="C17" s="24">
-        <v>3</v>
-      </c>
-      <c r="D17" s="25">
+      <c r="C17" s="18">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
         <v>10</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="19">
         <f>(($B$17-$A$17+1)*0.05)*(C17*D17)</f>
         <v>7.5</v>
       </c>
-      <c r="F17" s="24">
-        <v>3</v>
-      </c>
-      <c r="G17" s="25">
+      <c r="F17" s="18">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8">
         <v>10</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="19">
         <f>(($B$17-$A$17+1)*0.05)*(F17*G17)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>21</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>25</v>
       </c>
-      <c r="C18" s="24">
-        <v>1</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <v>50</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="19">
         <f>(($B$18-$A$18+1)*0.05)*(C18*D18)</f>
         <v>12.5</v>
       </c>
-      <c r="F18" s="24">
-        <v>2</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="19">
         <f>(($B$18-$A$18+1)*0.05)*(F18*G18)</f>
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>SUM(E14:E18)</f>
         <v>23.75</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <f>SUM(H14:H18)</f>
         <v>38</v>
       </c>
@@ -5293,57 +7963,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="19.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="24">
         <v>5</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="24">
         <v>7</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Individual Treasure Averages.xlsx
+++ b/Individual Treasure Averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5937DBC2-7C6D-4910-9585-3D5ABE662A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72182FB-E997-4778-9D16-F612EC0E4FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Treasure" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="86">
   <si>
     <t>Individual gp Per Formula</t>
   </si>
@@ -278,6 +281,24 @@
   </si>
   <si>
     <t>CR 13: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 14 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 14: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 15 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 15: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 16 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 16: Humanoid</t>
   </si>
 </sst>
 </file>
@@ -656,9 +677,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1637,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD8D082-213D-4692-B6C5-868C3C1BDB24}">
-  <dimension ref="A1:AD160"/>
+  <dimension ref="A1:AD190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,20 +1700,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
       <c r="Z1" s="39"/>
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
@@ -1734,10 +1755,10 @@
       <c r="AD2" s="37"/>
     </row>
     <row r="3" spans="1:30" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="21">
         <v>3</v>
       </c>
@@ -1932,18 +1953,18 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="33">
         <f>'Individual Treasure'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="34">
         <f>SUMPRODUCT(C5:C9,F5:F9)</f>
         <v>1</v>
@@ -1969,20 +1990,20 @@
       <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
@@ -1990,14 +2011,14 @@
       <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -2024,18 +2045,18 @@
       <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21">
         <v>3</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="36"/>
@@ -2192,18 +2213,18 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="33">
         <f>'Individual Treasure'!B4</f>
         <v>1.6717350674697367</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="34">
         <f>SUMPRODUCT(C15:C19,F15:F19)</f>
         <v>1.6750000000000003</v>
@@ -2212,64 +2233,64 @@
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="47" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21">
         <v>3</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="49" t="s">
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="49"/>
       <c r="I23" s="21">
         <v>3</v>
       </c>
-      <c r="J23" s="51" t="s">
+      <c r="J23" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
@@ -2532,78 +2553,78 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="34">
         <f>SUMPRODUCT(C25:C29,F25:F29)</f>
         <v>2.5750000000000002</v>
       </c>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="55"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="J30" s="56" t="s">
+      <c r="J30" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="57"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="34">
         <f>SUMPRODUCT(I25:I29,L25:L29)</f>
         <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="21">
         <v>3</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
@@ -2742,62 +2763,62 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="55"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="33">
         <f>'Individual Treasure'!B6</f>
         <v>4.0099310619512103</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="57"/>
+      <c r="E40" s="56"/>
       <c r="F40" s="34">
         <f>SUMPRODUCT(C35:C39,F35:F39)</f>
         <v>4.05</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
     </row>
     <row r="42" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="21">
         <v>3</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
@@ -2936,62 +2957,62 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="55"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="33">
         <f>'Individual Treasure'!B7</f>
         <v>6.2104294592761873</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="57"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="34">
         <f>SUMPRODUCT(C45:C49,F45:F49)</f>
         <v>6.2000000000000011</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
     </row>
     <row r="52" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="50"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="21">
         <v>3</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="53"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="52"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
@@ -3130,62 +3151,62 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="55"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="33">
         <f>'Individual Treasure'!B8</f>
         <v>9.6184780917100969</v>
       </c>
-      <c r="D60" s="56" t="s">
+      <c r="D60" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="57"/>
+      <c r="E60" s="56"/>
       <c r="F60" s="34">
         <f>SUMPRODUCT(C55:C59,F55:F59)</f>
         <v>9.6000000000000014</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
     </row>
     <row r="62" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="48"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="47"/>
     </row>
     <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="50"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="21">
         <v>3</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
     </row>
     <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
@@ -3324,62 +3345,62 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="55"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="33">
         <f>'Individual Treasure'!B9</f>
         <v>14.89673482443669</v>
       </c>
-      <c r="D70" s="56" t="s">
+      <c r="D70" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="57"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="34">
         <f>SUMPRODUCT(C65:C69,F65:F69)</f>
         <v>14.900000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
     </row>
     <row r="72" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="48"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="47"/>
     </row>
     <row r="73" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="50"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="21">
         <v>5</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="52"/>
-      <c r="F73" s="53"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="52"/>
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
@@ -3518,62 +3539,62 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="55"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="33">
         <f>'Individual Treasure'!B10</f>
         <v>23.071499078512772</v>
       </c>
-      <c r="D80" s="56" t="s">
+      <c r="D80" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="57"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="34">
         <f>SUMPRODUCT(C75:C79,F75:F79)</f>
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="46"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
     </row>
     <row r="82" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="48"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="47"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="50"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="21">
         <v>5</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D83" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="52"/>
-      <c r="F83" s="53"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="52"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
@@ -3712,62 +3733,62 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="55"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="33">
         <f>'Individual Treasure'!B11</f>
         <v>35.732264553480377</v>
       </c>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="57"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="34">
         <f>SUMPRODUCT(C85:C89,F85:F89)</f>
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="46" t="s">
+      <c r="A91" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="46"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="46"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="57"/>
+      <c r="L91" s="57"/>
     </row>
     <row r="92" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="48"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="47"/>
     </row>
     <row r="93" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="50"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="21">
         <v>5</v>
       </c>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="52"/>
-      <c r="F93" s="53"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
     </row>
     <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
@@ -3906,62 +3927,62 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="55"/>
+      <c r="B100" s="54"/>
       <c r="C100" s="33">
         <f>'Individual Treasure'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="D100" s="56" t="s">
+      <c r="D100" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="57"/>
+      <c r="E100" s="56"/>
       <c r="F100" s="34">
         <f>SUMPRODUCT(C95:C99,F95:F99)</f>
         <v>55.25</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="46"/>
-      <c r="L101" s="46"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
+      <c r="L101" s="57"/>
     </row>
     <row r="102" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="48"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="47"/>
     </row>
     <row r="103" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="50"/>
+      <c r="B103" s="49"/>
       <c r="C103" s="21">
         <v>5</v>
       </c>
-      <c r="D103" s="51" t="s">
+      <c r="D103" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="52"/>
-      <c r="F103" s="53"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
@@ -4100,62 +4121,62 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="55"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="33">
         <f>'Individual Treasure'!B13</f>
         <v>85.709703849023938</v>
       </c>
-      <c r="D110" s="56" t="s">
+      <c r="D110" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E110" s="57"/>
+      <c r="E110" s="56"/>
       <c r="F110" s="34">
         <f>SUMPRODUCT(C105:C109,F105:F109)</f>
         <v>85.5</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="46" t="s">
+      <c r="A111" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="46"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="46"/>
-      <c r="E111" s="46"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="46"/>
-      <c r="K111" s="46"/>
-      <c r="L111" s="46"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
+      <c r="L111" s="57"/>
     </row>
     <row r="112" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A112" s="47" t="s">
+      <c r="A112" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="48"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="47"/>
     </row>
     <row r="113" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="50"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="21">
         <v>5</v>
       </c>
-      <c r="D113" s="51" t="s">
+      <c r="D113" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="52"/>
-      <c r="F113" s="53"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="52"/>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="42" t="s">
@@ -4294,62 +4315,62 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="54" t="s">
+      <c r="A120" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B120" s="55"/>
+      <c r="B120" s="54"/>
       <c r="C120" s="33">
         <f>'Individual Treasure'!B14</f>
         <v>132.7439453462336</v>
       </c>
-      <c r="D120" s="56" t="s">
+      <c r="D120" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="57"/>
+      <c r="E120" s="56"/>
       <c r="F120" s="34">
         <f>SUMPRODUCT(C115:C119,F115:F119)</f>
         <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="46" t="s">
+      <c r="A121" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="46"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
+      <c r="L121" s="57"/>
     </row>
     <row r="122" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="48"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="47"/>
     </row>
     <row r="123" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="49" t="s">
+      <c r="A123" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="50"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="21">
         <v>5</v>
       </c>
-      <c r="D123" s="51" t="s">
+      <c r="D123" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="52"/>
-      <c r="F123" s="53"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="52"/>
     </row>
     <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="42" t="s">
@@ -4488,62 +4509,62 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="54" t="s">
+      <c r="A130" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="55"/>
+      <c r="B130" s="54"/>
       <c r="C130" s="33">
         <f>'Individual Treasure'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="D130" s="56" t="s">
+      <c r="D130" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="57"/>
+      <c r="E130" s="56"/>
       <c r="F130" s="34">
         <f>SUMPRODUCT(C125:C129,F125:F129)</f>
         <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="46" t="s">
+      <c r="A131" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B131" s="46"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="46"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="46"/>
-      <c r="I131" s="46"/>
-      <c r="J131" s="46"/>
-      <c r="K131" s="46"/>
-      <c r="L131" s="46"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="57"/>
+      <c r="L131" s="57"/>
     </row>
     <row r="132" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A132" s="47" t="s">
+      <c r="A132" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="47"/>
-      <c r="C132" s="47"/>
-      <c r="D132" s="47"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="48"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="46"/>
+      <c r="F132" s="47"/>
     </row>
     <row r="133" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="49" t="s">
+      <c r="A133" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B133" s="50"/>
+      <c r="B133" s="49"/>
       <c r="C133" s="21">
         <v>7</v>
       </c>
-      <c r="D133" s="51" t="s">
+      <c r="D133" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="52"/>
-      <c r="F133" s="53"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
@@ -4682,62 +4703,62 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="54" t="s">
+      <c r="A140" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="55"/>
+      <c r="B140" s="54"/>
       <c r="C140" s="33">
         <f>'Individual Treasure'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="D140" s="56" t="s">
+      <c r="D140" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="57"/>
+      <c r="E140" s="56"/>
       <c r="F140" s="34">
         <f>SUMPRODUCT(C135:C139,F135:F139)</f>
         <v>317.5</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="46" t="s">
+      <c r="A141" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="46"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="46"/>
-      <c r="E141" s="46"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="46"/>
-      <c r="I141" s="46"/>
-      <c r="J141" s="46"/>
-      <c r="K141" s="46"/>
-      <c r="L141" s="46"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="57"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="57"/>
+      <c r="L141" s="57"/>
     </row>
     <row r="142" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A142" s="47" t="s">
+      <c r="A142" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B142" s="47"/>
-      <c r="C142" s="47"/>
-      <c r="D142" s="47"/>
-      <c r="E142" s="47"/>
-      <c r="F142" s="48"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="47"/>
     </row>
     <row r="143" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="49" t="s">
+      <c r="A143" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="50"/>
+      <c r="B143" s="49"/>
       <c r="C143" s="21">
         <v>7</v>
       </c>
-      <c r="D143" s="51" t="s">
+      <c r="D143" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="52"/>
-      <c r="F143" s="53"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="52"/>
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="42" t="s">
@@ -4876,62 +4897,62 @@
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="54" t="s">
+      <c r="A150" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B150" s="55"/>
+      <c r="B150" s="54"/>
       <c r="C150" s="33">
         <f>'Individual Treasure'!B17</f>
         <v>493.13849111663814</v>
       </c>
-      <c r="D150" s="56" t="s">
+      <c r="D150" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="57"/>
+      <c r="E150" s="56"/>
       <c r="F150" s="34">
         <f>SUMPRODUCT(C145:C149,F145:F149)</f>
         <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="46" t="s">
+      <c r="A151" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B151" s="46"/>
-      <c r="C151" s="46"/>
-      <c r="D151" s="46"/>
-      <c r="E151" s="46"/>
-      <c r="F151" s="46"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="46"/>
-      <c r="I151" s="46"/>
-      <c r="J151" s="46"/>
-      <c r="K151" s="46"/>
-      <c r="L151" s="46"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="57"/>
+      <c r="K151" s="57"/>
+      <c r="L151" s="57"/>
     </row>
     <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B152" s="47"/>
-      <c r="C152" s="47"/>
-      <c r="D152" s="47"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="48"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="47"/>
     </row>
     <row r="153" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B153" s="50"/>
+      <c r="B153" s="49"/>
       <c r="C153" s="21">
         <v>7</v>
       </c>
-      <c r="D153" s="51" t="s">
+      <c r="D153" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="52"/>
-      <c r="F153" s="53"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="52"/>
     </row>
     <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="42" t="s">
@@ -5070,34 +5091,697 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="54" t="s">
+      <c r="A160" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B160" s="55"/>
+      <c r="B160" s="54"/>
       <c r="C160" s="33">
         <f>'Individual Treasure'!B18</f>
         <v>763.75423053869986</v>
       </c>
-      <c r="D160" s="56" t="s">
+      <c r="D160" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="57"/>
+      <c r="E160" s="56"/>
       <c r="F160" s="34">
         <f>SUMPRODUCT(C155:C159,F155:F159)</f>
         <v>760</v>
       </c>
     </row>
+    <row r="161" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B161" s="57"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="57"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="57"/>
+      <c r="L161" s="57"/>
+    </row>
+    <row r="162" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A162" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="46"/>
+      <c r="F162" s="47"/>
+    </row>
+    <row r="163" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B163" s="49"/>
+      <c r="C163" s="21">
+        <v>7</v>
+      </c>
+      <c r="D163" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E163" s="51"/>
+      <c r="F163" s="52"/>
+    </row>
+    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F164" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="43">
+        <f>C163+1</f>
+        <v>8</v>
+      </c>
+      <c r="B165" s="8">
+        <v>9</v>
+      </c>
+      <c r="C165" s="31">
+        <f>((B165-A165+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D165" s="18">
+        <v>3</v>
+      </c>
+      <c r="E165" s="8">
+        <v>100</v>
+      </c>
+      <c r="F165" s="19">
+        <f>D165*E165</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="43">
+        <f>B165+1</f>
+        <v>10</v>
+      </c>
+      <c r="B166" s="8">
+        <v>14</v>
+      </c>
+      <c r="C166" s="31">
+        <f t="shared" ref="C166:C169" si="51">((B166-A166+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D166" s="18">
+        <v>1</v>
+      </c>
+      <c r="E166" s="8">
+        <v>500</v>
+      </c>
+      <c r="F166" s="19">
+        <f t="shared" ref="F166:F169" si="52">D166*E166</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="43">
+        <f t="shared" ref="A167:A169" si="53">B166+1</f>
+        <v>15</v>
+      </c>
+      <c r="B167" s="8">
+        <v>20</v>
+      </c>
+      <c r="C167" s="31">
+        <f t="shared" si="51"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D167" s="18">
+        <v>2</v>
+      </c>
+      <c r="E167" s="8">
+        <v>500</v>
+      </c>
+      <c r="F167" s="19">
+        <f t="shared" si="52"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="43">
+        <f t="shared" si="53"/>
+        <v>21</v>
+      </c>
+      <c r="B168" s="8">
+        <v>26</v>
+      </c>
+      <c r="C168" s="31">
+        <f t="shared" si="51"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D168" s="18">
+        <v>2</v>
+      </c>
+      <c r="E168" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F168" s="19">
+        <f t="shared" si="52"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="43">
+        <f t="shared" si="53"/>
+        <v>27</v>
+      </c>
+      <c r="B169" s="44">
+        <f>20+C163</f>
+        <v>27</v>
+      </c>
+      <c r="C169" s="31">
+        <f t="shared" si="51"/>
+        <v>0.05</v>
+      </c>
+      <c r="D169" s="20">
+        <v>3</v>
+      </c>
+      <c r="E169" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F169" s="22">
+        <f t="shared" si="52"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" s="54"/>
+      <c r="C170" s="33">
+        <f>'Individual Treasure'!B19</f>
+        <v>1182.8736453829017</v>
+      </c>
+      <c r="D170" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E170" s="56"/>
+      <c r="F170" s="34">
+        <f>SUMPRODUCT(C165:C169,F165:F169)</f>
+        <v>1205.0000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B171" s="57"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="57"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="57"/>
+      <c r="H171" s="57"/>
+      <c r="I171" s="57"/>
+      <c r="J171" s="57"/>
+      <c r="K171" s="57"/>
+      <c r="L171" s="57"/>
+    </row>
+    <row r="172" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A172" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172" s="46"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="47"/>
+    </row>
+    <row r="173" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B173" s="49"/>
+      <c r="C173" s="21">
+        <v>7</v>
+      </c>
+      <c r="D173" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E173" s="51"/>
+      <c r="F173" s="52"/>
+    </row>
+    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D174" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F174" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="43">
+        <f>C173+1</f>
+        <v>8</v>
+      </c>
+      <c r="B175" s="8">
+        <v>9</v>
+      </c>
+      <c r="C175" s="31">
+        <f>((B175-A175+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D175" s="18">
+        <v>1</v>
+      </c>
+      <c r="E175" s="8">
+        <v>500</v>
+      </c>
+      <c r="F175" s="19">
+        <f>D175*E175</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="43">
+        <f>B175+1</f>
+        <v>10</v>
+      </c>
+      <c r="B176" s="8">
+        <v>12</v>
+      </c>
+      <c r="C176" s="31">
+        <f t="shared" ref="C176:C179" si="54">((B176-A176+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D176" s="18">
+        <v>2</v>
+      </c>
+      <c r="E176" s="8">
+        <v>500</v>
+      </c>
+      <c r="F176" s="19">
+        <f t="shared" ref="F176:F179" si="55">D176*E176</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="43">
+        <f t="shared" ref="A177:A179" si="56">B176+1</f>
+        <v>13</v>
+      </c>
+      <c r="B177" s="8">
+        <v>18</v>
+      </c>
+      <c r="C177" s="31">
+        <f t="shared" si="54"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D177" s="18">
+        <v>3</v>
+      </c>
+      <c r="E177" s="8">
+        <v>500</v>
+      </c>
+      <c r="F177" s="19">
+        <f t="shared" si="55"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="43">
+        <f t="shared" si="56"/>
+        <v>19</v>
+      </c>
+      <c r="B178" s="8">
+        <v>24</v>
+      </c>
+      <c r="C178" s="31">
+        <f t="shared" si="54"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D178" s="18">
+        <v>2</v>
+      </c>
+      <c r="E178" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F178" s="19">
+        <f t="shared" si="55"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="43">
+        <f t="shared" si="56"/>
+        <v>25</v>
+      </c>
+      <c r="B179" s="44">
+        <f>20+C173</f>
+        <v>27</v>
+      </c>
+      <c r="C179" s="31">
+        <f t="shared" si="54"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D179" s="20">
+        <v>2</v>
+      </c>
+      <c r="E179" s="28">
+        <v>2000</v>
+      </c>
+      <c r="F179" s="22">
+        <f t="shared" si="55"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B180" s="54"/>
+      <c r="C180" s="33">
+        <f>'Individual Treasure'!B20</f>
+        <v>1831.989932094441</v>
+      </c>
+      <c r="D180" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E180" s="56"/>
+      <c r="F180" s="34">
+        <f>SUMPRODUCT(C175:C179,F175:F179)</f>
+        <v>1850.0000000000005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B181" s="57"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="57"/>
+      <c r="J181" s="57"/>
+      <c r="K181" s="57"/>
+      <c r="L181" s="57"/>
+    </row>
+    <row r="182" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A182" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B182" s="46"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="46"/>
+      <c r="F182" s="47"/>
+    </row>
+    <row r="183" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183" s="49"/>
+      <c r="C183" s="21">
+        <v>7</v>
+      </c>
+      <c r="D183" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E183" s="51"/>
+      <c r="F183" s="52"/>
+    </row>
+    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="43">
+        <f>C183+1</f>
+        <v>8</v>
+      </c>
+      <c r="B185" s="8">
+        <v>9</v>
+      </c>
+      <c r="C185" s="31">
+        <f>((B185-A185+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D185" s="18">
+        <v>1</v>
+      </c>
+      <c r="E185" s="8">
+        <v>500</v>
+      </c>
+      <c r="F185" s="19">
+        <f>D185*E185</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="43">
+        <f>B185+1</f>
+        <v>10</v>
+      </c>
+      <c r="B186" s="8">
+        <v>11</v>
+      </c>
+      <c r="C186" s="31">
+        <f t="shared" ref="C186:C189" si="57">((B186-A186+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D186" s="18">
+        <v>1</v>
+      </c>
+      <c r="E186" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F186" s="19">
+        <f t="shared" ref="F186:F189" si="58">D186*E186</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="43">
+        <f t="shared" ref="A187:A189" si="59">B186+1</f>
+        <v>12</v>
+      </c>
+      <c r="B187" s="8">
+        <v>17</v>
+      </c>
+      <c r="C187" s="31">
+        <f t="shared" si="57"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D187" s="18">
+        <v>2</v>
+      </c>
+      <c r="E187" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F187" s="19">
+        <f t="shared" si="58"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="43">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+      <c r="B188" s="8">
+        <v>23</v>
+      </c>
+      <c r="C188" s="31">
+        <f t="shared" si="57"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D188" s="18">
+        <v>3</v>
+      </c>
+      <c r="E188" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F188" s="19">
+        <f t="shared" si="58"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="43">
+        <f t="shared" si="59"/>
+        <v>24</v>
+      </c>
+      <c r="B189" s="44">
+        <f>20+C183</f>
+        <v>27</v>
+      </c>
+      <c r="C189" s="31">
+        <f t="shared" si="57"/>
+        <v>0.2</v>
+      </c>
+      <c r="D189" s="20">
+        <v>3</v>
+      </c>
+      <c r="E189" s="28">
+        <v>2000</v>
+      </c>
+      <c r="F189" s="22">
+        <f t="shared" si="58"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B190" s="54"/>
+      <c r="C190" s="33">
+        <f>'Individual Treasure'!B21</f>
+        <v>2837.3166689405625</v>
+      </c>
+      <c r="D190" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E190" s="56"/>
+      <c r="F190" s="34">
+        <f>SUMPRODUCT(C185:C189,F185:F189)</f>
+        <v>2850</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:F33"/>
+  <mergeCells count="119">
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="A181:L181"/>
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="A161:L161"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="A171:L171"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="A151:L151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="A141:L141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="A131:L131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A121:L121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A91:L91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D20:E20"/>
@@ -5118,78 +5802,15 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A91:L91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A111:L111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A101:L101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="A131:L131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A121:L121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="A151:L151"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="A141:L141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5260,7 +5881,7 @@
       <c r="W1" s="63"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="64"/>
@@ -6179,7 +6800,7 @@
       <c r="W1" s="63"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="64"/>
@@ -7098,7 +7719,7 @@
       <c r="W1" s="63"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="64"/>

--- a/Individual Treasure Averages.xlsx
+++ b/Individual Treasure Averages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72182FB-E997-4778-9D16-F612EC0E4FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD63BF2-B39B-440B-BF2F-D5782B389F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Treasure" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="88">
   <si>
     <t>Individual gp Per Formula</t>
   </si>
@@ -300,6 +289,12 @@
   <si>
     <t>CR 16: Humanoid</t>
   </si>
+  <si>
+    <t>CR 7: Large Creature</t>
+  </si>
+  <si>
+    <t>CR 10: Large Creature</t>
+  </si>
 </sst>
 </file>
 
@@ -542,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,6 +672,21 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,21 +706,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -736,6 +731,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD8D082-213D-4692-B6C5-868C3C1BDB24}">
   <dimension ref="A1:AD190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="L178" sqref="L178"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1678,7 @@
     <col min="12" max="12" width="11.5703125" style="8" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="8" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="8"/>
+    <col min="15" max="15" width="9.140625" style="8" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="8" customWidth="1"/>
     <col min="18" max="18" width="13.140625" style="8" customWidth="1"/>
@@ -1700,20 +1698,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="Z1" s="39"/>
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
@@ -1755,10 +1753,10 @@
       <c r="AD2" s="37"/>
     </row>
     <row r="3" spans="1:30" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="21">
         <v>3</v>
       </c>
@@ -1953,18 +1951,18 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="33">
         <f>'Individual Treasure'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="34">
         <f>SUMPRODUCT(C5:C9,F5:F9)</f>
         <v>1</v>
@@ -1990,20 +1988,20 @@
       <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
@@ -2011,14 +2009,14 @@
       <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -2045,18 +2043,18 @@
       <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="21">
         <v>3</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="36"/>
@@ -2213,18 +2211,18 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="33">
         <f>'Individual Treasure'!B4</f>
         <v>1.6717350674697367</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="56"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="34">
         <f>SUMPRODUCT(C15:C19,F15:F19)</f>
         <v>1.6750000000000003</v>
@@ -2233,64 +2231,64 @@
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="46" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="47"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="21">
         <v>3</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="48" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="49"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="21">
         <v>3</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
@@ -2553,78 +2551,78 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="54"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="34">
         <f>SUMPRODUCT(C25:C29,F25:F29)</f>
         <v>2.5750000000000002</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="54"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="56"/>
+      <c r="K30" s="49"/>
       <c r="L30" s="34">
         <f>SUMPRODUCT(I25:I29,L25:L29)</f>
         <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
     </row>
     <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="21">
         <v>3</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
@@ -2763,62 +2761,62 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="33">
         <f>'Individual Treasure'!B6</f>
         <v>4.0099310619512103</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="56"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="34">
         <f>SUMPRODUCT(C35:C39,F35:F39)</f>
         <v>4.05</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
     </row>
     <row r="42" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="49"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="21">
         <v>3</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
@@ -2957,62 +2955,62 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="54"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="33">
         <f>'Individual Treasure'!B7</f>
         <v>6.2104294592761873</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="56"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="34">
         <f>SUMPRODUCT(C45:C49,F45:F49)</f>
         <v>6.2000000000000011</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
     </row>
     <row r="52" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="52"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="49"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="21">
         <v>3</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="51"/>
-      <c r="F53" s="52"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="57"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
@@ -3151,62 +3149,62 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="54"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="33">
         <f>'Individual Treasure'!B8</f>
         <v>9.6184780917100969</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="56"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="34">
         <f>SUMPRODUCT(C55:C59,F55:F59)</f>
         <v>9.6000000000000014</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
     </row>
     <row r="62" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="52"/>
     </row>
     <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="49"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="21">
         <v>3</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
     </row>
     <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
@@ -3345,62 +3343,62 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="54"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="33">
         <f>'Individual Treasure'!B9</f>
         <v>14.89673482443669</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="56"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="34">
         <f>SUMPRODUCT(C65:C69,F65:F69)</f>
         <v>14.900000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
     </row>
     <row r="72" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="47"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="52"/>
     </row>
     <row r="73" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="49"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="21">
         <v>5</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="52"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="57"/>
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
@@ -3539,62 +3537,62 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="54"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="33">
         <f>'Individual Treasure'!B10</f>
         <v>23.071499078512772</v>
       </c>
-      <c r="D80" s="55" t="s">
+      <c r="D80" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="56"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="34">
         <f>SUMPRODUCT(C75:C79,F75:F79)</f>
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="57"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
     </row>
     <row r="82" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="47"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="52"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="49"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="21">
         <v>5</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="51"/>
-      <c r="F83" s="52"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="57"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
@@ -3733,64 +3731,84 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="53" t="s">
+      <c r="A90" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="54"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="33">
         <f>'Individual Treasure'!B11</f>
         <v>35.732264553480377</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="D90" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="56"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="34">
         <f>SUMPRODUCT(C85:C89,F85:F89)</f>
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="57" t="s">
+      <c r="A91" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="57"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="50"/>
     </row>
     <row r="92" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="46"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="47"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="52"/>
     </row>
     <row r="93" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="48" t="s">
+      <c r="A93" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="49"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="21">
         <v>5</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D93" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="51"/>
-      <c r="F93" s="52"/>
-    </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E93" s="56"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" s="54"/>
+      <c r="I93" s="21">
+        <v>5</v>
+      </c>
+      <c r="J93" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" s="56"/>
+      <c r="L93" s="57"/>
+    </row>
+    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
         <v>9</v>
       </c>
@@ -3807,6 +3825,24 @@
         <v>24</v>
       </c>
       <c r="F94" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J94" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3832,6 +3868,27 @@
         <f>D95*E95</f>
         <v>15</v>
       </c>
+      <c r="G95" s="43">
+        <f>I93+1</f>
+        <v>6</v>
+      </c>
+      <c r="H95" s="8">
+        <v>7</v>
+      </c>
+      <c r="I95" s="31">
+        <f>((H95-G95+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J95" s="18">
+        <v>3</v>
+      </c>
+      <c r="K95" s="8">
+        <v>5</v>
+      </c>
+      <c r="L95" s="19">
+        <f>J95*K95</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="43">
@@ -3855,10 +3912,31 @@
         <f t="shared" ref="F96:F99" si="31">D96*E96</f>
         <v>30</v>
       </c>
+      <c r="G96" s="43">
+        <f>H95+1</f>
+        <v>8</v>
+      </c>
+      <c r="H96" s="8">
+        <v>10</v>
+      </c>
+      <c r="I96" s="31">
+        <f t="shared" ref="I96:I99" si="32">((H96-G96+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J96" s="18">
+        <v>5</v>
+      </c>
+      <c r="K96" s="8">
+        <v>5</v>
+      </c>
+      <c r="L96" s="19">
+        <f t="shared" ref="L96:L99" si="33">J96*K96</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="43">
-        <f t="shared" ref="A97:A99" si="32">B96+1</f>
+        <f t="shared" ref="A97:A99" si="34">B96+1</f>
         <v>16</v>
       </c>
       <c r="B97" s="8">
@@ -3878,10 +3956,31 @@
         <f t="shared" si="31"/>
         <v>50</v>
       </c>
+      <c r="G97" s="43">
+        <f t="shared" ref="G97:G99" si="35">H96+1</f>
+        <v>11</v>
+      </c>
+      <c r="H97" s="8">
+        <v>16</v>
+      </c>
+      <c r="I97" s="31">
+        <f t="shared" si="32"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J97" s="18">
+        <v>5</v>
+      </c>
+      <c r="K97" s="8">
+        <v>10</v>
+      </c>
+      <c r="L97" s="19">
+        <f t="shared" si="33"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="B98" s="8">
@@ -3901,10 +4000,31 @@
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
+      <c r="G98" s="43">
+        <f t="shared" si="35"/>
+        <v>17</v>
+      </c>
+      <c r="H98" s="8">
+        <v>22</v>
+      </c>
+      <c r="I98" s="31">
+        <f t="shared" si="32"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J98" s="18">
+        <v>7</v>
+      </c>
+      <c r="K98" s="8">
+        <v>10</v>
+      </c>
+      <c r="L98" s="19">
+        <f t="shared" si="33"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="B99" s="44">
@@ -3925,64 +4045,102 @@
         <f t="shared" si="31"/>
         <v>200</v>
       </c>
+      <c r="G99" s="43">
+        <f t="shared" si="35"/>
+        <v>23</v>
+      </c>
+      <c r="H99" s="44">
+        <f>20+I93</f>
+        <v>25</v>
+      </c>
+      <c r="I99" s="31">
+        <f t="shared" si="32"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J99" s="20">
+        <v>5</v>
+      </c>
+      <c r="K99" s="28">
+        <v>20</v>
+      </c>
+      <c r="L99" s="22">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="54"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="33">
         <f>'Individual Treasure'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="D100" s="55" t="s">
+      <c r="D100" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="56"/>
+      <c r="E100" s="49"/>
       <c r="F100" s="34">
         <f>SUMPRODUCT(C95:C99,F95:F99)</f>
         <v>55.25</v>
       </c>
+      <c r="G100" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" s="47"/>
+      <c r="I100" s="33">
+        <f>'Individual Treasure'!B12</f>
+        <v>55.340778931397217</v>
+      </c>
+      <c r="J100" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100" s="49"/>
+      <c r="L100" s="34">
+        <f>SUMPRODUCT(I95:I99,L95:L99)</f>
+        <v>56.25</v>
+      </c>
     </row>
     <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="57" t="s">
+      <c r="A101" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="57"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="50"/>
     </row>
     <row r="102" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="46"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="47"/>
-    </row>
-    <row r="103" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="48" t="s">
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="52"/>
+    </row>
+    <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="49"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="21">
         <v>5</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="51"/>
-      <c r="F103" s="52"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="57"/>
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
@@ -4036,7 +4194,7 @@
         <v>12</v>
       </c>
       <c r="C106" s="31">
-        <f t="shared" ref="C106:C109" si="33">((B106-A106+1)*0.05)</f>
+        <f t="shared" ref="C106:C109" si="36">((B106-A106+1)*0.05)</f>
         <v>0.25</v>
       </c>
       <c r="D106" s="18">
@@ -4046,20 +4204,20 @@
         <v>20</v>
       </c>
       <c r="F106" s="19">
-        <f t="shared" ref="F106:F109" si="34">D106*E106</f>
+        <f t="shared" ref="F106:F109" si="37">D106*E106</f>
         <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="43">
-        <f t="shared" ref="A107:A109" si="35">B106+1</f>
+        <f t="shared" ref="A107:A109" si="38">B106+1</f>
         <v>13</v>
       </c>
       <c r="B107" s="8">
         <v>17</v>
       </c>
       <c r="C107" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.25</v>
       </c>
       <c r="D107" s="18">
@@ -4069,20 +4227,20 @@
         <v>50</v>
       </c>
       <c r="F107" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>18</v>
       </c>
       <c r="B108" s="8">
         <v>21</v>
       </c>
       <c r="C108" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.2</v>
       </c>
       <c r="D108" s="18">
@@ -4092,13 +4250,13 @@
         <v>50</v>
       </c>
       <c r="F108" s="19">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>22</v>
       </c>
       <c r="B109" s="44">
@@ -4106,7 +4264,7 @@
         <v>25</v>
       </c>
       <c r="C109" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.2</v>
       </c>
       <c r="D109" s="20">
@@ -4116,67 +4274,67 @@
         <v>100</v>
       </c>
       <c r="F109" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="53" t="s">
+    <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="54"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="33">
         <f>'Individual Treasure'!B13</f>
         <v>85.709703849023938</v>
       </c>
-      <c r="D110" s="55" t="s">
+      <c r="D110" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E110" s="56"/>
+      <c r="E110" s="49"/>
       <c r="F110" s="34">
         <f>SUMPRODUCT(C105:C109,F105:F109)</f>
         <v>85.5</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="57" t="s">
+      <c r="A111" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="57"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="57"/>
-      <c r="J111" s="57"/>
-      <c r="K111" s="57"/>
-      <c r="L111" s="57"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="50"/>
     </row>
     <row r="112" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A112" s="46" t="s">
+      <c r="A112" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="46"/>
-      <c r="F112" s="47"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="52"/>
     </row>
     <row r="113" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="48" t="s">
+      <c r="A113" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="49"/>
+      <c r="B113" s="54"/>
       <c r="C113" s="21">
         <v>5</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="51"/>
-      <c r="F113" s="52"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="57"/>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="42" t="s">
@@ -4230,7 +4388,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="31">
-        <f t="shared" ref="C116:C119" si="36">((B116-A116+1)*0.05)</f>
+        <f t="shared" ref="C116:C119" si="39">((B116-A116+1)*0.05)</f>
         <v>0.25</v>
       </c>
       <c r="D116" s="18">
@@ -4240,20 +4398,20 @@
         <v>20</v>
       </c>
       <c r="F116" s="19">
-        <f t="shared" ref="F116:F119" si="37">D116*E116</f>
+        <f t="shared" ref="F116:F119" si="40">D116*E116</f>
         <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="43">
-        <f t="shared" ref="A117:A119" si="38">B116+1</f>
+        <f t="shared" ref="A117:A119" si="41">B116+1</f>
         <v>13</v>
       </c>
       <c r="B117" s="8">
         <v>17</v>
       </c>
       <c r="C117" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.25</v>
       </c>
       <c r="D117" s="18">
@@ -4263,20 +4421,20 @@
         <v>50</v>
       </c>
       <c r="F117" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="43">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>18</v>
       </c>
       <c r="B118" s="8">
         <v>24</v>
       </c>
       <c r="C118" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="D118" s="18">
@@ -4286,13 +4444,13 @@
         <v>100</v>
       </c>
       <c r="F118" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="43">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="B119" s="44">
@@ -4300,7 +4458,7 @@
         <v>25</v>
       </c>
       <c r="C119" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.05</v>
       </c>
       <c r="D119" s="20">
@@ -4310,69 +4468,89 @@
         <v>200</v>
       </c>
       <c r="F119" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B120" s="54"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="33">
         <f>'Individual Treasure'!B14</f>
         <v>132.7439453462336</v>
       </c>
-      <c r="D120" s="55" t="s">
+      <c r="D120" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="56"/>
+      <c r="E120" s="49"/>
       <c r="F120" s="34">
         <f>SUMPRODUCT(C115:C119,F115:F119)</f>
         <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="57" t="s">
+      <c r="A121" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="57"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
-      <c r="J121" s="57"/>
-      <c r="K121" s="57"/>
-      <c r="L121" s="57"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
+      <c r="L121" s="50"/>
     </row>
     <row r="122" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B122" s="46"/>
-      <c r="C122" s="46"/>
-      <c r="D122" s="46"/>
-      <c r="E122" s="46"/>
-      <c r="F122" s="47"/>
-    </row>
-    <row r="123" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="48" t="s">
+      <c r="B122" s="51"/>
+      <c r="C122" s="51"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="52"/>
+    </row>
+    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="49"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="21">
         <v>5</v>
       </c>
-      <c r="D123" s="50" t="s">
+      <c r="D123" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="51"/>
-      <c r="F123" s="52"/>
-    </row>
-    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E123" s="56"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H123" s="54"/>
+      <c r="I123" s="21">
+        <v>5</v>
+      </c>
+      <c r="J123" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K123" s="56"/>
+      <c r="L123" s="57"/>
+    </row>
+    <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="42" t="s">
         <v>9</v>
       </c>
@@ -4389,6 +4567,24 @@
         <v>24</v>
       </c>
       <c r="F124" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G124" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J124" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L124" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4414,8 +4610,29 @@
         <f>D125*E125</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G125" s="43">
+        <f>I123+1</f>
+        <v>6</v>
+      </c>
+      <c r="H125" s="8">
+        <v>7</v>
+      </c>
+      <c r="I125" s="31">
+        <f>((H125-G125+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J125" s="18">
+        <v>3</v>
+      </c>
+      <c r="K125" s="8">
+        <v>10</v>
+      </c>
+      <c r="L125" s="19">
+        <f>J125*K125</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="43">
         <f>B125+1</f>
         <v>8</v>
@@ -4424,7 +4641,7 @@
         <v>9</v>
       </c>
       <c r="C126" s="31">
-        <f t="shared" ref="C126:C129" si="39">((B126-A126+1)*0.05)</f>
+        <f t="shared" ref="C126:C129" si="42">((B126-A126+1)*0.05)</f>
         <v>0.1</v>
       </c>
       <c r="D126" s="18">
@@ -4434,20 +4651,41 @@
         <v>50</v>
       </c>
       <c r="F126" s="19">
-        <f t="shared" ref="F126:F129" si="40">D126*E126</f>
+        <f t="shared" ref="F126:F129" si="43">D126*E126</f>
         <v>100</v>
+      </c>
+      <c r="G126" s="43">
+        <f>H125+1</f>
+        <v>8</v>
+      </c>
+      <c r="H126" s="8">
+        <v>12</v>
+      </c>
+      <c r="I126" s="31">
+        <f t="shared" ref="I126:I129" si="44">((H126-G126+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J126" s="18">
+        <v>3</v>
+      </c>
+      <c r="K126" s="8">
+        <v>20</v>
+      </c>
+      <c r="L126" s="19">
+        <f t="shared" ref="L126:L129" si="45">J126*K126</f>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="43">
-        <f t="shared" ref="A127:A129" si="41">B126+1</f>
+        <f t="shared" ref="A127:A129" si="46">B126+1</f>
         <v>10</v>
       </c>
       <c r="B127" s="8">
         <v>13</v>
       </c>
       <c r="C127" s="31">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.2</v>
       </c>
       <c r="D127" s="18">
@@ -4457,20 +4695,41 @@
         <v>50</v>
       </c>
       <c r="F127" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
+        <v>150</v>
+      </c>
+      <c r="G127" s="43">
+        <f t="shared" ref="G127:G129" si="47">H126+1</f>
+        <v>13</v>
+      </c>
+      <c r="H127" s="8">
+        <v>17</v>
+      </c>
+      <c r="I127" s="31">
+        <f t="shared" si="44"/>
+        <v>0.25</v>
+      </c>
+      <c r="J127" s="18">
+        <v>3</v>
+      </c>
+      <c r="K127" s="8">
+        <v>50</v>
+      </c>
+      <c r="L127" s="19">
+        <f t="shared" si="45"/>
         <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="B128" s="8">
         <v>21</v>
       </c>
       <c r="C128" s="31">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.4</v>
       </c>
       <c r="D128" s="18">
@@ -4480,13 +4739,34 @@
         <v>100</v>
       </c>
       <c r="F128" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>200</v>
+      </c>
+      <c r="G128" s="43">
+        <f t="shared" si="47"/>
+        <v>18</v>
+      </c>
+      <c r="H128" s="8">
+        <v>21</v>
+      </c>
+      <c r="I128" s="31">
+        <f t="shared" si="44"/>
+        <v>0.2</v>
+      </c>
+      <c r="J128" s="18">
+        <v>5</v>
+      </c>
+      <c r="K128" s="8">
+        <v>50</v>
+      </c>
+      <c r="L128" s="19">
+        <f t="shared" si="45"/>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>22</v>
       </c>
       <c r="B129" s="44">
@@ -4494,7 +4774,7 @@
         <v>25</v>
       </c>
       <c r="C129" s="31">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.2</v>
       </c>
       <c r="D129" s="20">
@@ -4504,67 +4784,105 @@
         <v>200</v>
       </c>
       <c r="F129" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="53" t="s">
+      <c r="G129" s="43">
+        <f t="shared" si="47"/>
+        <v>22</v>
+      </c>
+      <c r="H129" s="44">
+        <f>20+I123</f>
+        <v>25</v>
+      </c>
+      <c r="I129" s="31">
+        <f t="shared" si="44"/>
+        <v>0.2</v>
+      </c>
+      <c r="J129" s="20">
+        <v>5</v>
+      </c>
+      <c r="K129" s="28">
+        <v>100</v>
+      </c>
+      <c r="L129" s="22">
+        <f t="shared" si="45"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="54"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="33">
         <f>'Individual Treasure'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="D130" s="55" t="s">
+      <c r="D130" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="56"/>
+      <c r="E130" s="49"/>
       <c r="F130" s="34">
         <f>SUMPRODUCT(C125:C129,F125:F129)</f>
         <v>205</v>
       </c>
+      <c r="G130" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H130" s="47"/>
+      <c r="I130" s="33">
+        <f>'Individual Treasure'!B15</f>
+        <v>205.58879840633722</v>
+      </c>
+      <c r="J130" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K130" s="49"/>
+      <c r="L130" s="34">
+        <f>SUMPRODUCT(I125:I129,L125:L129)</f>
+        <v>205.5</v>
+      </c>
     </row>
     <row r="131" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="57" t="s">
+      <c r="A131" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="57"/>
-      <c r="I131" s="57"/>
-      <c r="J131" s="57"/>
-      <c r="K131" s="57"/>
-      <c r="L131" s="57"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="50"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="50"/>
+      <c r="H131" s="50"/>
+      <c r="I131" s="50"/>
+      <c r="J131" s="50"/>
+      <c r="K131" s="50"/>
+      <c r="L131" s="50"/>
     </row>
     <row r="132" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="46"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
-      <c r="F132" s="47"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="48" t="s">
+      <c r="A133" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B133" s="49"/>
+      <c r="B133" s="54"/>
       <c r="C133" s="21">
         <v>7</v>
       </c>
-      <c r="D133" s="50" t="s">
+      <c r="D133" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="51"/>
-      <c r="F133" s="52"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="57"/>
     </row>
     <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
@@ -4618,7 +4936,7 @@
         <v>11</v>
       </c>
       <c r="C136" s="31">
-        <f t="shared" ref="C136:C139" si="42">((B136-A136+1)*0.05)</f>
+        <f t="shared" ref="C136:C139" si="48">((B136-A136+1)*0.05)</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="D136" s="18">
@@ -4628,20 +4946,20 @@
         <v>50</v>
       </c>
       <c r="F136" s="19">
-        <f t="shared" ref="F136:F139" si="43">D136*E136</f>
+        <f t="shared" ref="F136:F139" si="49">D136*E136</f>
         <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="43">
-        <f t="shared" ref="A137:A139" si="44">B136+1</f>
+        <f t="shared" ref="A137:A139" si="50">B136+1</f>
         <v>12</v>
       </c>
       <c r="B137" s="8">
         <v>18</v>
       </c>
       <c r="C137" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="D137" s="18">
@@ -4651,20 +4969,20 @@
         <v>100</v>
       </c>
       <c r="F137" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>19</v>
       </c>
       <c r="B138" s="8">
         <v>23</v>
       </c>
       <c r="C138" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
       <c r="D138" s="18">
@@ -4674,13 +4992,13 @@
         <v>200</v>
       </c>
       <c r="F138" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>24</v>
       </c>
       <c r="B139" s="44">
@@ -4688,7 +5006,7 @@
         <v>27</v>
       </c>
       <c r="C139" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.2</v>
       </c>
       <c r="D139" s="20">
@@ -4698,67 +5016,67 @@
         <v>200</v>
       </c>
       <c r="F139" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>600</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="53" t="s">
+      <c r="A140" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="54"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="33">
         <f>'Individual Treasure'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="D140" s="55" t="s">
+      <c r="D140" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="56"/>
+      <c r="E140" s="49"/>
       <c r="F140" s="34">
         <f>SUMPRODUCT(C135:C139,F135:F139)</f>
         <v>317.5</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="57" t="s">
+      <c r="A141" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="57"/>
-      <c r="C141" s="57"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="57"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="57"/>
-      <c r="H141" s="57"/>
-      <c r="I141" s="57"/>
-      <c r="J141" s="57"/>
-      <c r="K141" s="57"/>
-      <c r="L141" s="57"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="50"/>
+      <c r="K141" s="50"/>
+      <c r="L141" s="50"/>
     </row>
     <row r="142" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A142" s="46" t="s">
+      <c r="A142" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B142" s="46"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="47"/>
-    </row>
-    <row r="143" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="48" t="s">
+      <c r="B142" s="51"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="52"/>
+    </row>
+    <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="49"/>
+      <c r="B143" s="54"/>
       <c r="C143" s="21">
         <v>7</v>
       </c>
-      <c r="D143" s="50" t="s">
+      <c r="D143" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="51"/>
-      <c r="F143" s="52"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="57"/>
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="42" t="s">
@@ -4812,7 +5130,7 @@
         <v>14</v>
       </c>
       <c r="C146" s="31">
-        <f t="shared" ref="C146:C149" si="45">((B146-A146+1)*0.05)</f>
+        <f t="shared" ref="C146:C149" si="51">((B146-A146+1)*0.05)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="D146" s="18">
@@ -4822,20 +5140,20 @@
         <v>100</v>
       </c>
       <c r="F146" s="19">
-        <f t="shared" ref="F146:F149" si="46">D146*E146</f>
+        <f t="shared" ref="F146:F149" si="52">D146*E146</f>
         <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="43">
-        <f t="shared" ref="A147:A149" si="47">B146+1</f>
+        <f t="shared" ref="A147:A149" si="53">B146+1</f>
         <v>15</v>
       </c>
       <c r="B147" s="8">
         <v>19</v>
       </c>
       <c r="C147" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="D147" s="18">
@@ -4845,20 +5163,20 @@
         <v>200</v>
       </c>
       <c r="F147" s="19">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>400</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>20</v>
       </c>
       <c r="B148" s="8">
         <v>23</v>
       </c>
       <c r="C148" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
       <c r="D148" s="18">
@@ -4868,13 +5186,13 @@
         <v>500</v>
       </c>
       <c r="F148" s="19">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>24</v>
       </c>
       <c r="B149" s="44">
@@ -4882,7 +5200,7 @@
         <v>27</v>
       </c>
       <c r="C149" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.2</v>
       </c>
       <c r="D149" s="20">
@@ -4892,67 +5210,67 @@
         <v>1000</v>
       </c>
       <c r="F149" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="53" t="s">
+    <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B150" s="54"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="33">
         <f>'Individual Treasure'!B17</f>
         <v>493.13849111663814</v>
       </c>
-      <c r="D150" s="55" t="s">
+      <c r="D150" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="56"/>
+      <c r="E150" s="49"/>
       <c r="F150" s="34">
         <f>SUMPRODUCT(C145:C149,F145:F149)</f>
         <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="57" t="s">
+      <c r="A151" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B151" s="57"/>
-      <c r="C151" s="57"/>
-      <c r="D151" s="57"/>
-      <c r="E151" s="57"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="57"/>
-      <c r="H151" s="57"/>
-      <c r="I151" s="57"/>
-      <c r="J151" s="57"/>
-      <c r="K151" s="57"/>
-      <c r="L151" s="57"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="50"/>
+      <c r="G151" s="50"/>
+      <c r="H151" s="50"/>
+      <c r="I151" s="50"/>
+      <c r="J151" s="50"/>
+      <c r="K151" s="50"/>
+      <c r="L151" s="50"/>
     </row>
     <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A152" s="46" t="s">
+      <c r="A152" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B152" s="46"/>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="47"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="52"/>
     </row>
     <row r="153" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="48" t="s">
+      <c r="A153" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B153" s="49"/>
+      <c r="B153" s="54"/>
       <c r="C153" s="21">
         <v>7</v>
       </c>
-      <c r="D153" s="50" t="s">
+      <c r="D153" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="51"/>
-      <c r="F153" s="52"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="57"/>
     </row>
     <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="42" t="s">
@@ -5006,7 +5324,7 @@
         <v>13</v>
       </c>
       <c r="C156" s="31">
-        <f t="shared" ref="C156:C159" si="48">((B156-A156+1)*0.05)</f>
+        <f t="shared" ref="C156:C159" si="54">((B156-A156+1)*0.05)</f>
         <v>0.25</v>
       </c>
       <c r="D156" s="18">
@@ -5016,20 +5334,20 @@
         <v>100</v>
       </c>
       <c r="F156" s="19">
-        <f t="shared" ref="F156:F159" si="49">D156*E156</f>
+        <f t="shared" ref="F156:F159" si="55">D156*E156</f>
         <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="43">
-        <f t="shared" ref="A157:A159" si="50">B156+1</f>
+        <f t="shared" ref="A157:A159" si="56">B156+1</f>
         <v>14</v>
       </c>
       <c r="B157" s="8">
         <v>18</v>
       </c>
       <c r="C157" s="31">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.25</v>
       </c>
       <c r="D157" s="18">
@@ -5039,20 +5357,20 @@
         <v>500</v>
       </c>
       <c r="F157" s="19">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>19</v>
       </c>
       <c r="B158" s="8">
         <v>25</v>
       </c>
       <c r="C158" s="31">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="D158" s="18">
@@ -5062,13 +5380,13 @@
         <v>1000</v>
       </c>
       <c r="F158" s="19">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>26</v>
       </c>
       <c r="B159" s="44">
@@ -5076,7 +5394,7 @@
         <v>27</v>
       </c>
       <c r="C159" s="31">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.1</v>
       </c>
       <c r="D159" s="20">
@@ -5086,67 +5404,67 @@
         <v>1000</v>
       </c>
       <c r="F159" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2000</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="53" t="s">
+      <c r="A160" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B160" s="54"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="33">
         <f>'Individual Treasure'!B18</f>
         <v>763.75423053869986</v>
       </c>
-      <c r="D160" s="55" t="s">
+      <c r="D160" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="56"/>
+      <c r="E160" s="49"/>
       <c r="F160" s="34">
         <f>SUMPRODUCT(C155:C159,F155:F159)</f>
         <v>760</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="57" t="s">
+      <c r="A161" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B161" s="57"/>
-      <c r="C161" s="57"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="57"/>
-      <c r="F161" s="57"/>
-      <c r="G161" s="57"/>
-      <c r="H161" s="57"/>
-      <c r="I161" s="57"/>
-      <c r="J161" s="57"/>
-      <c r="K161" s="57"/>
-      <c r="L161" s="57"/>
+      <c r="B161" s="50"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="50"/>
+      <c r="G161" s="50"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="50"/>
+      <c r="J161" s="50"/>
+      <c r="K161" s="50"/>
+      <c r="L161" s="50"/>
     </row>
     <row r="162" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A162" s="46" t="s">
+      <c r="A162" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B162" s="46"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="46"/>
-      <c r="E162" s="46"/>
-      <c r="F162" s="47"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="51"/>
+      <c r="D162" s="51"/>
+      <c r="E162" s="51"/>
+      <c r="F162" s="52"/>
     </row>
     <row r="163" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="48" t="s">
+      <c r="A163" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B163" s="49"/>
+      <c r="B163" s="54"/>
       <c r="C163" s="21">
         <v>7</v>
       </c>
-      <c r="D163" s="50" t="s">
+      <c r="D163" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E163" s="51"/>
-      <c r="F163" s="52"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="57"/>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="42" t="s">
@@ -5200,7 +5518,7 @@
         <v>14</v>
       </c>
       <c r="C166" s="31">
-        <f t="shared" ref="C166:C169" si="51">((B166-A166+1)*0.05)</f>
+        <f t="shared" ref="C166:C169" si="57">((B166-A166+1)*0.05)</f>
         <v>0.25</v>
       </c>
       <c r="D166" s="18">
@@ -5210,20 +5528,20 @@
         <v>500</v>
       </c>
       <c r="F166" s="19">
-        <f t="shared" ref="F166:F169" si="52">D166*E166</f>
+        <f t="shared" ref="F166:F169" si="58">D166*E166</f>
         <v>500</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="43">
-        <f t="shared" ref="A167:A169" si="53">B166+1</f>
+        <f t="shared" ref="A167:A169" si="59">B166+1</f>
         <v>15</v>
       </c>
       <c r="B167" s="8">
         <v>20</v>
       </c>
       <c r="C167" s="31">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="D167" s="18">
@@ -5233,20 +5551,20 @@
         <v>500</v>
       </c>
       <c r="F167" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1000</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="43">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>21</v>
       </c>
       <c r="B168" s="8">
         <v>26</v>
       </c>
       <c r="C168" s="31">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="D168" s="18">
@@ -5256,13 +5574,13 @@
         <v>1000</v>
       </c>
       <c r="F168" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2000</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="43">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>27</v>
       </c>
       <c r="B169" s="44">
@@ -5270,7 +5588,7 @@
         <v>27</v>
       </c>
       <c r="C169" s="31">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.05</v>
       </c>
       <c r="D169" s="20">
@@ -5280,69 +5598,89 @@
         <v>1000</v>
       </c>
       <c r="F169" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>3000</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="53" t="s">
+      <c r="A170" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="54"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="33">
         <f>'Individual Treasure'!B19</f>
         <v>1182.8736453829017</v>
       </c>
-      <c r="D170" s="55" t="s">
+      <c r="D170" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E170" s="56"/>
+      <c r="E170" s="49"/>
       <c r="F170" s="34">
         <f>SUMPRODUCT(C165:C169,F165:F169)</f>
         <v>1205.0000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="57" t="s">
+      <c r="A171" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="57"/>
-      <c r="F171" s="57"/>
-      <c r="G171" s="57"/>
-      <c r="H171" s="57"/>
-      <c r="I171" s="57"/>
-      <c r="J171" s="57"/>
-      <c r="K171" s="57"/>
-      <c r="L171" s="57"/>
+      <c r="B171" s="50"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="50"/>
+      <c r="I171" s="50"/>
+      <c r="J171" s="50"/>
+      <c r="K171" s="50"/>
+      <c r="L171" s="50"/>
     </row>
     <row r="172" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A172" s="46" t="s">
+      <c r="A172" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="46"/>
-      <c r="C172" s="46"/>
-      <c r="D172" s="46"/>
-      <c r="E172" s="46"/>
-      <c r="F172" s="47"/>
-    </row>
-    <row r="173" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="48" t="s">
+      <c r="B172" s="51"/>
+      <c r="C172" s="51"/>
+      <c r="D172" s="51"/>
+      <c r="E172" s="51"/>
+      <c r="F172" s="52"/>
+      <c r="G172" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H172" s="51"/>
+      <c r="I172" s="51"/>
+      <c r="J172" s="51"/>
+      <c r="K172" s="51"/>
+      <c r="L172" s="52"/>
+    </row>
+    <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B173" s="49"/>
+      <c r="B173" s="54"/>
       <c r="C173" s="21">
         <v>7</v>
       </c>
-      <c r="D173" s="50" t="s">
+      <c r="D173" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E173" s="51"/>
-      <c r="F173" s="52"/>
-    </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E173" s="56"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H173" s="54"/>
+      <c r="I173" s="21">
+        <v>7</v>
+      </c>
+      <c r="J173" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K173" s="56"/>
+      <c r="L173" s="57"/>
+    </row>
+    <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="42" t="s">
         <v>9</v>
       </c>
@@ -5359,6 +5697,24 @@
         <v>24</v>
       </c>
       <c r="F174" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G174" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I174" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J174" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L174" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5384,6 +5740,27 @@
         <f>D175*E175</f>
         <v>500</v>
       </c>
+      <c r="G175" s="43">
+        <f>I173+1</f>
+        <v>8</v>
+      </c>
+      <c r="H175" s="8">
+        <v>9</v>
+      </c>
+      <c r="I175" s="31">
+        <f>((H175-G175+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J175" s="18">
+        <v>1</v>
+      </c>
+      <c r="K175" s="8">
+        <v>500</v>
+      </c>
+      <c r="L175" s="19">
+        <f>J175*K175</f>
+        <v>500</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="43">
@@ -5394,7 +5771,7 @@
         <v>12</v>
       </c>
       <c r="C176" s="31">
-        <f t="shared" ref="C176:C179" si="54">((B176-A176+1)*0.05)</f>
+        <f t="shared" ref="C176:C179" si="60">((B176-A176+1)*0.05)</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="D176" s="18">
@@ -5404,20 +5781,41 @@
         <v>500</v>
       </c>
       <c r="F176" s="19">
-        <f t="shared" ref="F176:F179" si="55">D176*E176</f>
+        <f t="shared" ref="F176:F179" si="61">D176*E176</f>
+        <v>1000</v>
+      </c>
+      <c r="G176" s="43">
+        <f>H175+1</f>
+        <v>10</v>
+      </c>
+      <c r="H176" s="8">
+        <v>12</v>
+      </c>
+      <c r="I176" s="31">
+        <f t="shared" ref="I176:I179" si="62">((H176-G176+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J176" s="18">
+        <v>2</v>
+      </c>
+      <c r="K176" s="8">
+        <v>500</v>
+      </c>
+      <c r="L176" s="19">
+        <f t="shared" ref="L176:L179" si="63">J176*K176</f>
         <v>1000</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="43">
-        <f t="shared" ref="A177:A179" si="56">B176+1</f>
+        <f t="shared" ref="A177:A179" si="64">B176+1</f>
         <v>13</v>
       </c>
       <c r="B177" s="8">
         <v>18</v>
       </c>
       <c r="C177" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="D177" s="18">
@@ -5427,20 +5825,41 @@
         <v>500</v>
       </c>
       <c r="F177" s="19">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
+        <v>1500</v>
+      </c>
+      <c r="G177" s="43">
+        <f t="shared" ref="G177:G179" si="65">H176+1</f>
+        <v>13</v>
+      </c>
+      <c r="H177" s="8">
+        <v>18</v>
+      </c>
+      <c r="I177" s="31">
+        <f t="shared" si="62"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J177" s="18">
+        <v>3</v>
+      </c>
+      <c r="K177" s="8">
+        <v>500</v>
+      </c>
+      <c r="L177" s="19">
+        <f t="shared" si="63"/>
         <v>1500</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>19</v>
       </c>
       <c r="B178" s="8">
         <v>24</v>
       </c>
       <c r="C178" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="D178" s="18">
@@ -5450,13 +5869,34 @@
         <v>1000</v>
       </c>
       <c r="F178" s="19">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
+        <v>2000</v>
+      </c>
+      <c r="G178" s="43">
+        <f t="shared" si="65"/>
+        <v>19</v>
+      </c>
+      <c r="H178" s="8">
+        <v>24</v>
+      </c>
+      <c r="I178" s="31">
+        <f t="shared" si="62"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J178" s="18">
+        <v>2</v>
+      </c>
+      <c r="K178" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L178" s="19">
+        <f t="shared" si="63"/>
         <v>2000</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="43">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>25</v>
       </c>
       <c r="B179" s="44">
@@ -5464,7 +5904,7 @@
         <v>27</v>
       </c>
       <c r="C179" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="D179" s="20">
@@ -5474,67 +5914,105 @@
         <v>2000</v>
       </c>
       <c r="F179" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="53" t="s">
+      <c r="G179" s="43">
+        <f t="shared" si="65"/>
+        <v>25</v>
+      </c>
+      <c r="H179" s="44">
+        <f>20+I173</f>
+        <v>27</v>
+      </c>
+      <c r="I179" s="31">
+        <f t="shared" si="62"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J179" s="20">
+        <v>2</v>
+      </c>
+      <c r="K179" s="28">
+        <v>2000</v>
+      </c>
+      <c r="L179" s="22">
+        <f t="shared" si="63"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B180" s="54"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="33">
         <f>'Individual Treasure'!B20</f>
         <v>1831.989932094441</v>
       </c>
-      <c r="D180" s="55" t="s">
+      <c r="D180" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E180" s="56"/>
+      <c r="E180" s="49"/>
       <c r="F180" s="34">
         <f>SUMPRODUCT(C175:C179,F175:F179)</f>
         <v>1850.0000000000005</v>
       </c>
+      <c r="G180" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H180" s="47"/>
+      <c r="I180" s="33">
+        <f>'Individual Treasure'!H20</f>
+        <v>0</v>
+      </c>
+      <c r="J180" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K180" s="49"/>
+      <c r="L180" s="34">
+        <f>SUMPRODUCT(I175:I179,L175:L179)</f>
+        <v>1850.0000000000005</v>
+      </c>
     </row>
     <row r="181" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="57" t="s">
+      <c r="A181" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B181" s="57"/>
-      <c r="C181" s="57"/>
-      <c r="D181" s="57"/>
-      <c r="E181" s="57"/>
-      <c r="F181" s="57"/>
-      <c r="G181" s="57"/>
-      <c r="H181" s="57"/>
-      <c r="I181" s="57"/>
-      <c r="J181" s="57"/>
-      <c r="K181" s="57"/>
-      <c r="L181" s="57"/>
+      <c r="B181" s="50"/>
+      <c r="C181" s="50"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="50"/>
+      <c r="G181" s="50"/>
+      <c r="H181" s="50"/>
+      <c r="I181" s="50"/>
+      <c r="J181" s="50"/>
+      <c r="K181" s="50"/>
+      <c r="L181" s="50"/>
     </row>
     <row r="182" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A182" s="46" t="s">
+      <c r="A182" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B182" s="46"/>
-      <c r="C182" s="46"/>
-      <c r="D182" s="46"/>
-      <c r="E182" s="46"/>
-      <c r="F182" s="47"/>
+      <c r="B182" s="51"/>
+      <c r="C182" s="51"/>
+      <c r="D182" s="51"/>
+      <c r="E182" s="51"/>
+      <c r="F182" s="52"/>
     </row>
     <row r="183" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="48" t="s">
+      <c r="A183" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B183" s="49"/>
+      <c r="B183" s="54"/>
       <c r="C183" s="21">
         <v>7</v>
       </c>
-      <c r="D183" s="50" t="s">
+      <c r="D183" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E183" s="51"/>
-      <c r="F183" s="52"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="57"/>
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="42" t="s">
@@ -5588,7 +6066,7 @@
         <v>11</v>
       </c>
       <c r="C186" s="31">
-        <f t="shared" ref="C186:C189" si="57">((B186-A186+1)*0.05)</f>
+        <f t="shared" ref="C186:C189" si="66">((B186-A186+1)*0.05)</f>
         <v>0.1</v>
       </c>
       <c r="D186" s="18">
@@ -5598,20 +6076,20 @@
         <v>1000</v>
       </c>
       <c r="F186" s="19">
-        <f t="shared" ref="F186:F189" si="58">D186*E186</f>
+        <f t="shared" ref="F186:F189" si="67">D186*E186</f>
         <v>1000</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="43">
-        <f t="shared" ref="A187:A189" si="59">B186+1</f>
+        <f t="shared" ref="A187:A189" si="68">B186+1</f>
         <v>12</v>
       </c>
       <c r="B187" s="8">
         <v>17</v>
       </c>
       <c r="C187" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="D187" s="18">
@@ -5621,20 +6099,20 @@
         <v>1000</v>
       </c>
       <c r="F187" s="19">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>2000</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="68"/>
         <v>18</v>
       </c>
       <c r="B188" s="8">
         <v>23</v>
       </c>
       <c r="C188" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="D188" s="18">
@@ -5644,13 +6122,13 @@
         <v>1000</v>
       </c>
       <c r="F188" s="19">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>3000</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="43">
-        <f t="shared" si="59"/>
+        <f t="shared" si="68"/>
         <v>24</v>
       </c>
       <c r="B189" s="44">
@@ -5658,7 +6136,7 @@
         <v>27</v>
       </c>
       <c r="C189" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>0.2</v>
       </c>
       <c r="D189" s="20">
@@ -5668,120 +6146,40 @@
         <v>2000</v>
       </c>
       <c r="F189" s="22">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>6000</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="53" t="s">
+      <c r="A190" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="54"/>
+      <c r="B190" s="47"/>
       <c r="C190" s="33">
         <f>'Individual Treasure'!B21</f>
         <v>2837.3166689405625</v>
       </c>
-      <c r="D190" s="55" t="s">
+      <c r="D190" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E190" s="56"/>
+      <c r="E190" s="49"/>
       <c r="F190" s="34">
         <f>SUMPRODUCT(C185:C189,F185:F189)</f>
         <v>2850</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A181:L181"/>
-    <mergeCell ref="A182:F182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="A161:L161"/>
-    <mergeCell ref="A162:F162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="A171:L171"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="A151:L151"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="A141:L141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="A131:L131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A121:L121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="A111:L111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A101:L101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="A91:L91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
+  <mergeCells count="134">
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G92:L92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="J100:K100"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D20:E20"/>
@@ -5806,11 +6204,106 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A91:L91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A131:L131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A121:L121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G122:L122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="A151:L151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="A141:L141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="A181:L181"/>
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="A161:L161"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="A171:L171"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="G172:L172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="J173:L173"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="J180:K180"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5881,7 +6374,7 @@
       <c r="W1" s="63"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="64"/>
@@ -6800,7 +7293,7 @@
       <c r="W1" s="63"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="64"/>
@@ -7719,7 +8212,7 @@
       <c r="W1" s="63"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="64"/>

--- a/Individual Treasure Averages.xlsx
+++ b/Individual Treasure Averages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD63BF2-B39B-440B-BF2F-D5782B389F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405FF609-75E4-4345-A359-D03A0496D57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="95">
   <si>
     <t>Individual gp Per Formula</t>
   </si>
@@ -294,6 +294,27 @@
   </si>
   <si>
     <t>CR 10: Large Creature</t>
+  </si>
+  <si>
+    <t>CR 17 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 17: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 20 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 20: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 22 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 22: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 24 Individual Treasure Tables</t>
   </si>
 </sst>
 </file>
@@ -673,12 +694,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,6 +723,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,6 +744,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,9 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1073,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD8D082-213D-4692-B6C5-868C3C1BDB24}">
-  <dimension ref="A1:AD190"/>
+  <dimension ref="A1:AD230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="G230" sqref="G230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,20 +1719,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="Z1" s="39"/>
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
@@ -1753,10 +1774,10 @@
       <c r="AD2" s="37"/>
     </row>
     <row r="3" spans="1:30" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="21">
         <v>3</v>
       </c>
@@ -1951,18 +1972,18 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="33">
         <f>'Individual Treasure'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="34">
         <f>SUMPRODUCT(C5:C9,F5:F9)</f>
         <v>1</v>
@@ -1988,20 +2009,20 @@
       <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
@@ -2009,14 +2030,14 @@
       <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -2043,18 +2064,18 @@
       <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="21">
         <v>3</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="36"/>
@@ -2211,18 +2232,18 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="33">
         <f>'Individual Treasure'!B4</f>
         <v>1.6717350674697367</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="34">
         <f>SUMPRODUCT(C15:C19,F15:F19)</f>
         <v>1.6750000000000003</v>
@@ -2231,64 +2252,64 @@
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="51" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="21">
         <v>3</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="53" t="s">
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="54"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="21">
         <v>3</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="55"/>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
@@ -2551,78 +2572,78 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="49"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="34">
         <f>SUMPRODUCT(C25:C29,F25:F29)</f>
         <v>2.5750000000000002</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="47"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="J30" s="48" t="s">
+      <c r="J30" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="49"/>
+      <c r="K30" s="47"/>
       <c r="L30" s="34">
         <f>SUMPRODUCT(I25:I29,L25:L29)</f>
         <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
     </row>
     <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="54"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="21">
         <v>3</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
@@ -2761,62 +2782,62 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="33">
         <f>'Individual Treasure'!B6</f>
         <v>4.0099310619512103</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="49"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="34">
         <f>SUMPRODUCT(C35:C39,F35:F39)</f>
         <v>4.05</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="54"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="21">
         <v>3</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
@@ -2955,62 +2976,62 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="47"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="33">
         <f>'Individual Treasure'!B7</f>
         <v>6.2104294592761873</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="49"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="34">
         <f>SUMPRODUCT(C45:C49,F45:F49)</f>
         <v>6.2000000000000011</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
     </row>
     <row r="52" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="52"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="54"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="21">
         <v>3</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="56"/>
-      <c r="F53" s="57"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="55"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
@@ -3149,62 +3170,62 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="47"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="33">
         <f>'Individual Treasure'!B8</f>
         <v>9.6184780917100969</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="49"/>
+      <c r="E60" s="47"/>
       <c r="F60" s="34">
         <f>SUMPRODUCT(C55:C59,F55:F59)</f>
         <v>9.6000000000000014</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
     </row>
     <row r="62" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
     </row>
     <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="21">
         <v>3</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="56"/>
-      <c r="F63" s="57"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="55"/>
     </row>
     <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
@@ -3343,62 +3364,62 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="47"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="33">
         <f>'Individual Treasure'!B9</f>
         <v>14.89673482443669</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="49"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="34">
         <f>SUMPRODUCT(C65:C69,F65:F69)</f>
         <v>14.900000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
     </row>
     <row r="72" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="52"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="50"/>
     </row>
     <row r="73" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="54"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="21">
         <v>5</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="56"/>
-      <c r="F73" s="57"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="55"/>
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
@@ -3537,62 +3558,62 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="47"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="33">
         <f>'Individual Treasure'!B10</f>
         <v>23.071499078512772</v>
       </c>
-      <c r="D80" s="48" t="s">
+      <c r="D80" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="49"/>
+      <c r="E80" s="47"/>
       <c r="F80" s="34">
         <f>SUMPRODUCT(C75:C79,F75:F79)</f>
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
     </row>
     <row r="82" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="52"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="50"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="54"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="21">
         <v>5</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="56"/>
-      <c r="F83" s="57"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="55"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
@@ -3731,82 +3752,82 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="47"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="33">
         <f>'Individual Treasure'!B11</f>
         <v>35.732264553480377</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D90" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="49"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="34">
         <f>SUMPRODUCT(C85:C89,F85:F89)</f>
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="50" t="s">
+      <c r="A91" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
     </row>
     <row r="92" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A92" s="51" t="s">
+      <c r="A92" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="51" t="s">
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="H92" s="51"/>
-      <c r="I92" s="51"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="52"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="50"/>
     </row>
     <row r="93" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="21">
         <v>5</v>
       </c>
-      <c r="D93" s="55" t="s">
+      <c r="D93" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="56"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="53" t="s">
+      <c r="E93" s="54"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H93" s="54"/>
+      <c r="H93" s="52"/>
       <c r="I93" s="21">
         <v>5</v>
       </c>
-      <c r="J93" s="55" t="s">
+      <c r="J93" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K93" s="56"/>
-      <c r="L93" s="57"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="55"/>
     </row>
     <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
@@ -4069,78 +4090,78 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="47"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="33">
         <f>'Individual Treasure'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="D100" s="48" t="s">
+      <c r="D100" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="49"/>
+      <c r="E100" s="47"/>
       <c r="F100" s="34">
         <f>SUMPRODUCT(C95:C99,F95:F99)</f>
         <v>55.25</v>
       </c>
-      <c r="G100" s="46" t="s">
+      <c r="G100" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H100" s="47"/>
+      <c r="H100" s="57"/>
       <c r="I100" s="33">
         <f>'Individual Treasure'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="J100" s="48" t="s">
+      <c r="J100" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K100" s="49"/>
+      <c r="K100" s="47"/>
       <c r="L100" s="34">
         <f>SUMPRODUCT(I95:I99,L95:L99)</f>
         <v>56.25</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="50" t="s">
+      <c r="A101" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50"/>
-      <c r="K101" s="50"/>
-      <c r="L101" s="50"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
     </row>
     <row r="102" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A102" s="51" t="s">
+      <c r="A102" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="51"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="52"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="50"/>
     </row>
     <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="21">
         <v>5</v>
       </c>
-      <c r="D103" s="55" t="s">
+      <c r="D103" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="56"/>
-      <c r="F103" s="57"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="55"/>
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
@@ -4279,62 +4300,62 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="46" t="s">
+      <c r="A110" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="47"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="33">
         <f>'Individual Treasure'!B13</f>
         <v>85.709703849023938</v>
       </c>
-      <c r="D110" s="48" t="s">
+      <c r="D110" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E110" s="49"/>
+      <c r="E110" s="47"/>
       <c r="F110" s="34">
         <f>SUMPRODUCT(C105:C109,F105:F109)</f>
         <v>85.5</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="50" t="s">
+      <c r="A111" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="50"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="50"/>
-      <c r="J111" s="50"/>
-      <c r="K111" s="50"/>
-      <c r="L111" s="50"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="48"/>
+      <c r="J111" s="48"/>
+      <c r="K111" s="48"/>
+      <c r="L111" s="48"/>
     </row>
     <row r="112" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A112" s="51" t="s">
+      <c r="A112" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="52"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="50"/>
     </row>
     <row r="113" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="53" t="s">
+      <c r="A113" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="54"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="21">
         <v>5</v>
       </c>
-      <c r="D113" s="55" t="s">
+      <c r="D113" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="56"/>
-      <c r="F113" s="57"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="55"/>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="42" t="s">
@@ -4473,82 +4494,82 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="46" t="s">
+      <c r="A120" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B120" s="47"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="33">
         <f>'Individual Treasure'!B14</f>
         <v>132.7439453462336</v>
       </c>
-      <c r="D120" s="48" t="s">
+      <c r="D120" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="49"/>
+      <c r="E120" s="47"/>
       <c r="F120" s="34">
         <f>SUMPRODUCT(C115:C119,F115:F119)</f>
         <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="50" t="s">
+      <c r="A121" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="50"/>
-      <c r="C121" s="50"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
-      <c r="I121" s="50"/>
-      <c r="J121" s="50"/>
-      <c r="K121" s="50"/>
-      <c r="L121" s="50"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="48"/>
+      <c r="L121" s="48"/>
     </row>
     <row r="122" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A122" s="51" t="s">
+      <c r="A122" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B122" s="51"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="52"/>
-      <c r="G122" s="51" t="s">
+      <c r="B122" s="49"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="51"/>
-      <c r="K122" s="51"/>
-      <c r="L122" s="52"/>
+      <c r="H122" s="49"/>
+      <c r="I122" s="49"/>
+      <c r="J122" s="49"/>
+      <c r="K122" s="49"/>
+      <c r="L122" s="50"/>
     </row>
     <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="54"/>
+      <c r="B123" s="52"/>
       <c r="C123" s="21">
         <v>5</v>
       </c>
-      <c r="D123" s="55" t="s">
+      <c r="D123" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="56"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="53" t="s">
+      <c r="E123" s="54"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H123" s="54"/>
+      <c r="H123" s="52"/>
       <c r="I123" s="21">
         <v>5</v>
       </c>
-      <c r="J123" s="55" t="s">
+      <c r="J123" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K123" s="56"/>
-      <c r="L123" s="57"/>
+      <c r="K123" s="54"/>
+      <c r="L123" s="55"/>
     </row>
     <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="42" t="s">
@@ -4811,78 +4832,78 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="47"/>
+      <c r="B130" s="57"/>
       <c r="C130" s="33">
         <f>'Individual Treasure'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="D130" s="48" t="s">
+      <c r="D130" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="49"/>
+      <c r="E130" s="47"/>
       <c r="F130" s="34">
         <f>SUMPRODUCT(C125:C129,F125:F129)</f>
         <v>205</v>
       </c>
-      <c r="G130" s="46" t="s">
+      <c r="G130" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H130" s="47"/>
+      <c r="H130" s="57"/>
       <c r="I130" s="33">
         <f>'Individual Treasure'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="J130" s="48" t="s">
+      <c r="J130" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K130" s="49"/>
+      <c r="K130" s="47"/>
       <c r="L130" s="34">
         <f>SUMPRODUCT(I125:I129,L125:L129)</f>
         <v>205.5</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="50" t="s">
+      <c r="A131" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B131" s="50"/>
-      <c r="C131" s="50"/>
-      <c r="D131" s="50"/>
-      <c r="E131" s="50"/>
-      <c r="F131" s="50"/>
-      <c r="G131" s="50"/>
-      <c r="H131" s="50"/>
-      <c r="I131" s="50"/>
-      <c r="J131" s="50"/>
-      <c r="K131" s="50"/>
-      <c r="L131" s="50"/>
+      <c r="B131" s="48"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48"/>
+      <c r="J131" s="48"/>
+      <c r="K131" s="48"/>
+      <c r="L131" s="48"/>
     </row>
     <row r="132" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A132" s="51" t="s">
+      <c r="A132" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="51"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="51"/>
-      <c r="F132" s="52"/>
+      <c r="B132" s="49"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="50"/>
     </row>
     <row r="133" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="53" t="s">
+      <c r="A133" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B133" s="54"/>
+      <c r="B133" s="52"/>
       <c r="C133" s="21">
         <v>7</v>
       </c>
-      <c r="D133" s="55" t="s">
+      <c r="D133" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="56"/>
-      <c r="F133" s="57"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="55"/>
     </row>
     <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
@@ -5021,62 +5042,62 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="46" t="s">
+      <c r="A140" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="47"/>
+      <c r="B140" s="57"/>
       <c r="C140" s="33">
         <f>'Individual Treasure'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="D140" s="48" t="s">
+      <c r="D140" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="49"/>
+      <c r="E140" s="47"/>
       <c r="F140" s="34">
         <f>SUMPRODUCT(C135:C139,F135:F139)</f>
         <v>317.5</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="50" t="s">
+      <c r="A141" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="50"/>
-      <c r="I141" s="50"/>
-      <c r="J141" s="50"/>
-      <c r="K141" s="50"/>
-      <c r="L141" s="50"/>
+      <c r="B141" s="48"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="48"/>
+      <c r="J141" s="48"/>
+      <c r="K141" s="48"/>
+      <c r="L141" s="48"/>
     </row>
     <row r="142" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A142" s="51" t="s">
+      <c r="A142" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B142" s="51"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="52"/>
+      <c r="B142" s="49"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="50"/>
     </row>
     <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="53" t="s">
+      <c r="A143" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="54"/>
+      <c r="B143" s="52"/>
       <c r="C143" s="21">
         <v>7</v>
       </c>
-      <c r="D143" s="55" t="s">
+      <c r="D143" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="56"/>
-      <c r="F143" s="57"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="55"/>
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="42" t="s">
@@ -5215,62 +5236,62 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="46" t="s">
+      <c r="A150" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B150" s="47"/>
+      <c r="B150" s="57"/>
       <c r="C150" s="33">
         <f>'Individual Treasure'!B17</f>
         <v>493.13849111663814</v>
       </c>
-      <c r="D150" s="48" t="s">
+      <c r="D150" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="49"/>
+      <c r="E150" s="47"/>
       <c r="F150" s="34">
         <f>SUMPRODUCT(C145:C149,F145:F149)</f>
         <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="50" t="s">
+      <c r="A151" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B151" s="50"/>
-      <c r="C151" s="50"/>
-      <c r="D151" s="50"/>
-      <c r="E151" s="50"/>
-      <c r="F151" s="50"/>
-      <c r="G151" s="50"/>
-      <c r="H151" s="50"/>
-      <c r="I151" s="50"/>
-      <c r="J151" s="50"/>
-      <c r="K151" s="50"/>
-      <c r="L151" s="50"/>
+      <c r="B151" s="48"/>
+      <c r="C151" s="48"/>
+      <c r="D151" s="48"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48"/>
+      <c r="I151" s="48"/>
+      <c r="J151" s="48"/>
+      <c r="K151" s="48"/>
+      <c r="L151" s="48"/>
     </row>
     <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A152" s="51" t="s">
+      <c r="A152" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B152" s="51"/>
-      <c r="C152" s="51"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51"/>
-      <c r="F152" s="52"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="50"/>
     </row>
     <row r="153" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="53" t="s">
+      <c r="A153" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B153" s="54"/>
+      <c r="B153" s="52"/>
       <c r="C153" s="21">
         <v>7</v>
       </c>
-      <c r="D153" s="55" t="s">
+      <c r="D153" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="56"/>
-      <c r="F153" s="57"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="55"/>
     </row>
     <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="42" t="s">
@@ -5409,62 +5430,62 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="46" t="s">
+      <c r="A160" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B160" s="47"/>
+      <c r="B160" s="57"/>
       <c r="C160" s="33">
         <f>'Individual Treasure'!B18</f>
         <v>763.75423053869986</v>
       </c>
-      <c r="D160" s="48" t="s">
+      <c r="D160" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="49"/>
+      <c r="E160" s="47"/>
       <c r="F160" s="34">
         <f>SUMPRODUCT(C155:C159,F155:F159)</f>
         <v>760</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="50" t="s">
+      <c r="A161" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B161" s="50"/>
-      <c r="C161" s="50"/>
-      <c r="D161" s="50"/>
-      <c r="E161" s="50"/>
-      <c r="F161" s="50"/>
-      <c r="G161" s="50"/>
-      <c r="H161" s="50"/>
-      <c r="I161" s="50"/>
-      <c r="J161" s="50"/>
-      <c r="K161" s="50"/>
-      <c r="L161" s="50"/>
+      <c r="B161" s="48"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="48"/>
+      <c r="I161" s="48"/>
+      <c r="J161" s="48"/>
+      <c r="K161" s="48"/>
+      <c r="L161" s="48"/>
     </row>
     <row r="162" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A162" s="51" t="s">
+      <c r="A162" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B162" s="51"/>
-      <c r="C162" s="51"/>
-      <c r="D162" s="51"/>
-      <c r="E162" s="51"/>
-      <c r="F162" s="52"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="50"/>
     </row>
     <row r="163" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="53" t="s">
+      <c r="A163" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B163" s="54"/>
+      <c r="B163" s="52"/>
       <c r="C163" s="21">
         <v>7</v>
       </c>
-      <c r="D163" s="55" t="s">
+      <c r="D163" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E163" s="56"/>
-      <c r="F163" s="57"/>
+      <c r="E163" s="54"/>
+      <c r="F163" s="55"/>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="42" t="s">
@@ -5603,82 +5624,82 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="46" t="s">
+      <c r="A170" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="47"/>
+      <c r="B170" s="57"/>
       <c r="C170" s="33">
         <f>'Individual Treasure'!B19</f>
         <v>1182.8736453829017</v>
       </c>
-      <c r="D170" s="48" t="s">
+      <c r="D170" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E170" s="49"/>
+      <c r="E170" s="47"/>
       <c r="F170" s="34">
         <f>SUMPRODUCT(C165:C169,F165:F169)</f>
         <v>1205.0000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="50" t="s">
+      <c r="A171" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B171" s="50"/>
-      <c r="C171" s="50"/>
-      <c r="D171" s="50"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="50"/>
-      <c r="G171" s="50"/>
-      <c r="H171" s="50"/>
-      <c r="I171" s="50"/>
-      <c r="J171" s="50"/>
-      <c r="K171" s="50"/>
-      <c r="L171" s="50"/>
+      <c r="B171" s="48"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="48"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="48"/>
+      <c r="G171" s="48"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="48"/>
+      <c r="J171" s="48"/>
+      <c r="K171" s="48"/>
+      <c r="L171" s="48"/>
     </row>
     <row r="172" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A172" s="51" t="s">
+      <c r="A172" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="51"/>
-      <c r="C172" s="51"/>
-      <c r="D172" s="51"/>
-      <c r="E172" s="51"/>
-      <c r="F172" s="52"/>
-      <c r="G172" s="66" t="s">
+      <c r="B172" s="49"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="H172" s="51"/>
-      <c r="I172" s="51"/>
-      <c r="J172" s="51"/>
-      <c r="K172" s="51"/>
-      <c r="L172" s="52"/>
+      <c r="H172" s="49"/>
+      <c r="I172" s="49"/>
+      <c r="J172" s="49"/>
+      <c r="K172" s="49"/>
+      <c r="L172" s="50"/>
     </row>
     <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="53" t="s">
+      <c r="A173" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B173" s="54"/>
+      <c r="B173" s="52"/>
       <c r="C173" s="21">
         <v>7</v>
       </c>
-      <c r="D173" s="55" t="s">
+      <c r="D173" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E173" s="56"/>
-      <c r="F173" s="57"/>
-      <c r="G173" s="53" t="s">
+      <c r="E173" s="54"/>
+      <c r="F173" s="55"/>
+      <c r="G173" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H173" s="54"/>
+      <c r="H173" s="52"/>
       <c r="I173" s="21">
         <v>7</v>
       </c>
-      <c r="J173" s="55" t="s">
+      <c r="J173" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K173" s="56"/>
-      <c r="L173" s="57"/>
+      <c r="K173" s="54"/>
+      <c r="L173" s="55"/>
     </row>
     <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="42" t="s">
@@ -5941,78 +5962,78 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="46" t="s">
+      <c r="A180" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B180" s="47"/>
+      <c r="B180" s="57"/>
       <c r="C180" s="33">
         <f>'Individual Treasure'!B20</f>
         <v>1831.989932094441</v>
       </c>
-      <c r="D180" s="48" t="s">
+      <c r="D180" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E180" s="49"/>
+      <c r="E180" s="47"/>
       <c r="F180" s="34">
         <f>SUMPRODUCT(C175:C179,F175:F179)</f>
         <v>1850.0000000000005</v>
       </c>
-      <c r="G180" s="46" t="s">
+      <c r="G180" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H180" s="47"/>
+      <c r="H180" s="57"/>
       <c r="I180" s="33">
         <f>'Individual Treasure'!H20</f>
         <v>0</v>
       </c>
-      <c r="J180" s="48" t="s">
+      <c r="J180" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K180" s="49"/>
+      <c r="K180" s="47"/>
       <c r="L180" s="34">
         <f>SUMPRODUCT(I175:I179,L175:L179)</f>
         <v>1850.0000000000005</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="50" t="s">
+      <c r="A181" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B181" s="50"/>
-      <c r="C181" s="50"/>
-      <c r="D181" s="50"/>
-      <c r="E181" s="50"/>
-      <c r="F181" s="50"/>
-      <c r="G181" s="50"/>
-      <c r="H181" s="50"/>
-      <c r="I181" s="50"/>
-      <c r="J181" s="50"/>
-      <c r="K181" s="50"/>
-      <c r="L181" s="50"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="48"/>
+      <c r="I181" s="48"/>
+      <c r="J181" s="48"/>
+      <c r="K181" s="48"/>
+      <c r="L181" s="48"/>
     </row>
     <row r="182" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A182" s="51" t="s">
+      <c r="A182" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B182" s="51"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="51"/>
-      <c r="E182" s="51"/>
-      <c r="F182" s="52"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="49"/>
+      <c r="D182" s="49"/>
+      <c r="E182" s="49"/>
+      <c r="F182" s="50"/>
     </row>
     <row r="183" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="53" t="s">
+      <c r="A183" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B183" s="54"/>
+      <c r="B183" s="52"/>
       <c r="C183" s="21">
         <v>7</v>
       </c>
-      <c r="D183" s="55" t="s">
+      <c r="D183" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E183" s="56"/>
-      <c r="F183" s="57"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="55"/>
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="42" t="s">
@@ -6151,136 +6172,825 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="46" t="s">
+      <c r="A190" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="47"/>
+      <c r="B190" s="57"/>
       <c r="C190" s="33">
         <f>'Individual Treasure'!B21</f>
         <v>2837.3166689405625</v>
       </c>
-      <c r="D190" s="48" t="s">
+      <c r="D190" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E190" s="49"/>
+      <c r="E190" s="47"/>
       <c r="F190" s="34">
         <f>SUMPRODUCT(C185:C189,F185:F189)</f>
         <v>2850</v>
       </c>
     </row>
+    <row r="191" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B191" s="48"/>
+      <c r="C191" s="48"/>
+      <c r="D191" s="48"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="48"/>
+      <c r="I191" s="48"/>
+      <c r="J191" s="48"/>
+      <c r="K191" s="48"/>
+      <c r="L191" s="48"/>
+    </row>
+    <row r="192" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A192" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B192" s="49"/>
+      <c r="C192" s="49"/>
+      <c r="D192" s="49"/>
+      <c r="E192" s="49"/>
+      <c r="F192" s="50"/>
+    </row>
+    <row r="193" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B193" s="52"/>
+      <c r="C193" s="21">
+        <v>7</v>
+      </c>
+      <c r="D193" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E193" s="54"/>
+      <c r="F193" s="55"/>
+    </row>
+    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D194" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="43">
+        <f>C193+1</f>
+        <v>8</v>
+      </c>
+      <c r="B195" s="8">
+        <v>9</v>
+      </c>
+      <c r="C195" s="31">
+        <f>((B195-A195+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D195" s="18">
+        <v>1</v>
+      </c>
+      <c r="E195" s="8">
+        <v>500</v>
+      </c>
+      <c r="F195" s="19">
+        <f>D195*E195</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="43">
+        <f>B195+1</f>
+        <v>10</v>
+      </c>
+      <c r="B196" s="8">
+        <v>11</v>
+      </c>
+      <c r="C196" s="31">
+        <f t="shared" ref="C196:C199" si="69">((B196-A196+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D196" s="18">
+        <v>3</v>
+      </c>
+      <c r="E196" s="8">
+        <v>500</v>
+      </c>
+      <c r="F196" s="19">
+        <f t="shared" ref="F196:F199" si="70">D196*E196</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="43">
+        <f t="shared" ref="A197:A199" si="71">B196+1</f>
+        <v>12</v>
+      </c>
+      <c r="B197" s="8">
+        <v>17</v>
+      </c>
+      <c r="C197" s="31">
+        <f t="shared" si="69"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D197" s="18">
+        <v>2</v>
+      </c>
+      <c r="E197" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F197" s="19">
+        <f t="shared" si="70"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="43">
+        <f t="shared" si="71"/>
+        <v>18</v>
+      </c>
+      <c r="B198" s="8">
+        <v>22</v>
+      </c>
+      <c r="C198" s="31">
+        <f t="shared" si="69"/>
+        <v>0.25</v>
+      </c>
+      <c r="D198" s="18">
+        <v>2</v>
+      </c>
+      <c r="E198" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F198" s="19">
+        <f t="shared" si="70"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="43">
+        <f t="shared" si="71"/>
+        <v>23</v>
+      </c>
+      <c r="B199" s="44">
+        <f>20+C193</f>
+        <v>27</v>
+      </c>
+      <c r="C199" s="31">
+        <f t="shared" si="69"/>
+        <v>0.25</v>
+      </c>
+      <c r="D199" s="20">
+        <v>1</v>
+      </c>
+      <c r="E199" s="28">
+        <v>10000</v>
+      </c>
+      <c r="F199" s="22">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B200" s="57"/>
+      <c r="C200" s="33">
+        <f>'Individual Treasure'!B22</f>
+        <v>4394.3286689596089</v>
+      </c>
+      <c r="D200" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E200" s="47"/>
+      <c r="F200" s="34">
+        <f>SUMPRODUCT(C195:C199,F195:F199)</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B201" s="48"/>
+      <c r="C201" s="48"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="48"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="48"/>
+      <c r="H201" s="48"/>
+      <c r="I201" s="48"/>
+      <c r="J201" s="48"/>
+      <c r="K201" s="48"/>
+      <c r="L201" s="48"/>
+    </row>
+    <row r="202" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A202" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B202" s="49"/>
+      <c r="C202" s="49"/>
+      <c r="D202" s="49"/>
+      <c r="E202" s="49"/>
+      <c r="F202" s="50"/>
+    </row>
+    <row r="203" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B203" s="52"/>
+      <c r="C203" s="21">
+        <v>7</v>
+      </c>
+      <c r="D203" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E203" s="54"/>
+      <c r="F203" s="55"/>
+    </row>
+    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D204" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F204" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="43">
+        <f>C203+1</f>
+        <v>8</v>
+      </c>
+      <c r="B205" s="8">
+        <v>9</v>
+      </c>
+      <c r="C205" s="31">
+        <f>((B205-A205+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D205" s="18">
+        <v>2</v>
+      </c>
+      <c r="E205" s="8">
+        <v>500</v>
+      </c>
+      <c r="F205" s="19">
+        <f>D205*E205</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="43">
+        <f>B205+1</f>
+        <v>10</v>
+      </c>
+      <c r="B206" s="8">
+        <v>11</v>
+      </c>
+      <c r="C206" s="31">
+        <f t="shared" ref="C206:C209" si="72">((B206-A206+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D206" s="18">
+        <v>3</v>
+      </c>
+      <c r="E206" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F206" s="19">
+        <f t="shared" ref="F206:F209" si="73">D206*E206</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="43">
+        <f t="shared" ref="A207:A209" si="74">B206+1</f>
+        <v>12</v>
+      </c>
+      <c r="B207" s="8">
+        <v>18</v>
+      </c>
+      <c r="C207" s="31">
+        <f t="shared" si="72"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D207" s="18">
+        <v>1</v>
+      </c>
+      <c r="E207" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F207" s="19">
+        <f t="shared" si="73"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="43">
+        <f t="shared" si="74"/>
+        <v>19</v>
+      </c>
+      <c r="B208" s="8">
+        <v>23</v>
+      </c>
+      <c r="C208" s="31">
+        <f t="shared" si="72"/>
+        <v>0.25</v>
+      </c>
+      <c r="D208" s="18">
+        <v>2</v>
+      </c>
+      <c r="E208" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F208" s="19">
+        <f t="shared" si="73"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="43">
+        <f t="shared" si="74"/>
+        <v>24</v>
+      </c>
+      <c r="B209" s="44">
+        <f>20+C203</f>
+        <v>27</v>
+      </c>
+      <c r="C209" s="31">
+        <f t="shared" si="72"/>
+        <v>0.2</v>
+      </c>
+      <c r="D209" s="20">
+        <v>2</v>
+      </c>
+      <c r="E209" s="28">
+        <v>20000</v>
+      </c>
+      <c r="F209" s="22">
+        <f t="shared" si="73"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B210" s="57"/>
+      <c r="C210" s="33">
+        <f>'Individual Treasure'!B25</f>
+        <v>16324.756685731661</v>
+      </c>
+      <c r="D210" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E210" s="47"/>
+      <c r="F210" s="34">
+        <f>SUMPRODUCT(C205:C209,F205:F209)</f>
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B211" s="48"/>
+      <c r="C211" s="48"/>
+      <c r="D211" s="48"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="48"/>
+      <c r="H211" s="48"/>
+      <c r="I211" s="48"/>
+      <c r="J211" s="48"/>
+      <c r="K211" s="48"/>
+      <c r="L211" s="48"/>
+    </row>
+    <row r="212" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A212" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B212" s="49"/>
+      <c r="C212" s="49"/>
+      <c r="D212" s="49"/>
+      <c r="E212" s="49"/>
+      <c r="F212" s="50"/>
+    </row>
+    <row r="213" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B213" s="52"/>
+      <c r="C213" s="21">
+        <v>7</v>
+      </c>
+      <c r="D213" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E213" s="54"/>
+      <c r="F213" s="55"/>
+    </row>
+    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D214" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F214" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="43">
+        <f>C213+1</f>
+        <v>8</v>
+      </c>
+      <c r="B215" s="8">
+        <v>9</v>
+      </c>
+      <c r="C215" s="31">
+        <f>((B215-A215+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D215" s="18">
+        <v>2</v>
+      </c>
+      <c r="E215" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F215" s="19">
+        <f>D215*E215</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="43">
+        <f>B215+1</f>
+        <v>10</v>
+      </c>
+      <c r="B216" s="8">
+        <v>13</v>
+      </c>
+      <c r="C216" s="31">
+        <f t="shared" ref="C216:C219" si="75">((B216-A216+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D216" s="18">
+        <v>3</v>
+      </c>
+      <c r="E216" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F216" s="19">
+        <f t="shared" ref="F216:F219" si="76">D216*E216</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="43">
+        <f t="shared" ref="A217:A219" si="77">B216+1</f>
+        <v>14</v>
+      </c>
+      <c r="B217" s="8">
+        <v>18</v>
+      </c>
+      <c r="C217" s="31">
+        <f t="shared" si="75"/>
+        <v>0.25</v>
+      </c>
+      <c r="D217" s="18">
+        <v>2</v>
+      </c>
+      <c r="E217" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F217" s="19">
+        <f t="shared" si="76"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="43">
+        <f t="shared" si="77"/>
+        <v>19</v>
+      </c>
+      <c r="B218" s="8">
+        <v>23</v>
+      </c>
+      <c r="C218" s="31">
+        <f t="shared" si="75"/>
+        <v>0.25</v>
+      </c>
+      <c r="D218" s="18">
+        <v>2</v>
+      </c>
+      <c r="E218" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F218" s="19">
+        <f t="shared" si="76"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="43">
+        <f t="shared" si="77"/>
+        <v>24</v>
+      </c>
+      <c r="B219" s="44">
+        <f>20+C213</f>
+        <v>27</v>
+      </c>
+      <c r="C219" s="31">
+        <f t="shared" si="75"/>
+        <v>0.2</v>
+      </c>
+      <c r="D219" s="20">
+        <v>3</v>
+      </c>
+      <c r="E219" s="28">
+        <v>20000</v>
+      </c>
+      <c r="F219" s="22">
+        <f t="shared" si="76"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B220" s="57"/>
+      <c r="C220" s="33">
+        <f>'Individual Treasure'!B27</f>
+        <v>39157.609472169628</v>
+      </c>
+      <c r="D220" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E220" s="47"/>
+      <c r="F220" s="34">
+        <f>SUMPRODUCT(C215:C219,F215:F219)</f>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B221" s="48"/>
+      <c r="C221" s="48"/>
+      <c r="D221" s="48"/>
+      <c r="E221" s="48"/>
+      <c r="F221" s="48"/>
+      <c r="G221" s="48"/>
+      <c r="H221" s="48"/>
+      <c r="I221" s="48"/>
+      <c r="J221" s="48"/>
+      <c r="K221" s="48"/>
+      <c r="L221" s="48"/>
+    </row>
+    <row r="222" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A222" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B222" s="49"/>
+      <c r="C222" s="49"/>
+      <c r="D222" s="49"/>
+      <c r="E222" s="49"/>
+      <c r="F222" s="50"/>
+    </row>
+    <row r="223" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B223" s="52"/>
+      <c r="C223" s="21">
+        <v>7</v>
+      </c>
+      <c r="D223" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E223" s="54"/>
+      <c r="F223" s="55"/>
+    </row>
+    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D224" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F224" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="43">
+        <f>C223+1</f>
+        <v>8</v>
+      </c>
+      <c r="B225" s="8">
+        <v>9</v>
+      </c>
+      <c r="C225" s="31">
+        <f>((B225-A225+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D225" s="18">
+        <v>2</v>
+      </c>
+      <c r="E225" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F225" s="19">
+        <f>D225*E225</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="43">
+        <f>B225+1</f>
+        <v>10</v>
+      </c>
+      <c r="B226" s="8">
+        <v>14</v>
+      </c>
+      <c r="C226" s="31">
+        <f t="shared" ref="C226:C229" si="78">((B226-A226+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D226" s="18">
+        <v>3</v>
+      </c>
+      <c r="E226" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F226" s="19">
+        <f t="shared" ref="F226:F229" si="79">D226*E226</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="43">
+        <f t="shared" ref="A227:A229" si="80">B226+1</f>
+        <v>15</v>
+      </c>
+      <c r="B227" s="8">
+        <v>18</v>
+      </c>
+      <c r="C227" s="31">
+        <f t="shared" si="78"/>
+        <v>0.2</v>
+      </c>
+      <c r="D227" s="18">
+        <v>1</v>
+      </c>
+      <c r="E227" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F227" s="19">
+        <f t="shared" si="79"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="43">
+        <f t="shared" si="80"/>
+        <v>19</v>
+      </c>
+      <c r="B228" s="8">
+        <v>25</v>
+      </c>
+      <c r="C228" s="31">
+        <f t="shared" si="78"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D228" s="18">
+        <v>1</v>
+      </c>
+      <c r="E228" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F228" s="19">
+        <f t="shared" si="79"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="43">
+        <f t="shared" si="80"/>
+        <v>26</v>
+      </c>
+      <c r="B229" s="44">
+        <f>20+C223</f>
+        <v>27</v>
+      </c>
+      <c r="C229" s="31">
+        <f t="shared" si="78"/>
+        <v>0.1</v>
+      </c>
+      <c r="D229" s="20">
+        <v>2</v>
+      </c>
+      <c r="E229" s="28">
+        <v>100000</v>
+      </c>
+      <c r="F229" s="22">
+        <f t="shared" si="79"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B230" s="57"/>
+      <c r="C230" s="33">
+        <f>'Individual Treasure'!B29</f>
+        <v>93925.956085772239</v>
+      </c>
+      <c r="D230" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E230" s="47"/>
+      <c r="F230" s="34">
+        <f>SUMPRODUCT(C225:C229,F225:F229)</f>
+        <v>94000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G92:L92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A91:L91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A111:L111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A101:L101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="A131:L131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A121:L121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G122:L122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="A151:L151"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="A141:L141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:E150"/>
+  <mergeCells count="158">
+    <mergeCell ref="A222:F222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A211:L211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="A221:L221"/>
+    <mergeCell ref="A191:L191"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:L201"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="D203:F203"/>
     <mergeCell ref="A180:B180"/>
     <mergeCell ref="D180:E180"/>
     <mergeCell ref="A181:L181"/>
@@ -6304,6 +7014,117 @@
     <mergeCell ref="J173:L173"/>
     <mergeCell ref="G180:H180"/>
     <mergeCell ref="J180:K180"/>
+    <mergeCell ref="A151:L151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="A141:L141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="A131:L131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A121:L121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G122:L122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A91:L91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G92:L92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6347,37 +7168,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="60" t="s">
         <v>12</v>
       </c>
@@ -6982,37 +7803,37 @@
       <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="60" t="s">
         <v>38</v>
       </c>
@@ -7266,37 +8087,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="60" t="s">
         <v>12</v>
       </c>
@@ -7901,37 +8722,37 @@
       <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="60" t="s">
         <v>38</v>
       </c>
@@ -8185,37 +9006,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="60" t="s">
         <v>12</v>
       </c>
@@ -8820,37 +9641,37 @@
       <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="60" t="s">
         <v>38</v>
       </c>

--- a/Individual Treasure Averages.xlsx
+++ b/Individual Treasure Averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405FF609-75E4-4345-A359-D03A0496D57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFE310B-02DB-4EA2-9D12-1193F69D48BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28770" windowHeight="14955" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Treasure" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="98">
   <si>
     <t>Individual gp Per Formula</t>
   </si>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>CR 24 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 24: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 18 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 18: Humanoid</t>
   </si>
 </sst>
 </file>
@@ -693,15 +702,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,6 +729,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,9 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1677,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD8D082-213D-4692-B6C5-868C3C1BDB24}">
-  <dimension ref="A1:AD230"/>
+  <dimension ref="A1:AD240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="G230" sqref="G230"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="O245" sqref="O245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1708,7 @@
     <col min="12" max="12" width="11.5703125" style="8" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="8" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="8" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="8" customWidth="1"/>
     <col min="18" max="18" width="13.140625" style="8" customWidth="1"/>
@@ -1719,20 +1728,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
       <c r="Z1" s="39"/>
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
@@ -1740,14 +1749,14 @@
       <c r="AD1" s="39"/>
     </row>
     <row r="2" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -1774,18 +1783,18 @@
       <c r="AD2" s="37"/>
     </row>
     <row r="3" spans="1:30" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="21">
         <v>3</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
@@ -1972,18 +1981,18 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="33">
         <f>'Individual Treasure'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="34">
         <f>SUMPRODUCT(C5:C9,F5:F9)</f>
         <v>1</v>
@@ -2009,20 +2018,20 @@
       <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
@@ -2030,14 +2039,14 @@
       <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -2064,18 +2073,18 @@
       <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="21">
         <v>3</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="36"/>
@@ -2232,18 +2241,18 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="33">
         <f>'Individual Treasure'!B4</f>
         <v>1.6717350674697367</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="34">
         <f>SUMPRODUCT(C15:C19,F15:F19)</f>
         <v>1.6750000000000003</v>
@@ -2252,64 +2261,64 @@
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
     </row>
     <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="49" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="52"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21">
         <v>3</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="51" t="s">
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="49"/>
       <c r="I23" s="21">
         <v>3</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="55"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
@@ -2572,78 +2581,78 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="47"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="34">
         <f>SUMPRODUCT(C25:C29,F25:F29)</f>
         <v>2.5750000000000002</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="57"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="47"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="34">
         <f>SUMPRODUCT(I25:I29,L25:L29)</f>
         <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
     </row>
     <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="52"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="21">
         <v>3</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
@@ -2782,62 +2791,62 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="57"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="33">
         <f>'Individual Treasure'!B6</f>
         <v>4.0099310619512103</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="47"/>
+      <c r="E40" s="56"/>
       <c r="F40" s="34">
         <f>SUMPRODUCT(C35:C39,F35:F39)</f>
         <v>4.05</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
     </row>
     <row r="42" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="52"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="21">
         <v>3</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
@@ -2976,62 +2985,62 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="57"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="33">
         <f>'Individual Treasure'!B7</f>
         <v>6.2104294592761873</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="47"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="34">
         <f>SUMPRODUCT(C45:C49,F45:F49)</f>
         <v>6.2000000000000011</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
     </row>
     <row r="52" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="52"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="21">
         <v>3</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="52"/>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
@@ -3170,62 +3179,62 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="57"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="33">
         <f>'Individual Treasure'!B8</f>
         <v>9.6184780917100969</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="47"/>
+      <c r="E60" s="56"/>
       <c r="F60" s="34">
         <f>SUMPRODUCT(C55:C59,F55:F59)</f>
         <v>9.6000000000000014</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
     </row>
     <row r="62" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="50"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="47"/>
     </row>
     <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="52"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="21">
         <v>3</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="55"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
     </row>
     <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
@@ -3364,62 +3373,62 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="33">
         <f>'Individual Treasure'!B9</f>
         <v>14.89673482443669</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="47"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="34">
         <f>SUMPRODUCT(C65:C69,F65:F69)</f>
         <v>14.900000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
     </row>
     <row r="72" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="50"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="47"/>
     </row>
     <row r="73" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="52"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="21">
         <v>5</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="54"/>
-      <c r="F73" s="55"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="52"/>
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
@@ -3558,62 +3567,62 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="56" t="s">
+      <c r="A80" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="57"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="33">
         <f>'Individual Treasure'!B10</f>
         <v>23.071499078512772</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="D80" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="47"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="34">
         <f>SUMPRODUCT(C75:C79,F75:F79)</f>
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
+      <c r="A81" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="48"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
     </row>
     <row r="82" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="50"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="47"/>
     </row>
     <row r="83" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="51" t="s">
+      <c r="A83" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="52"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="21">
         <v>5</v>
       </c>
-      <c r="D83" s="53" t="s">
+      <c r="D83" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="54"/>
-      <c r="F83" s="55"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="52"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
@@ -3752,82 +3761,82 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="56" t="s">
+      <c r="A90" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="57"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="33">
         <f>'Individual Treasure'!B11</f>
         <v>35.732264553480377</v>
       </c>
-      <c r="D90" s="46" t="s">
+      <c r="D90" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="47"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="34">
         <f>SUMPRODUCT(C85:C89,F85:F89)</f>
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="L91" s="48"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="57"/>
+      <c r="L91" s="57"/>
     </row>
     <row r="92" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="49" t="s">
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="50"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="47"/>
     </row>
     <row r="93" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="51" t="s">
+      <c r="A93" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="52"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="21">
         <v>5</v>
       </c>
-      <c r="D93" s="53" t="s">
+      <c r="D93" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="54"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="51" t="s">
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H93" s="52"/>
+      <c r="H93" s="49"/>
       <c r="I93" s="21">
         <v>5</v>
       </c>
-      <c r="J93" s="53" t="s">
+      <c r="J93" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K93" s="54"/>
-      <c r="L93" s="55"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="52"/>
     </row>
     <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
@@ -4090,78 +4099,78 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="56" t="s">
+      <c r="A100" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="57"/>
+      <c r="B100" s="54"/>
       <c r="C100" s="33">
         <f>'Individual Treasure'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="D100" s="46" t="s">
+      <c r="D100" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="47"/>
+      <c r="E100" s="56"/>
       <c r="F100" s="34">
         <f>SUMPRODUCT(C95:C99,F95:F99)</f>
         <v>55.25</v>
       </c>
-      <c r="G100" s="56" t="s">
+      <c r="G100" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H100" s="57"/>
+      <c r="H100" s="54"/>
       <c r="I100" s="33">
         <f>'Individual Treasure'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="J100" s="46" t="s">
+      <c r="J100" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="K100" s="47"/>
+      <c r="K100" s="56"/>
       <c r="L100" s="34">
         <f>SUMPRODUCT(I95:I99,L95:L99)</f>
         <v>56.25</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="48"/>
-      <c r="L101" s="48"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
+      <c r="L101" s="57"/>
     </row>
     <row r="102" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A102" s="49" t="s">
+      <c r="A102" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="49"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="50"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="47"/>
     </row>
     <row r="103" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="51" t="s">
+      <c r="A103" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="52"/>
+      <c r="B103" s="49"/>
       <c r="C103" s="21">
         <v>5</v>
       </c>
-      <c r="D103" s="53" t="s">
+      <c r="D103" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="54"/>
-      <c r="F103" s="55"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
@@ -4300,62 +4309,62 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="56" t="s">
+      <c r="A110" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="57"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="33">
         <f>'Individual Treasure'!B13</f>
         <v>85.709703849023938</v>
       </c>
-      <c r="D110" s="46" t="s">
+      <c r="D110" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E110" s="47"/>
+      <c r="E110" s="56"/>
       <c r="F110" s="34">
         <f>SUMPRODUCT(C105:C109,F105:F109)</f>
         <v>85.5</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="48"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="48"/>
-      <c r="K111" s="48"/>
-      <c r="L111" s="48"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
+      <c r="L111" s="57"/>
     </row>
     <row r="112" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="49"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="50"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="47"/>
     </row>
     <row r="113" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="52"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="21">
         <v>5</v>
       </c>
-      <c r="D113" s="53" t="s">
+      <c r="D113" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="54"/>
-      <c r="F113" s="55"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="52"/>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="42" t="s">
@@ -4494,82 +4503,82 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="56" t="s">
+      <c r="A120" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B120" s="57"/>
+      <c r="B120" s="54"/>
       <c r="C120" s="33">
         <f>'Individual Treasure'!B14</f>
         <v>132.7439453462336</v>
       </c>
-      <c r="D120" s="46" t="s">
+      <c r="D120" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="47"/>
+      <c r="E120" s="56"/>
       <c r="F120" s="34">
         <f>SUMPRODUCT(C115:C119,F115:F119)</f>
         <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="48"/>
-      <c r="L121" s="48"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
+      <c r="L121" s="57"/>
     </row>
     <row r="122" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A122" s="49" t="s">
+      <c r="A122" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B122" s="49"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="49"/>
-      <c r="E122" s="49"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="49" t="s">
+      <c r="B122" s="46"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="H122" s="49"/>
-      <c r="I122" s="49"/>
-      <c r="J122" s="49"/>
-      <c r="K122" s="49"/>
-      <c r="L122" s="50"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
+      <c r="L122" s="47"/>
     </row>
     <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="52"/>
+      <c r="B123" s="49"/>
       <c r="C123" s="21">
         <v>5</v>
       </c>
-      <c r="D123" s="53" t="s">
+      <c r="D123" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="54"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="51" t="s">
+      <c r="E123" s="51"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H123" s="52"/>
+      <c r="H123" s="49"/>
       <c r="I123" s="21">
         <v>5</v>
       </c>
-      <c r="J123" s="53" t="s">
+      <c r="J123" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K123" s="54"/>
-      <c r="L123" s="55"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="52"/>
     </row>
     <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="42" t="s">
@@ -4832,78 +4841,78 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="56" t="s">
+      <c r="A130" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="57"/>
+      <c r="B130" s="54"/>
       <c r="C130" s="33">
         <f>'Individual Treasure'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="D130" s="46" t="s">
+      <c r="D130" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="47"/>
+      <c r="E130" s="56"/>
       <c r="F130" s="34">
         <f>SUMPRODUCT(C125:C129,F125:F129)</f>
         <v>205</v>
       </c>
-      <c r="G130" s="56" t="s">
+      <c r="G130" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H130" s="57"/>
+      <c r="H130" s="54"/>
       <c r="I130" s="33">
         <f>'Individual Treasure'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="J130" s="46" t="s">
+      <c r="J130" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="K130" s="47"/>
+      <c r="K130" s="56"/>
       <c r="L130" s="34">
         <f>SUMPRODUCT(I125:I129,L125:L129)</f>
         <v>205.5</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="48" t="s">
+      <c r="A131" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B131" s="48"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="48"/>
-      <c r="I131" s="48"/>
-      <c r="J131" s="48"/>
-      <c r="K131" s="48"/>
-      <c r="L131" s="48"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="57"/>
+      <c r="L131" s="57"/>
     </row>
     <row r="132" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A132" s="49" t="s">
+      <c r="A132" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="49"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="50"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="46"/>
+      <c r="F132" s="47"/>
     </row>
     <row r="133" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="51" t="s">
+      <c r="A133" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B133" s="52"/>
+      <c r="B133" s="49"/>
       <c r="C133" s="21">
         <v>7</v>
       </c>
-      <c r="D133" s="53" t="s">
+      <c r="D133" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="54"/>
-      <c r="F133" s="55"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
@@ -5042,62 +5051,62 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="56" t="s">
+      <c r="A140" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="57"/>
+      <c r="B140" s="54"/>
       <c r="C140" s="33">
         <f>'Individual Treasure'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="D140" s="46" t="s">
+      <c r="D140" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="47"/>
+      <c r="E140" s="56"/>
       <c r="F140" s="34">
         <f>SUMPRODUCT(C135:C139,F135:F139)</f>
         <v>317.5</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="48" t="s">
+      <c r="A141" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="48"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="48"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="48"/>
-      <c r="G141" s="48"/>
-      <c r="H141" s="48"/>
-      <c r="I141" s="48"/>
-      <c r="J141" s="48"/>
-      <c r="K141" s="48"/>
-      <c r="L141" s="48"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="57"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="57"/>
+      <c r="L141" s="57"/>
     </row>
     <row r="142" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A142" s="49" t="s">
+      <c r="A142" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B142" s="49"/>
-      <c r="C142" s="49"/>
-      <c r="D142" s="49"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="50"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="47"/>
     </row>
     <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="51" t="s">
+      <c r="A143" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="52"/>
+      <c r="B143" s="49"/>
       <c r="C143" s="21">
         <v>7</v>
       </c>
-      <c r="D143" s="53" t="s">
+      <c r="D143" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="54"/>
-      <c r="F143" s="55"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="52"/>
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="42" t="s">
@@ -5236,62 +5245,62 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="56" t="s">
+      <c r="A150" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B150" s="57"/>
+      <c r="B150" s="54"/>
       <c r="C150" s="33">
         <f>'Individual Treasure'!B17</f>
         <v>493.13849111663814</v>
       </c>
-      <c r="D150" s="46" t="s">
+      <c r="D150" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="47"/>
+      <c r="E150" s="56"/>
       <c r="F150" s="34">
         <f>SUMPRODUCT(C145:C149,F145:F149)</f>
         <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="48" t="s">
+      <c r="A151" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B151" s="48"/>
-      <c r="C151" s="48"/>
-      <c r="D151" s="48"/>
-      <c r="E151" s="48"/>
-      <c r="F151" s="48"/>
-      <c r="G151" s="48"/>
-      <c r="H151" s="48"/>
-      <c r="I151" s="48"/>
-      <c r="J151" s="48"/>
-      <c r="K151" s="48"/>
-      <c r="L151" s="48"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="57"/>
+      <c r="K151" s="57"/>
+      <c r="L151" s="57"/>
     </row>
     <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A152" s="49" t="s">
+      <c r="A152" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B152" s="49"/>
-      <c r="C152" s="49"/>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="50"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="47"/>
     </row>
     <row r="153" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="51" t="s">
+      <c r="A153" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B153" s="52"/>
+      <c r="B153" s="49"/>
       <c r="C153" s="21">
         <v>7</v>
       </c>
-      <c r="D153" s="53" t="s">
+      <c r="D153" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="54"/>
-      <c r="F153" s="55"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="52"/>
     </row>
     <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="42" t="s">
@@ -5430,62 +5439,62 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="56" t="s">
+      <c r="A160" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B160" s="57"/>
+      <c r="B160" s="54"/>
       <c r="C160" s="33">
         <f>'Individual Treasure'!B18</f>
         <v>763.75423053869986</v>
       </c>
-      <c r="D160" s="46" t="s">
+      <c r="D160" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="47"/>
+      <c r="E160" s="56"/>
       <c r="F160" s="34">
         <f>SUMPRODUCT(C155:C159,F155:F159)</f>
         <v>760</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="48" t="s">
+      <c r="A161" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B161" s="48"/>
-      <c r="C161" s="48"/>
-      <c r="D161" s="48"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="48"/>
-      <c r="G161" s="48"/>
-      <c r="H161" s="48"/>
-      <c r="I161" s="48"/>
-      <c r="J161" s="48"/>
-      <c r="K161" s="48"/>
-      <c r="L161" s="48"/>
+      <c r="B161" s="57"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="57"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="57"/>
+      <c r="L161" s="57"/>
     </row>
     <row r="162" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A162" s="49" t="s">
+      <c r="A162" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B162" s="49"/>
-      <c r="C162" s="49"/>
-      <c r="D162" s="49"/>
-      <c r="E162" s="49"/>
-      <c r="F162" s="50"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="46"/>
+      <c r="F162" s="47"/>
     </row>
     <row r="163" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="51" t="s">
+      <c r="A163" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B163" s="52"/>
+      <c r="B163" s="49"/>
       <c r="C163" s="21">
         <v>7</v>
       </c>
-      <c r="D163" s="53" t="s">
+      <c r="D163" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E163" s="54"/>
-      <c r="F163" s="55"/>
+      <c r="E163" s="51"/>
+      <c r="F163" s="52"/>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="42" t="s">
@@ -5624,82 +5633,82 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="56" t="s">
+      <c r="A170" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="57"/>
+      <c r="B170" s="54"/>
       <c r="C170" s="33">
         <f>'Individual Treasure'!B19</f>
         <v>1182.8736453829017</v>
       </c>
-      <c r="D170" s="46" t="s">
+      <c r="D170" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E170" s="47"/>
+      <c r="E170" s="56"/>
       <c r="F170" s="34">
         <f>SUMPRODUCT(C165:C169,F165:F169)</f>
         <v>1205.0000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="48" t="s">
+      <c r="A171" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B171" s="48"/>
-      <c r="C171" s="48"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="48"/>
-      <c r="F171" s="48"/>
-      <c r="G171" s="48"/>
-      <c r="H171" s="48"/>
-      <c r="I171" s="48"/>
-      <c r="J171" s="48"/>
-      <c r="K171" s="48"/>
-      <c r="L171" s="48"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="57"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="57"/>
+      <c r="H171" s="57"/>
+      <c r="I171" s="57"/>
+      <c r="J171" s="57"/>
+      <c r="K171" s="57"/>
+      <c r="L171" s="57"/>
     </row>
     <row r="172" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A172" s="49" t="s">
+      <c r="A172" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="49"/>
-      <c r="C172" s="49"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="50"/>
-      <c r="G172" s="63" t="s">
+      <c r="B172" s="46"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="H172" s="49"/>
-      <c r="I172" s="49"/>
-      <c r="J172" s="49"/>
-      <c r="K172" s="49"/>
-      <c r="L172" s="50"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="46"/>
+      <c r="J172" s="46"/>
+      <c r="K172" s="46"/>
+      <c r="L172" s="47"/>
     </row>
     <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="51" t="s">
+      <c r="A173" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B173" s="52"/>
+      <c r="B173" s="49"/>
       <c r="C173" s="21">
         <v>7</v>
       </c>
-      <c r="D173" s="53" t="s">
+      <c r="D173" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E173" s="54"/>
-      <c r="F173" s="55"/>
-      <c r="G173" s="51" t="s">
+      <c r="E173" s="51"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H173" s="52"/>
+      <c r="H173" s="49"/>
       <c r="I173" s="21">
         <v>7</v>
       </c>
-      <c r="J173" s="53" t="s">
+      <c r="J173" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K173" s="54"/>
-      <c r="L173" s="55"/>
+      <c r="K173" s="51"/>
+      <c r="L173" s="52"/>
     </row>
     <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="42" t="s">
@@ -5962,78 +5971,78 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="56" t="s">
+      <c r="A180" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B180" s="57"/>
+      <c r="B180" s="54"/>
       <c r="C180" s="33">
         <f>'Individual Treasure'!B20</f>
         <v>1831.989932094441</v>
       </c>
-      <c r="D180" s="46" t="s">
+      <c r="D180" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E180" s="47"/>
+      <c r="E180" s="56"/>
       <c r="F180" s="34">
         <f>SUMPRODUCT(C175:C179,F175:F179)</f>
         <v>1850.0000000000005</v>
       </c>
-      <c r="G180" s="56" t="s">
+      <c r="G180" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H180" s="57"/>
+      <c r="H180" s="54"/>
       <c r="I180" s="33">
         <f>'Individual Treasure'!H20</f>
         <v>0</v>
       </c>
-      <c r="J180" s="46" t="s">
+      <c r="J180" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="K180" s="47"/>
+      <c r="K180" s="56"/>
       <c r="L180" s="34">
         <f>SUMPRODUCT(I175:I179,L175:L179)</f>
         <v>1850.0000000000005</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="48" t="s">
+      <c r="A181" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="B181" s="48"/>
-      <c r="C181" s="48"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="48"/>
-      <c r="H181" s="48"/>
-      <c r="I181" s="48"/>
-      <c r="J181" s="48"/>
-      <c r="K181" s="48"/>
-      <c r="L181" s="48"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="57"/>
+      <c r="J181" s="57"/>
+      <c r="K181" s="57"/>
+      <c r="L181" s="57"/>
     </row>
     <row r="182" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A182" s="49" t="s">
+      <c r="A182" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B182" s="49"/>
-      <c r="C182" s="49"/>
-      <c r="D182" s="49"/>
-      <c r="E182" s="49"/>
-      <c r="F182" s="50"/>
+      <c r="B182" s="46"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="46"/>
+      <c r="F182" s="47"/>
     </row>
     <row r="183" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="51" t="s">
+      <c r="A183" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B183" s="52"/>
+      <c r="B183" s="49"/>
       <c r="C183" s="21">
         <v>7</v>
       </c>
-      <c r="D183" s="53" t="s">
+      <c r="D183" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E183" s="54"/>
-      <c r="F183" s="55"/>
+      <c r="E183" s="51"/>
+      <c r="F183" s="52"/>
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="42" t="s">
@@ -6172,64 +6181,64 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="56" t="s">
+      <c r="A190" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="57"/>
+      <c r="B190" s="54"/>
       <c r="C190" s="33">
         <f>'Individual Treasure'!B21</f>
         <v>2837.3166689405625</v>
       </c>
-      <c r="D190" s="46" t="s">
+      <c r="D190" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E190" s="47"/>
+      <c r="E190" s="56"/>
       <c r="F190" s="34">
         <f>SUMPRODUCT(C185:C189,F185:F189)</f>
         <v>2850</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="48" t="s">
+      <c r="A191" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B191" s="48"/>
-      <c r="C191" s="48"/>
-      <c r="D191" s="48"/>
-      <c r="E191" s="48"/>
-      <c r="F191" s="48"/>
-      <c r="G191" s="48"/>
-      <c r="H191" s="48"/>
-      <c r="I191" s="48"/>
-      <c r="J191" s="48"/>
-      <c r="K191" s="48"/>
-      <c r="L191" s="48"/>
+      <c r="B191" s="57"/>
+      <c r="C191" s="57"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="57"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="57"/>
+      <c r="H191" s="57"/>
+      <c r="I191" s="57"/>
+      <c r="J191" s="57"/>
+      <c r="K191" s="57"/>
+      <c r="L191" s="57"/>
     </row>
     <row r="192" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A192" s="49" t="s">
+      <c r="A192" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B192" s="49"/>
-      <c r="C192" s="49"/>
-      <c r="D192" s="49"/>
-      <c r="E192" s="49"/>
-      <c r="F192" s="50"/>
-    </row>
-    <row r="193" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="51" t="s">
+      <c r="B192" s="46"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="46"/>
+      <c r="E192" s="46"/>
+      <c r="F192" s="47"/>
+    </row>
+    <row r="193" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B193" s="52"/>
+      <c r="B193" s="49"/>
       <c r="C193" s="21">
         <v>7</v>
       </c>
-      <c r="D193" s="53" t="s">
+      <c r="D193" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E193" s="54"/>
-      <c r="F193" s="55"/>
-    </row>
-    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E193" s="51"/>
+      <c r="F193" s="52"/>
+    </row>
+    <row r="194" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="42" t="s">
         <v>9</v>
       </c>
@@ -6249,7 +6258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="43">
         <f>C193+1</f>
         <v>8</v>
@@ -6272,7 +6281,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="43">
         <f>B195+1</f>
         <v>10</v>
@@ -6295,7 +6304,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="43">
         <f t="shared" ref="A197:A199" si="71">B196+1</f>
         <v>12</v>
@@ -6318,7 +6327,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="43">
         <f t="shared" si="71"/>
         <v>18</v>
@@ -6341,7 +6350,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="43">
         <f t="shared" si="71"/>
         <v>23</v>
@@ -6365,65 +6374,105 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="56" t="s">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A200" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B200" s="57"/>
+      <c r="B200" s="54"/>
       <c r="C200" s="33">
         <f>'Individual Treasure'!B22</f>
         <v>4394.3286689596089</v>
       </c>
-      <c r="D200" s="46" t="s">
+      <c r="D200" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E200" s="47"/>
+      <c r="E200" s="56"/>
       <c r="F200" s="34">
         <f>SUMPRODUCT(C195:C199,F195:F199)</f>
         <v>4300</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B201" s="48"/>
-      <c r="C201" s="48"/>
-      <c r="D201" s="48"/>
-      <c r="E201" s="48"/>
-      <c r="F201" s="48"/>
-      <c r="G201" s="48"/>
-      <c r="H201" s="48"/>
-      <c r="I201" s="48"/>
-      <c r="J201" s="48"/>
-      <c r="K201" s="48"/>
-      <c r="L201" s="48"/>
-    </row>
-    <row r="202" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A202" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B202" s="49"/>
-      <c r="C202" s="49"/>
-      <c r="D202" s="49"/>
-      <c r="E202" s="49"/>
-      <c r="F202" s="50"/>
-    </row>
-    <row r="203" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="51" t="s">
+    <row r="201" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B201" s="57"/>
+      <c r="C201" s="57"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="57"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="57"/>
+      <c r="I201" s="57"/>
+      <c r="J201" s="57"/>
+      <c r="K201" s="57"/>
+      <c r="L201" s="57"/>
+    </row>
+    <row r="202" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A202" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B202" s="46"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="46"/>
+      <c r="E202" s="46"/>
+      <c r="F202" s="47"/>
+      <c r="G202" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H202" s="46"/>
+      <c r="I202" s="46"/>
+      <c r="J202" s="46"/>
+      <c r="K202" s="46"/>
+      <c r="L202" s="47"/>
+      <c r="M202" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="N202" s="46"/>
+      <c r="O202" s="46"/>
+      <c r="P202" s="46"/>
+      <c r="Q202" s="46"/>
+      <c r="R202" s="47"/>
+    </row>
+    <row r="203" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B203" s="52"/>
+      <c r="B203" s="49"/>
       <c r="C203" s="21">
         <v>7</v>
       </c>
-      <c r="D203" s="53" t="s">
+      <c r="D203" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E203" s="54"/>
-      <c r="F203" s="55"/>
-    </row>
-    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E203" s="51"/>
+      <c r="F203" s="52"/>
+      <c r="G203" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H203" s="49"/>
+      <c r="I203" s="21">
+        <v>7</v>
+      </c>
+      <c r="J203" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K203" s="51"/>
+      <c r="L203" s="52"/>
+      <c r="M203" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N203" s="49"/>
+      <c r="O203" s="21">
+        <v>7</v>
+      </c>
+      <c r="P203" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q203" s="51"/>
+      <c r="R203" s="52"/>
+    </row>
+    <row r="204" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="42" t="s">
         <v>9</v>
       </c>
@@ -6442,8 +6491,44 @@
       <c r="F204" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G204" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H204" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I204" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J204" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L204" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M204" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N204" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O204" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="P204" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q204" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R204" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="43">
         <f>C203+1</f>
         <v>8</v>
@@ -6465,8 +6550,50 @@
         <f>D205*E205</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G205" s="43">
+        <f>I203+1</f>
+        <v>8</v>
+      </c>
+      <c r="H205" s="8">
+        <v>9</v>
+      </c>
+      <c r="I205" s="31">
+        <f>((H205-G205+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J205" s="18">
+        <v>10</v>
+      </c>
+      <c r="K205" s="8">
+        <v>50</v>
+      </c>
+      <c r="L205" s="19">
+        <f>J205*K205</f>
+        <v>500</v>
+      </c>
+      <c r="M205" s="43">
+        <f>O203+1</f>
+        <v>8</v>
+      </c>
+      <c r="N205" s="8">
+        <v>9</v>
+      </c>
+      <c r="O205" s="31">
+        <f>((N205-M205+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P205" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q205" s="8">
+        <v>500</v>
+      </c>
+      <c r="R205" s="19">
+        <f>P205*Q205</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="43">
         <f>B205+1</f>
         <v>10</v>
@@ -6479,19 +6606,61 @@
         <v>0.1</v>
       </c>
       <c r="D206" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E206" s="8">
         <v>1000</v>
       </c>
       <c r="F206" s="19">
         <f t="shared" ref="F206:F209" si="73">D206*E206</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+      <c r="G206" s="43">
+        <f>H205+1</f>
+        <v>10</v>
+      </c>
+      <c r="H206" s="8">
+        <v>11</v>
+      </c>
+      <c r="I206" s="31">
+        <f t="shared" ref="I206:I209" si="74">((H206-G206+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J206" s="18">
+        <v>10</v>
+      </c>
+      <c r="K206" s="8">
+        <v>100</v>
+      </c>
+      <c r="L206" s="19">
+        <f t="shared" ref="L206:L209" si="75">J206*K206</f>
+        <v>1000</v>
+      </c>
+      <c r="M206" s="43">
+        <f>N205+1</f>
+        <v>10</v>
+      </c>
+      <c r="N206" s="8">
+        <v>13</v>
+      </c>
+      <c r="O206" s="31">
+        <f t="shared" ref="O206:O209" si="76">((N206-M206+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P206" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q206" s="8">
+        <v>500</v>
+      </c>
+      <c r="R206" s="19">
+        <f t="shared" ref="R206:R209" si="77">P206*Q206</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="43">
-        <f t="shared" ref="A207:A209" si="74">B206+1</f>
+        <f t="shared" ref="A207:A209" si="78">B206+1</f>
         <v>12</v>
       </c>
       <c r="B207" s="8">
@@ -6502,19 +6671,61 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="D207" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E207" s="8">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F207" s="19">
         <f t="shared" si="73"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+      <c r="G207" s="43">
+        <f t="shared" ref="G207:G209" si="79">H206+1</f>
+        <v>12</v>
+      </c>
+      <c r="H207" s="8">
+        <v>18</v>
+      </c>
+      <c r="I207" s="31">
+        <f t="shared" si="74"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="J207" s="18">
+        <v>20</v>
+      </c>
+      <c r="K207" s="8">
+        <v>100</v>
+      </c>
+      <c r="L207" s="19">
+        <f t="shared" si="75"/>
+        <v>2000</v>
+      </c>
+      <c r="M207" s="43">
+        <f t="shared" ref="M207:M209" si="80">N206+1</f>
+        <v>14</v>
+      </c>
+      <c r="N207" s="8">
+        <v>20</v>
+      </c>
+      <c r="O207" s="31">
+        <f t="shared" si="76"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="P207" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q207" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R207" s="19">
+        <f t="shared" si="77"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="43">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>19</v>
       </c>
       <c r="B208" s="8">
@@ -6525,19 +6736,61 @@
         <v>0.25</v>
       </c>
       <c r="D208" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E208" s="8">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F208" s="19">
         <f t="shared" si="73"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+      <c r="G208" s="43">
+        <f t="shared" si="79"/>
+        <v>19</v>
+      </c>
+      <c r="H208" s="8">
+        <v>23</v>
+      </c>
+      <c r="I208" s="31">
+        <f t="shared" si="74"/>
+        <v>0.25</v>
+      </c>
+      <c r="J208" s="18">
+        <v>30</v>
+      </c>
+      <c r="K208" s="8">
+        <v>100</v>
+      </c>
+      <c r="L208" s="19">
+        <f t="shared" si="75"/>
+        <v>3000</v>
+      </c>
+      <c r="M208" s="43">
+        <f t="shared" si="80"/>
+        <v>21</v>
+      </c>
+      <c r="N208" s="8">
+        <v>24</v>
+      </c>
+      <c r="O208" s="31">
+        <f t="shared" si="76"/>
+        <v>0.2</v>
+      </c>
+      <c r="P208" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q208" s="8">
+        <v>1000</v>
+      </c>
+      <c r="R208" s="19">
+        <f t="shared" si="77"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="43">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>24</v>
       </c>
       <c r="B209" s="44">
@@ -6552,72 +6805,152 @@
         <v>2</v>
       </c>
       <c r="E209" s="28">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F209" s="22">
         <f t="shared" si="73"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="56" t="s">
+        <v>20000</v>
+      </c>
+      <c r="G209" s="43">
+        <f t="shared" si="79"/>
+        <v>24</v>
+      </c>
+      <c r="H209" s="44">
+        <f>20+I203</f>
+        <v>27</v>
+      </c>
+      <c r="I209" s="31">
+        <f t="shared" si="74"/>
+        <v>0.2</v>
+      </c>
+      <c r="J209" s="20">
+        <v>30</v>
+      </c>
+      <c r="K209" s="28">
+        <v>200</v>
+      </c>
+      <c r="L209" s="22">
+        <f t="shared" si="75"/>
+        <v>6000</v>
+      </c>
+      <c r="M209" s="43">
+        <f t="shared" si="80"/>
+        <v>25</v>
+      </c>
+      <c r="N209" s="44">
+        <f>20+O203</f>
+        <v>27</v>
+      </c>
+      <c r="O209" s="31">
+        <f t="shared" si="76"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="P209" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q209" s="28">
+        <v>2000</v>
+      </c>
+      <c r="R209" s="22">
+        <f t="shared" si="77"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B210" s="57"/>
+      <c r="B210" s="54"/>
       <c r="C210" s="33">
-        <f>'Individual Treasure'!B25</f>
-        <v>16324.756685731661</v>
-      </c>
-      <c r="D210" s="46" t="s">
+        <f>'Individual Treasure'!B23</f>
+        <v>6805.7699241764976</v>
+      </c>
+      <c r="D210" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E210" s="47"/>
+      <c r="E210" s="56"/>
       <c r="F210" s="34">
         <f>SUMPRODUCT(C205:C209,F205:F209)</f>
-        <v>16900</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B211" s="48"/>
-      <c r="C211" s="48"/>
-      <c r="D211" s="48"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="48"/>
-      <c r="G211" s="48"/>
-      <c r="H211" s="48"/>
-      <c r="I211" s="48"/>
-      <c r="J211" s="48"/>
-      <c r="K211" s="48"/>
-      <c r="L211" s="48"/>
-    </row>
-    <row r="212" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A212" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B212" s="49"/>
-      <c r="C212" s="49"/>
-      <c r="D212" s="49"/>
-      <c r="E212" s="49"/>
-      <c r="F212" s="50"/>
-    </row>
-    <row r="213" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="51" t="s">
+        <v>6850</v>
+      </c>
+      <c r="G210" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H210" s="54"/>
+      <c r="I210" s="33">
+        <f>'Individual Treasure'!B23</f>
+        <v>6805.7699241764976</v>
+      </c>
+      <c r="J210" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K210" s="56"/>
+      <c r="L210" s="34">
+        <f>SUMPRODUCT(I205:I209,L205:L209)</f>
+        <v>2800</v>
+      </c>
+      <c r="M210" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="N210" s="54"/>
+      <c r="O210" s="33">
+        <f>'Individual Treasure'!B23</f>
+        <v>6805.7699241764976</v>
+      </c>
+      <c r="P210" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q210" s="56"/>
+      <c r="R210" s="34">
+        <f>SUMPRODUCT(O205:O209,R205:R209)</f>
+        <v>5000</v>
+      </c>
+      <c r="S210" s="8">
+        <f>L210+R210</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B211" s="57"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="57"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="57"/>
+      <c r="H211" s="57"/>
+      <c r="I211" s="57"/>
+      <c r="J211" s="57"/>
+      <c r="K211" s="57"/>
+      <c r="L211" s="57"/>
+    </row>
+    <row r="212" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A212" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B212" s="46"/>
+      <c r="C212" s="46"/>
+      <c r="D212" s="46"/>
+      <c r="E212" s="46"/>
+      <c r="F212" s="47"/>
+    </row>
+    <row r="213" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B213" s="52"/>
+      <c r="B213" s="49"/>
       <c r="C213" s="21">
         <v>7</v>
       </c>
-      <c r="D213" s="53" t="s">
+      <c r="D213" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E213" s="54"/>
-      <c r="F213" s="55"/>
-    </row>
-    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E213" s="51"/>
+      <c r="F213" s="52"/>
+    </row>
+    <row r="214" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="42" t="s">
         <v>9</v>
       </c>
@@ -6637,7 +6970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="43">
         <f>C213+1</f>
         <v>8</v>
@@ -6653,85 +6986,85 @@
         <v>2</v>
       </c>
       <c r="E215" s="8">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F215" s="19">
         <f>D215*E215</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="43">
         <f>B215+1</f>
         <v>10</v>
       </c>
       <c r="B216" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C216" s="31">
-        <f t="shared" ref="C216:C219" si="75">((B216-A216+1)*0.05)</f>
-        <v>0.2</v>
+        <f t="shared" ref="C216:C219" si="81">((B216-A216+1)*0.05)</f>
+        <v>0.1</v>
       </c>
       <c r="D216" s="18">
         <v>3</v>
       </c>
       <c r="E216" s="8">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F216" s="19">
-        <f t="shared" ref="F216:F219" si="76">D216*E216</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F216:F219" si="82">D216*E216</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="43">
-        <f t="shared" ref="A217:A219" si="77">B216+1</f>
-        <v>14</v>
+        <f t="shared" ref="A217:A219" si="83">B216+1</f>
+        <v>12</v>
       </c>
       <c r="B217" s="8">
         <v>18</v>
       </c>
       <c r="C217" s="31">
-        <f t="shared" si="75"/>
-        <v>0.25</v>
+        <f t="shared" si="81"/>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D217" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F217" s="19">
-        <f t="shared" si="76"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="82"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="43">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>19</v>
       </c>
       <c r="B218" s="8">
         <v>23</v>
       </c>
       <c r="C218" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.25</v>
       </c>
       <c r="D218" s="18">
         <v>2</v>
       </c>
       <c r="E218" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F218" s="19">
+        <f t="shared" si="82"/>
         <v>20000</v>
       </c>
-      <c r="F218" s="19">
-        <f t="shared" si="76"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="43">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>24</v>
       </c>
       <c r="B219" s="44">
@@ -6739,79 +7072,79 @@
         <v>27</v>
       </c>
       <c r="C219" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0.2</v>
       </c>
       <c r="D219" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E219" s="28">
         <v>20000</v>
       </c>
       <c r="F219" s="22">
-        <f t="shared" si="76"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="56" t="s">
+        <f t="shared" si="82"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A220" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B220" s="57"/>
+      <c r="B220" s="54"/>
       <c r="C220" s="33">
-        <f>'Individual Treasure'!B27</f>
-        <v>39157.609472169628</v>
-      </c>
-      <c r="D220" s="46" t="s">
+        <f>'Individual Treasure'!B25</f>
+        <v>16324.756685731661</v>
+      </c>
+      <c r="D220" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E220" s="47"/>
+      <c r="E220" s="56"/>
       <c r="F220" s="34">
         <f>SUMPRODUCT(C215:C219,F215:F219)</f>
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B221" s="48"/>
-      <c r="C221" s="48"/>
-      <c r="D221" s="48"/>
-      <c r="E221" s="48"/>
-      <c r="F221" s="48"/>
-      <c r="G221" s="48"/>
-      <c r="H221" s="48"/>
-      <c r="I221" s="48"/>
-      <c r="J221" s="48"/>
-      <c r="K221" s="48"/>
-      <c r="L221" s="48"/>
-    </row>
-    <row r="222" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A222" s="49" t="s">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B221" s="57"/>
+      <c r="C221" s="57"/>
+      <c r="D221" s="57"/>
+      <c r="E221" s="57"/>
+      <c r="F221" s="57"/>
+      <c r="G221" s="57"/>
+      <c r="H221" s="57"/>
+      <c r="I221" s="57"/>
+      <c r="J221" s="57"/>
+      <c r="K221" s="57"/>
+      <c r="L221" s="57"/>
+    </row>
+    <row r="222" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A222" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B222" s="49"/>
-      <c r="C222" s="49"/>
-      <c r="D222" s="49"/>
-      <c r="E222" s="49"/>
-      <c r="F222" s="50"/>
-    </row>
-    <row r="223" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="51" t="s">
+      <c r="B222" s="46"/>
+      <c r="C222" s="46"/>
+      <c r="D222" s="46"/>
+      <c r="E222" s="46"/>
+      <c r="F222" s="47"/>
+    </row>
+    <row r="223" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B223" s="52"/>
+      <c r="B223" s="49"/>
       <c r="C223" s="21">
         <v>7</v>
       </c>
-      <c r="D223" s="53" t="s">
+      <c r="D223" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E223" s="54"/>
-      <c r="F223" s="55"/>
-    </row>
-    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E223" s="51"/>
+      <c r="F223" s="52"/>
+    </row>
+    <row r="224" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="42" t="s">
         <v>9</v>
       </c>
@@ -6831,7 +7164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="43">
         <f>C223+1</f>
         <v>8</v>
@@ -6847,150 +7180,768 @@
         <v>2</v>
       </c>
       <c r="E225" s="8">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F225" s="19">
         <f>D225*E225</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="43">
         <f>B225+1</f>
         <v>10</v>
       </c>
       <c r="B226" s="8">
+        <v>13</v>
+      </c>
+      <c r="C226" s="31">
+        <f t="shared" ref="C226:C229" si="84">((B226-A226+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D226" s="18">
+        <v>3</v>
+      </c>
+      <c r="E226" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F226" s="19">
+        <f t="shared" ref="F226:F229" si="85">D226*E226</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A227" s="43">
+        <f t="shared" ref="A227:A229" si="86">B226+1</f>
         <v>14</v>
-      </c>
-      <c r="C226" s="31">
-        <f t="shared" ref="C226:C229" si="78">((B226-A226+1)*0.05)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D226" s="18">
-        <v>3</v>
-      </c>
-      <c r="E226" s="8">
-        <v>20000</v>
-      </c>
-      <c r="F226" s="19">
-        <f t="shared" ref="F226:F229" si="79">D226*E226</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="43">
-        <f t="shared" ref="A227:A229" si="80">B226+1</f>
-        <v>15</v>
       </c>
       <c r="B227" s="8">
         <v>18</v>
       </c>
       <c r="C227" s="31">
-        <f t="shared" si="78"/>
-        <v>0.2</v>
+        <f t="shared" si="84"/>
+        <v>0.25</v>
       </c>
       <c r="D227" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E227" s="8">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="F227" s="19">
-        <f t="shared" si="79"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="85"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="43">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>19</v>
       </c>
       <c r="B228" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C228" s="31">
-        <f t="shared" si="78"/>
-        <v>0.35000000000000003</v>
+        <f t="shared" si="84"/>
+        <v>0.25</v>
       </c>
       <c r="D228" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E228" s="8">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="F228" s="19">
-        <f t="shared" si="79"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="85"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="43">
-        <f t="shared" si="80"/>
-        <v>26</v>
+        <f t="shared" si="86"/>
+        <v>24</v>
       </c>
       <c r="B229" s="44">
         <f>20+C223</f>
         <v>27</v>
       </c>
       <c r="C229" s="31">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
+        <v>0.2</v>
+      </c>
+      <c r="D229" s="20">
+        <v>3</v>
+      </c>
+      <c r="E229" s="28">
+        <v>20000</v>
+      </c>
+      <c r="F229" s="22">
+        <f t="shared" si="85"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A230" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B230" s="54"/>
+      <c r="C230" s="33">
+        <f>'Individual Treasure'!B27</f>
+        <v>39157.609472169628</v>
+      </c>
+      <c r="D230" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E230" s="56"/>
+      <c r="F230" s="34">
+        <f>SUMPRODUCT(C225:C229,F225:F229)</f>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B231" s="57"/>
+      <c r="C231" s="57"/>
+      <c r="D231" s="57"/>
+      <c r="E231" s="57"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="57"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="57"/>
+      <c r="J231" s="57"/>
+      <c r="K231" s="57"/>
+      <c r="L231" s="57"/>
+    </row>
+    <row r="232" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A232" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B232" s="46"/>
+      <c r="C232" s="46"/>
+      <c r="D232" s="46"/>
+      <c r="E232" s="46"/>
+      <c r="F232" s="47"/>
+      <c r="G232" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H232" s="46"/>
+      <c r="I232" s="46"/>
+      <c r="J232" s="46"/>
+      <c r="K232" s="46"/>
+      <c r="L232" s="47"/>
+      <c r="M232" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="N232" s="46"/>
+      <c r="O232" s="46"/>
+      <c r="P232" s="46"/>
+      <c r="Q232" s="46"/>
+      <c r="R232" s="47"/>
+    </row>
+    <row r="233" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B233" s="49"/>
+      <c r="C233" s="21">
+        <v>7</v>
+      </c>
+      <c r="D233" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E233" s="51"/>
+      <c r="F233" s="52"/>
+      <c r="G233" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H233" s="49"/>
+      <c r="I233" s="21">
+        <v>7</v>
+      </c>
+      <c r="J233" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K233" s="51"/>
+      <c r="L233" s="52"/>
+      <c r="M233" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N233" s="49"/>
+      <c r="O233" s="21">
+        <v>7</v>
+      </c>
+      <c r="P233" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q233" s="51"/>
+      <c r="R233" s="52"/>
+    </row>
+    <row r="234" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D234" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E234" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F234" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G234" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H234" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I234" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J234" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L234" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M234" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N234" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O234" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="P234" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q234" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R234" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A235" s="43">
+        <f>C233+1</f>
+        <v>8</v>
+      </c>
+      <c r="B235" s="8">
+        <v>9</v>
+      </c>
+      <c r="C235" s="31">
+        <f>((B235-A235+1)*0.05)</f>
         <v>0.1</v>
       </c>
-      <c r="D229" s="20">
-        <v>2</v>
-      </c>
-      <c r="E229" s="28">
+      <c r="D235" s="18">
+        <v>2</v>
+      </c>
+      <c r="E235" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F235" s="19">
+        <f>D235*E235</f>
+        <v>40000</v>
+      </c>
+      <c r="G235" s="43">
+        <f>I233+1</f>
+        <v>8</v>
+      </c>
+      <c r="H235" s="8">
+        <v>9</v>
+      </c>
+      <c r="I235" s="31">
+        <f>((H235-G235+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J235" s="18">
+        <v>10</v>
+      </c>
+      <c r="K235" s="8">
+        <v>500</v>
+      </c>
+      <c r="L235" s="19">
+        <f>J235*K235</f>
+        <v>5000</v>
+      </c>
+      <c r="M235" s="43">
+        <f>O233+1</f>
+        <v>8</v>
+      </c>
+      <c r="N235" s="8">
+        <v>9</v>
+      </c>
+      <c r="O235" s="31">
+        <f>((N235-M235+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P235" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q235" s="8">
+        <v>5000</v>
+      </c>
+      <c r="R235" s="19">
+        <f>P235*Q235</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A236" s="43">
+        <f>B235+1</f>
+        <v>10</v>
+      </c>
+      <c r="B236" s="8">
+        <v>14</v>
+      </c>
+      <c r="C236" s="31">
+        <f t="shared" ref="C236:C239" si="87">((B236-A236+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D236" s="18">
+        <v>3</v>
+      </c>
+      <c r="E236" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F236" s="19">
+        <f t="shared" ref="F236:F239" si="88">D236*E236</f>
+        <v>60000</v>
+      </c>
+      <c r="G236" s="43">
+        <f>H235+1</f>
+        <v>10</v>
+      </c>
+      <c r="H236" s="8">
+        <v>11</v>
+      </c>
+      <c r="I236" s="31">
+        <f t="shared" ref="I236:I239" si="89">((H236-G236+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J236" s="18">
+        <v>10</v>
+      </c>
+      <c r="K236" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L236" s="19">
+        <f t="shared" ref="L236:L239" si="90">J236*K236</f>
+        <v>10000</v>
+      </c>
+      <c r="M236" s="43">
+        <f>N235+1</f>
+        <v>10</v>
+      </c>
+      <c r="N236" s="8">
+        <v>9</v>
+      </c>
+      <c r="O236" s="31">
+        <f t="shared" ref="O236:O239" si="91">((N236-M236+1)*0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P236" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q236" s="8">
+        <v>5000</v>
+      </c>
+      <c r="R236" s="19">
+        <f t="shared" ref="R236:R239" si="92">P236*Q236</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A237" s="43">
+        <f t="shared" ref="A237:A239" si="93">B236+1</f>
+        <v>15</v>
+      </c>
+      <c r="B237" s="8">
+        <v>18</v>
+      </c>
+      <c r="C237" s="31">
+        <f t="shared" si="87"/>
+        <v>0.2</v>
+      </c>
+      <c r="D237" s="18">
+        <v>1</v>
+      </c>
+      <c r="E237" s="8">
         <v>100000</v>
       </c>
-      <c r="F229" s="22">
-        <f t="shared" si="79"/>
+      <c r="F237" s="19">
+        <f t="shared" si="88"/>
+        <v>100000</v>
+      </c>
+      <c r="G237" s="43">
+        <f t="shared" ref="G237:G239" si="94">H236+1</f>
+        <v>12</v>
+      </c>
+      <c r="H237" s="8">
+        <v>17</v>
+      </c>
+      <c r="I237" s="31">
+        <f t="shared" si="89"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J237" s="18">
+        <v>20</v>
+      </c>
+      <c r="K237" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L237" s="19">
+        <f t="shared" si="90"/>
+        <v>20000</v>
+      </c>
+      <c r="M237" s="43">
+        <f t="shared" ref="M237:M239" si="95">N236+1</f>
+        <v>10</v>
+      </c>
+      <c r="N237" s="8">
+        <v>19</v>
+      </c>
+      <c r="O237" s="31">
+        <f t="shared" si="91"/>
+        <v>0.5</v>
+      </c>
+      <c r="P237" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q237" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R237" s="19">
+        <f t="shared" si="92"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A238" s="43">
+        <f t="shared" si="93"/>
+        <v>19</v>
+      </c>
+      <c r="B238" s="8">
+        <v>25</v>
+      </c>
+      <c r="C238" s="31">
+        <f t="shared" si="87"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D238" s="18">
+        <v>1</v>
+      </c>
+      <c r="E238" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F238" s="19">
+        <f t="shared" si="88"/>
+        <v>100000</v>
+      </c>
+      <c r="G238" s="43">
+        <f t="shared" si="94"/>
+        <v>18</v>
+      </c>
+      <c r="H238" s="8">
+        <v>23</v>
+      </c>
+      <c r="I238" s="31">
+        <f t="shared" si="89"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J238" s="18">
+        <v>20</v>
+      </c>
+      <c r="K238" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L238" s="19">
+        <f t="shared" si="90"/>
+        <v>40000</v>
+      </c>
+      <c r="M238" s="43">
+        <f t="shared" si="95"/>
+        <v>20</v>
+      </c>
+      <c r="N238" s="8">
+        <v>19</v>
+      </c>
+      <c r="O238" s="31">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="P238" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q238" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R238" s="19">
+        <f t="shared" si="92"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A239" s="43">
+        <f t="shared" si="93"/>
+        <v>26</v>
+      </c>
+      <c r="B239" s="44">
+        <f>20+C233</f>
+        <v>27</v>
+      </c>
+      <c r="C239" s="31">
+        <f t="shared" si="87"/>
+        <v>0.1</v>
+      </c>
+      <c r="D239" s="20">
+        <v>2</v>
+      </c>
+      <c r="E239" s="28">
+        <v>100000</v>
+      </c>
+      <c r="F239" s="22">
+        <f t="shared" si="88"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="56" t="s">
+      <c r="G239" s="43">
+        <f t="shared" si="94"/>
+        <v>24</v>
+      </c>
+      <c r="H239" s="44">
+        <f>20+I233</f>
+        <v>27</v>
+      </c>
+      <c r="I239" s="31">
+        <f t="shared" si="89"/>
+        <v>0.2</v>
+      </c>
+      <c r="J239" s="20">
+        <v>30</v>
+      </c>
+      <c r="K239" s="28">
+        <v>2000</v>
+      </c>
+      <c r="L239" s="22">
+        <f t="shared" si="90"/>
+        <v>60000</v>
+      </c>
+      <c r="M239" s="43">
+        <f t="shared" si="95"/>
+        <v>20</v>
+      </c>
+      <c r="N239" s="44">
+        <f>20+O233</f>
+        <v>27</v>
+      </c>
+      <c r="O239" s="31">
+        <f t="shared" si="91"/>
+        <v>0.4</v>
+      </c>
+      <c r="P239" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q239" s="28">
+        <v>20000</v>
+      </c>
+      <c r="R239" s="22">
+        <f t="shared" si="92"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A240" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B230" s="57"/>
-      <c r="C230" s="33">
+      <c r="B240" s="54"/>
+      <c r="C240" s="33">
         <f>'Individual Treasure'!B29</f>
         <v>93925.956085772239</v>
       </c>
-      <c r="D230" s="46" t="s">
+      <c r="D240" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E230" s="47"/>
-      <c r="F230" s="34">
-        <f>SUMPRODUCT(C225:C229,F225:F229)</f>
+      <c r="E240" s="56"/>
+      <c r="F240" s="34">
+        <f>SUMPRODUCT(C235:C239,F235:F239)</f>
         <v>94000</v>
       </c>
+      <c r="G240" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H240" s="54"/>
+      <c r="I240" s="33">
+        <f>'Individual Treasure'!B29</f>
+        <v>93925.956085772239</v>
+      </c>
+      <c r="J240" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K240" s="56"/>
+      <c r="L240" s="34">
+        <f>SUMPRODUCT(I235:I239,L235:L239)</f>
+        <v>31500.000000000004</v>
+      </c>
+      <c r="M240" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="N240" s="54"/>
+      <c r="O240" s="33">
+        <f>'Individual Treasure'!B29</f>
+        <v>93925.956085772239</v>
+      </c>
+      <c r="P240" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q240" s="56"/>
+      <c r="R240" s="34">
+        <f>SUMPRODUCT(O235:O239,R235:R239)</f>
+        <v>67500</v>
+      </c>
+      <c r="S240" s="8">
+        <f>L240+R240</f>
+        <v>99000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="158">
-    <mergeCell ref="A222:F222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="A211:L211"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="A221:L221"/>
-    <mergeCell ref="A191:L191"/>
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A201:L201"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="D203:F203"/>
+  <mergeCells count="184">
+    <mergeCell ref="M240:N240"/>
+    <mergeCell ref="P240:Q240"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="P203:R203"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="P210:Q210"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="M232:R232"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="J233:L233"/>
+    <mergeCell ref="M233:N233"/>
+    <mergeCell ref="P233:R233"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G92:L92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A91:L91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A131:L131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A121:L121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G122:L122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="A151:L151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="A141:L141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:E150"/>
     <mergeCell ref="A180:B180"/>
     <mergeCell ref="D180:E180"/>
     <mergeCell ref="A181:L181"/>
@@ -7014,117 +7965,43 @@
     <mergeCell ref="J173:L173"/>
     <mergeCell ref="G180:H180"/>
     <mergeCell ref="J180:K180"/>
-    <mergeCell ref="A151:L151"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="A141:L141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="A131:L131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A121:L121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G122:L122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="A111:L111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A101:L101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="A91:L91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G92:L92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A191:L191"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A211:L211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="A201:L201"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="J203:L203"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="A221:L221"/>
+    <mergeCell ref="A222:F222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="A231:L231"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="J240:K240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7195,45 +8072,45 @@
       <c r="W1" s="64"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="60" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="60" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="60" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="60" t="s">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="60" t="s">
+      <c r="S2" s="62"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63"/>
     </row>
     <row r="3" spans="1:23" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -7834,16 +8711,16 @@
         <v>37</v>
       </c>
       <c r="B12" s="66"/>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="60" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -8114,45 +8991,45 @@
       <c r="W1" s="64"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="60" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="60" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="60" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="60" t="s">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="60" t="s">
+      <c r="S2" s="62"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63"/>
     </row>
     <row r="3" spans="1:23" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -8753,16 +9630,16 @@
         <v>37</v>
       </c>
       <c r="B12" s="66"/>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="60" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -9033,45 +9910,45 @@
       <c r="W1" s="64"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="65"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="60" t="s">
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="60" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="60" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="60" t="s">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="60" t="s">
+      <c r="S2" s="62"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63"/>
     </row>
     <row r="3" spans="1:23" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -9672,16 +10549,16 @@
         <v>37</v>
       </c>
       <c r="B12" s="66"/>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="60" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">

--- a/Individual Treasure Averages.xlsx
+++ b/Individual Treasure Averages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanks\DnD-Homebrew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA90032B-93C2-478E-9D56-C7B818072670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0F39E-952A-4514-AEAE-0BFB56B30FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="616" activeTab="1" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Treasure" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Dice Averages" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="107">
   <si>
     <t>Individual gp Per Formula</t>
   </si>
@@ -345,6 +346,12 @@
   </si>
   <si>
     <t>CR 19: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 25 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 25: Humanoid</t>
   </si>
 </sst>
 </file>
@@ -757,15 +764,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,6 +775,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,7 +791,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,22 +1147,22 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="10.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1176,7 +1183,7 @@
       </c>
       <c r="H1" s="47"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-3</v>
       </c>
@@ -1200,7 +1207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-2</v>
       </c>
@@ -1224,7 +1231,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-1</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1272,7 +1279,7 @@
         <v>946.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1294,7 +1301,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1354,7 +1361,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1384,7 +1391,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1399,7 +1406,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1414,7 +1421,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -1429,7 +1436,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -1444,7 +1451,7 @@
         <v>946.75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>946.75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1474,7 +1481,7 @@
         <v>946.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>946.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>946.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1519,7 +1526,7 @@
         <v>946.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1534,7 +1541,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -1594,7 +1601,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1609,7 +1616,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -1624,7 +1631,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -1639,7 +1646,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -1669,7 +1676,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -1699,7 +1706,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -1714,7 +1721,7 @@
         <v>8470</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -1741,69 +1748,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD8D082-213D-4692-B6C5-868C3C1BDB24}">
-  <dimension ref="A1:AD260"/>
+  <dimension ref="A1:AD270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="K227" sqref="K227"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.54296875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" style="8"/>
-    <col min="21" max="21" width="10.7265625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" style="8"/>
-    <col min="24" max="24" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.54296875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="9.1796875" style="8"/>
-    <col min="27" max="27" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1796875" style="8"/>
-    <col min="30" max="30" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="8"/>
+    <col min="7" max="7" width="11.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="8"/>
+    <col min="21" max="21" width="10.7109375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="8"/>
+    <col min="24" max="24" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="8"/>
+    <col min="27" max="27" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="8"/>
+    <col min="30" max="30" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
       <c r="Z1" s="39"/>
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
       <c r="AC1" s="39"/>
       <c r="AD1" s="39"/>
     </row>
-    <row r="2" spans="1:30" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="60" t="s">
         <v>48</v>
       </c>
@@ -1837,11 +1844,11 @@
       <c r="AC2" s="37"/>
       <c r="AD2" s="37"/>
     </row>
-    <row r="3" spans="1:30" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:30" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="21">
         <v>3</v>
       </c>
@@ -1875,7 +1882,7 @@
       <c r="AC3" s="36"/>
       <c r="AD3" s="36"/>
     </row>
-    <row r="4" spans="1:30" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
@@ -1919,7 +1926,7 @@
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
         <f>C3+1</f>
         <v>4</v>
@@ -1942,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
         <f>B5+1</f>
         <v>6</v>
@@ -1965,7 +1972,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <f t="shared" ref="A7:A9" si="2">B6+1</f>
         <v>12</v>
@@ -1988,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="43">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2011,7 +2018,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2035,19 +2042,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="33">
         <f>'Individual Treasure'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="34">
         <f>SUMPRODUCT(C5:C9,F5:F9)</f>
         <v>1</v>
@@ -2072,36 +2079,36 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
       <c r="AC11" s="39"/>
       <c r="AD11" s="39"/>
     </row>
-    <row r="12" spans="1:30" ht="26" x14ac:dyDescent="0.6">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:30" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -2127,19 +2134,19 @@
       <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
     </row>
-    <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="21">
         <v>3</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="36"/>
@@ -2150,7 +2157,7 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
     </row>
-    <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>9</v>
       </c>
@@ -2179,7 +2186,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <f>C13+1</f>
         <v>4</v>
@@ -2202,7 +2209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
         <f>B15+1</f>
         <v>6</v>
@@ -2225,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <f t="shared" ref="A17:A19" si="5">B16+1</f>
         <v>9</v>
@@ -2248,7 +2255,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -2271,7 +2278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -2295,19 +2302,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="33">
         <f>'Individual Treasure'!B4</f>
         <v>1.6717350674697367</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="34">
         <f>SUMPRODUCT(C15:C19,F15:F19)</f>
         <v>1.6750000000000003</v>
@@ -2315,67 +2322,67 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-    </row>
-    <row r="22" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="55" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="55" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="57" t="s">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="21">
         <v>3</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="57" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="21">
         <v>3</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
-    </row>
-    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>9</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
         <f>C23+1</f>
         <v>4</v>
@@ -2457,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
         <f>B25+1</f>
         <v>5</v>
@@ -2501,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <f t="shared" ref="A27:A29" si="10">B26+1</f>
         <v>7</v>
@@ -2545,7 +2552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -2589,7 +2596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -2635,101 +2642,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="51" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="52"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="54"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="34">
         <f>SUMPRODUCT(C25:C29,F25:F29)</f>
         <v>2.5750000000000002</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="52"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="33">
         <f>'Individual Treasure'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="54"/>
+      <c r="K30" s="51"/>
       <c r="L30" s="34">
         <f>SUMPRODUCT(I25:I29,L25:L29)</f>
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="59" t="s">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-    </row>
-    <row r="32" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="55" t="s">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="55" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56"/>
-    </row>
-    <row r="33" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="57" t="s">
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="21">
         <v>3</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="57" t="s">
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="58"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="21">
         <v>3</v>
       </c>
-      <c r="J33" s="48" t="s">
+      <c r="J33" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="50"/>
-    </row>
-    <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+    </row>
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>9</v>
       </c>
@@ -2767,7 +2774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <f>C33+1</f>
         <v>4</v>
@@ -2794,24 +2801,24 @@
         <v>4</v>
       </c>
       <c r="H35" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" s="31">
         <f>((H35-G35+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J35" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" s="8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L35" s="19">
         <f>J35*K35</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="43">
         <f>B35+1</f>
         <v>6</v>
@@ -2835,27 +2842,27 @@
       </c>
       <c r="G36" s="43">
         <f>H35+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H36" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I36" s="31">
         <f t="shared" ref="I36:I39" si="14">((H36-G36+1)*0.05)</f>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J36" s="18">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
         <v>5</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0.5</v>
       </c>
       <c r="L36" s="19">
         <f t="shared" ref="L36:L39" si="15">J36*K36</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="43">
         <f t="shared" ref="A37:A39" si="16">B36+1</f>
         <v>10</v>
@@ -2879,27 +2886,27 @@
       </c>
       <c r="G37" s="43">
         <f t="shared" ref="G37:G39" si="17">H36+1</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H37" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I37" s="31">
         <f t="shared" si="14"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="J37" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L37" s="19">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="43">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -2923,27 +2930,27 @@
       </c>
       <c r="G38" s="43">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H38" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I38" s="31">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J38" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K38" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L38" s="19">
         <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="43">
         <f t="shared" si="16"/>
         <v>21</v>
@@ -2968,7 +2975,7 @@
       </c>
       <c r="G39" s="43">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39" s="44">
         <f>20+I33</f>
@@ -2976,114 +2983,114 @@
       </c>
       <c r="I39" s="31">
         <f t="shared" si="14"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J39" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K39" s="28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L39" s="22">
         <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="52"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="33">
         <f>'Individual Treasure'!B6</f>
         <v>4.0099310619512103</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="54"/>
+      <c r="E40" s="51"/>
       <c r="F40" s="34">
         <f>SUMPRODUCT(C35:C39,F35:F39)</f>
         <v>4.05</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="52"/>
+      <c r="H40" s="49"/>
       <c r="I40" s="33">
         <f>'Individual Treasure'!B6</f>
         <v>4.0099310619512103</v>
       </c>
-      <c r="J40" s="53" t="s">
+      <c r="J40" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K40" s="54"/>
+      <c r="K40" s="51"/>
       <c r="L40" s="34">
         <f>SUMPRODUCT(I35:I39,L35:L39)</f>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="59" t="s">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-    </row>
-    <row r="42" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="55" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+    </row>
+    <row r="42" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="55" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="56"/>
-    </row>
-    <row r="43" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="57" t="s">
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="54"/>
+    </row>
+    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="21">
         <v>3</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="57" t="s">
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="58"/>
+      <c r="H43" s="56"/>
       <c r="I43" s="21">
         <v>3</v>
       </c>
-      <c r="J43" s="48" t="s">
+      <c r="J43" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="49"/>
-      <c r="L43" s="50"/>
-    </row>
-    <row r="44" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+    </row>
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="43">
         <f>C43+1</f>
         <v>4</v>
@@ -3165,7 +3172,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
         <f>B45+1</f>
         <v>5</v>
@@ -3209,7 +3216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
         <f t="shared" ref="A47:A49" si="22">B46+1</f>
         <v>7</v>
@@ -3253,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
         <f t="shared" si="22"/>
         <v>11</v>
@@ -3297,7 +3304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <f t="shared" si="22"/>
         <v>18</v>
@@ -3343,107 +3350,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="51" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="52"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="33">
         <f>'Individual Treasure'!B7</f>
         <v>6.2104294592761873</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="54"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="34">
         <f>SUMPRODUCT(C45:C49,F45:F49)</f>
         <v>6.2000000000000011</v>
       </c>
-      <c r="G50" s="51" t="s">
+      <c r="G50" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="52"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="33">
         <f>'Individual Treasure'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="J50" s="53" t="s">
+      <c r="J50" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="54"/>
+      <c r="K50" s="51"/>
       <c r="L50" s="34">
         <f>SUMPRODUCT(I45:I49,L45:L49)</f>
         <v>5.7</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="59" t="s">
+    <row r="51" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-    </row>
-    <row r="52" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="55" t="s">
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+    </row>
+    <row r="52" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A52" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="55" t="s">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="56"/>
-    </row>
-    <row r="53" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="57" t="s">
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="54"/>
+    </row>
+    <row r="53" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="58"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="21">
         <v>3</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="57" t="s">
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="58"/>
+      <c r="H53" s="56"/>
       <c r="I53" s="21">
         <v>3</v>
       </c>
-      <c r="J53" s="48" t="s">
+      <c r="J53" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K53" s="49"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="48" t="s">
+      <c r="K53" s="58"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="N53" s="49"/>
-      <c r="O53" s="50"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="59"/>
       <c r="P53" s="46"/>
     </row>
-    <row r="54" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>9</v>
       </c>
@@ -3493,27 +3500,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
         <f>C53+1</f>
         <v>4</v>
       </c>
       <c r="B55" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="31">
         <f>((B55-A55+1)*0.05)</f>
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D55" s="18">
         <v>1</v>
       </c>
       <c r="E55" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F55" s="19">
         <f>D55*E55</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55" s="43">
         <f>I53+1</f>
@@ -3551,27 +3558,27 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
         <f>B55+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B56" s="8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C56" s="31">
         <f t="shared" ref="C56:C59" si="24">((B56-A56+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D56" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F56" s="19">
         <f t="shared" ref="F56:F59" si="25">D56*E56</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G56" s="43">
         <f>H55+1</f>
@@ -3609,27 +3616,27 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
         <f t="shared" ref="A57:A59" si="30">B56+1</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B57" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C57" s="31">
         <f t="shared" si="24"/>
-        <v>0.45</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D57" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="8">
         <v>5</v>
       </c>
       <c r="F57" s="19">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G57" s="43">
         <f t="shared" ref="G57:G59" si="31">H56+1</f>
@@ -3667,27 +3674,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
         <f t="shared" si="30"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B58" s="8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C58" s="31">
         <f t="shared" si="24"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D58" s="18">
         <v>2</v>
       </c>
       <c r="E58" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F58" s="19">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="43">
         <f t="shared" si="31"/>
@@ -3725,10 +3732,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
         <f t="shared" si="30"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B59" s="44">
         <f>20+C53</f>
@@ -3736,17 +3743,17 @@
       </c>
       <c r="C59" s="31">
         <f t="shared" si="24"/>
-        <v>0.30000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="D59" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="28">
         <v>10</v>
       </c>
       <c r="F59" s="22">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G59" s="43">
         <f t="shared" si="31"/>
@@ -3785,43 +3792,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="51" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="52"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="33">
         <f>'Individual Treasure'!B8</f>
         <v>9.6184780917100969</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="54"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="34">
         <f>SUMPRODUCT(C55:C59,F55:F59)</f>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="G60" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H60" s="52"/>
+      <c r="H60" s="49"/>
       <c r="I60" s="33">
         <f>'Individual Treasure'!B8</f>
         <v>9.6184780917100969</v>
       </c>
-      <c r="J60" s="53" t="s">
+      <c r="J60" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K60" s="54"/>
+      <c r="K60" s="51"/>
       <c r="L60" s="34">
         <f>SUMPRODUCT(I55:I59,L55:L59)</f>
         <v>6.5</v>
       </c>
-      <c r="M60" s="53" t="s">
+      <c r="M60" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N60" s="54"/>
+      <c r="N60" s="51"/>
       <c r="O60" s="34">
         <f>SUMPRODUCT(I55:I59,O55:O59)</f>
         <v>3.45</v>
@@ -3831,47 +3838,47 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="59" t="s">
+    <row r="61" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-    </row>
-    <row r="62" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="55" t="s">
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+    </row>
+    <row r="62" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A62" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="56"/>
-    </row>
-    <row r="63" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="57" t="s">
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="54"/>
+    </row>
+    <row r="63" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="58"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="21">
         <v>3</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D63" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="50"/>
-    </row>
-    <row r="64" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
+    </row>
+    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
         <v>9</v>
       </c>
@@ -3891,7 +3898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="43">
         <f>C63+1</f>
         <v>4</v>
@@ -3914,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
         <f>B65+1</f>
         <v>6</v>
@@ -3937,7 +3944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
         <f t="shared" ref="A67:A69" si="34">B66+1</f>
         <v>9</v>
@@ -3960,7 +3967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
         <f t="shared" si="34"/>
         <v>16</v>
@@ -3983,7 +3990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="43">
         <f t="shared" si="34"/>
         <v>22</v>
@@ -4007,91 +4014,91 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="51" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="52"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="33">
         <f>'Individual Treasure'!B9</f>
         <v>14.89673482443669</v>
       </c>
-      <c r="D70" s="53" t="s">
+      <c r="D70" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="54"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="34">
         <f>SUMPRODUCT(C65:C69,F65:F69)</f>
         <v>14.900000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="59" t="s">
+    <row r="71" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-    </row>
-    <row r="72" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="55" t="s">
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+    </row>
+    <row r="72" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A72" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="55" t="s">
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="56"/>
-    </row>
-    <row r="73" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="57" t="s">
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="54"/>
+    </row>
+    <row r="73" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="58"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="21">
         <v>5</v>
       </c>
-      <c r="D73" s="48" t="s">
+      <c r="D73" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="49"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="57" t="s">
+      <c r="E73" s="58"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H73" s="58"/>
+      <c r="H73" s="56"/>
       <c r="I73" s="21">
         <v>5</v>
       </c>
-      <c r="J73" s="48" t="s">
+      <c r="J73" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K73" s="49"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="48" t="s">
+      <c r="K73" s="58"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="N73" s="49"/>
-      <c r="O73" s="50"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="59"/>
       <c r="P73" s="46"/>
     </row>
-    <row r="74" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
         <v>9</v>
       </c>
@@ -4141,7 +4148,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
         <f>C73+1</f>
         <v>6</v>
@@ -4154,14 +4161,14 @@
         <v>0.1</v>
       </c>
       <c r="D75" s="18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E75" s="8">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F75" s="19">
         <f>D75*E75</f>
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="G75" s="43">
         <f>I73+1</f>
@@ -4199,27 +4206,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="43">
         <f>B75+1</f>
         <v>8</v>
       </c>
       <c r="B76" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C76" s="31">
         <f t="shared" ref="C76:C79" si="35">((B76-A76+1)*0.05)</f>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="D76" s="18">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E76" s="8">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F76" s="19">
         <f t="shared" ref="F76:F79" si="36">D76*E76</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G76" s="43">
         <f>H75+1</f>
@@ -4257,27 +4264,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="43">
         <f t="shared" ref="A77:A79" si="41">B76+1</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C77" s="31">
         <f t="shared" si="35"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="D77" s="18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E77" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F77" s="19">
         <f t="shared" si="36"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G77" s="43">
         <f t="shared" ref="G77:G79" si="42">H76+1</f>
@@ -4315,27 +4322,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="43">
         <f t="shared" si="41"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B78" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C78" s="31">
         <f t="shared" si="35"/>
-        <v>0.30000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="D78" s="18">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E78" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F78" s="19">
         <f t="shared" si="36"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G78" s="43">
         <f t="shared" si="42"/>
@@ -4373,10 +4380,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="43">
         <f t="shared" si="41"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B79" s="44">
         <f>20+C73</f>
@@ -4384,17 +4391,17 @@
       </c>
       <c r="C79" s="31">
         <f t="shared" si="35"/>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="D79" s="20">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E79" s="28">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F79" s="22">
         <f t="shared" si="36"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G79" s="43">
         <f t="shared" si="42"/>
@@ -4433,43 +4440,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="51" t="s">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="52"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="33">
         <f>'Individual Treasure'!B10</f>
         <v>23.071499078512772</v>
       </c>
-      <c r="D80" s="53" t="s">
+      <c r="D80" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="54"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="34">
         <f>SUMPRODUCT(C75:C79,F75:F79)</f>
-        <v>23</v>
-      </c>
-      <c r="G80" s="51" t="s">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="G80" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H80" s="52"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="33">
         <f>'Individual Treasure'!B10</f>
         <v>23.071499078512772</v>
       </c>
-      <c r="J80" s="53" t="s">
+      <c r="J80" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K80" s="54"/>
+      <c r="K80" s="51"/>
       <c r="L80" s="34">
         <f>SUMPRODUCT(I75:I79,L75:L79)</f>
         <v>16.5</v>
       </c>
-      <c r="M80" s="53" t="s">
+      <c r="M80" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N80" s="54"/>
+      <c r="N80" s="51"/>
       <c r="O80" s="34">
         <f>SUMPRODUCT(I75:I79,O75:O79)</f>
         <v>7.3500000000000005</v>
@@ -4479,73 +4486,73 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="59" t="s">
+    <row r="81" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-    </row>
-    <row r="82" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="55" t="s">
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="52"/>
+      <c r="L81" s="52"/>
+    </row>
+    <row r="82" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A82" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="55" t="s">
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="56"/>
-    </row>
-    <row r="83" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="57" t="s">
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="54"/>
+    </row>
+    <row r="83" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="58"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="21">
         <v>5</v>
       </c>
-      <c r="D83" s="48" t="s">
+      <c r="D83" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="49"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="57" t="s">
+      <c r="E83" s="58"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H83" s="58"/>
+      <c r="H83" s="56"/>
       <c r="I83" s="21">
         <v>5</v>
       </c>
-      <c r="J83" s="48" t="s">
+      <c r="J83" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K83" s="49"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="48" t="s">
+      <c r="K83" s="58"/>
+      <c r="L83" s="59"/>
+      <c r="M83" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="N83" s="49"/>
-      <c r="O83" s="50"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="59"/>
       <c r="P83" s="46"/>
     </row>
-    <row r="84" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
         <v>9</v>
       </c>
@@ -4595,7 +4602,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="43">
         <f>C83+1</f>
         <v>6</v>
@@ -4608,14 +4615,14 @@
         <v>0.1</v>
       </c>
       <c r="D85" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F85" s="19">
         <f>D85*E85</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G85" s="43">
         <f>I83+1</f>
@@ -4653,27 +4660,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="43">
         <f>B85+1</f>
         <v>8</v>
       </c>
       <c r="B86" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C86" s="31">
         <f t="shared" ref="C86:C89" si="43">((B86-A86+1)*0.05)</f>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="D86" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" s="8">
         <v>10</v>
       </c>
       <c r="F86" s="19">
         <f t="shared" ref="F86:F89" si="44">D86*E86</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G86" s="43">
         <f>H85+1</f>
@@ -4711,27 +4718,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="43">
         <f t="shared" ref="A87:A89" si="49">B86+1</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B87" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C87" s="31">
         <f t="shared" si="43"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="D87" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F87" s="19">
         <f t="shared" si="44"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G87" s="43">
         <f t="shared" ref="G87:G89" si="50">H86+1</f>
@@ -4769,27 +4776,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="43">
         <f t="shared" si="49"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88" s="31">
         <f t="shared" si="43"/>
         <v>0.2</v>
       </c>
       <c r="D88" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" s="8">
         <v>20</v>
       </c>
       <c r="F88" s="19">
         <f t="shared" si="44"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G88" s="43">
         <f t="shared" si="50"/>
@@ -4827,10 +4834,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="43">
         <f t="shared" si="49"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B89" s="44">
         <f>20+C83</f>
@@ -4838,17 +4845,17 @@
       </c>
       <c r="C89" s="31">
         <f t="shared" si="43"/>
-        <v>0.2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D89" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E89" s="28">
         <v>20</v>
       </c>
       <c r="F89" s="22">
         <f t="shared" si="44"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G89" s="43">
         <f t="shared" si="50"/>
@@ -4887,43 +4894,43 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90" s="51" t="s">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="52"/>
+      <c r="B90" s="49"/>
       <c r="C90" s="33">
         <f>'Individual Treasure'!B11</f>
         <v>35.732264553480377</v>
       </c>
-      <c r="D90" s="53" t="s">
+      <c r="D90" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="54"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="34">
         <f>SUMPRODUCT(C85:C89,F85:F89)</f>
-        <v>35</v>
-      </c>
-      <c r="G90" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H90" s="52"/>
+      <c r="H90" s="49"/>
       <c r="I90" s="33">
         <f>'Individual Treasure'!B11</f>
         <v>35.732264553480377</v>
       </c>
-      <c r="J90" s="53" t="s">
+      <c r="J90" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K90" s="54"/>
+      <c r="K90" s="51"/>
       <c r="L90" s="34">
         <f>SUMPRODUCT(I85:I89,L85:L89)</f>
         <v>45</v>
       </c>
-      <c r="M90" s="53" t="s">
+      <c r="M90" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N90" s="54"/>
+      <c r="N90" s="51"/>
       <c r="O90" s="34">
         <f>SUMPRODUCT(I85:I89,O85:O89)</f>
         <v>10.650000000000002</v>
@@ -4933,67 +4940,67 @@
         <v>55.650000000000006</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="59" t="s">
+    <row r="91" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="59"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="59"/>
-    </row>
-    <row r="92" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="55" t="s">
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+    </row>
+    <row r="92" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A92" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="55" t="s">
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="56"/>
-    </row>
-    <row r="93" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="57" t="s">
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="53"/>
+      <c r="L92" s="54"/>
+    </row>
+    <row r="93" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="58"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="21">
         <v>5</v>
       </c>
-      <c r="D93" s="48" t="s">
+      <c r="D93" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="49"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="57" t="s">
+      <c r="E93" s="58"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H93" s="58"/>
+      <c r="H93" s="56"/>
       <c r="I93" s="21">
         <v>5</v>
       </c>
-      <c r="J93" s="48" t="s">
+      <c r="J93" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K93" s="49"/>
-      <c r="L93" s="50"/>
-    </row>
-    <row r="94" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K93" s="58"/>
+      <c r="L93" s="59"/>
+    </row>
+    <row r="94" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
         <v>9</v>
       </c>
@@ -5031,7 +5038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="43">
         <f>C93+1</f>
         <v>6</v>
@@ -5075,7 +5082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="43">
         <f>B95+1</f>
         <v>7</v>
@@ -5119,7 +5126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="43">
         <f t="shared" ref="A97:A99" si="55">B96+1</f>
         <v>10</v>
@@ -5163,7 +5170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="43">
         <f t="shared" si="55"/>
         <v>17</v>
@@ -5207,7 +5214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="43">
         <f t="shared" si="55"/>
         <v>22</v>
@@ -5253,107 +5260,107 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A100" s="51" t="s">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="52"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="33">
         <f>'Individual Treasure'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="D100" s="53" t="s">
+      <c r="D100" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="54"/>
+      <c r="E100" s="51"/>
       <c r="F100" s="34">
         <f>SUMPRODUCT(C95:C99,F95:F99)</f>
         <v>54.5</v>
       </c>
-      <c r="G100" s="51" t="s">
+      <c r="G100" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H100" s="52"/>
+      <c r="H100" s="49"/>
       <c r="I100" s="33">
         <f>'Individual Treasure'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="J100" s="53" t="s">
+      <c r="J100" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K100" s="54"/>
+      <c r="K100" s="51"/>
       <c r="L100" s="34">
         <f>SUMPRODUCT(I95:I99,L95:L99)</f>
         <v>56.25</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="59" t="s">
+    <row r="101" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="59"/>
-      <c r="L101" s="59"/>
-    </row>
-    <row r="102" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="55" t="s">
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="52"/>
+      <c r="K101" s="52"/>
+      <c r="L101" s="52"/>
+    </row>
+    <row r="102" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A102" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="55" t="s">
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="55"/>
-      <c r="K102" s="55"/>
-      <c r="L102" s="56"/>
-    </row>
-    <row r="103" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="57" t="s">
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="53"/>
+      <c r="K102" s="53"/>
+      <c r="L102" s="54"/>
+    </row>
+    <row r="103" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="58"/>
+      <c r="B103" s="56"/>
       <c r="C103" s="21">
         <v>5</v>
       </c>
-      <c r="D103" s="48" t="s">
+      <c r="D103" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="49"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="57" t="s">
+      <c r="E103" s="58"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H103" s="58"/>
+      <c r="H103" s="56"/>
       <c r="I103" s="21">
         <v>5</v>
       </c>
-      <c r="J103" s="48" t="s">
+      <c r="J103" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K103" s="49"/>
-      <c r="L103" s="50"/>
-      <c r="M103" s="48" t="s">
+      <c r="K103" s="58"/>
+      <c r="L103" s="59"/>
+      <c r="M103" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="N103" s="49"/>
-      <c r="O103" s="50"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="59"/>
       <c r="P103" s="46"/>
     </row>
-    <row r="104" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
         <v>9</v>
       </c>
@@ -5403,7 +5410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="43">
         <f>C103+1</f>
         <v>6</v>
@@ -5461,7 +5468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="43">
         <f>B105+1</f>
         <v>8</v>
@@ -5519,7 +5526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="43">
         <f t="shared" ref="A107:A109" si="63">B106+1</f>
         <v>13</v>
@@ -5577,7 +5584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="43">
         <f t="shared" si="63"/>
         <v>18</v>
@@ -5635,7 +5642,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="43">
         <f t="shared" si="63"/>
         <v>22</v>
@@ -5695,43 +5702,43 @@
         <v>260</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="51" t="s">
+    <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="52"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="33">
         <f>'Individual Treasure'!B13</f>
         <v>85.709703849023938</v>
       </c>
-      <c r="D110" s="53" t="s">
+      <c r="D110" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E110" s="54"/>
+      <c r="E110" s="51"/>
       <c r="F110" s="34">
         <f>SUMPRODUCT(C105:C109,F105:F109)</f>
         <v>85.5</v>
       </c>
-      <c r="G110" s="51" t="s">
+      <c r="G110" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H110" s="52"/>
+      <c r="H110" s="49"/>
       <c r="I110" s="33">
         <f>'Individual Treasure'!B13</f>
         <v>85.709703849023938</v>
       </c>
-      <c r="J110" s="53" t="s">
+      <c r="J110" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K110" s="54"/>
+      <c r="K110" s="51"/>
       <c r="L110" s="34">
         <f>SUMPRODUCT(I105:I109,L105:L109)</f>
         <v>97.5</v>
       </c>
-      <c r="M110" s="53" t="s">
+      <c r="M110" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N110" s="54"/>
+      <c r="N110" s="51"/>
       <c r="O110" s="34">
         <f>SUMPRODUCT(I105:I109,O105:O109)</f>
         <v>29.75</v>
@@ -5741,67 +5748,67 @@
         <v>127.25</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="59" t="s">
+    <row r="111" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="59"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
-      <c r="I111" s="59"/>
-      <c r="J111" s="59"/>
-      <c r="K111" s="59"/>
-      <c r="L111" s="59"/>
-    </row>
-    <row r="112" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="55" t="s">
+      <c r="B111" s="52"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="52"/>
+      <c r="J111" s="52"/>
+      <c r="K111" s="52"/>
+      <c r="L111" s="52"/>
+    </row>
+    <row r="112" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A112" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="55"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="55" t="s">
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H112" s="55"/>
-      <c r="I112" s="55"/>
-      <c r="J112" s="55"/>
-      <c r="K112" s="55"/>
-      <c r="L112" s="56"/>
-    </row>
-    <row r="113" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="57" t="s">
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
+      <c r="K112" s="53"/>
+      <c r="L112" s="54"/>
+    </row>
+    <row r="113" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="58"/>
+      <c r="B113" s="56"/>
       <c r="C113" s="21">
         <v>5</v>
       </c>
-      <c r="D113" s="48" t="s">
+      <c r="D113" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="49"/>
-      <c r="F113" s="50"/>
-      <c r="G113" s="57" t="s">
+      <c r="E113" s="58"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H113" s="58"/>
+      <c r="H113" s="56"/>
       <c r="I113" s="21">
         <v>5</v>
       </c>
-      <c r="J113" s="48" t="s">
+      <c r="J113" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K113" s="49"/>
-      <c r="L113" s="50"/>
-    </row>
-    <row r="114" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K113" s="58"/>
+      <c r="L113" s="59"/>
+    </row>
+    <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="42" t="s">
         <v>9</v>
       </c>
@@ -5839,7 +5846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="43">
         <f>C113+1</f>
         <v>6</v>
@@ -5866,11 +5873,11 @@
         <v>6</v>
       </c>
       <c r="H115" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I115" s="31">
         <f>((H115-G115+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J115" s="18">
         <v>1</v>
@@ -5883,7 +5890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="43">
         <f>B115+1</f>
         <v>8</v>
@@ -5907,27 +5914,27 @@
       </c>
       <c r="G116" s="43">
         <f>H115+1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H116" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I116" s="31">
         <f t="shared" ref="I116:I119" si="67">((H116-G116+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J116" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K116" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L116" s="19">
         <f t="shared" ref="L116:L119" si="68">J116*K116</f>
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="43">
         <f t="shared" ref="A117:A119" si="69">B116+1</f>
         <v>13</v>
@@ -5951,27 +5958,27 @@
       </c>
       <c r="G117" s="43">
         <f t="shared" ref="G117:G119" si="70">H116+1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H117" s="8">
         <v>17</v>
       </c>
       <c r="I117" s="31">
         <f t="shared" si="67"/>
-        <v>0.25</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="J117" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K117" s="8">
         <v>100</v>
       </c>
       <c r="L117" s="19">
         <f t="shared" si="68"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="43">
         <f t="shared" si="69"/>
         <v>18</v>
@@ -5998,24 +6005,24 @@
         <v>18</v>
       </c>
       <c r="H118" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I118" s="31">
         <f t="shared" si="67"/>
-        <v>0.35000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="J118" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K118" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L118" s="19">
         <f t="shared" si="68"/>
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="43">
         <f t="shared" si="69"/>
         <v>25</v>
@@ -6040,7 +6047,7 @@
       </c>
       <c r="G119" s="43">
         <f t="shared" si="70"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H119" s="44">
         <f>20+I113</f>
@@ -6048,7 +6055,7 @@
       </c>
       <c r="I119" s="31">
         <f t="shared" si="67"/>
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J119" s="20">
         <v>2</v>
@@ -6061,101 +6068,101 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A120" s="51" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B120" s="52"/>
+      <c r="B120" s="49"/>
       <c r="C120" s="33">
         <f>'Individual Treasure'!B14</f>
         <v>132.7439453462336</v>
       </c>
-      <c r="D120" s="53" t="s">
+      <c r="D120" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="54"/>
+      <c r="E120" s="51"/>
       <c r="F120" s="34">
         <f>SUMPRODUCT(C115:C119,F115:F119)</f>
         <v>133</v>
       </c>
-      <c r="G120" s="51" t="s">
+      <c r="G120" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H120" s="52"/>
+      <c r="H120" s="49"/>
       <c r="I120" s="33">
         <f>'Individual Treasure'!B14</f>
         <v>132.7439453462336</v>
       </c>
-      <c r="J120" s="53" t="s">
+      <c r="J120" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K120" s="54"/>
+      <c r="K120" s="51"/>
       <c r="L120" s="34">
         <f>SUMPRODUCT(I115:I119,L115:L119)</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="59" t="s">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="59"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="59"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59"/>
-      <c r="H121" s="59"/>
-      <c r="I121" s="59"/>
-      <c r="J121" s="59"/>
-      <c r="K121" s="59"/>
-      <c r="L121" s="59"/>
-    </row>
-    <row r="122" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="55" t="s">
+      <c r="B121" s="52"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
+      <c r="I121" s="52"/>
+      <c r="J121" s="52"/>
+      <c r="K121" s="52"/>
+      <c r="L121" s="52"/>
+    </row>
+    <row r="122" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A122" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="55" t="s">
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="53"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="55"/>
-      <c r="L122" s="56"/>
-    </row>
-    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="57" t="s">
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
+      <c r="L122" s="54"/>
+    </row>
+    <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="58"/>
+      <c r="B123" s="56"/>
       <c r="C123" s="21">
         <v>5</v>
       </c>
-      <c r="D123" s="48" t="s">
+      <c r="D123" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="49"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="57" t="s">
+      <c r="E123" s="58"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H123" s="58"/>
+      <c r="H123" s="56"/>
       <c r="I123" s="21">
         <v>5</v>
       </c>
-      <c r="J123" s="48" t="s">
+      <c r="J123" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K123" s="49"/>
-      <c r="L123" s="50"/>
-    </row>
-    <row r="124" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K123" s="58"/>
+      <c r="L123" s="59"/>
+    </row>
+    <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="42" t="s">
         <v>9</v>
       </c>
@@ -6193,7 +6200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="43">
         <f>C123+1</f>
         <v>6</v>
@@ -6209,11 +6216,11 @@
         <v>1</v>
       </c>
       <c r="E125" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F125" s="19">
         <f>D125*E125</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G125" s="43">
         <f>I123+1</f>
@@ -6237,27 +6244,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="43">
         <f>B125+1</f>
         <v>8</v>
       </c>
       <c r="B126" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C126" s="31">
         <f t="shared" ref="C126:C129" si="71">((B126-A126+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D126" s="18">
         <v>2</v>
       </c>
       <c r="E126" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F126" s="19">
         <f t="shared" ref="F126:F129" si="72">D126*E126</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G126" s="43">
         <f>H125+1</f>
@@ -6281,27 +6288,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="43">
         <f t="shared" ref="A127:A129" si="75">B126+1</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B127" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C127" s="31">
         <f t="shared" si="71"/>
-        <v>0.2</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D127" s="18">
         <v>3</v>
       </c>
       <c r="E127" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F127" s="19">
         <f t="shared" si="72"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G127" s="43">
         <f t="shared" ref="G127:G129" si="76">H126+1</f>
@@ -6325,27 +6332,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="43">
         <f t="shared" si="75"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B128" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C128" s="31">
         <f t="shared" si="71"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D128" s="18">
         <v>2</v>
       </c>
       <c r="E128" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F128" s="19">
         <f t="shared" si="72"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G128" s="43">
         <f t="shared" si="76"/>
@@ -6369,10 +6376,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="43">
         <f t="shared" si="75"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B129" s="44">
         <f>20+C123</f>
@@ -6380,17 +6387,17 @@
       </c>
       <c r="C129" s="31">
         <f t="shared" si="71"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D129" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129" s="28">
         <v>200</v>
       </c>
       <c r="F129" s="22">
         <f t="shared" si="72"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G129" s="43">
         <f t="shared" si="76"/>
@@ -6415,101 +6422,101 @@
         <v>500</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="51" t="s">
+    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="52"/>
+      <c r="B130" s="49"/>
       <c r="C130" s="33">
         <f>'Individual Treasure'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="D130" s="53" t="s">
+      <c r="D130" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="54"/>
+      <c r="E130" s="51"/>
       <c r="F130" s="34">
         <f>SUMPRODUCT(C125:C129,F125:F129)</f>
-        <v>205</v>
-      </c>
-      <c r="G130" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="G130" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H130" s="52"/>
+      <c r="H130" s="49"/>
       <c r="I130" s="33">
         <f>'Individual Treasure'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="J130" s="53" t="s">
+      <c r="J130" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K130" s="54"/>
+      <c r="K130" s="51"/>
       <c r="L130" s="34">
         <f>SUMPRODUCT(I125:I129,L125:L129)</f>
         <v>205.5</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="59" t="s">
+    <row r="131" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B131" s="59"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="59"/>
-      <c r="E131" s="59"/>
-      <c r="F131" s="59"/>
-      <c r="G131" s="59"/>
-      <c r="H131" s="59"/>
-      <c r="I131" s="59"/>
-      <c r="J131" s="59"/>
-      <c r="K131" s="59"/>
-      <c r="L131" s="59"/>
-    </row>
-    <row r="132" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="55" t="s">
+      <c r="B131" s="52"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
+      <c r="I131" s="52"/>
+      <c r="J131" s="52"/>
+      <c r="K131" s="52"/>
+      <c r="L131" s="52"/>
+    </row>
+    <row r="132" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A132" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="55"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="55" t="s">
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="H132" s="55"/>
-      <c r="I132" s="55"/>
-      <c r="J132" s="55"/>
-      <c r="K132" s="55"/>
-      <c r="L132" s="56"/>
-    </row>
-    <row r="133" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="57" t="s">
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="53"/>
+      <c r="K132" s="53"/>
+      <c r="L132" s="54"/>
+    </row>
+    <row r="133" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B133" s="58"/>
+      <c r="B133" s="56"/>
       <c r="C133" s="21">
         <v>7</v>
       </c>
-      <c r="D133" s="48" t="s">
+      <c r="D133" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="49"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="57" t="s">
+      <c r="E133" s="58"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H133" s="58"/>
+      <c r="H133" s="56"/>
       <c r="I133" s="21">
         <v>7</v>
       </c>
-      <c r="J133" s="48" t="s">
+      <c r="J133" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K133" s="49"/>
-      <c r="L133" s="50"/>
-    </row>
-    <row r="134" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K133" s="58"/>
+      <c r="L133" s="59"/>
+    </row>
+    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
         <v>9</v>
       </c>
@@ -6547,7 +6554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="43">
         <f>C133+1</f>
         <v>8</v>
@@ -6591,7 +6598,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="43">
         <f>B135+1</f>
         <v>9</v>
@@ -6635,7 +6642,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="43">
         <f t="shared" ref="A137:A139" si="81">B136+1</f>
         <v>12</v>
@@ -6679,7 +6686,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="43">
         <f t="shared" si="81"/>
         <v>19</v>
@@ -6723,7 +6730,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
         <f t="shared" si="81"/>
         <v>24</v>
@@ -6769,81 +6776,81 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A140" s="51" t="s">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="52"/>
+      <c r="B140" s="49"/>
       <c r="C140" s="33">
         <f>'Individual Treasure'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="D140" s="53" t="s">
+      <c r="D140" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="54"/>
+      <c r="E140" s="51"/>
       <c r="F140" s="34">
         <f>SUMPRODUCT(C135:C139,F135:F139)</f>
         <v>317.5</v>
       </c>
-      <c r="G140" s="51" t="s">
+      <c r="G140" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H140" s="52"/>
+      <c r="H140" s="49"/>
       <c r="I140" s="33">
         <f>'Individual Treasure'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="J140" s="53" t="s">
+      <c r="J140" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K140" s="54"/>
+      <c r="K140" s="51"/>
       <c r="L140" s="34">
         <f>SUMPRODUCT(I135:I139,L135:L139)</f>
         <v>505</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="59" t="s">
+    <row r="141" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="59"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59"/>
-      <c r="H141" s="59"/>
-      <c r="I141" s="59"/>
-      <c r="J141" s="59"/>
-      <c r="K141" s="59"/>
-      <c r="L141" s="59"/>
-    </row>
-    <row r="142" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="55" t="s">
+      <c r="B141" s="52"/>
+      <c r="C141" s="52"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="52"/>
+      <c r="F141" s="52"/>
+      <c r="G141" s="52"/>
+      <c r="H141" s="52"/>
+      <c r="I141" s="52"/>
+      <c r="J141" s="52"/>
+      <c r="K141" s="52"/>
+      <c r="L141" s="52"/>
+    </row>
+    <row r="142" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A142" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B142" s="55"/>
-      <c r="C142" s="55"/>
-      <c r="D142" s="55"/>
-      <c r="E142" s="55"/>
-      <c r="F142" s="56"/>
-    </row>
-    <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="57" t="s">
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="54"/>
+    </row>
+    <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="58"/>
+      <c r="B143" s="56"/>
       <c r="C143" s="21">
         <v>7</v>
       </c>
-      <c r="D143" s="48" t="s">
+      <c r="D143" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="49"/>
-      <c r="F143" s="50"/>
-    </row>
-    <row r="144" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="E143" s="58"/>
+      <c r="F143" s="59"/>
+    </row>
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="42" t="s">
         <v>9</v>
       </c>
@@ -6863,7 +6870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="43">
         <f>C143+1</f>
         <v>8</v>
@@ -6886,7 +6893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="43">
         <f>B145+1</f>
         <v>9</v>
@@ -6909,7 +6916,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="43">
         <f t="shared" ref="A147:A149" si="85">B146+1</f>
         <v>15</v>
@@ -6932,7 +6939,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="43">
         <f t="shared" si="85"/>
         <v>20</v>
@@ -6955,7 +6962,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="43">
         <f t="shared" si="85"/>
         <v>24</v>
@@ -6979,85 +6986,85 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="51" t="s">
+    <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B150" s="52"/>
+      <c r="B150" s="49"/>
       <c r="C150" s="33">
         <f>'Individual Treasure'!B17</f>
         <v>493.13849111663814</v>
       </c>
-      <c r="D150" s="53" t="s">
+      <c r="D150" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="54"/>
+      <c r="E150" s="51"/>
       <c r="F150" s="34">
         <f>SUMPRODUCT(C145:C149,F145:F149)</f>
         <v>495</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="59" t="s">
+    <row r="151" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B151" s="59"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="59"/>
-      <c r="I151" s="59"/>
-      <c r="J151" s="59"/>
-      <c r="K151" s="59"/>
-      <c r="L151" s="59"/>
-    </row>
-    <row r="152" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="55" t="s">
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="52"/>
+      <c r="H151" s="52"/>
+      <c r="I151" s="52"/>
+      <c r="J151" s="52"/>
+      <c r="K151" s="52"/>
+      <c r="L151" s="52"/>
+    </row>
+    <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A152" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B152" s="55"/>
-      <c r="C152" s="55"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="55" t="s">
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="53"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="H152" s="55"/>
-      <c r="I152" s="55"/>
-      <c r="J152" s="55"/>
-      <c r="K152" s="55"/>
-      <c r="L152" s="56"/>
-    </row>
-    <row r="153" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="57" t="s">
+      <c r="H152" s="53"/>
+      <c r="I152" s="53"/>
+      <c r="J152" s="53"/>
+      <c r="K152" s="53"/>
+      <c r="L152" s="54"/>
+    </row>
+    <row r="153" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B153" s="58"/>
+      <c r="B153" s="56"/>
       <c r="C153" s="21">
         <v>7</v>
       </c>
-      <c r="D153" s="48" t="s">
+      <c r="D153" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="49"/>
-      <c r="F153" s="50"/>
-      <c r="G153" s="57" t="s">
+      <c r="E153" s="58"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H153" s="58"/>
+      <c r="H153" s="56"/>
       <c r="I153" s="21">
         <v>7</v>
       </c>
-      <c r="J153" s="48" t="s">
+      <c r="J153" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K153" s="49"/>
-      <c r="L153" s="50"/>
-    </row>
-    <row r="154" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K153" s="58"/>
+      <c r="L153" s="59"/>
+    </row>
+    <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="42" t="s">
         <v>9</v>
       </c>
@@ -7095,7 +7102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="43">
         <f>C153+1</f>
         <v>8</v>
@@ -7139,7 +7146,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="43">
         <f>B155+1</f>
         <v>9</v>
@@ -7183,7 +7190,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="43">
         <f t="shared" ref="A157:A159" si="90">B156+1</f>
         <v>14</v>
@@ -7227,7 +7234,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="43">
         <f t="shared" si="90"/>
         <v>19</v>
@@ -7271,7 +7278,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="43">
         <f t="shared" si="90"/>
         <v>26</v>
@@ -7317,81 +7324,81 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A160" s="51" t="s">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B160" s="52"/>
+      <c r="B160" s="49"/>
       <c r="C160" s="33">
         <f>'Individual Treasure'!B18</f>
         <v>763.75423053869986</v>
       </c>
-      <c r="D160" s="53" t="s">
+      <c r="D160" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="54"/>
+      <c r="E160" s="51"/>
       <c r="F160" s="34">
         <f>SUMPRODUCT(C155:C159,F155:F159)</f>
         <v>760</v>
       </c>
-      <c r="G160" s="51" t="s">
+      <c r="G160" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H160" s="52"/>
+      <c r="H160" s="49"/>
       <c r="I160" s="33">
         <f>'Individual Treasure'!B18</f>
         <v>763.75423053869986</v>
       </c>
-      <c r="J160" s="53" t="s">
+      <c r="J160" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K160" s="54"/>
+      <c r="K160" s="51"/>
       <c r="L160" s="34">
         <f>SUMPRODUCT(I155:I159,L155:L159)</f>
         <v>770</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="59" t="s">
+    <row r="161" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B161" s="59"/>
-      <c r="C161" s="59"/>
-      <c r="D161" s="59"/>
-      <c r="E161" s="59"/>
-      <c r="F161" s="59"/>
-      <c r="G161" s="59"/>
-      <c r="H161" s="59"/>
-      <c r="I161" s="59"/>
-      <c r="J161" s="59"/>
-      <c r="K161" s="59"/>
-      <c r="L161" s="59"/>
-    </row>
-    <row r="162" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="55" t="s">
+      <c r="B161" s="52"/>
+      <c r="C161" s="52"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="52"/>
+      <c r="G161" s="52"/>
+      <c r="H161" s="52"/>
+      <c r="I161" s="52"/>
+      <c r="J161" s="52"/>
+      <c r="K161" s="52"/>
+      <c r="L161" s="52"/>
+    </row>
+    <row r="162" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A162" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B162" s="55"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="55"/>
-      <c r="E162" s="55"/>
-      <c r="F162" s="56"/>
-    </row>
-    <row r="163" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="57" t="s">
+      <c r="B162" s="53"/>
+      <c r="C162" s="53"/>
+      <c r="D162" s="53"/>
+      <c r="E162" s="53"/>
+      <c r="F162" s="54"/>
+    </row>
+    <row r="163" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B163" s="58"/>
+      <c r="B163" s="56"/>
       <c r="C163" s="21">
         <v>7</v>
       </c>
-      <c r="D163" s="48" t="s">
+      <c r="D163" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E163" s="49"/>
-      <c r="F163" s="50"/>
-    </row>
-    <row r="164" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="E163" s="58"/>
+      <c r="F163" s="59"/>
+    </row>
+    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="42" t="s">
         <v>9</v>
       </c>
@@ -7411,7 +7418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="43">
         <f>C163+1</f>
         <v>8</v>
@@ -7434,7 +7441,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="43">
         <f>B165+1</f>
         <v>10</v>
@@ -7457,7 +7464,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="43">
         <f t="shared" ref="A167:A169" si="94">B166+1</f>
         <v>15</v>
@@ -7480,7 +7487,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="43">
         <f t="shared" si="94"/>
         <v>21</v>
@@ -7503,7 +7510,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="43">
         <f t="shared" si="94"/>
         <v>27</v>
@@ -7527,85 +7534,85 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A170" s="51" t="s">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="52"/>
+      <c r="B170" s="49"/>
       <c r="C170" s="33">
         <f>'Individual Treasure'!B19</f>
         <v>1182.8736453829017</v>
       </c>
-      <c r="D170" s="53" t="s">
+      <c r="D170" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E170" s="54"/>
+      <c r="E170" s="51"/>
       <c r="F170" s="34">
         <f>SUMPRODUCT(C165:C169,F165:F169)</f>
         <v>1205.0000000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="59" t="s">
+    <row r="171" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B171" s="59"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
-      <c r="J171" s="59"/>
-      <c r="K171" s="59"/>
-      <c r="L171" s="59"/>
-    </row>
-    <row r="172" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="55" t="s">
+      <c r="B171" s="52"/>
+      <c r="C171" s="52"/>
+      <c r="D171" s="52"/>
+      <c r="E171" s="52"/>
+      <c r="F171" s="52"/>
+      <c r="G171" s="52"/>
+      <c r="H171" s="52"/>
+      <c r="I171" s="52"/>
+      <c r="J171" s="52"/>
+      <c r="K171" s="52"/>
+      <c r="L171" s="52"/>
+    </row>
+    <row r="172" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A172" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="55"/>
-      <c r="C172" s="55"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="56"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="53"/>
+      <c r="E172" s="53"/>
+      <c r="F172" s="54"/>
       <c r="G172" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H172" s="55"/>
-      <c r="I172" s="55"/>
-      <c r="J172" s="55"/>
-      <c r="K172" s="55"/>
-      <c r="L172" s="56"/>
-    </row>
-    <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="57" t="s">
+      <c r="H172" s="53"/>
+      <c r="I172" s="53"/>
+      <c r="J172" s="53"/>
+      <c r="K172" s="53"/>
+      <c r="L172" s="54"/>
+    </row>
+    <row r="173" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B173" s="58"/>
+      <c r="B173" s="56"/>
       <c r="C173" s="21">
         <v>7</v>
       </c>
-      <c r="D173" s="48" t="s">
+      <c r="D173" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E173" s="49"/>
-      <c r="F173" s="50"/>
-      <c r="G173" s="57" t="s">
+      <c r="E173" s="58"/>
+      <c r="F173" s="59"/>
+      <c r="G173" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H173" s="58"/>
+      <c r="H173" s="56"/>
       <c r="I173" s="21">
         <v>7</v>
       </c>
-      <c r="J173" s="48" t="s">
+      <c r="J173" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K173" s="49"/>
-      <c r="L173" s="50"/>
-    </row>
-    <row r="174" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K173" s="58"/>
+      <c r="L173" s="59"/>
+    </row>
+    <row r="174" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="42" t="s">
         <v>9</v>
       </c>
@@ -7643,7 +7650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="43">
         <f>C173+1</f>
         <v>8</v>
@@ -7656,38 +7663,38 @@
         <v>0.1</v>
       </c>
       <c r="D175" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175" s="8">
         <v>500</v>
       </c>
       <c r="F175" s="19">
         <f>D175*E175</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G175" s="43">
         <f>I173+1</f>
         <v>8</v>
       </c>
       <c r="H175" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I175" s="31">
         <f>((H175-G175+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J175" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K175" s="8">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L175" s="19">
         <f>J175*K175</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="43">
         <f>B175+1</f>
         <v>10</v>
@@ -7700,38 +7707,38 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="D176" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" s="8">
         <v>500</v>
       </c>
       <c r="F176" s="19">
         <f t="shared" ref="F176:F179" si="96">D176*E176</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G176" s="43">
         <f>H175+1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H176" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I176" s="31">
         <f t="shared" ref="I176:I179" si="97">((H176-G176+1)*0.05)</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="J176" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K176" s="8">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L176" s="19">
         <f t="shared" ref="L176:L179" si="98">J176*K176</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="43">
         <f t="shared" ref="A177:A179" si="99">B176+1</f>
         <v>13</v>
@@ -7744,38 +7751,38 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="D177" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177" s="8">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F177" s="19">
         <f t="shared" si="96"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G177" s="43">
         <f t="shared" ref="G177:G179" si="100">H176+1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H177" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I177" s="31">
         <f t="shared" si="97"/>
-        <v>0.30000000000000004</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="J177" s="18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K177" s="8">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L177" s="19">
         <f t="shared" si="98"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="43">
         <f t="shared" si="99"/>
         <v>19</v>
@@ -7788,38 +7795,38 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="D178" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E178" s="8">
         <v>1000</v>
       </c>
       <c r="F178" s="19">
         <f t="shared" si="96"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G178" s="43">
         <f t="shared" si="100"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H178" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I178" s="31">
         <f t="shared" si="97"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J178" s="18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K178" s="8">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L178" s="19">
         <f t="shared" si="98"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="43">
         <f t="shared" si="99"/>
         <v>25</v>
@@ -7844,7 +7851,7 @@
       </c>
       <c r="G179" s="43">
         <f t="shared" si="100"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H179" s="44">
         <f>20+I173</f>
@@ -7852,94 +7859,94 @@
       </c>
       <c r="I179" s="31">
         <f t="shared" si="97"/>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="J179" s="20">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K179" s="28">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="L179" s="22">
         <f t="shared" si="98"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="51" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B180" s="52"/>
+      <c r="B180" s="49"/>
       <c r="C180" s="33">
         <f>'Individual Treasure'!B20</f>
         <v>1831.989932094441</v>
       </c>
-      <c r="D180" s="53" t="s">
+      <c r="D180" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E180" s="54"/>
+      <c r="E180" s="51"/>
       <c r="F180" s="34">
         <f>SUMPRODUCT(C175:C179,F175:F179)</f>
-        <v>1850.0000000000005</v>
-      </c>
-      <c r="G180" s="51" t="s">
+        <v>2425.0000000000005</v>
+      </c>
+      <c r="G180" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H180" s="52"/>
+      <c r="H180" s="49"/>
       <c r="I180" s="33">
         <f>'Individual Treasure'!H20</f>
         <v>0</v>
       </c>
-      <c r="J180" s="53" t="s">
+      <c r="J180" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K180" s="54"/>
+      <c r="K180" s="51"/>
       <c r="L180" s="34">
         <f>SUMPRODUCT(I175:I179,L175:L179)</f>
-        <v>1850.0000000000005</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="59" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B181" s="59"/>
-      <c r="C181" s="59"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="59"/>
-      <c r="H181" s="59"/>
-      <c r="I181" s="59"/>
-      <c r="J181" s="59"/>
-      <c r="K181" s="59"/>
-      <c r="L181" s="59"/>
-    </row>
-    <row r="182" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="55" t="s">
+      <c r="B181" s="52"/>
+      <c r="C181" s="52"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="52"/>
+      <c r="F181" s="52"/>
+      <c r="G181" s="52"/>
+      <c r="H181" s="52"/>
+      <c r="I181" s="52"/>
+      <c r="J181" s="52"/>
+      <c r="K181" s="52"/>
+      <c r="L181" s="52"/>
+    </row>
+    <row r="182" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A182" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B182" s="55"/>
-      <c r="C182" s="55"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="56"/>
-    </row>
-    <row r="183" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="57" t="s">
+      <c r="B182" s="53"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="53"/>
+      <c r="F182" s="54"/>
+    </row>
+    <row r="183" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B183" s="58"/>
+      <c r="B183" s="56"/>
       <c r="C183" s="21">
         <v>7</v>
       </c>
-      <c r="D183" s="48" t="s">
+      <c r="D183" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E183" s="49"/>
-      <c r="F183" s="50"/>
-    </row>
-    <row r="184" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="E183" s="58"/>
+      <c r="F183" s="59"/>
+    </row>
+    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="42" t="s">
         <v>9</v>
       </c>
@@ -7959,7 +7966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="43">
         <f>C183+1</f>
         <v>8</v>
@@ -7982,7 +7989,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="43">
         <f>B185+1</f>
         <v>10</v>
@@ -8005,7 +8012,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="43">
         <f t="shared" ref="A187:A189" si="103">B186+1</f>
         <v>12</v>
@@ -8028,7 +8035,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="43">
         <f t="shared" si="103"/>
         <v>18</v>
@@ -8051,7 +8058,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="43">
         <f t="shared" si="103"/>
         <v>24</v>
@@ -8075,65 +8082,65 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="51" t="s">
+    <row r="190" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="52"/>
+      <c r="B190" s="49"/>
       <c r="C190" s="33">
         <f>'Individual Treasure'!B21</f>
         <v>2837.3166689405625</v>
       </c>
-      <c r="D190" s="53" t="s">
+      <c r="D190" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E190" s="54"/>
+      <c r="E190" s="51"/>
       <c r="F190" s="34">
         <f>SUMPRODUCT(C185:C189,F185:F189)</f>
         <v>2850</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="59" t="s">
+    <row r="191" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B191" s="59"/>
-      <c r="C191" s="59"/>
-      <c r="D191" s="59"/>
-      <c r="E191" s="59"/>
-      <c r="F191" s="59"/>
-      <c r="G191" s="59"/>
-      <c r="H191" s="59"/>
-      <c r="I191" s="59"/>
-      <c r="J191" s="59"/>
-      <c r="K191" s="59"/>
-      <c r="L191" s="59"/>
-    </row>
-    <row r="192" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="55" t="s">
+      <c r="B191" s="52"/>
+      <c r="C191" s="52"/>
+      <c r="D191" s="52"/>
+      <c r="E191" s="52"/>
+      <c r="F191" s="52"/>
+      <c r="G191" s="52"/>
+      <c r="H191" s="52"/>
+      <c r="I191" s="52"/>
+      <c r="J191" s="52"/>
+      <c r="K191" s="52"/>
+      <c r="L191" s="52"/>
+    </row>
+    <row r="192" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A192" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B192" s="55"/>
-      <c r="C192" s="55"/>
-      <c r="D192" s="55"/>
-      <c r="E192" s="55"/>
-      <c r="F192" s="56"/>
-    </row>
-    <row r="193" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A193" s="57" t="s">
+      <c r="B192" s="53"/>
+      <c r="C192" s="53"/>
+      <c r="D192" s="53"/>
+      <c r="E192" s="53"/>
+      <c r="F192" s="54"/>
+    </row>
+    <row r="193" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B193" s="58"/>
+      <c r="B193" s="56"/>
       <c r="C193" s="21">
         <v>7</v>
       </c>
-      <c r="D193" s="48" t="s">
+      <c r="D193" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E193" s="49"/>
-      <c r="F193" s="50"/>
-    </row>
-    <row r="194" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="E193" s="58"/>
+      <c r="F193" s="59"/>
+    </row>
+    <row r="194" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="42" t="s">
         <v>9</v>
       </c>
@@ -8153,7 +8160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="43">
         <f>C193+1</f>
         <v>8</v>
@@ -8176,7 +8183,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="43">
         <f>B195+1</f>
         <v>10</v>
@@ -8199,7 +8206,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="43">
         <f t="shared" ref="A197:A199" si="106">B196+1</f>
         <v>12</v>
@@ -8222,7 +8229,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="43">
         <f t="shared" si="106"/>
         <v>18</v>
@@ -8245,7 +8252,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="43">
         <f t="shared" si="106"/>
         <v>23</v>
@@ -8269,105 +8276,105 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A200" s="51" t="s">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A200" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B200" s="52"/>
+      <c r="B200" s="49"/>
       <c r="C200" s="33">
         <f>'Individual Treasure'!B22</f>
         <v>4394.3286689596089</v>
       </c>
-      <c r="D200" s="53" t="s">
+      <c r="D200" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E200" s="54"/>
+      <c r="E200" s="51"/>
       <c r="F200" s="34">
         <f>SUMPRODUCT(C195:C199,F195:F199)</f>
         <v>4350</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="59" t="s">
+    <row r="201" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B201" s="59"/>
-      <c r="C201" s="59"/>
-      <c r="D201" s="59"/>
-      <c r="E201" s="59"/>
-      <c r="F201" s="59"/>
-      <c r="G201" s="59"/>
-      <c r="H201" s="59"/>
-      <c r="I201" s="59"/>
-      <c r="J201" s="59"/>
-      <c r="K201" s="59"/>
-      <c r="L201" s="59"/>
-    </row>
-    <row r="202" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="55" t="s">
+      <c r="B201" s="52"/>
+      <c r="C201" s="52"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="52"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="52"/>
+      <c r="H201" s="52"/>
+      <c r="I201" s="52"/>
+      <c r="J201" s="52"/>
+      <c r="K201" s="52"/>
+      <c r="L201" s="52"/>
+    </row>
+    <row r="202" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A202" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B202" s="55"/>
-      <c r="C202" s="55"/>
-      <c r="D202" s="55"/>
-      <c r="E202" s="55"/>
-      <c r="F202" s="56"/>
-      <c r="G202" s="55" t="s">
+      <c r="B202" s="53"/>
+      <c r="C202" s="53"/>
+      <c r="D202" s="53"/>
+      <c r="E202" s="53"/>
+      <c r="F202" s="54"/>
+      <c r="G202" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="H202" s="55"/>
-      <c r="I202" s="55"/>
-      <c r="J202" s="55"/>
-      <c r="K202" s="55"/>
-      <c r="L202" s="56"/>
-      <c r="M202" s="55" t="s">
+      <c r="H202" s="53"/>
+      <c r="I202" s="53"/>
+      <c r="J202" s="53"/>
+      <c r="K202" s="53"/>
+      <c r="L202" s="54"/>
+      <c r="M202" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="N202" s="55"/>
-      <c r="O202" s="55"/>
-      <c r="P202" s="55"/>
-      <c r="Q202" s="55"/>
-      <c r="R202" s="56"/>
-    </row>
-    <row r="203" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A203" s="57" t="s">
+      <c r="N202" s="53"/>
+      <c r="O202" s="53"/>
+      <c r="P202" s="53"/>
+      <c r="Q202" s="53"/>
+      <c r="R202" s="54"/>
+    </row>
+    <row r="203" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B203" s="58"/>
+      <c r="B203" s="56"/>
       <c r="C203" s="21">
         <v>7</v>
       </c>
-      <c r="D203" s="48" t="s">
+      <c r="D203" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E203" s="49"/>
-      <c r="F203" s="50"/>
-      <c r="G203" s="57" t="s">
+      <c r="E203" s="58"/>
+      <c r="F203" s="59"/>
+      <c r="G203" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H203" s="58"/>
+      <c r="H203" s="56"/>
       <c r="I203" s="21">
         <v>7</v>
       </c>
-      <c r="J203" s="48" t="s">
+      <c r="J203" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K203" s="49"/>
-      <c r="L203" s="50"/>
-      <c r="M203" s="57" t="s">
+      <c r="K203" s="58"/>
+      <c r="L203" s="59"/>
+      <c r="M203" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="N203" s="58"/>
+      <c r="N203" s="56"/>
       <c r="O203" s="21">
         <v>7</v>
       </c>
-      <c r="P203" s="48" t="s">
+      <c r="P203" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="Q203" s="49"/>
-      <c r="R203" s="50"/>
-    </row>
-    <row r="204" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="Q203" s="58"/>
+      <c r="R203" s="59"/>
+    </row>
+    <row r="204" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="42" t="s">
         <v>9</v>
       </c>
@@ -8423,7 +8430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="43">
         <f>C203+1</f>
         <v>8</v>
@@ -8488,7 +8495,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="43">
         <f>B205+1</f>
         <v>10</v>
@@ -8553,7 +8560,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="43">
         <f t="shared" ref="A207:A209" si="113">B206+1</f>
         <v>12</v>
@@ -8618,7 +8625,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="43">
         <f t="shared" si="113"/>
         <v>19</v>
@@ -8683,7 +8690,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="43">
         <f t="shared" si="113"/>
         <v>24</v>
@@ -8751,51 +8758,51 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A210" s="51" t="s">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B210" s="52"/>
+      <c r="B210" s="49"/>
       <c r="C210" s="33">
         <f>'Individual Treasure'!B23</f>
         <v>6805.7699241764976</v>
       </c>
-      <c r="D210" s="53" t="s">
+      <c r="D210" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E210" s="54"/>
+      <c r="E210" s="51"/>
       <c r="F210" s="34">
         <f>SUMPRODUCT(C205:C209,F205:F209)</f>
         <v>6850</v>
       </c>
-      <c r="G210" s="51" t="s">
+      <c r="G210" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H210" s="52"/>
+      <c r="H210" s="49"/>
       <c r="I210" s="33">
         <f>'Individual Treasure'!B23</f>
         <v>6805.7699241764976</v>
       </c>
-      <c r="J210" s="53" t="s">
+      <c r="J210" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K210" s="54"/>
+      <c r="K210" s="51"/>
       <c r="L210" s="34">
         <f>SUMPRODUCT(I205:I209,L205:L209)</f>
         <v>2800</v>
       </c>
-      <c r="M210" s="51" t="s">
+      <c r="M210" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="N210" s="52"/>
+      <c r="N210" s="49"/>
       <c r="O210" s="33">
         <f>'Individual Treasure'!B23</f>
         <v>6805.7699241764976</v>
       </c>
-      <c r="P210" s="53" t="s">
+      <c r="P210" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="Q210" s="54"/>
+      <c r="Q210" s="51"/>
       <c r="R210" s="34">
         <f>SUMPRODUCT(O205:O209,R205:R209)</f>
         <v>5000</v>
@@ -8805,87 +8812,87 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="59" t="s">
+    <row r="211" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B211" s="59"/>
-      <c r="C211" s="59"/>
-      <c r="D211" s="59"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59"/>
-      <c r="G211" s="59"/>
-      <c r="H211" s="59"/>
-      <c r="I211" s="59"/>
-      <c r="J211" s="59"/>
-      <c r="K211" s="59"/>
-      <c r="L211" s="59"/>
-    </row>
-    <row r="212" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" s="55" t="s">
+      <c r="B211" s="52"/>
+      <c r="C211" s="52"/>
+      <c r="D211" s="52"/>
+      <c r="E211" s="52"/>
+      <c r="F211" s="52"/>
+      <c r="G211" s="52"/>
+      <c r="H211" s="52"/>
+      <c r="I211" s="52"/>
+      <c r="J211" s="52"/>
+      <c r="K211" s="52"/>
+      <c r="L211" s="52"/>
+    </row>
+    <row r="212" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A212" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B212" s="55"/>
-      <c r="C212" s="55"/>
-      <c r="D212" s="55"/>
-      <c r="E212" s="55"/>
-      <c r="F212" s="56"/>
-      <c r="G212" s="55" t="s">
+      <c r="B212" s="53"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="53"/>
+      <c r="E212" s="53"/>
+      <c r="F212" s="54"/>
+      <c r="G212" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="H212" s="55"/>
-      <c r="I212" s="55"/>
-      <c r="J212" s="55"/>
-      <c r="K212" s="55"/>
-      <c r="L212" s="56"/>
-      <c r="M212" s="55" t="s">
+      <c r="H212" s="53"/>
+      <c r="I212" s="53"/>
+      <c r="J212" s="53"/>
+      <c r="K212" s="53"/>
+      <c r="L212" s="54"/>
+      <c r="M212" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="N212" s="55"/>
-      <c r="O212" s="55"/>
-      <c r="P212" s="55"/>
-      <c r="Q212" s="55"/>
-      <c r="R212" s="56"/>
-    </row>
-    <row r="213" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A213" s="57" t="s">
+      <c r="N212" s="53"/>
+      <c r="O212" s="53"/>
+      <c r="P212" s="53"/>
+      <c r="Q212" s="53"/>
+      <c r="R212" s="54"/>
+    </row>
+    <row r="213" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B213" s="58"/>
+      <c r="B213" s="56"/>
       <c r="C213" s="21">
         <v>7</v>
       </c>
-      <c r="D213" s="48" t="s">
+      <c r="D213" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E213" s="49"/>
-      <c r="F213" s="50"/>
-      <c r="G213" s="57" t="s">
+      <c r="E213" s="58"/>
+      <c r="F213" s="59"/>
+      <c r="G213" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H213" s="58"/>
+      <c r="H213" s="56"/>
       <c r="I213" s="21">
         <v>7</v>
       </c>
-      <c r="J213" s="48" t="s">
+      <c r="J213" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K213" s="49"/>
-      <c r="L213" s="50"/>
-      <c r="M213" s="57" t="s">
+      <c r="K213" s="58"/>
+      <c r="L213" s="59"/>
+      <c r="M213" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="N213" s="58"/>
+      <c r="N213" s="56"/>
       <c r="O213" s="21">
         <v>7</v>
       </c>
-      <c r="P213" s="48" t="s">
+      <c r="P213" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="Q213" s="49"/>
-      <c r="R213" s="50"/>
-    </row>
-    <row r="214" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="Q213" s="58"/>
+      <c r="R213" s="59"/>
+    </row>
+    <row r="214" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="42" t="s">
         <v>9</v>
       </c>
@@ -8941,7 +8948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="43">
         <f>C213+1</f>
         <v>8</v>
@@ -9006,7 +9013,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="43">
         <f>B215+1</f>
         <v>11</v>
@@ -9071,7 +9078,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="43">
         <f t="shared" ref="A217:A219" si="122">B216+1</f>
         <v>16</v>
@@ -9136,7 +9143,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="43">
         <f t="shared" si="122"/>
         <v>22</v>
@@ -9201,7 +9208,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="43">
         <f t="shared" si="122"/>
         <v>27</v>
@@ -9269,51 +9276,51 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A220" s="51" t="s">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A220" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B220" s="52"/>
+      <c r="B220" s="49"/>
       <c r="C220" s="33">
         <f>'Individual Treasure'!B24</f>
         <v>10540.518871063789</v>
       </c>
-      <c r="D220" s="53" t="s">
+      <c r="D220" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E220" s="54"/>
+      <c r="E220" s="51"/>
       <c r="F220" s="34">
         <f>SUMPRODUCT(C215:C219,F215:F219)</f>
         <v>11050</v>
       </c>
-      <c r="G220" s="51" t="s">
+      <c r="G220" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H220" s="52"/>
+      <c r="H220" s="49"/>
       <c r="I220" s="33">
         <f>'Individual Treasure'!B24</f>
         <v>10540.518871063789</v>
       </c>
-      <c r="J220" s="53" t="s">
+      <c r="J220" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K220" s="54"/>
+      <c r="K220" s="51"/>
       <c r="L220" s="34">
         <f>SUMPRODUCT(I215:I219,L215:L219)</f>
         <v>11900</v>
       </c>
-      <c r="M220" s="51" t="s">
+      <c r="M220" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="N220" s="52"/>
+      <c r="N220" s="49"/>
       <c r="O220" s="33">
         <f>'Individual Treasure'!B24</f>
         <v>10540.518871063789</v>
       </c>
-      <c r="P220" s="53" t="s">
+      <c r="P220" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="Q220" s="54"/>
+      <c r="Q220" s="51"/>
       <c r="R220" s="34">
         <f>SUMPRODUCT(O215:O219,R215:R219)</f>
         <v>5000</v>
@@ -9323,67 +9330,67 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="59" t="s">
+    <row r="221" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B221" s="59"/>
-      <c r="C221" s="59"/>
-      <c r="D221" s="59"/>
-      <c r="E221" s="59"/>
-      <c r="F221" s="59"/>
-      <c r="G221" s="59"/>
-      <c r="H221" s="59"/>
-      <c r="I221" s="59"/>
-      <c r="J221" s="59"/>
-      <c r="K221" s="59"/>
-      <c r="L221" s="59"/>
-    </row>
-    <row r="222" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A222" s="55" t="s">
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
+      <c r="D221" s="52"/>
+      <c r="E221" s="52"/>
+      <c r="F221" s="52"/>
+      <c r="G221" s="52"/>
+      <c r="H221" s="52"/>
+      <c r="I221" s="52"/>
+      <c r="J221" s="52"/>
+      <c r="K221" s="52"/>
+      <c r="L221" s="52"/>
+    </row>
+    <row r="222" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A222" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B222" s="55"/>
-      <c r="C222" s="55"/>
-      <c r="D222" s="55"/>
-      <c r="E222" s="55"/>
-      <c r="F222" s="56"/>
-      <c r="G222" s="55" t="s">
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="53"/>
+      <c r="E222" s="53"/>
+      <c r="F222" s="54"/>
+      <c r="G222" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="H222" s="55"/>
-      <c r="I222" s="55"/>
-      <c r="J222" s="55"/>
-      <c r="K222" s="55"/>
-      <c r="L222" s="56"/>
-    </row>
-    <row r="223" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A223" s="57" t="s">
+      <c r="H222" s="53"/>
+      <c r="I222" s="53"/>
+      <c r="J222" s="53"/>
+      <c r="K222" s="53"/>
+      <c r="L222" s="54"/>
+    </row>
+    <row r="223" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B223" s="58"/>
+      <c r="B223" s="56"/>
       <c r="C223" s="21">
         <v>7</v>
       </c>
-      <c r="D223" s="48" t="s">
+      <c r="D223" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E223" s="49"/>
-      <c r="F223" s="50"/>
-      <c r="G223" s="57" t="s">
+      <c r="E223" s="58"/>
+      <c r="F223" s="59"/>
+      <c r="G223" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H223" s="58"/>
+      <c r="H223" s="56"/>
       <c r="I223" s="21">
         <v>7</v>
       </c>
-      <c r="J223" s="48" t="s">
+      <c r="J223" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K223" s="49"/>
-      <c r="L223" s="50"/>
-    </row>
-    <row r="224" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K223" s="58"/>
+      <c r="L223" s="59"/>
+    </row>
+    <row r="224" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="42" t="s">
         <v>9</v>
       </c>
@@ -9421,7 +9428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="43">
         <f>C223+1</f>
         <v>8</v>
@@ -9465,7 +9472,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="43">
         <f>B225+1</f>
         <v>10</v>
@@ -9509,7 +9516,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="43">
         <f t="shared" ref="A227:A229" si="129">B226+1</f>
         <v>12</v>
@@ -9553,7 +9560,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="43">
         <f t="shared" si="129"/>
         <v>19</v>
@@ -9597,7 +9604,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="43">
         <f t="shared" si="129"/>
         <v>24</v>
@@ -9643,81 +9650,81 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A230" s="51" t="s">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B230" s="52"/>
+      <c r="B230" s="49"/>
       <c r="C230" s="33">
         <f>'Individual Treasure'!B25</f>
         <v>16324.756685731661</v>
       </c>
-      <c r="D230" s="53" t="s">
+      <c r="D230" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E230" s="54"/>
+      <c r="E230" s="51"/>
       <c r="F230" s="34">
         <f>SUMPRODUCT(C225:C229,F225:F229)</f>
         <v>16900</v>
       </c>
-      <c r="G230" s="51" t="s">
+      <c r="G230" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H230" s="52"/>
+      <c r="H230" s="49"/>
       <c r="I230" s="33">
         <f>'Individual Treasure'!B25</f>
         <v>16324.756685731661</v>
       </c>
-      <c r="J230" s="53" t="s">
+      <c r="J230" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K230" s="54"/>
+      <c r="K230" s="51"/>
       <c r="L230" s="34">
         <f>SUMPRODUCT(I225:I229,L225:L229)</f>
         <v>17250</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="59" t="s">
+    <row r="231" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B231" s="59"/>
-      <c r="C231" s="59"/>
-      <c r="D231" s="59"/>
-      <c r="E231" s="59"/>
-      <c r="F231" s="59"/>
-      <c r="G231" s="59"/>
-      <c r="H231" s="59"/>
-      <c r="I231" s="59"/>
-      <c r="J231" s="59"/>
-      <c r="K231" s="59"/>
-      <c r="L231" s="59"/>
-    </row>
-    <row r="232" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="55" t="s">
+      <c r="B231" s="52"/>
+      <c r="C231" s="52"/>
+      <c r="D231" s="52"/>
+      <c r="E231" s="52"/>
+      <c r="F231" s="52"/>
+      <c r="G231" s="52"/>
+      <c r="H231" s="52"/>
+      <c r="I231" s="52"/>
+      <c r="J231" s="52"/>
+      <c r="K231" s="52"/>
+      <c r="L231" s="52"/>
+    </row>
+    <row r="232" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A232" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B232" s="55"/>
-      <c r="C232" s="55"/>
-      <c r="D232" s="55"/>
-      <c r="E232" s="55"/>
-      <c r="F232" s="56"/>
-    </row>
-    <row r="233" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="57" t="s">
+      <c r="B232" s="53"/>
+      <c r="C232" s="53"/>
+      <c r="D232" s="53"/>
+      <c r="E232" s="53"/>
+      <c r="F232" s="54"/>
+    </row>
+    <row r="233" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B233" s="58"/>
+      <c r="B233" s="56"/>
       <c r="C233" s="21">
         <v>7</v>
       </c>
-      <c r="D233" s="48" t="s">
+      <c r="D233" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E233" s="49"/>
-      <c r="F233" s="50"/>
-    </row>
-    <row r="234" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="E233" s="58"/>
+      <c r="F233" s="59"/>
+    </row>
+    <row r="234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="42" t="s">
         <v>9</v>
       </c>
@@ -9737,7 +9744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="43">
         <f>C233+1</f>
         <v>8</v>
@@ -9760,7 +9767,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="43">
         <f>B235+1</f>
         <v>10</v>
@@ -9783,7 +9790,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="43">
         <f t="shared" ref="A237:A239" si="133">B236+1</f>
         <v>14</v>
@@ -9806,7 +9813,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="43">
         <f t="shared" si="133"/>
         <v>19</v>
@@ -9829,7 +9836,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="43">
         <f t="shared" si="133"/>
         <v>24</v>
@@ -9853,65 +9860,65 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A240" s="51" t="s">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B240" s="52"/>
+      <c r="B240" s="49"/>
       <c r="C240" s="33">
         <f>'Individual Treasure'!B27</f>
         <v>39157.609472169628</v>
       </c>
-      <c r="D240" s="53" t="s">
+      <c r="D240" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E240" s="54"/>
+      <c r="E240" s="51"/>
       <c r="F240" s="34">
         <f>SUMPRODUCT(C235:C239,F235:F239)</f>
         <v>39000</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A241" s="59" t="s">
+    <row r="241" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B241" s="59"/>
-      <c r="C241" s="59"/>
-      <c r="D241" s="59"/>
-      <c r="E241" s="59"/>
-      <c r="F241" s="59"/>
-      <c r="G241" s="59"/>
-      <c r="H241" s="59"/>
-      <c r="I241" s="59"/>
-      <c r="J241" s="59"/>
-      <c r="K241" s="59"/>
-      <c r="L241" s="59"/>
-    </row>
-    <row r="242" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242" s="55" t="s">
+      <c r="B241" s="52"/>
+      <c r="C241" s="52"/>
+      <c r="D241" s="52"/>
+      <c r="E241" s="52"/>
+      <c r="F241" s="52"/>
+      <c r="G241" s="52"/>
+      <c r="H241" s="52"/>
+      <c r="I241" s="52"/>
+      <c r="J241" s="52"/>
+      <c r="K241" s="52"/>
+      <c r="L241" s="52"/>
+    </row>
+    <row r="242" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A242" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B242" s="55"/>
-      <c r="C242" s="55"/>
-      <c r="D242" s="55"/>
-      <c r="E242" s="55"/>
-      <c r="F242" s="56"/>
-    </row>
-    <row r="243" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A243" s="57" t="s">
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="53"/>
+      <c r="E242" s="53"/>
+      <c r="F242" s="54"/>
+    </row>
+    <row r="243" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B243" s="58"/>
+      <c r="B243" s="56"/>
       <c r="C243" s="21">
         <v>7</v>
       </c>
-      <c r="D243" s="48" t="s">
+      <c r="D243" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E243" s="49"/>
-      <c r="F243" s="50"/>
-    </row>
-    <row r="244" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="E243" s="58"/>
+      <c r="F243" s="59"/>
+    </row>
+    <row r="244" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="42" t="s">
         <v>9</v>
       </c>
@@ -9931,7 +9938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="43">
         <f>C243+1</f>
         <v>8</v>
@@ -9954,7 +9961,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="43">
         <f>B245+1</f>
         <v>9</v>
@@ -9977,7 +9984,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="43">
         <f t="shared" ref="A247:A249" si="136">B246+1</f>
         <v>11</v>
@@ -10000,7 +10007,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="43">
         <f t="shared" si="136"/>
         <v>18</v>
@@ -10023,7 +10030,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="43">
         <f t="shared" si="136"/>
         <v>24</v>
@@ -10047,105 +10054,105 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A250" s="51" t="s">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A250" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B250" s="52"/>
+      <c r="B250" s="49"/>
       <c r="C250" s="33">
         <f>'Individual Treasure'!B28</f>
         <v>60645.823497639387</v>
       </c>
-      <c r="D250" s="53" t="s">
+      <c r="D250" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E250" s="54"/>
+      <c r="E250" s="51"/>
       <c r="F250" s="34">
         <f>SUMPRODUCT(C245:C249,F245:F249)</f>
         <v>59750</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A251" s="59" t="s">
+    <row r="251" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B251" s="59"/>
-      <c r="C251" s="59"/>
-      <c r="D251" s="59"/>
-      <c r="E251" s="59"/>
-      <c r="F251" s="59"/>
-      <c r="G251" s="59"/>
-      <c r="H251" s="59"/>
-      <c r="I251" s="59"/>
-      <c r="J251" s="59"/>
-      <c r="K251" s="59"/>
-      <c r="L251" s="59"/>
-    </row>
-    <row r="252" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A252" s="55" t="s">
+      <c r="B251" s="52"/>
+      <c r="C251" s="52"/>
+      <c r="D251" s="52"/>
+      <c r="E251" s="52"/>
+      <c r="F251" s="52"/>
+      <c r="G251" s="52"/>
+      <c r="H251" s="52"/>
+      <c r="I251" s="52"/>
+      <c r="J251" s="52"/>
+      <c r="K251" s="52"/>
+      <c r="L251" s="52"/>
+    </row>
+    <row r="252" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A252" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B252" s="55"/>
-      <c r="C252" s="55"/>
-      <c r="D252" s="55"/>
-      <c r="E252" s="55"/>
-      <c r="F252" s="56"/>
-      <c r="G252" s="55" t="s">
+      <c r="B252" s="53"/>
+      <c r="C252" s="53"/>
+      <c r="D252" s="53"/>
+      <c r="E252" s="53"/>
+      <c r="F252" s="54"/>
+      <c r="G252" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="H252" s="55"/>
-      <c r="I252" s="55"/>
-      <c r="J252" s="55"/>
-      <c r="K252" s="55"/>
-      <c r="L252" s="56"/>
-      <c r="M252" s="55" t="s">
+      <c r="H252" s="53"/>
+      <c r="I252" s="53"/>
+      <c r="J252" s="53"/>
+      <c r="K252" s="53"/>
+      <c r="L252" s="54"/>
+      <c r="M252" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="N252" s="55"/>
-      <c r="O252" s="55"/>
-      <c r="P252" s="55"/>
-      <c r="Q252" s="55"/>
-      <c r="R252" s="56"/>
-    </row>
-    <row r="253" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A253" s="57" t="s">
+      <c r="N252" s="53"/>
+      <c r="O252" s="53"/>
+      <c r="P252" s="53"/>
+      <c r="Q252" s="53"/>
+      <c r="R252" s="54"/>
+    </row>
+    <row r="253" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B253" s="58"/>
+      <c r="B253" s="56"/>
       <c r="C253" s="21">
         <v>7</v>
       </c>
-      <c r="D253" s="48" t="s">
+      <c r="D253" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E253" s="49"/>
-      <c r="F253" s="50"/>
-      <c r="G253" s="57" t="s">
+      <c r="E253" s="58"/>
+      <c r="F253" s="59"/>
+      <c r="G253" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H253" s="58"/>
+      <c r="H253" s="56"/>
       <c r="I253" s="21">
         <v>7</v>
       </c>
-      <c r="J253" s="48" t="s">
+      <c r="J253" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K253" s="49"/>
-      <c r="L253" s="50"/>
-      <c r="M253" s="57" t="s">
+      <c r="K253" s="58"/>
+      <c r="L253" s="59"/>
+      <c r="M253" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="N253" s="58"/>
+      <c r="N253" s="56"/>
       <c r="O253" s="21">
         <v>7</v>
       </c>
-      <c r="P253" s="48" t="s">
+      <c r="P253" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="Q253" s="49"/>
-      <c r="R253" s="50"/>
-    </row>
-    <row r="254" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="Q253" s="58"/>
+      <c r="R253" s="59"/>
+    </row>
+    <row r="254" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="42" t="s">
         <v>9</v>
       </c>
@@ -10201,7 +10208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="43">
         <f>C253+1</f>
         <v>8</v>
@@ -10266,7 +10273,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="43">
         <f>B255+1</f>
         <v>10</v>
@@ -10331,7 +10338,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="43">
         <f t="shared" ref="A257:A259" si="143">B256+1</f>
         <v>15</v>
@@ -10396,7 +10403,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="43">
         <f t="shared" si="143"/>
         <v>19</v>
@@ -10461,7 +10468,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="43">
         <f t="shared" si="143"/>
         <v>26</v>
@@ -10529,51 +10536,51 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A260" s="51" t="s">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A260" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B260" s="52"/>
+      <c r="B260" s="49"/>
       <c r="C260" s="33">
         <f>'Individual Treasure'!B29</f>
         <v>93925.956085772239</v>
       </c>
-      <c r="D260" s="53" t="s">
+      <c r="D260" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E260" s="54"/>
+      <c r="E260" s="51"/>
       <c r="F260" s="34">
         <f>SUMPRODUCT(C255:C259,F255:F259)</f>
         <v>94000</v>
       </c>
-      <c r="G260" s="51" t="s">
+      <c r="G260" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="H260" s="52"/>
+      <c r="H260" s="49"/>
       <c r="I260" s="33">
         <f>'Individual Treasure'!B29</f>
         <v>93925.956085772239</v>
       </c>
-      <c r="J260" s="53" t="s">
+      <c r="J260" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K260" s="54"/>
+      <c r="K260" s="51"/>
       <c r="L260" s="34">
         <f>SUMPRODUCT(I255:I259,L255:L259)</f>
         <v>31500.000000000004</v>
       </c>
-      <c r="M260" s="51" t="s">
+      <c r="M260" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="N260" s="52"/>
+      <c r="N260" s="49"/>
       <c r="O260" s="33">
         <f>'Individual Treasure'!B29</f>
         <v>93925.956085772239</v>
       </c>
-      <c r="P260" s="53" t="s">
+      <c r="P260" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="Q260" s="54"/>
+      <c r="Q260" s="51"/>
       <c r="R260" s="34">
         <f>SUMPRODUCT(O255:O259,R255:R259)</f>
         <v>67500</v>
@@ -10583,17 +10590,362 @@
         <v>99000</v>
       </c>
     </row>
+    <row r="261" spans="1:19" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B261" s="52"/>
+      <c r="C261" s="52"/>
+      <c r="D261" s="52"/>
+      <c r="E261" s="52"/>
+      <c r="F261" s="52"/>
+      <c r="G261" s="52"/>
+      <c r="H261" s="52"/>
+      <c r="I261" s="52"/>
+      <c r="J261" s="52"/>
+      <c r="K261" s="52"/>
+      <c r="L261" s="52"/>
+    </row>
+    <row r="262" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A262" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B262" s="53"/>
+      <c r="C262" s="53"/>
+      <c r="D262" s="53"/>
+      <c r="E262" s="53"/>
+      <c r="F262" s="54"/>
+      <c r="G262" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="H262" s="53"/>
+      <c r="I262" s="53"/>
+      <c r="J262" s="53"/>
+      <c r="K262" s="53"/>
+      <c r="L262" s="54"/>
+    </row>
+    <row r="263" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B263" s="56"/>
+      <c r="C263" s="21">
+        <v>7</v>
+      </c>
+      <c r="D263" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E263" s="58"/>
+      <c r="F263" s="59"/>
+      <c r="G263" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="H263" s="56"/>
+      <c r="I263" s="21">
+        <v>7</v>
+      </c>
+      <c r="J263" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="K263" s="58"/>
+      <c r="L263" s="59"/>
+    </row>
+    <row r="264" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A264" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D264" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F264" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G264" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H264" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I264" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J264" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L264" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A265" s="43">
+        <f>C263+1</f>
+        <v>8</v>
+      </c>
+      <c r="B265" s="8">
+        <v>9</v>
+      </c>
+      <c r="C265" s="31">
+        <f>((B265-A265+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D265" s="18">
+        <v>1</v>
+      </c>
+      <c r="E265" s="8">
+        <v>50000</v>
+      </c>
+      <c r="F265" s="19">
+        <f>D265*E265</f>
+        <v>50000</v>
+      </c>
+      <c r="G265" s="43">
+        <f>I263+1</f>
+        <v>8</v>
+      </c>
+      <c r="H265" s="8">
+        <v>9</v>
+      </c>
+      <c r="I265" s="31">
+        <f>((H265-G265+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J265" s="18">
+        <v>10</v>
+      </c>
+      <c r="K265" s="8">
+        <v>500</v>
+      </c>
+      <c r="L265" s="19">
+        <f>J265*K265</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A266" s="43">
+        <f>B265+1</f>
+        <v>10</v>
+      </c>
+      <c r="B266" s="8">
+        <v>14</v>
+      </c>
+      <c r="C266" s="31">
+        <f t="shared" ref="C266:C269" si="146">((B266-A266+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D266" s="18">
+        <v>2</v>
+      </c>
+      <c r="E266" s="8">
+        <v>50000</v>
+      </c>
+      <c r="F266" s="19">
+        <f t="shared" ref="F266:F269" si="147">D266*E266</f>
+        <v>100000</v>
+      </c>
+      <c r="G266" s="43">
+        <f>H265+1</f>
+        <v>10</v>
+      </c>
+      <c r="H266" s="8">
+        <v>11</v>
+      </c>
+      <c r="I266" s="31">
+        <f t="shared" ref="I266:I269" si="148">((H266-G266+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J266" s="18">
+        <v>10</v>
+      </c>
+      <c r="K266" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L266" s="19">
+        <f t="shared" ref="L266:L269" si="149">J266*K266</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A267" s="43">
+        <f t="shared" ref="A267:A269" si="150">B266+1</f>
+        <v>15</v>
+      </c>
+      <c r="B267" s="8">
+        <v>20</v>
+      </c>
+      <c r="C267" s="31">
+        <f t="shared" si="146"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D267" s="18">
+        <v>1</v>
+      </c>
+      <c r="E267" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F267" s="19">
+        <f t="shared" si="147"/>
+        <v>100000</v>
+      </c>
+      <c r="G267" s="43">
+        <f t="shared" ref="G267:G269" si="151">H266+1</f>
+        <v>12</v>
+      </c>
+      <c r="H267" s="8">
+        <v>17</v>
+      </c>
+      <c r="I267" s="31">
+        <f t="shared" si="148"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J267" s="18">
+        <v>20</v>
+      </c>
+      <c r="K267" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L267" s="19">
+        <f t="shared" si="149"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A268" s="43">
+        <f t="shared" si="150"/>
+        <v>21</v>
+      </c>
+      <c r="B268" s="8">
+        <v>25</v>
+      </c>
+      <c r="C268" s="31">
+        <f t="shared" si="146"/>
+        <v>0.25</v>
+      </c>
+      <c r="D268" s="18">
+        <v>2</v>
+      </c>
+      <c r="E268" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F268" s="19">
+        <f t="shared" si="147"/>
+        <v>200000</v>
+      </c>
+      <c r="G268" s="43">
+        <f t="shared" si="151"/>
+        <v>18</v>
+      </c>
+      <c r="H268" s="8">
+        <v>23</v>
+      </c>
+      <c r="I268" s="31">
+        <f t="shared" si="148"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J268" s="18">
+        <v>20</v>
+      </c>
+      <c r="K268" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L268" s="19">
+        <f t="shared" si="149"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A269" s="43">
+        <f t="shared" si="150"/>
+        <v>26</v>
+      </c>
+      <c r="B269" s="44">
+        <f>20+C263</f>
+        <v>27</v>
+      </c>
+      <c r="C269" s="31">
+        <f t="shared" si="146"/>
+        <v>0.1</v>
+      </c>
+      <c r="D269" s="20">
+        <v>2</v>
+      </c>
+      <c r="E269" s="28">
+        <v>200000</v>
+      </c>
+      <c r="F269" s="22">
+        <f t="shared" si="147"/>
+        <v>400000</v>
+      </c>
+      <c r="G269" s="43">
+        <f t="shared" si="151"/>
+        <v>24</v>
+      </c>
+      <c r="H269" s="44">
+        <f>20+I263</f>
+        <v>27</v>
+      </c>
+      <c r="I269" s="31">
+        <f t="shared" si="148"/>
+        <v>0.2</v>
+      </c>
+      <c r="J269" s="20">
+        <v>30</v>
+      </c>
+      <c r="K269" s="28">
+        <v>2000</v>
+      </c>
+      <c r="L269" s="22">
+        <f t="shared" si="149"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A270" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B270" s="49"/>
+      <c r="C270" s="33">
+        <f>'Individual Treasure'!B30</f>
+        <v>145468.96583851028</v>
+      </c>
+      <c r="D270" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E270" s="51"/>
+      <c r="F270" s="34">
+        <f>SUMPRODUCT(C265:C269,F265:F269)</f>
+        <v>150000</v>
+      </c>
+      <c r="G270" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H270" s="49"/>
+      <c r="I270" s="33">
+        <f>'Individual Treasure'!B39</f>
+        <v>0</v>
+      </c>
+      <c r="J270" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K270" s="51"/>
+      <c r="L270" s="34">
+        <f>SUMPRODUCT(I265:I269,L265:L269)</f>
+        <v>31500.000000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="264">
-    <mergeCell ref="A241:L241"/>
-    <mergeCell ref="A242:F242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="A211:L211"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="G212:L212"/>
+  <mergeCells count="275">
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="D213:F213"/>
     <mergeCell ref="G213:H213"/>
@@ -10603,8 +10955,6 @@
     <mergeCell ref="G220:H220"/>
     <mergeCell ref="J220:K220"/>
     <mergeCell ref="G222:L222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="J223:L223"/>
     <mergeCell ref="G32:L32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="J33:L33"/>
@@ -10633,6 +10983,12 @@
     <mergeCell ref="J260:K260"/>
     <mergeCell ref="G230:H230"/>
     <mergeCell ref="J230:K230"/>
+    <mergeCell ref="A241:L241"/>
+    <mergeCell ref="A242:F242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="D250:E250"/>
     <mergeCell ref="A191:L191"/>
     <mergeCell ref="A192:F192"/>
     <mergeCell ref="A193:B193"/>
@@ -10654,6 +11010,9 @@
     <mergeCell ref="J203:L203"/>
     <mergeCell ref="G210:H210"/>
     <mergeCell ref="J210:K210"/>
+    <mergeCell ref="A211:L211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="G212:L212"/>
     <mergeCell ref="A180:B180"/>
     <mergeCell ref="D180:E180"/>
     <mergeCell ref="A181:L181"/>
@@ -10814,6 +11173,8 @@
     <mergeCell ref="P213:R213"/>
     <mergeCell ref="M220:N220"/>
     <mergeCell ref="P220:Q220"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="J223:L223"/>
     <mergeCell ref="G52:L52"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="J53:L53"/>
@@ -10849,6 +11210,17 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="D83:F83"/>
     <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="G270:H270"/>
+    <mergeCell ref="J270:K270"/>
+    <mergeCell ref="A261:L261"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="G262:L262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="G263:H263"/>
+    <mergeCell ref="J263:L263"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10863,35 +11235,35 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="8"/>
-    <col min="14" max="14" width="10.7265625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="8"/>
-    <col min="17" max="17" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="8"/>
-    <col min="20" max="20" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" style="8"/>
-    <col min="23" max="23" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="10.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
+    <col min="14" max="14" width="10.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="8"/>
+    <col min="20" max="20" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="8"/>
+    <col min="23" max="23" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="66" t="s">
         <v>25</v>
       </c>
@@ -10918,8 +11290,8 @@
       <c r="V1" s="66"/>
       <c r="W1" s="66"/>
     </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="67"/>
@@ -10959,7 +11331,7 @@
       <c r="V2" s="63"/>
       <c r="W2" s="64"/>
     </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -11030,7 +11402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>4</v>
       </c>
@@ -11108,7 +11480,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -11186,7 +11558,7 @@
         <v>3.5000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>13</v>
       </c>
@@ -11264,7 +11636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>17</v>
       </c>
@@ -11342,7 +11714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>21</v>
       </c>
@@ -11420,7 +11792,7 @@
         <v>4.5000000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="22"/>
       <c r="C9" s="11" t="s">
@@ -11501,7 +11873,7 @@
         <v>15.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -11526,7 +11898,7 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="1:23" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="66" t="s">
         <v>26</v>
       </c>
@@ -11553,7 +11925,7 @@
       <c r="V11" s="66"/>
       <c r="W11" s="66"/>
     </row>
-    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
         <v>37</v>
       </c>
@@ -11569,7 +11941,7 @@
       <c r="G12" s="63"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -11595,7 +11967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -11623,7 +11995,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -11651,7 +12023,7 @@
         <v>2.2500000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -11679,7 +12051,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -11707,7 +12079,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>21</v>
       </c>
@@ -11735,7 +12107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="20"/>
       <c r="D19" s="9" t="s">
         <v>17</v>
@@ -11782,35 +12154,35 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="8"/>
-    <col min="14" max="14" width="10.7265625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="8"/>
-    <col min="17" max="17" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="8"/>
-    <col min="20" max="20" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" style="8"/>
-    <col min="23" max="23" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="11.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
+    <col min="14" max="14" width="10.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="8"/>
+    <col min="20" max="20" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="8"/>
+    <col min="23" max="23" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="66" t="s">
         <v>25</v>
       </c>
@@ -11837,8 +12209,8 @@
       <c r="V1" s="66"/>
       <c r="W1" s="66"/>
     </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="67"/>
@@ -11878,7 +12250,7 @@
       <c r="V2" s="63"/>
       <c r="W2" s="64"/>
     </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -11949,7 +12321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>4</v>
       </c>
@@ -12027,7 +12399,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -12105,7 +12477,7 @@
         <v>3.5000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>13</v>
       </c>
@@ -12183,7 +12555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>17</v>
       </c>
@@ -12261,7 +12633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>21</v>
       </c>
@@ -12339,7 +12711,7 @@
         <v>4.5000000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="22"/>
       <c r="C9" s="11" t="s">
@@ -12420,7 +12792,7 @@
         <v>15.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -12445,7 +12817,7 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="1:23" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="66" t="s">
         <v>26</v>
       </c>
@@ -12472,7 +12844,7 @@
       <c r="V11" s="66"/>
       <c r="W11" s="66"/>
     </row>
-    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
         <v>37</v>
       </c>
@@ -12488,7 +12860,7 @@
       <c r="G12" s="63"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -12514,7 +12886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -12542,7 +12914,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -12570,7 +12942,7 @@
         <v>2.2500000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -12598,7 +12970,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -12626,7 +12998,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>21</v>
       </c>
@@ -12654,7 +13026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="20"/>
       <c r="D19" s="9" t="s">
         <v>17</v>
@@ -12701,35 +13073,35 @@
       <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="8"/>
-    <col min="14" max="14" width="10.7265625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="8"/>
-    <col min="17" max="17" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="8"/>
-    <col min="20" max="20" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" style="8"/>
-    <col min="23" max="23" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="11.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
+    <col min="14" max="14" width="10.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="8"/>
+    <col min="20" max="20" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="8"/>
+    <col min="23" max="23" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="66" t="s">
         <v>25</v>
       </c>
@@ -12756,8 +13128,8 @@
       <c r="V1" s="66"/>
       <c r="W1" s="66"/>
     </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="67"/>
@@ -12797,7 +13169,7 @@
       <c r="V2" s="63"/>
       <c r="W2" s="64"/>
     </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -12868,7 +13240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>4</v>
       </c>
@@ -12946,7 +13318,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>6</v>
       </c>
@@ -13024,7 +13396,7 @@
         <v>3.5000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>13</v>
       </c>
@@ -13102,7 +13474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>17</v>
       </c>
@@ -13180,7 +13552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>21</v>
       </c>
@@ -13258,7 +13630,7 @@
         <v>4.5000000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="22"/>
       <c r="C9" s="11" t="s">
@@ -13339,7 +13711,7 @@
         <v>15.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -13364,7 +13736,7 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="1:23" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="66" t="s">
         <v>26</v>
       </c>
@@ -13391,7 +13763,7 @@
       <c r="V11" s="66"/>
       <c r="W11" s="66"/>
     </row>
-    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
         <v>37</v>
       </c>
@@ -13407,7 +13779,7 @@
       <c r="G12" s="63"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -13433,7 +13805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -13461,7 +13833,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -13489,7 +13861,7 @@
         <v>2.2500000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -13517,7 +13889,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -13545,7 +13917,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>21</v>
       </c>
@@ -13573,7 +13945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="20"/>
       <c r="D19" s="9" t="s">
         <v>17</v>
@@ -13620,15 +13992,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="14"/>
+    <col min="1" max="1" width="19.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
@@ -13640,7 +14012,7 @@
       </c>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
@@ -13652,7 +14024,7 @@
       </c>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
@@ -13664,7 +14036,7 @@
       </c>
       <c r="D3" s="24"/>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>30</v>
       </c>

--- a/Individual Treasure Averages.xlsx
+++ b/Individual Treasure Averages.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanks\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A5FDED-E865-4AFD-A6C5-EFFE22B45803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3403DE-5CAF-4155-8F4D-CFA6AC5737BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="616" firstSheet="1" activeTab="3" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="616" firstSheet="1" activeTab="3" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Treasure(2024 Less)" sheetId="8" r:id="rId1"/>
-    <sheet name="Individual Treasure(2024)" sheetId="7" r:id="rId2"/>
-    <sheet name="Individual Treasure(2014)" sheetId="1" r:id="rId3"/>
+    <sheet name="Individual Treasure(2014)" sheetId="1" r:id="rId2"/>
+    <sheet name="Individual Treasure(2024)" sheetId="7" r:id="rId3"/>
     <sheet name="Table Calculations(Examples)" sheetId="6" r:id="rId4"/>
-    <sheet name="Table Calculations(Old)" sheetId="2" r:id="rId5"/>
-    <sheet name="Table Calculations(New)" sheetId="4" r:id="rId6"/>
+    <sheet name="Table Calculations(New)" sheetId="4" r:id="rId5"/>
+    <sheet name="Table Calculations(Old)" sheetId="2" r:id="rId6"/>
     <sheet name="Table Calculations(Magic)" sheetId="5" r:id="rId7"/>
     <sheet name="Dice Averages" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -857,6 +856,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -866,19 +871,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,11 +888,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,11 +909,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,7 +1238,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1915,11 +1914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC15E73-F0F4-4548-8983-0DBE959992CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA1D1B-31BB-4664-B29D-FA377A6BC162}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1959,23 +1958,18 @@
       <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="47">
+      <c r="A2" s="1">
         <v>-3</v>
       </c>
-      <c r="B2" s="48">
-        <f>(6.36 *EXP(0.371*A2))</f>
-        <v>2.0897164300134463</v>
-      </c>
-      <c r="C2" s="49">
-        <f>ROUND(
-B2,
-2-(1+INT(LOG10(ABS(B2))))
-)</f>
-        <v>2.1</v>
-      </c>
-      <c r="D2" s="50">
-        <f>$H$3</f>
-        <v>10</v>
+      <c r="B2" s="4">
+        <f>(2.58912 *EXP(0.437456*A2))</f>
+        <v>0.69694418498261168</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4.97</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -1988,23 +1982,18 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="47">
+      <c r="A3" s="1">
         <v>-2</v>
       </c>
-      <c r="B3" s="48">
-        <f t="shared" ref="B3:B35" si="0">(6.36 *EXP(0.371*A3))</f>
-        <v>3.028381678553453</v>
-      </c>
-      <c r="C3" s="49">
-        <f t="shared" ref="C3:C35" si="1">ROUND(
-B3,
-2-(1+INT(LOG10(ABS(B3))))
-)</f>
-        <v>3</v>
-      </c>
-      <c r="D3" s="50">
-        <f t="shared" ref="D3:D9" si="2">$H$3</f>
-        <v>10</v>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B35" si="0">(2.58912 *EXP(0.437456*A3))</f>
+        <v>1.0794007754789445</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.97</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -2013,24 +2002,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="5">
-        <v>10</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+      <c r="A4" s="1">
         <v>-1</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>4.3886794683138985</v>
-      </c>
-      <c r="C4" s="49">
-        <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D4" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1.6717350674697367</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -2039,24 +2026,22 @@
         <v>3</v>
       </c>
       <c r="H4" s="5">
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>6.36</v>
-      </c>
-      <c r="C5" s="49">
-        <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="D5" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2.5891199999999999</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.97</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -2065,540 +2050,481 @@
         <v>4</v>
       </c>
       <c r="H5" s="5">
-        <v>1000</v>
+        <v>946.75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>9.2168043467390603</v>
-      </c>
-      <c r="C6" s="63">
-        <f t="shared" si="1"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D6" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>4.0099310619512103</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.97</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="5">
-        <v>9000</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>13.356836850010696</v>
-      </c>
-      <c r="C7" s="63">
-        <f t="shared" si="1"/>
+        <v>6.2104294592761873</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6184780917100969</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>14.89673482443669</v>
+      </c>
+      <c r="C9" s="7">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>23.071499078512772</v>
+      </c>
+      <c r="C10" s="7">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>35.732264553480377</v>
+      </c>
+      <c r="C11" s="7">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>55.340778931397217</v>
+      </c>
+      <c r="C12" s="7">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>85.709703849023938</v>
+      </c>
+      <c r="C13" s="7">
+        <v>85</v>
+      </c>
+      <c r="D13" s="5">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>132.7439453462336</v>
+      </c>
+      <c r="C14" s="7">
+        <v>130</v>
+      </c>
+      <c r="D14" s="5">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>205.58879840633722</v>
+      </c>
+      <c r="C15" s="7">
+        <v>200</v>
+      </c>
+      <c r="D15" s="5">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>318.40814976470659</v>
+      </c>
+      <c r="C16" s="7">
+        <v>320</v>
+      </c>
+      <c r="D16" s="5">
+        <v>946.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>493.13849111663814</v>
+      </c>
+      <c r="C17" s="7">
+        <v>500</v>
+      </c>
+      <c r="D17" s="5">
+        <v>946.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="D7" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
-        <v>3</v>
-      </c>
-      <c r="B8" s="48">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>19.356501877022488</v>
-      </c>
-      <c r="C8" s="49">
-        <f t="shared" si="1"/>
+        <v>763.75423053869986</v>
+      </c>
+      <c r="C18" s="7">
+        <v>750</v>
+      </c>
+      <c r="D18" s="5">
+        <v>946.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>1182.8736453829017</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D19" s="5">
+        <v>946.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>1831.989932094441</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1800</v>
+      </c>
+      <c r="D20" s="5">
+        <v>946.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>2837.3166689405625</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2800</v>
+      </c>
+      <c r="D21" s="5">
+        <v>946.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>4394.3286689596089</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4400</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>6805.7699241764976</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6800</v>
+      </c>
+      <c r="D23" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="D8" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
-        <v>4</v>
-      </c>
-      <c r="B9" s="48">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
-        <v>28.051114880157801</v>
-      </c>
-      <c r="C9" s="49">
-        <f t="shared" si="1"/>
+        <v>10540.518871063789</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10500</v>
+      </c>
+      <c r="D24" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>16324.756685731661</v>
+      </c>
+      <c r="C25" s="7">
+        <v>16000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>25283.165288944179</v>
+      </c>
+      <c r="C26" s="7">
+        <v>25000</v>
+      </c>
+      <c r="D26" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>39157.609472169628</v>
+      </c>
+      <c r="C27" s="7">
+        <v>40000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>60645.823497639387</v>
+      </c>
+      <c r="C28" s="7">
+        <v>60000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>93925.956085772239</v>
+      </c>
+      <c r="C29" s="7">
+        <v>95000</v>
+      </c>
+      <c r="D29" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>145468.96583851028</v>
+      </c>
+      <c r="C30" s="7">
+        <v>150000</v>
+      </c>
+      <c r="D30" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>225296.82852311266</v>
+      </c>
+      <c r="C31" s="7">
+        <v>225000</v>
+      </c>
+      <c r="D31" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>348931.20089216641</v>
+      </c>
+      <c r="C32" s="7">
+        <v>350000</v>
+      </c>
+      <c r="D32" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="D9" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="51">
-        <v>5</v>
-      </c>
-      <c r="B10" s="52">
+      <c r="B33" s="4">
         <f t="shared" si="0"/>
-        <v>40.651200873948923</v>
-      </c>
-      <c r="C10" s="53">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="D10" s="54">
-        <f t="shared" ref="D10:D15" si="3">$H$4</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="51">
-        <v>6</v>
-      </c>
-      <c r="B11" s="52">
+        <v>540411.4374542064</v>
+      </c>
+      <c r="C33" s="7">
+        <v>540000</v>
+      </c>
+      <c r="D33" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4">
         <f t="shared" si="0"/>
-        <v>58.911032219367151</v>
-      </c>
-      <c r="C11" s="53">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="D11" s="54">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="51">
-        <v>7</v>
-      </c>
-      <c r="B12" s="52">
+        <v>836968.78062095551</v>
+      </c>
+      <c r="C34" s="7">
+        <v>840000</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4">
         <f t="shared" si="0"/>
-        <v>85.37287072804213</v>
-      </c>
-      <c r="C12" s="64">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="D12" s="54">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="51">
-        <v>8</v>
-      </c>
-      <c r="B13" s="52">
-        <f t="shared" si="0"/>
-        <v>123.72091918550478</v>
-      </c>
-      <c r="C13" s="64">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="D13" s="54">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="51">
-        <v>9</v>
-      </c>
-      <c r="B14" s="52">
-        <f t="shared" si="0"/>
-        <v>179.29426190747051</v>
-      </c>
-      <c r="C14" s="53">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="D14" s="54">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="51">
-        <v>10</v>
-      </c>
-      <c r="B15" s="52">
-        <f t="shared" si="0"/>
-        <v>259.8302095116581</v>
-      </c>
-      <c r="C15" s="53">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="D15" s="54">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="55">
-        <v>11</v>
-      </c>
-      <c r="B16" s="56">
-        <f t="shared" si="0"/>
-        <v>376.54154157880026</v>
-      </c>
-      <c r="C16" s="57">
-        <f t="shared" si="1"/>
-        <v>380</v>
-      </c>
-      <c r="D16" s="58">
-        <f t="shared" ref="D16:D21" si="4">$H$5</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="55">
-        <v>12</v>
-      </c>
-      <c r="B17" s="56">
-        <f t="shared" si="0"/>
-        <v>545.67762848291102</v>
-      </c>
-      <c r="C17" s="57">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="D17" s="58">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="55">
-        <v>13</v>
-      </c>
-      <c r="B18" s="56">
-        <f t="shared" si="0"/>
-        <v>790.78678272320099</v>
-      </c>
-      <c r="C18" s="65">
-        <f t="shared" si="1"/>
-        <v>790</v>
-      </c>
-      <c r="D18" s="58">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="55">
-        <v>14</v>
-      </c>
-      <c r="B19" s="56">
-        <f t="shared" si="0"/>
-        <v>1145.9948201803445</v>
-      </c>
-      <c r="C19" s="65">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="D19" s="58">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="55">
-        <v>15</v>
-      </c>
-      <c r="B20" s="56">
-        <f t="shared" si="0"/>
-        <v>1660.7562955941262</v>
-      </c>
-      <c r="C20" s="57">
-        <f t="shared" si="1"/>
-        <v>1700</v>
-      </c>
-      <c r="D20" s="58">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="55">
-        <v>16</v>
-      </c>
-      <c r="B21" s="56">
-        <f t="shared" si="0"/>
-        <v>2406.7399125953157</v>
-      </c>
-      <c r="C21" s="57">
-        <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="D21" s="58">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="59">
-        <v>17</v>
-      </c>
-      <c r="B22" s="60">
-        <f t="shared" si="0"/>
-        <v>3487.8067433771853</v>
-      </c>
-      <c r="C22" s="61">
-        <f t="shared" si="1"/>
-        <v>3500</v>
-      </c>
-      <c r="D22" s="62">
-        <f>$H$6</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="59">
-        <v>18</v>
-      </c>
-      <c r="B23" s="60">
-        <f t="shared" si="0"/>
-        <v>5054.4704957460108</v>
-      </c>
-      <c r="C23" s="61">
-        <f t="shared" si="1"/>
-        <v>5100</v>
-      </c>
-      <c r="D23" s="62">
-        <f t="shared" ref="D23:D35" si="5">$H$6</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="59">
-        <v>19</v>
-      </c>
-      <c r="B24" s="60">
-        <f t="shared" si="0"/>
-        <v>7324.853087367318</v>
-      </c>
-      <c r="C24" s="66">
-        <f t="shared" si="1"/>
-        <v>7300</v>
-      </c>
-      <c r="D24" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="59">
-        <v>20</v>
-      </c>
-      <c r="B25" s="60">
-        <f t="shared" si="0"/>
-        <v>10615.053109256625</v>
-      </c>
-      <c r="C25" s="66">
-        <f t="shared" si="1"/>
-        <v>11000</v>
-      </c>
-      <c r="D25" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="59">
-        <v>21</v>
-      </c>
-      <c r="B26" s="60">
-        <f t="shared" si="0"/>
-        <v>15383.155289034981</v>
-      </c>
-      <c r="C26" s="61">
-        <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="D26" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="59">
-        <v>22</v>
-      </c>
-      <c r="B27" s="60">
-        <f t="shared" si="0"/>
-        <v>22293.008260147701</v>
-      </c>
-      <c r="C27" s="61">
-        <f t="shared" si="1"/>
-        <v>22000</v>
-      </c>
-      <c r="D27" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="59">
-        <v>23</v>
-      </c>
-      <c r="B28" s="60">
-        <f t="shared" si="0"/>
-        <v>32306.650225474714</v>
-      </c>
-      <c r="C28" s="61">
-        <f t="shared" si="1"/>
-        <v>32000</v>
-      </c>
-      <c r="D28" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="59">
-        <v>24</v>
-      </c>
-      <c r="B29" s="60">
-        <f t="shared" si="0"/>
-        <v>46818.250664580803</v>
-      </c>
-      <c r="C29" s="61">
-        <f t="shared" si="1"/>
-        <v>47000</v>
-      </c>
-      <c r="D29" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="59">
-        <v>25</v>
-      </c>
-      <c r="B30" s="60">
-        <f t="shared" si="0"/>
-        <v>67848.216388683548</v>
-      </c>
-      <c r="C30" s="61">
-        <f t="shared" si="1"/>
-        <v>68000</v>
-      </c>
-      <c r="D30" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="59">
-        <v>26</v>
-      </c>
-      <c r="B31" s="60">
-        <f t="shared" si="0"/>
-        <v>98324.486749954565</v>
-      </c>
-      <c r="C31" s="61">
-        <f t="shared" si="1"/>
-        <v>98000</v>
-      </c>
-      <c r="D31" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="59">
-        <v>27</v>
-      </c>
-      <c r="B32" s="60">
-        <f t="shared" si="0"/>
-        <v>142490.18189746336</v>
-      </c>
-      <c r="C32" s="61">
-        <f t="shared" si="1"/>
-        <v>140000</v>
-      </c>
-      <c r="D32" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="59">
-        <v>28</v>
-      </c>
-      <c r="B33" s="60">
-        <f t="shared" si="0"/>
-        <v>206494.35972958809</v>
-      </c>
-      <c r="C33" s="61">
-        <f t="shared" si="1"/>
-        <v>210000</v>
-      </c>
-      <c r="D33" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="59">
-        <v>29</v>
-      </c>
-      <c r="B34" s="60">
-        <f t="shared" si="0"/>
-        <v>299248.13086993201</v>
-      </c>
-      <c r="C34" s="61">
-        <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-      <c r="D34" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="59">
-        <v>30</v>
-      </c>
-      <c r="B35" s="60">
-        <f t="shared" si="0"/>
-        <v>433665.32599929627</v>
-      </c>
-      <c r="C35" s="61">
-        <f t="shared" si="1"/>
-        <v>430000</v>
-      </c>
-      <c r="D35" s="62">
-        <f t="shared" si="5"/>
-        <v>9000</v>
+        <v>1296265.5694967383</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="D35" s="5">
+        <v>8470</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA1D1B-31BB-4664-B29D-FA377A6BC162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC15E73-F0F4-4548-8983-0DBE959992CA}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2639,18 +2565,23 @@
       <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="47">
         <v>-3</v>
       </c>
-      <c r="B2" s="4">
-        <f>(2.58912 *EXP(0.437456*A2))</f>
-        <v>0.69694418498261168</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4.97</v>
+      <c r="B2" s="48">
+        <f>(6.36 *EXP(0.371*A2))</f>
+        <v>2.0897164300134463</v>
+      </c>
+      <c r="C2" s="49">
+        <f>ROUND(
+B2,
+2-(1+INT(LOG10(ABS(B2))))
+)</f>
+        <v>2.1</v>
+      </c>
+      <c r="D2" s="50">
+        <f>$H$3</f>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -2663,18 +2594,23 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="47">
         <v>-2</v>
       </c>
-      <c r="B3" s="4">
-        <f t="shared" ref="B3:B35" si="0">(2.58912 *EXP(0.437456*A3))</f>
-        <v>1.0794007754789445</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4.97</v>
+      <c r="B3" s="48">
+        <f t="shared" ref="B3:B35" si="0">(6.36 *EXP(0.371*A3))</f>
+        <v>3.028381678553453</v>
+      </c>
+      <c r="C3" s="49">
+        <f t="shared" ref="C3:C35" si="1">ROUND(
+B3,
+2-(1+INT(LOG10(ABS(B3))))
+)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="50">
+        <f t="shared" ref="D3:D9" si="2">$H$3</f>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -2683,22 +2619,24 @@
         <v>2</v>
       </c>
       <c r="H3" s="5">
-        <v>4.97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="47">
         <v>-1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="48">
         <f t="shared" si="0"/>
-        <v>1.6717350674697367</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4.97</v>
+        <v>4.3886794683138985</v>
+      </c>
+      <c r="C4" s="49">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D4" s="50">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -2707,22 +2645,24 @@
         <v>3</v>
       </c>
       <c r="H4" s="5">
-        <v>92.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="47">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="48">
         <f t="shared" si="0"/>
-        <v>2.5891199999999999</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4.97</v>
+        <v>6.36</v>
+      </c>
+      <c r="C5" s="49">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="D5" s="50">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -2731,471 +2671,530 @@
         <v>4</v>
       </c>
       <c r="H5" s="5">
-        <v>946.75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="47">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="48">
         <f t="shared" si="0"/>
-        <v>4.0099310619512103</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4.97</v>
+        <v>9.2168043467390603</v>
+      </c>
+      <c r="C6" s="63">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D6" s="50">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="5">
-        <v>8470</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="48">
         <f t="shared" si="0"/>
-        <v>6.2104294592761873</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4.97</v>
+        <v>13.356836850010696</v>
+      </c>
+      <c r="C7" s="63">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="50">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="47">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="48">
         <f t="shared" si="0"/>
-        <v>9.6184780917100969</v>
-      </c>
-      <c r="C8" s="7">
-        <v>9.6</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4.97</v>
+        <v>19.356501877022488</v>
+      </c>
+      <c r="C8" s="49">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="50">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="47">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="48">
         <f t="shared" si="0"/>
-        <v>14.89673482443669</v>
-      </c>
-      <c r="C9" s="7">
+        <v>28.051114880157801</v>
+      </c>
+      <c r="C9" s="49">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D9" s="50">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="51">
+        <v>5</v>
+      </c>
+      <c r="B10" s="52">
+        <f t="shared" si="0"/>
+        <v>40.651200873948923</v>
+      </c>
+      <c r="C10" s="53">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D10" s="54">
+        <f t="shared" ref="D10:D15" si="3">$H$4</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="51">
+        <v>6</v>
+      </c>
+      <c r="B11" s="52">
+        <f t="shared" si="0"/>
+        <v>58.911032219367151</v>
+      </c>
+      <c r="C11" s="53">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="51">
+        <v>7</v>
+      </c>
+      <c r="B12" s="52">
+        <f t="shared" si="0"/>
+        <v>85.37287072804213</v>
+      </c>
+      <c r="C12" s="64">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D12" s="54">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="51">
+        <v>8</v>
+      </c>
+      <c r="B13" s="52">
+        <f t="shared" si="0"/>
+        <v>123.72091918550478</v>
+      </c>
+      <c r="C13" s="64">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="D13" s="54">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="51">
+        <v>9</v>
+      </c>
+      <c r="B14" s="52">
+        <f t="shared" si="0"/>
+        <v>179.29426190747051</v>
+      </c>
+      <c r="C14" s="53">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D14" s="54">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="51">
+        <v>10</v>
+      </c>
+      <c r="B15" s="52">
+        <f t="shared" si="0"/>
+        <v>259.8302095116581</v>
+      </c>
+      <c r="C15" s="53">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="D15" s="54">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="55">
+        <v>11</v>
+      </c>
+      <c r="B16" s="56">
+        <f t="shared" si="0"/>
+        <v>376.54154157880026</v>
+      </c>
+      <c r="C16" s="57">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="D16" s="58">
+        <f t="shared" ref="D16:D21" si="4">$H$5</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="55">
+        <v>12</v>
+      </c>
+      <c r="B17" s="56">
+        <f t="shared" si="0"/>
+        <v>545.67762848291102</v>
+      </c>
+      <c r="C17" s="57">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="D17" s="58">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="55">
+        <v>13</v>
+      </c>
+      <c r="B18" s="56">
+        <f t="shared" si="0"/>
+        <v>790.78678272320099</v>
+      </c>
+      <c r="C18" s="65">
+        <f t="shared" si="1"/>
+        <v>790</v>
+      </c>
+      <c r="D18" s="58">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="55">
+        <v>14</v>
+      </c>
+      <c r="B19" s="56">
+        <f t="shared" si="0"/>
+        <v>1145.9948201803445</v>
+      </c>
+      <c r="C19" s="65">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="D19" s="58">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="55">
         <v>15</v>
       </c>
-      <c r="D9" s="5">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="B20" s="56">
         <f t="shared" si="0"/>
-        <v>23.071499078512772</v>
-      </c>
-      <c r="C10" s="7">
+        <v>1660.7562955941262</v>
+      </c>
+      <c r="C20" s="57">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="D20" s="58">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="55">
+        <v>16</v>
+      </c>
+      <c r="B21" s="56">
+        <f t="shared" si="0"/>
+        <v>2406.7399125953157</v>
+      </c>
+      <c r="C21" s="57">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="D21" s="58">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="59">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60">
+        <f t="shared" si="0"/>
+        <v>3487.8067433771853</v>
+      </c>
+      <c r="C22" s="61">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="D22" s="62">
+        <f>$H$6</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="59">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60">
+        <f t="shared" si="0"/>
+        <v>5054.4704957460108</v>
+      </c>
+      <c r="C23" s="61">
+        <f t="shared" si="1"/>
+        <v>5100</v>
+      </c>
+      <c r="D23" s="62">
+        <f t="shared" ref="D23:D35" si="5">$H$6</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="59">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60">
+        <f t="shared" si="0"/>
+        <v>7324.853087367318</v>
+      </c>
+      <c r="C24" s="66">
+        <f t="shared" si="1"/>
+        <v>7300</v>
+      </c>
+      <c r="D24" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="59">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60">
+        <f t="shared" si="0"/>
+        <v>10615.053109256625</v>
+      </c>
+      <c r="C25" s="66">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+      <c r="D25" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="59">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60">
+        <f t="shared" si="0"/>
+        <v>15383.155289034981</v>
+      </c>
+      <c r="C26" s="61">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="D26" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="59">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60">
+        <f t="shared" si="0"/>
+        <v>22293.008260147701</v>
+      </c>
+      <c r="C27" s="61">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="D27" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="59">
         <v>23</v>
       </c>
-      <c r="D10" s="5">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="B28" s="60">
         <f t="shared" si="0"/>
-        <v>35.732264553480377</v>
-      </c>
-      <c r="C11" s="7">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4">
+        <v>32306.650225474714</v>
+      </c>
+      <c r="C28" s="61">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
+      <c r="D28" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="59">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60">
         <f t="shared" si="0"/>
-        <v>55.340778931397217</v>
-      </c>
-      <c r="C12" s="7">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4">
+        <v>46818.250664580803</v>
+      </c>
+      <c r="C29" s="61">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="D29" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="59">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60">
         <f t="shared" si="0"/>
-        <v>85.709703849023938</v>
-      </c>
-      <c r="C13" s="7">
-        <v>85</v>
-      </c>
-      <c r="D13" s="5">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4">
+        <v>67848.216388683548</v>
+      </c>
+      <c r="C30" s="61">
+        <f t="shared" si="1"/>
+        <v>68000</v>
+      </c>
+      <c r="D30" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="59">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60">
         <f t="shared" si="0"/>
-        <v>132.7439453462336</v>
-      </c>
-      <c r="C14" s="7">
-        <v>130</v>
-      </c>
-      <c r="D14" s="5">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4">
+        <v>98324.486749954565</v>
+      </c>
+      <c r="C31" s="61">
+        <f t="shared" si="1"/>
+        <v>98000</v>
+      </c>
+      <c r="D31" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="59">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60">
         <f t="shared" si="0"/>
-        <v>205.58879840633722</v>
-      </c>
-      <c r="C15" s="7">
-        <v>200</v>
-      </c>
-      <c r="D15" s="5">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4">
+        <v>142490.18189746336</v>
+      </c>
+      <c r="C32" s="61">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+      <c r="D32" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="59">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60">
         <f t="shared" si="0"/>
-        <v>318.40814976470659</v>
-      </c>
-      <c r="C16" s="7">
-        <v>320</v>
-      </c>
-      <c r="D16" s="5">
-        <v>946.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4">
+        <v>206494.35972958809</v>
+      </c>
+      <c r="C33" s="61">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+      <c r="D33" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="59">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60">
         <f t="shared" si="0"/>
-        <v>493.13849111663814</v>
-      </c>
-      <c r="C17" s="7">
-        <v>500</v>
-      </c>
-      <c r="D17" s="5">
-        <v>946.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4">
+        <v>299248.13086993201</v>
+      </c>
+      <c r="C34" s="61">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="D34" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="59">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60">
         <f t="shared" si="0"/>
-        <v>763.75423053869986</v>
-      </c>
-      <c r="C18" s="7">
-        <v>750</v>
-      </c>
-      <c r="D18" s="5">
-        <v>946.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>1182.8736453829017</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D19" s="5">
-        <v>946.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>1831.989932094441</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1800</v>
-      </c>
-      <c r="D20" s="5">
-        <v>946.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
-        <v>2837.3166689405625</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2800</v>
-      </c>
-      <c r="D21" s="5">
-        <v>946.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4">
-        <f t="shared" si="0"/>
-        <v>4394.3286689596089</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4400</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4">
-        <f t="shared" si="0"/>
-        <v>6805.7699241764976</v>
-      </c>
-      <c r="C23" s="7">
-        <v>6800</v>
-      </c>
-      <c r="D23" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4">
-        <f t="shared" si="0"/>
-        <v>10540.518871063789</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10500</v>
-      </c>
-      <c r="D24" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>20</v>
-      </c>
-      <c r="B25" s="4">
-        <f t="shared" si="0"/>
-        <v>16324.756685731661</v>
-      </c>
-      <c r="C25" s="7">
-        <v>16000</v>
-      </c>
-      <c r="D25" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" si="0"/>
-        <v>25283.165288944179</v>
-      </c>
-      <c r="C26" s="7">
-        <v>25000</v>
-      </c>
-      <c r="D26" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>22</v>
-      </c>
-      <c r="B27" s="4">
-        <f t="shared" si="0"/>
-        <v>39157.609472169628</v>
-      </c>
-      <c r="C27" s="7">
-        <v>40000</v>
-      </c>
-      <c r="D27" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>23</v>
-      </c>
-      <c r="B28" s="4">
-        <f t="shared" si="0"/>
-        <v>60645.823497639387</v>
-      </c>
-      <c r="C28" s="7">
-        <v>60000</v>
-      </c>
-      <c r="D28" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>24</v>
-      </c>
-      <c r="B29" s="4">
-        <f t="shared" si="0"/>
-        <v>93925.956085772239</v>
-      </c>
-      <c r="C29" s="7">
-        <v>95000</v>
-      </c>
-      <c r="D29" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>25</v>
-      </c>
-      <c r="B30" s="4">
-        <f t="shared" si="0"/>
-        <v>145468.96583851028</v>
-      </c>
-      <c r="C30" s="7">
-        <v>150000</v>
-      </c>
-      <c r="D30" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4">
-        <f t="shared" si="0"/>
-        <v>225296.82852311266</v>
-      </c>
-      <c r="C31" s="7">
-        <v>225000</v>
-      </c>
-      <c r="D31" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>27</v>
-      </c>
-      <c r="B32" s="4">
-        <f t="shared" si="0"/>
-        <v>348931.20089216641</v>
-      </c>
-      <c r="C32" s="7">
-        <v>350000</v>
-      </c>
-      <c r="D32" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>28</v>
-      </c>
-      <c r="B33" s="4">
-        <f t="shared" si="0"/>
-        <v>540411.4374542064</v>
-      </c>
-      <c r="C33" s="7">
-        <v>540000</v>
-      </c>
-      <c r="D33" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="4">
-        <f t="shared" si="0"/>
-        <v>836968.78062095551</v>
-      </c>
-      <c r="C34" s="7">
-        <v>840000</v>
-      </c>
-      <c r="D34" s="5">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>30</v>
-      </c>
-      <c r="B35" s="4">
-        <f t="shared" si="0"/>
-        <v>1296265.5694967383</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="D35" s="5">
-        <v>8470</v>
+        <v>433665.32599929627</v>
+      </c>
+      <c r="C35" s="61">
+        <f t="shared" si="1"/>
+        <v>430000</v>
+      </c>
+      <c r="D35" s="62">
+        <f t="shared" si="5"/>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3205,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD8D082-213D-4692-B6C5-868C3C1BDB24}">
   <dimension ref="A1:AD270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3245,20 +3244,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
       <c r="Z1" s="39"/>
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
@@ -3300,10 +3299,10 @@
       <c r="AD2" s="37"/>
     </row>
     <row r="3" spans="1:30" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="21">
         <v>3</v>
       </c>
@@ -3506,10 +3505,10 @@
         <f>'Individual Treasure(2014)'!B3</f>
         <v>1.0794007754789445</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="72"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="34">
         <f>SUMPRODUCT(C5:C9,F5:F9)</f>
         <v>1</v>
@@ -3535,20 +3534,20 @@
       <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:30" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
@@ -3556,14 +3555,14 @@
       <c r="AD11" s="39"/>
     </row>
     <row r="12" spans="1:30" ht="26" x14ac:dyDescent="0.6">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
@@ -3590,18 +3589,18 @@
       <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="21">
         <v>3</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="36"/>
@@ -3766,10 +3765,10 @@
         <f>'Individual Treasure(2014)'!B4</f>
         <v>1.6717350674697367</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="72"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="34">
         <f>SUMPRODUCT(C15:C19,F15:F19)</f>
         <v>1.6750000000000003</v>
@@ -3778,64 +3777,64 @@
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
     </row>
     <row r="22" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="76" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
     </row>
     <row r="23" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="21">
         <v>3</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="78" t="s">
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="79"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="21">
         <v>3</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="42" t="s">
@@ -4106,10 +4105,10 @@
         <f>'Individual Treasure(2014)'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="72"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="34">
         <f>SUMPRODUCT(C25:C29,F25:F29)</f>
         <v>2.5750000000000002</v>
@@ -4122,74 +4121,74 @@
         <f>'Individual Treasure(2014)'!B5</f>
         <v>2.5891199999999999</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J30" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="72"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="34">
         <f>SUMPRODUCT(I25:I29,L25:L29)</f>
         <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
     </row>
     <row r="32" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="76" t="s">
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
     </row>
     <row r="33" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="79"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="21">
         <v>3</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="78" t="s">
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="79"/>
+      <c r="H33" s="69"/>
       <c r="I33" s="21">
         <v>3</v>
       </c>
-      <c r="J33" s="68" t="s">
+      <c r="J33" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
     </row>
     <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="s">
@@ -4460,10 +4459,10 @@
         <f>'Individual Treasure(2014)'!B6</f>
         <v>4.0099310619512103</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="72"/>
+      <c r="E40" s="76"/>
       <c r="F40" s="34">
         <f>SUMPRODUCT(C35:C39,F35:F39)</f>
         <v>4.05</v>
@@ -4476,74 +4475,74 @@
         <f>'Individual Treasure(2014)'!B6</f>
         <v>4.0099310619512103</v>
       </c>
-      <c r="J40" s="71" t="s">
+      <c r="J40" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K40" s="72"/>
+      <c r="K40" s="76"/>
       <c r="L40" s="34">
         <f>SUMPRODUCT(I35:I39,L35:L39)</f>
         <v>8.25</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
     </row>
     <row r="42" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="76" t="s">
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="78"/>
     </row>
     <row r="43" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="21">
         <v>3</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="78" t="s">
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="79"/>
+      <c r="H43" s="69"/>
       <c r="I43" s="21">
         <v>3</v>
       </c>
-      <c r="J43" s="68" t="s">
+      <c r="J43" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="69"/>
-      <c r="L43" s="70"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="72"/>
     </row>
     <row r="44" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="42" t="s">
@@ -4814,10 +4813,10 @@
         <f>'Individual Treasure(2014)'!B7</f>
         <v>6.2104294592761873</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="72"/>
+      <c r="E50" s="76"/>
       <c r="F50" s="34">
         <f>SUMPRODUCT(C45:C49,F45:F49)</f>
         <v>6.2000000000000011</v>
@@ -4830,79 +4829,79 @@
         <f>'Individual Treasure(2014)'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="J50" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="72"/>
+      <c r="K50" s="76"/>
       <c r="L50" s="34">
         <f>SUMPRODUCT(I45:I49,L45:L49)</f>
         <v>5.7</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
     </row>
     <row r="52" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="76" t="s">
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="78"/>
     </row>
     <row r="53" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="79"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="21">
         <v>3</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="69"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="78" t="s">
+      <c r="E53" s="71"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="79"/>
+      <c r="H53" s="69"/>
       <c r="I53" s="21">
         <v>3</v>
       </c>
-      <c r="J53" s="68" t="s">
+      <c r="J53" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K53" s="69"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="68" t="s">
+      <c r="K53" s="71"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="N53" s="69"/>
-      <c r="O53" s="70"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="72"/>
       <c r="P53" s="46"/>
     </row>
     <row r="54" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -5256,10 +5255,10 @@
         <f>'Individual Treasure(2014)'!B8</f>
         <v>9.6184780917100969</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="72"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="34">
         <f>SUMPRODUCT(C55:C59,F55:F59)</f>
         <v>14</v>
@@ -5272,18 +5271,18 @@
         <f>'Individual Treasure(2014)'!B8</f>
         <v>9.6184780917100969</v>
       </c>
-      <c r="J60" s="71" t="s">
+      <c r="J60" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K60" s="72"/>
+      <c r="K60" s="76"/>
       <c r="L60" s="34">
         <f>SUMPRODUCT(I55:I59,L55:L59)</f>
         <v>6.5</v>
       </c>
-      <c r="M60" s="71" t="s">
+      <c r="M60" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N60" s="72"/>
+      <c r="N60" s="76"/>
       <c r="O60" s="34">
         <f>SUMPRODUCT(I55:I59,O55:O59)</f>
         <v>3.45</v>
@@ -5294,44 +5293,44 @@
       </c>
     </row>
     <row r="61" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
     </row>
     <row r="62" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="77"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="78"/>
     </row>
     <row r="63" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="79"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="21">
         <v>3</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="69"/>
-      <c r="F63" s="70"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="72"/>
     </row>
     <row r="64" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="42" t="s">
@@ -5359,96 +5358,96 @@
         <v>4</v>
       </c>
       <c r="B65" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" s="31">
         <f>((B65-A65+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D65" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E65" s="8">
         <v>5</v>
       </c>
       <c r="F65" s="19">
         <f>D65*E65</f>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="43">
         <f>B65+1</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C66" s="31">
         <f>((B66-A66+1)*0.05)</f>
-        <v>0.15000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D66" s="18">
         <v>3</v>
       </c>
       <c r="E66" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F66" s="19">
         <f>D66*E66</f>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="43">
         <f>B66+1</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B67" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C67" s="31">
         <f>((B67-A67+1)*0.05)</f>
-        <v>0.4</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D67" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E67" s="8">
         <v>10</v>
       </c>
       <c r="F67" s="19">
         <f>D67*E67</f>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="43">
         <f>B67+1</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B68" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C68" s="31">
         <f>((B68-A68+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D68" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="8">
         <v>20</v>
       </c>
       <c r="F68" s="19">
         <f>D68*E68</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="43">
         <f>B68+1</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B69" s="44">
         <f>20+C63</f>
@@ -5456,17 +5455,17 @@
       </c>
       <c r="C69" s="31">
         <f>((B69-A69+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D69" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" s="28">
         <v>20</v>
       </c>
       <c r="F69" s="22">
         <f>D69*E69</f>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -5478,79 +5477,79 @@
         <f>'Individual Treasure(2014)'!B9</f>
         <v>14.89673482443669</v>
       </c>
-      <c r="D70" s="71" t="s">
+      <c r="D70" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="72"/>
+      <c r="E70" s="76"/>
       <c r="F70" s="34">
         <f>SUMPRODUCT(C65:C69,F65:F69)</f>
-        <v>27.25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
     </row>
     <row r="72" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="76" t="s">
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="H72" s="76"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="77"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="78"/>
     </row>
     <row r="73" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="78" t="s">
+      <c r="A73" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="79"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="21">
         <v>5</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="69"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="78" t="s">
+      <c r="E73" s="71"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H73" s="79"/>
+      <c r="H73" s="69"/>
       <c r="I73" s="21">
         <v>5</v>
       </c>
-      <c r="J73" s="68" t="s">
+      <c r="J73" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K73" s="69"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="68" t="s">
+      <c r="K73" s="71"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="N73" s="69"/>
-      <c r="O73" s="70"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="72"/>
       <c r="P73" s="46"/>
     </row>
     <row r="74" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -5609,21 +5608,21 @@
         <v>6</v>
       </c>
       <c r="B75" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" s="31">
         <f>((B75-A75+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D75" s="18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E75" s="8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F75" s="19">
         <f>D75*E75</f>
-        <v>8.5</v>
+        <v>25</v>
       </c>
       <c r="G75" s="43">
         <f>I73+1</f>
@@ -5664,24 +5663,24 @@
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="43">
         <f>B75+1</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B76" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C76" s="31">
         <f>((B76-A76+1)*0.05)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D76" s="18">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E76" s="8">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="F76" s="19">
         <f>D76*E76</f>
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="G76" s="43">
         <f>H75+1</f>
@@ -5722,24 +5721,24 @@
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="43">
         <f>B76+1</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B77" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C77" s="31">
         <f>((B77-A77+1)*0.05)</f>
-        <v>0.4</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D77" s="18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E77" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77" s="19">
         <f>D77*E77</f>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G77" s="43">
         <f>H76+1</f>
@@ -5780,24 +5779,24 @@
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="43">
         <f>B77+1</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B78" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78" s="31">
         <f>((B78-A78+1)*0.05)</f>
-        <v>0.2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D78" s="18">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E78" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F78" s="19">
         <f>D78*E78</f>
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G78" s="43">
         <f>H77+1</f>
@@ -5838,7 +5837,7 @@
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="43">
         <f>B78+1</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B79" s="44">
         <f>20+C73</f>
@@ -5846,17 +5845,17 @@
       </c>
       <c r="C79" s="31">
         <f>((B79-A79+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D79" s="20">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E79" s="28">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F79" s="22">
         <f>D79*E79</f>
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G79" s="43">
         <f>H78+1</f>
@@ -5904,13 +5903,13 @@
         <f>'Individual Treasure(2014)'!B10</f>
         <v>23.071499078512772</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="72"/>
+      <c r="E80" s="76"/>
       <c r="F80" s="34">
         <f>SUMPRODUCT(C75:C79,F75:F79)</f>
-        <v>17.350000000000001</v>
+        <v>44</v>
       </c>
       <c r="G80" s="73" t="s">
         <v>41</v>
@@ -5920,18 +5919,18 @@
         <f>'Individual Treasure(2014)'!B10</f>
         <v>23.071499078512772</v>
       </c>
-      <c r="J80" s="71" t="s">
+      <c r="J80" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K80" s="72"/>
+      <c r="K80" s="76"/>
       <c r="L80" s="34">
         <f>SUMPRODUCT(I75:I79,L75:L79)</f>
         <v>16.5</v>
       </c>
-      <c r="M80" s="71" t="s">
+      <c r="M80" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N80" s="72"/>
+      <c r="N80" s="76"/>
       <c r="O80" s="34">
         <f>SUMPRODUCT(I75:I79,O75:O79)</f>
         <v>7.3500000000000005</v>
@@ -5942,69 +5941,69 @@
       </c>
     </row>
     <row r="81" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="75" t="s">
+      <c r="A81" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="75"/>
-      <c r="C81" s="75"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="75"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="79"/>
     </row>
     <row r="82" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="76" t="s">
+      <c r="A82" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B82" s="76"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="76" t="s">
+      <c r="B82" s="77"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="78"/>
     </row>
     <row r="83" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="79"/>
+      <c r="B83" s="69"/>
       <c r="C83" s="21">
         <v>5</v>
       </c>
-      <c r="D83" s="68" t="s">
+      <c r="D83" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="69"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="78" t="s">
+      <c r="E83" s="71"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H83" s="79"/>
+      <c r="H83" s="69"/>
       <c r="I83" s="21">
         <v>5</v>
       </c>
-      <c r="J83" s="68" t="s">
+      <c r="J83" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K83" s="69"/>
-      <c r="L83" s="70"/>
-      <c r="M83" s="68" t="s">
+      <c r="K83" s="71"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="N83" s="69"/>
-      <c r="O83" s="70"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="72"/>
       <c r="P83" s="46"/>
     </row>
     <row r="84" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -6070,14 +6069,14 @@
         <v>0.1</v>
       </c>
       <c r="D85" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E85" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F85" s="19">
         <f>D85*E85</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G85" s="43">
         <f>I83+1</f>
@@ -6121,21 +6120,21 @@
         <v>8</v>
       </c>
       <c r="B86" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="31">
         <f>((B86-A86+1)*0.05)</f>
-        <v>0.2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D86" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E86" s="8">
         <v>10</v>
       </c>
       <c r="F86" s="19">
         <f>D86*E86</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G86" s="43">
         <f>H85+1</f>
@@ -6176,24 +6175,24 @@
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="43">
         <f>B86+1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" s="31">
         <f>((B87-A87+1)*0.05)</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="D87" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E87" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F87" s="19">
         <f>D87*E87</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G87" s="43">
         <f>H86+1</f>
@@ -6234,14 +6233,14 @@
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="43">
         <f>B87+1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B88" s="8">
         <v>22</v>
       </c>
       <c r="C88" s="31">
         <f>((B88-A88+1)*0.05)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D88" s="18">
         <v>3</v>
@@ -6358,13 +6357,13 @@
         <f>'Individual Treasure(2014)'!B11</f>
         <v>35.732264553480377</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="72"/>
+      <c r="E90" s="76"/>
       <c r="F90" s="34">
         <f>SUMPRODUCT(C85:C89,F85:F89)</f>
-        <v>49</v>
+        <v>65.5</v>
       </c>
       <c r="G90" s="73" t="s">
         <v>41</v>
@@ -6374,18 +6373,18 @@
         <f>'Individual Treasure(2014)'!B11</f>
         <v>35.732264553480377</v>
       </c>
-      <c r="J90" s="71" t="s">
+      <c r="J90" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K90" s="72"/>
+      <c r="K90" s="76"/>
       <c r="L90" s="34">
         <f>SUMPRODUCT(I85:I89,L85:L89)</f>
         <v>45</v>
       </c>
-      <c r="M90" s="71" t="s">
+      <c r="M90" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N90" s="72"/>
+      <c r="N90" s="76"/>
       <c r="O90" s="34">
         <f>SUMPRODUCT(I85:I89,O85:O89)</f>
         <v>10.650000000000002</v>
@@ -6396,64 +6395,64 @@
       </c>
     </row>
     <row r="91" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="75" t="s">
+      <c r="A91" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="75"/>
-      <c r="H91" s="75"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="75"/>
-      <c r="L91" s="75"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
     </row>
     <row r="92" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="76"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="76" t="s">
+      <c r="B92" s="77"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="76"/>
-      <c r="K92" s="76"/>
-      <c r="L92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="78"/>
     </row>
     <row r="93" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="78" t="s">
+      <c r="A93" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="79"/>
+      <c r="B93" s="69"/>
       <c r="C93" s="21">
         <v>5</v>
       </c>
-      <c r="D93" s="68" t="s">
+      <c r="D93" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="69"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="78" t="s">
+      <c r="E93" s="71"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H93" s="79"/>
+      <c r="H93" s="69"/>
       <c r="I93" s="21">
         <v>5</v>
       </c>
-      <c r="J93" s="68" t="s">
+      <c r="J93" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K93" s="69"/>
-      <c r="L93" s="70"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="72"/>
     </row>
     <row r="94" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="42" t="s">
@@ -6724,10 +6723,10 @@
         <f>'Individual Treasure(2014)'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="D100" s="71" t="s">
+      <c r="D100" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="72"/>
+      <c r="E100" s="76"/>
       <c r="F100" s="34">
         <f>SUMPRODUCT(C95:C99,F95:F99)</f>
         <v>82.25</v>
@@ -6740,79 +6739,79 @@
         <f>'Individual Treasure(2014)'!B12</f>
         <v>55.340778931397217</v>
       </c>
-      <c r="J100" s="71" t="s">
+      <c r="J100" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K100" s="72"/>
+      <c r="K100" s="76"/>
       <c r="L100" s="34">
         <f>SUMPRODUCT(I95:I99,L95:L99)</f>
         <v>56.25</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="75" t="s">
+      <c r="A101" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="75"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="75"/>
-      <c r="G101" s="75"/>
-      <c r="H101" s="75"/>
-      <c r="I101" s="75"/>
-      <c r="J101" s="75"/>
-      <c r="K101" s="75"/>
-      <c r="L101" s="75"/>
+      <c r="B101" s="79"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="79"/>
+      <c r="F101" s="79"/>
+      <c r="G101" s="79"/>
+      <c r="H101" s="79"/>
+      <c r="I101" s="79"/>
+      <c r="J101" s="79"/>
+      <c r="K101" s="79"/>
+      <c r="L101" s="79"/>
     </row>
     <row r="102" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="76" t="s">
+      <c r="A102" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="B102" s="76"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="76" t="s">
+      <c r="B102" s="77"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
-      <c r="K102" s="76"/>
-      <c r="L102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="78"/>
     </row>
     <row r="103" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="78" t="s">
+      <c r="A103" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="79"/>
+      <c r="B103" s="69"/>
       <c r="C103" s="21">
         <v>5</v>
       </c>
-      <c r="D103" s="68" t="s">
+      <c r="D103" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="69"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="78" t="s">
+      <c r="E103" s="71"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H103" s="79"/>
+      <c r="H103" s="69"/>
       <c r="I103" s="21">
         <v>5</v>
       </c>
-      <c r="J103" s="68" t="s">
+      <c r="J103" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K103" s="69"/>
-      <c r="L103" s="70"/>
-      <c r="M103" s="68" t="s">
+      <c r="K103" s="71"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="N103" s="69"/>
-      <c r="O103" s="70"/>
+      <c r="N103" s="71"/>
+      <c r="O103" s="72"/>
       <c r="P103" s="46"/>
     </row>
     <row r="104" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -7166,10 +7165,10 @@
         <f>'Individual Treasure(2014)'!B13</f>
         <v>85.709703849023938</v>
       </c>
-      <c r="D110" s="71" t="s">
+      <c r="D110" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E110" s="72"/>
+      <c r="E110" s="76"/>
       <c r="F110" s="34">
         <f>SUMPRODUCT(C105:C109,F105:F109)</f>
         <v>85.5</v>
@@ -7182,18 +7181,18 @@
         <f>'Individual Treasure(2014)'!B13</f>
         <v>85.709703849023938</v>
       </c>
-      <c r="J110" s="71" t="s">
+      <c r="J110" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K110" s="72"/>
+      <c r="K110" s="76"/>
       <c r="L110" s="34">
         <f>SUMPRODUCT(I105:I109,L105:L109)</f>
         <v>97.5</v>
       </c>
-      <c r="M110" s="71" t="s">
+      <c r="M110" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N110" s="72"/>
+      <c r="N110" s="76"/>
       <c r="O110" s="34">
         <f>SUMPRODUCT(I105:I109,O105:O109)</f>
         <v>29.75</v>
@@ -7204,64 +7203,64 @@
       </c>
     </row>
     <row r="111" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="75" t="s">
+      <c r="A111" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="75"/>
-      <c r="C111" s="75"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="75"/>
-      <c r="G111" s="75"/>
-      <c r="H111" s="75"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="75"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="79"/>
+      <c r="I111" s="79"/>
+      <c r="J111" s="79"/>
+      <c r="K111" s="79"/>
+      <c r="L111" s="79"/>
     </row>
     <row r="112" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="76" t="s">
+      <c r="A112" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="76" t="s">
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
-      <c r="J112" s="76"/>
-      <c r="K112" s="76"/>
-      <c r="L112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="78"/>
     </row>
     <row r="113" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="78" t="s">
+      <c r="A113" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="79"/>
+      <c r="B113" s="69"/>
       <c r="C113" s="21">
         <v>5</v>
       </c>
-      <c r="D113" s="68" t="s">
+      <c r="D113" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="69"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="78" t="s">
+      <c r="E113" s="71"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H113" s="79"/>
+      <c r="H113" s="69"/>
       <c r="I113" s="21">
         <v>5</v>
       </c>
-      <c r="J113" s="68" t="s">
+      <c r="J113" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K113" s="69"/>
-      <c r="L113" s="70"/>
+      <c r="K113" s="71"/>
+      <c r="L113" s="72"/>
     </row>
     <row r="114" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="42" t="s">
@@ -7307,21 +7306,21 @@
         <v>6</v>
       </c>
       <c r="B115" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" s="31">
         <f>((B115-A115+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D115" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115" s="8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F115" s="19">
         <f>D115*E115</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G115" s="43">
         <f>I113+1</f>
@@ -7348,24 +7347,24 @@
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="43">
         <f>B115+1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B116" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C116" s="31">
         <f>((B116-A116+1)*0.05)</f>
         <v>0.25</v>
       </c>
       <c r="D116" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E116" s="8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F116" s="19">
         <f>D116*E116</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G116" s="43">
         <f>H115+1</f>
@@ -7392,20 +7391,20 @@
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="43">
         <f>B116+1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B117" s="8">
         <v>17</v>
       </c>
       <c r="C117" s="31">
         <f>((B117-A117+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D117" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F117" s="19">
         <f>D117*E117</f>
@@ -7439,11 +7438,11 @@
         <v>18</v>
       </c>
       <c r="B118" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C118" s="31">
         <f>((B118-A118+1)*0.05)</f>
-        <v>0.35000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="D118" s="18">
         <v>2</v>
@@ -7480,7 +7479,7 @@
     <row r="119" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="43">
         <f>B118+1</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B119" s="44">
         <f>20+C113</f>
@@ -7488,17 +7487,17 @@
       </c>
       <c r="C119" s="31">
         <f>((B119-A119+1)*0.05)</f>
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D119" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" s="28">
         <v>200</v>
       </c>
       <c r="F119" s="22">
         <f>D119*E119</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G119" s="43">
         <f>H118+1</f>
@@ -7532,13 +7531,13 @@
         <f>'Individual Treasure(2014)'!B14</f>
         <v>132.7439453462336</v>
       </c>
-      <c r="D120" s="71" t="s">
+      <c r="D120" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E120" s="72"/>
+      <c r="E120" s="76"/>
       <c r="F120" s="34">
         <f>SUMPRODUCT(C115:C119,F115:F119)</f>
-        <v>133</v>
+        <v>132.5</v>
       </c>
       <c r="G120" s="73" t="s">
         <v>41</v>
@@ -7548,74 +7547,74 @@
         <f>'Individual Treasure(2014)'!B14</f>
         <v>132.7439453462336</v>
       </c>
-      <c r="J120" s="71" t="s">
+      <c r="J120" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K120" s="72"/>
+      <c r="K120" s="76"/>
       <c r="L120" s="34">
         <f>SUMPRODUCT(I115:I119,L115:L119)</f>
         <v>202.5</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="75" t="s">
+      <c r="A121" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B121" s="75"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="75"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="75"/>
-      <c r="L121" s="75"/>
+      <c r="B121" s="79"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="79"/>
+      <c r="I121" s="79"/>
+      <c r="J121" s="79"/>
+      <c r="K121" s="79"/>
+      <c r="L121" s="79"/>
     </row>
     <row r="122" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B122" s="76"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="76" t="s">
+      <c r="B122" s="77"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="H122" s="76"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="76"/>
-      <c r="K122" s="76"/>
-      <c r="L122" s="77"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="77"/>
+      <c r="J122" s="77"/>
+      <c r="K122" s="77"/>
+      <c r="L122" s="78"/>
     </row>
     <row r="123" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="78" t="s">
+      <c r="A123" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="79"/>
+      <c r="B123" s="69"/>
       <c r="C123" s="21">
         <v>5</v>
       </c>
-      <c r="D123" s="68" t="s">
+      <c r="D123" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="69"/>
-      <c r="F123" s="70"/>
-      <c r="G123" s="78" t="s">
+      <c r="E123" s="71"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H123" s="79"/>
+      <c r="H123" s="69"/>
       <c r="I123" s="21">
         <v>5</v>
       </c>
-      <c r="J123" s="68" t="s">
+      <c r="J123" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K123" s="69"/>
-      <c r="L123" s="70"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="72"/>
     </row>
     <row r="124" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="42" t="s">
@@ -7886,10 +7885,10 @@
         <f>'Individual Treasure(2014)'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="D130" s="71" t="s">
+      <c r="D130" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E130" s="72"/>
+      <c r="E130" s="76"/>
       <c r="F130" s="34">
         <f>SUMPRODUCT(C125:C129,F125:F129)</f>
         <v>305</v>
@@ -7902,74 +7901,74 @@
         <f>'Individual Treasure(2014)'!B15</f>
         <v>205.58879840633722</v>
       </c>
-      <c r="J130" s="71" t="s">
+      <c r="J130" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K130" s="72"/>
+      <c r="K130" s="76"/>
       <c r="L130" s="34">
         <f>SUMPRODUCT(I125:I129,L125:L129)</f>
         <v>205.5</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="75" t="s">
+      <c r="A131" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B131" s="75"/>
-      <c r="C131" s="75"/>
-      <c r="D131" s="75"/>
-      <c r="E131" s="75"/>
-      <c r="F131" s="75"/>
-      <c r="G131" s="75"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="75"/>
-      <c r="J131" s="75"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="75"/>
+      <c r="B131" s="79"/>
+      <c r="C131" s="79"/>
+      <c r="D131" s="79"/>
+      <c r="E131" s="79"/>
+      <c r="F131" s="79"/>
+      <c r="G131" s="79"/>
+      <c r="H131" s="79"/>
+      <c r="I131" s="79"/>
+      <c r="J131" s="79"/>
+      <c r="K131" s="79"/>
+      <c r="L131" s="79"/>
     </row>
     <row r="132" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="76" t="s">
+      <c r="A132" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="76"/>
-      <c r="C132" s="76"/>
-      <c r="D132" s="76"/>
-      <c r="E132" s="76"/>
-      <c r="F132" s="77"/>
-      <c r="G132" s="76" t="s">
+      <c r="B132" s="77"/>
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
+      <c r="F132" s="78"/>
+      <c r="G132" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="H132" s="76"/>
-      <c r="I132" s="76"/>
-      <c r="J132" s="76"/>
-      <c r="K132" s="76"/>
-      <c r="L132" s="77"/>
+      <c r="H132" s="77"/>
+      <c r="I132" s="77"/>
+      <c r="J132" s="77"/>
+      <c r="K132" s="77"/>
+      <c r="L132" s="78"/>
     </row>
     <row r="133" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="78" t="s">
+      <c r="A133" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B133" s="79"/>
+      <c r="B133" s="69"/>
       <c r="C133" s="21">
         <v>7</v>
       </c>
-      <c r="D133" s="68" t="s">
+      <c r="D133" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="69"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="78" t="s">
+      <c r="E133" s="71"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H133" s="79"/>
+      <c r="H133" s="69"/>
       <c r="I133" s="21">
         <v>7</v>
       </c>
-      <c r="J133" s="68" t="s">
+      <c r="J133" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K133" s="69"/>
-      <c r="L133" s="70"/>
+      <c r="K133" s="71"/>
+      <c r="L133" s="72"/>
     </row>
     <row r="134" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="42" t="s">
@@ -8015,21 +8014,21 @@
         <v>8</v>
       </c>
       <c r="B135" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" s="31">
         <f>((B135-A135+1)*0.05)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D135" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135" s="8">
         <v>50</v>
       </c>
       <c r="F135" s="19">
         <f>D135*E135</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G135" s="43">
         <f>I133+1</f>
@@ -8056,24 +8055,24 @@
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="43">
         <f>B135+1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B136" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C136" s="31">
         <f>((B136-A136+1)*0.05)</f>
-        <v>0.15000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D136" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F136" s="19">
         <f>D136*E136</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G136" s="43">
         <f>H135+1</f>
@@ -8100,24 +8099,24 @@
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="43">
         <f>B136+1</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B137" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C137" s="31">
         <f>((B137-A137+1)*0.05)</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="D137" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E137" s="8">
         <v>100</v>
       </c>
       <c r="F137" s="19">
         <f>D137*E137</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G137" s="43">
         <f>H136+1</f>
@@ -8144,24 +8143,24 @@
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="43">
         <f>B137+1</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B138" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C138" s="31">
         <f>((B138-A138+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D138" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138" s="8">
         <v>200</v>
       </c>
       <c r="F138" s="19">
         <f>D138*E138</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G138" s="43">
         <f>H137+1</f>
@@ -8188,7 +8187,7 @@
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="43">
         <f>B138+1</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B139" s="44">
         <f>20+C133</f>
@@ -8196,17 +8195,17 @@
       </c>
       <c r="C139" s="31">
         <f>((B139-A139+1)*0.05)</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D139" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E139" s="28">
         <v>200</v>
       </c>
       <c r="F139" s="22">
         <f>D139*E139</f>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G139" s="43">
         <f>H138+1</f>
@@ -8240,13 +8239,13 @@
         <f>'Individual Treasure(2014)'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="D140" s="71" t="s">
+      <c r="D140" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E140" s="72"/>
+      <c r="E140" s="76"/>
       <c r="F140" s="34">
         <f>SUMPRODUCT(C135:C139,F135:F139)</f>
-        <v>317.5</v>
+        <v>460</v>
       </c>
       <c r="G140" s="73" t="s">
         <v>41</v>
@@ -8256,54 +8255,54 @@
         <f>'Individual Treasure(2014)'!B16</f>
         <v>318.40814976470659</v>
       </c>
-      <c r="J140" s="71" t="s">
+      <c r="J140" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K140" s="72"/>
+      <c r="K140" s="76"/>
       <c r="L140" s="34">
         <f>SUMPRODUCT(I135:I139,L135:L139)</f>
         <v>505</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="75" t="s">
+      <c r="A141" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="75"/>
-      <c r="C141" s="75"/>
-      <c r="D141" s="75"/>
-      <c r="E141" s="75"/>
-      <c r="F141" s="75"/>
-      <c r="G141" s="75"/>
-      <c r="H141" s="75"/>
-      <c r="I141" s="75"/>
-      <c r="J141" s="75"/>
-      <c r="K141" s="75"/>
-      <c r="L141" s="75"/>
+      <c r="B141" s="79"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="79"/>
+      <c r="F141" s="79"/>
+      <c r="G141" s="79"/>
+      <c r="H141" s="79"/>
+      <c r="I141" s="79"/>
+      <c r="J141" s="79"/>
+      <c r="K141" s="79"/>
+      <c r="L141" s="79"/>
     </row>
     <row r="142" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="76" t="s">
+      <c r="A142" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="B142" s="76"/>
-      <c r="C142" s="76"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="76"/>
-      <c r="F142" s="77"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="78"/>
     </row>
     <row r="143" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="78" t="s">
+      <c r="A143" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="79"/>
+      <c r="B143" s="69"/>
       <c r="C143" s="21">
         <v>7</v>
       </c>
-      <c r="D143" s="68" t="s">
+      <c r="D143" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="69"/>
-      <c r="F143" s="70"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="72"/>
     </row>
     <row r="144" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="42" t="s">
@@ -8450,74 +8449,74 @@
         <f>'Individual Treasure(2014)'!B17</f>
         <v>493.13849111663814</v>
       </c>
-      <c r="D150" s="71" t="s">
+      <c r="D150" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E150" s="72"/>
+      <c r="E150" s="76"/>
       <c r="F150" s="34">
         <f>SUMPRODUCT(C145:C149,F145:F149)</f>
         <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="75" t="s">
+      <c r="A151" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B151" s="75"/>
-      <c r="C151" s="75"/>
-      <c r="D151" s="75"/>
-      <c r="E151" s="75"/>
-      <c r="F151" s="75"/>
-      <c r="G151" s="75"/>
-      <c r="H151" s="75"/>
-      <c r="I151" s="75"/>
-      <c r="J151" s="75"/>
-      <c r="K151" s="75"/>
-      <c r="L151" s="75"/>
+      <c r="B151" s="79"/>
+      <c r="C151" s="79"/>
+      <c r="D151" s="79"/>
+      <c r="E151" s="79"/>
+      <c r="F151" s="79"/>
+      <c r="G151" s="79"/>
+      <c r="H151" s="79"/>
+      <c r="I151" s="79"/>
+      <c r="J151" s="79"/>
+      <c r="K151" s="79"/>
+      <c r="L151" s="79"/>
     </row>
     <row r="152" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="76" t="s">
+      <c r="A152" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B152" s="76"/>
-      <c r="C152" s="76"/>
-      <c r="D152" s="76"/>
-      <c r="E152" s="76"/>
-      <c r="F152" s="77"/>
-      <c r="G152" s="76" t="s">
+      <c r="B152" s="77"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="77"/>
+      <c r="E152" s="77"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="H152" s="76"/>
-      <c r="I152" s="76"/>
-      <c r="J152" s="76"/>
-      <c r="K152" s="76"/>
-      <c r="L152" s="77"/>
+      <c r="H152" s="77"/>
+      <c r="I152" s="77"/>
+      <c r="J152" s="77"/>
+      <c r="K152" s="77"/>
+      <c r="L152" s="78"/>
     </row>
     <row r="153" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="78" t="s">
+      <c r="A153" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B153" s="79"/>
+      <c r="B153" s="69"/>
       <c r="C153" s="21">
         <v>7</v>
       </c>
-      <c r="D153" s="68" t="s">
+      <c r="D153" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="69"/>
-      <c r="F153" s="70"/>
-      <c r="G153" s="78" t="s">
+      <c r="E153" s="71"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H153" s="79"/>
+      <c r="H153" s="69"/>
       <c r="I153" s="21">
         <v>7</v>
       </c>
-      <c r="J153" s="68" t="s">
+      <c r="J153" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K153" s="69"/>
-      <c r="L153" s="70"/>
+      <c r="K153" s="71"/>
+      <c r="L153" s="72"/>
     </row>
     <row r="154" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="42" t="s">
@@ -8788,10 +8787,10 @@
         <f>'Individual Treasure(2014)'!B18</f>
         <v>763.75423053869986</v>
       </c>
-      <c r="D160" s="71" t="s">
+      <c r="D160" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="72"/>
+      <c r="E160" s="76"/>
       <c r="F160" s="34">
         <f>SUMPRODUCT(C155:C159,F155:F159)</f>
         <v>760</v>
@@ -8804,54 +8803,54 @@
         <f>'Individual Treasure(2014)'!B18</f>
         <v>763.75423053869986</v>
       </c>
-      <c r="J160" s="71" t="s">
+      <c r="J160" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K160" s="72"/>
+      <c r="K160" s="76"/>
       <c r="L160" s="34">
         <f>SUMPRODUCT(I155:I159,L155:L159)</f>
         <v>770</v>
       </c>
     </row>
     <row r="161" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="75" t="s">
+      <c r="A161" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B161" s="75"/>
-      <c r="C161" s="75"/>
-      <c r="D161" s="75"/>
-      <c r="E161" s="75"/>
-      <c r="F161" s="75"/>
-      <c r="G161" s="75"/>
-      <c r="H161" s="75"/>
-      <c r="I161" s="75"/>
-      <c r="J161" s="75"/>
-      <c r="K161" s="75"/>
-      <c r="L161" s="75"/>
+      <c r="B161" s="79"/>
+      <c r="C161" s="79"/>
+      <c r="D161" s="79"/>
+      <c r="E161" s="79"/>
+      <c r="F161" s="79"/>
+      <c r="G161" s="79"/>
+      <c r="H161" s="79"/>
+      <c r="I161" s="79"/>
+      <c r="J161" s="79"/>
+      <c r="K161" s="79"/>
+      <c r="L161" s="79"/>
     </row>
     <row r="162" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="76" t="s">
+      <c r="A162" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B162" s="76"/>
-      <c r="C162" s="76"/>
-      <c r="D162" s="76"/>
-      <c r="E162" s="76"/>
-      <c r="F162" s="77"/>
+      <c r="B162" s="77"/>
+      <c r="C162" s="77"/>
+      <c r="D162" s="77"/>
+      <c r="E162" s="77"/>
+      <c r="F162" s="78"/>
     </row>
     <row r="163" spans="1:16" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="78" t="s">
+      <c r="A163" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B163" s="79"/>
+      <c r="B163" s="69"/>
       <c r="C163" s="21">
         <v>7</v>
       </c>
-      <c r="D163" s="68" t="s">
+      <c r="D163" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E163" s="69"/>
-      <c r="F163" s="70"/>
+      <c r="E163" s="71"/>
+      <c r="F163" s="72"/>
     </row>
     <row r="164" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="42" t="s">
@@ -8998,79 +8997,79 @@
         <f>'Individual Treasure(2014)'!B19</f>
         <v>1182.8736453829017</v>
       </c>
-      <c r="D170" s="71" t="s">
+      <c r="D170" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E170" s="72"/>
+      <c r="E170" s="76"/>
       <c r="F170" s="34">
         <f>SUMPRODUCT(C165:C169,F165:F169)</f>
         <v>1122.5</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="75" t="s">
+      <c r="A171" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B171" s="75"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="75"/>
-      <c r="E171" s="75"/>
-      <c r="F171" s="75"/>
-      <c r="G171" s="75"/>
-      <c r="H171" s="75"/>
-      <c r="I171" s="75"/>
-      <c r="J171" s="75"/>
-      <c r="K171" s="75"/>
-      <c r="L171" s="75"/>
+      <c r="B171" s="79"/>
+      <c r="C171" s="79"/>
+      <c r="D171" s="79"/>
+      <c r="E171" s="79"/>
+      <c r="F171" s="79"/>
+      <c r="G171" s="79"/>
+      <c r="H171" s="79"/>
+      <c r="I171" s="79"/>
+      <c r="J171" s="79"/>
+      <c r="K171" s="79"/>
+      <c r="L171" s="79"/>
     </row>
     <row r="172" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="76" t="s">
+      <c r="A172" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="76"/>
-      <c r="C172" s="76"/>
-      <c r="D172" s="76"/>
-      <c r="E172" s="76"/>
-      <c r="F172" s="77"/>
-      <c r="G172" s="76" t="s">
+      <c r="B172" s="77"/>
+      <c r="C172" s="77"/>
+      <c r="D172" s="77"/>
+      <c r="E172" s="77"/>
+      <c r="F172" s="78"/>
+      <c r="G172" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="H172" s="76"/>
-      <c r="I172" s="76"/>
-      <c r="J172" s="76"/>
-      <c r="K172" s="76"/>
-      <c r="L172" s="77"/>
+      <c r="H172" s="77"/>
+      <c r="I172" s="77"/>
+      <c r="J172" s="77"/>
+      <c r="K172" s="77"/>
+      <c r="L172" s="78"/>
     </row>
     <row r="173" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="78" t="s">
+      <c r="A173" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B173" s="79"/>
+      <c r="B173" s="69"/>
       <c r="C173" s="21">
         <v>7</v>
       </c>
-      <c r="D173" s="68" t="s">
+      <c r="D173" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E173" s="69"/>
-      <c r="F173" s="70"/>
-      <c r="G173" s="78" t="s">
+      <c r="E173" s="71"/>
+      <c r="F173" s="72"/>
+      <c r="G173" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H173" s="79"/>
+      <c r="H173" s="69"/>
       <c r="I173" s="21">
         <v>5</v>
       </c>
-      <c r="J173" s="68" t="s">
+      <c r="J173" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K173" s="69"/>
-      <c r="L173" s="70"/>
-      <c r="M173" s="68" t="s">
+      <c r="K173" s="71"/>
+      <c r="L173" s="72"/>
+      <c r="M173" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="N173" s="69"/>
-      <c r="O173" s="70"/>
+      <c r="N173" s="71"/>
+      <c r="O173" s="72"/>
       <c r="P173" s="46"/>
     </row>
     <row r="174" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -9424,10 +9423,10 @@
         <f>'Individual Treasure(2014)'!B20</f>
         <v>1831.989932094441</v>
       </c>
-      <c r="D180" s="71" t="s">
+      <c r="D180" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E180" s="72"/>
+      <c r="E180" s="76"/>
       <c r="F180" s="34">
         <f>SUMPRODUCT(C175:C179,F175:F179)</f>
         <v>3550</v>
@@ -9440,18 +9439,18 @@
         <f>'Individual Treasure(2014)'!B20</f>
         <v>1831.989932094441</v>
       </c>
-      <c r="J180" s="71" t="s">
+      <c r="J180" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K180" s="72"/>
+      <c r="K180" s="76"/>
       <c r="L180" s="34">
         <f>SUMPRODUCT(I175:I179,L175:L179)</f>
         <v>1225</v>
       </c>
-      <c r="M180" s="71" t="s">
+      <c r="M180" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N180" s="72"/>
+      <c r="N180" s="76"/>
       <c r="O180" s="34">
         <f>SUMPRODUCT(I175:I179,O175:O179)</f>
         <v>660</v>
@@ -9462,44 +9461,44 @@
       </c>
     </row>
     <row r="181" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="75" t="s">
+      <c r="A181" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B181" s="75"/>
-      <c r="C181" s="75"/>
-      <c r="D181" s="75"/>
-      <c r="E181" s="75"/>
-      <c r="F181" s="75"/>
-      <c r="G181" s="75"/>
-      <c r="H181" s="75"/>
-      <c r="I181" s="75"/>
-      <c r="J181" s="75"/>
-      <c r="K181" s="75"/>
-      <c r="L181" s="75"/>
+      <c r="B181" s="79"/>
+      <c r="C181" s="79"/>
+      <c r="D181" s="79"/>
+      <c r="E181" s="79"/>
+      <c r="F181" s="79"/>
+      <c r="G181" s="79"/>
+      <c r="H181" s="79"/>
+      <c r="I181" s="79"/>
+      <c r="J181" s="79"/>
+      <c r="K181" s="79"/>
+      <c r="L181" s="79"/>
     </row>
     <row r="182" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="76" t="s">
+      <c r="A182" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B182" s="76"/>
-      <c r="C182" s="76"/>
-      <c r="D182" s="76"/>
-      <c r="E182" s="76"/>
-      <c r="F182" s="77"/>
+      <c r="B182" s="77"/>
+      <c r="C182" s="77"/>
+      <c r="D182" s="77"/>
+      <c r="E182" s="77"/>
+      <c r="F182" s="78"/>
     </row>
     <row r="183" spans="1:16" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="78" t="s">
+      <c r="A183" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B183" s="79"/>
+      <c r="B183" s="69"/>
       <c r="C183" s="21">
         <v>7</v>
       </c>
-      <c r="D183" s="68" t="s">
+      <c r="D183" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E183" s="69"/>
-      <c r="F183" s="70"/>
+      <c r="E183" s="71"/>
+      <c r="F183" s="72"/>
     </row>
     <row r="184" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="42" t="s">
@@ -9646,54 +9645,54 @@
         <f>'Individual Treasure(2014)'!B21</f>
         <v>2837.3166689405625</v>
       </c>
-      <c r="D190" s="71" t="s">
+      <c r="D190" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E190" s="72"/>
+      <c r="E190" s="76"/>
       <c r="F190" s="34">
         <f>SUMPRODUCT(C185:C189,F185:F189)</f>
         <v>2850</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="75" t="s">
+      <c r="A191" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B191" s="75"/>
-      <c r="C191" s="75"/>
-      <c r="D191" s="75"/>
-      <c r="E191" s="75"/>
-      <c r="F191" s="75"/>
-      <c r="G191" s="75"/>
-      <c r="H191" s="75"/>
-      <c r="I191" s="75"/>
-      <c r="J191" s="75"/>
-      <c r="K191" s="75"/>
-      <c r="L191" s="75"/>
+      <c r="B191" s="79"/>
+      <c r="C191" s="79"/>
+      <c r="D191" s="79"/>
+      <c r="E191" s="79"/>
+      <c r="F191" s="79"/>
+      <c r="G191" s="79"/>
+      <c r="H191" s="79"/>
+      <c r="I191" s="79"/>
+      <c r="J191" s="79"/>
+      <c r="K191" s="79"/>
+      <c r="L191" s="79"/>
     </row>
     <row r="192" spans="1:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="76" t="s">
+      <c r="A192" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B192" s="76"/>
-      <c r="C192" s="76"/>
-      <c r="D192" s="76"/>
-      <c r="E192" s="76"/>
-      <c r="F192" s="77"/>
+      <c r="B192" s="77"/>
+      <c r="C192" s="77"/>
+      <c r="D192" s="77"/>
+      <c r="E192" s="77"/>
+      <c r="F192" s="78"/>
     </row>
     <row r="193" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A193" s="78" t="s">
+      <c r="A193" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B193" s="79"/>
+      <c r="B193" s="69"/>
       <c r="C193" s="21">
         <v>7</v>
       </c>
-      <c r="D193" s="68" t="s">
+      <c r="D193" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E193" s="69"/>
-      <c r="F193" s="70"/>
+      <c r="E193" s="71"/>
+      <c r="F193" s="72"/>
     </row>
     <row r="194" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="42" t="s">
@@ -9840,94 +9839,94 @@
         <f>'Individual Treasure(2014)'!B22</f>
         <v>4394.3286689596089</v>
       </c>
-      <c r="D200" s="71" t="s">
+      <c r="D200" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E200" s="72"/>
+      <c r="E200" s="76"/>
       <c r="F200" s="34">
         <f>SUMPRODUCT(C195:C199,F195:F199)</f>
         <v>4350</v>
       </c>
     </row>
     <row r="201" spans="1:18" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="75" t="s">
+      <c r="A201" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B201" s="75"/>
-      <c r="C201" s="75"/>
-      <c r="D201" s="75"/>
-      <c r="E201" s="75"/>
-      <c r="F201" s="75"/>
-      <c r="G201" s="75"/>
-      <c r="H201" s="75"/>
-      <c r="I201" s="75"/>
-      <c r="J201" s="75"/>
-      <c r="K201" s="75"/>
-      <c r="L201" s="75"/>
+      <c r="B201" s="79"/>
+      <c r="C201" s="79"/>
+      <c r="D201" s="79"/>
+      <c r="E201" s="79"/>
+      <c r="F201" s="79"/>
+      <c r="G201" s="79"/>
+      <c r="H201" s="79"/>
+      <c r="I201" s="79"/>
+      <c r="J201" s="79"/>
+      <c r="K201" s="79"/>
+      <c r="L201" s="79"/>
     </row>
     <row r="202" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="76" t="s">
+      <c r="A202" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B202" s="76"/>
-      <c r="C202" s="76"/>
-      <c r="D202" s="76"/>
-      <c r="E202" s="76"/>
-      <c r="F202" s="77"/>
-      <c r="G202" s="76" t="s">
+      <c r="B202" s="77"/>
+      <c r="C202" s="77"/>
+      <c r="D202" s="77"/>
+      <c r="E202" s="77"/>
+      <c r="F202" s="78"/>
+      <c r="G202" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="H202" s="76"/>
-      <c r="I202" s="76"/>
-      <c r="J202" s="76"/>
-      <c r="K202" s="76"/>
-      <c r="L202" s="77"/>
-      <c r="M202" s="76" t="s">
+      <c r="H202" s="77"/>
+      <c r="I202" s="77"/>
+      <c r="J202" s="77"/>
+      <c r="K202" s="77"/>
+      <c r="L202" s="78"/>
+      <c r="M202" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="N202" s="76"/>
-      <c r="O202" s="76"/>
-      <c r="P202" s="76"/>
-      <c r="Q202" s="76"/>
-      <c r="R202" s="77"/>
+      <c r="N202" s="77"/>
+      <c r="O202" s="77"/>
+      <c r="P202" s="77"/>
+      <c r="Q202" s="77"/>
+      <c r="R202" s="78"/>
     </row>
     <row r="203" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A203" s="78" t="s">
+      <c r="A203" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B203" s="79"/>
+      <c r="B203" s="69"/>
       <c r="C203" s="21">
         <v>7</v>
       </c>
-      <c r="D203" s="68" t="s">
+      <c r="D203" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E203" s="69"/>
-      <c r="F203" s="70"/>
-      <c r="G203" s="78" t="s">
+      <c r="E203" s="71"/>
+      <c r="F203" s="72"/>
+      <c r="G203" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H203" s="79"/>
+      <c r="H203" s="69"/>
       <c r="I203" s="21">
         <v>7</v>
       </c>
-      <c r="J203" s="68" t="s">
+      <c r="J203" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K203" s="69"/>
-      <c r="L203" s="70"/>
-      <c r="M203" s="78" t="s">
+      <c r="K203" s="71"/>
+      <c r="L203" s="72"/>
+      <c r="M203" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="N203" s="79"/>
+      <c r="N203" s="69"/>
       <c r="O203" s="21">
         <v>7</v>
       </c>
-      <c r="P203" s="68" t="s">
+      <c r="P203" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="Q203" s="69"/>
-      <c r="R203" s="70"/>
+      <c r="Q203" s="71"/>
+      <c r="R203" s="72"/>
     </row>
     <row r="204" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A204" s="42" t="s">
@@ -10322,10 +10321,10 @@
         <f>'Individual Treasure(2014)'!B23</f>
         <v>6805.7699241764976</v>
       </c>
-      <c r="D210" s="71" t="s">
+      <c r="D210" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E210" s="72"/>
+      <c r="E210" s="76"/>
       <c r="F210" s="34">
         <f>SUMPRODUCT(C205:C209,F205:F209)</f>
         <v>6850</v>
@@ -10338,10 +10337,10 @@
         <f>'Individual Treasure(2014)'!B23</f>
         <v>6805.7699241764976</v>
       </c>
-      <c r="J210" s="71" t="s">
+      <c r="J210" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K210" s="72"/>
+      <c r="K210" s="76"/>
       <c r="L210" s="34">
         <f>SUMPRODUCT(I205:I209,L205:L209)</f>
         <v>2800</v>
@@ -10354,10 +10353,10 @@
         <f>'Individual Treasure(2014)'!B23</f>
         <v>6805.7699241764976</v>
       </c>
-      <c r="P210" s="71" t="s">
+      <c r="P210" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="Q210" s="72"/>
+      <c r="Q210" s="76"/>
       <c r="R210" s="34">
         <f>SUMPRODUCT(O205:O209,R205:R209)</f>
         <v>5000</v>
@@ -10368,84 +10367,84 @@
       </c>
     </row>
     <row r="211" spans="1:19" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="75" t="s">
+      <c r="A211" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B211" s="75"/>
-      <c r="C211" s="75"/>
-      <c r="D211" s="75"/>
-      <c r="E211" s="75"/>
-      <c r="F211" s="75"/>
-      <c r="G211" s="75"/>
-      <c r="H211" s="75"/>
-      <c r="I211" s="75"/>
-      <c r="J211" s="75"/>
-      <c r="K211" s="75"/>
-      <c r="L211" s="75"/>
+      <c r="B211" s="79"/>
+      <c r="C211" s="79"/>
+      <c r="D211" s="79"/>
+      <c r="E211" s="79"/>
+      <c r="F211" s="79"/>
+      <c r="G211" s="79"/>
+      <c r="H211" s="79"/>
+      <c r="I211" s="79"/>
+      <c r="J211" s="79"/>
+      <c r="K211" s="79"/>
+      <c r="L211" s="79"/>
     </row>
     <row r="212" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" s="76" t="s">
+      <c r="A212" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="B212" s="76"/>
-      <c r="C212" s="76"/>
-      <c r="D212" s="76"/>
-      <c r="E212" s="76"/>
-      <c r="F212" s="77"/>
-      <c r="G212" s="76" t="s">
+      <c r="B212" s="77"/>
+      <c r="C212" s="77"/>
+      <c r="D212" s="77"/>
+      <c r="E212" s="77"/>
+      <c r="F212" s="78"/>
+      <c r="G212" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="H212" s="76"/>
-      <c r="I212" s="76"/>
-      <c r="J212" s="76"/>
-      <c r="K212" s="76"/>
-      <c r="L212" s="77"/>
-      <c r="M212" s="76" t="s">
+      <c r="H212" s="77"/>
+      <c r="I212" s="77"/>
+      <c r="J212" s="77"/>
+      <c r="K212" s="77"/>
+      <c r="L212" s="78"/>
+      <c r="M212" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="N212" s="76"/>
-      <c r="O212" s="76"/>
-      <c r="P212" s="76"/>
-      <c r="Q212" s="76"/>
-      <c r="R212" s="77"/>
+      <c r="N212" s="77"/>
+      <c r="O212" s="77"/>
+      <c r="P212" s="77"/>
+      <c r="Q212" s="77"/>
+      <c r="R212" s="78"/>
     </row>
     <row r="213" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A213" s="78" t="s">
+      <c r="A213" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B213" s="79"/>
+      <c r="B213" s="69"/>
       <c r="C213" s="21">
         <v>7</v>
       </c>
-      <c r="D213" s="68" t="s">
+      <c r="D213" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E213" s="69"/>
-      <c r="F213" s="70"/>
-      <c r="G213" s="78" t="s">
+      <c r="E213" s="71"/>
+      <c r="F213" s="72"/>
+      <c r="G213" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H213" s="79"/>
+      <c r="H213" s="69"/>
       <c r="I213" s="21">
         <v>7</v>
       </c>
-      <c r="J213" s="68" t="s">
+      <c r="J213" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K213" s="69"/>
-      <c r="L213" s="70"/>
-      <c r="M213" s="78" t="s">
+      <c r="K213" s="71"/>
+      <c r="L213" s="72"/>
+      <c r="M213" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="N213" s="79"/>
+      <c r="N213" s="69"/>
       <c r="O213" s="21">
         <v>7</v>
       </c>
-      <c r="P213" s="68" t="s">
+      <c r="P213" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="Q213" s="69"/>
-      <c r="R213" s="70"/>
+      <c r="Q213" s="71"/>
+      <c r="R213" s="72"/>
     </row>
     <row r="214" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A214" s="42" t="s">
@@ -10840,10 +10839,10 @@
         <f>'Individual Treasure(2014)'!B24</f>
         <v>10540.518871063789</v>
       </c>
-      <c r="D220" s="71" t="s">
+      <c r="D220" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E220" s="72"/>
+      <c r="E220" s="76"/>
       <c r="F220" s="34">
         <f>SUMPRODUCT(C215:C219,F215:F219)</f>
         <v>11050</v>
@@ -10856,10 +10855,10 @@
         <f>'Individual Treasure(2014)'!B24</f>
         <v>10540.518871063789</v>
       </c>
-      <c r="J220" s="71" t="s">
+      <c r="J220" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K220" s="72"/>
+      <c r="K220" s="76"/>
       <c r="L220" s="34">
         <f>SUMPRODUCT(I215:I219,L215:L219)</f>
         <v>5450</v>
@@ -10872,10 +10871,10 @@
         <f>'Individual Treasure(2014)'!B24</f>
         <v>10540.518871063789</v>
       </c>
-      <c r="P220" s="71" t="s">
+      <c r="P220" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="Q220" s="72"/>
+      <c r="Q220" s="76"/>
       <c r="R220" s="34">
         <f>SUMPRODUCT(O215:O219,R215:R219)</f>
         <v>2300</v>
@@ -10886,64 +10885,64 @@
       </c>
     </row>
     <row r="221" spans="1:19" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="75" t="s">
+      <c r="A221" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B221" s="75"/>
-      <c r="C221" s="75"/>
-      <c r="D221" s="75"/>
-      <c r="E221" s="75"/>
-      <c r="F221" s="75"/>
-      <c r="G221" s="75"/>
-      <c r="H221" s="75"/>
-      <c r="I221" s="75"/>
-      <c r="J221" s="75"/>
-      <c r="K221" s="75"/>
-      <c r="L221" s="75"/>
+      <c r="B221" s="79"/>
+      <c r="C221" s="79"/>
+      <c r="D221" s="79"/>
+      <c r="E221" s="79"/>
+      <c r="F221" s="79"/>
+      <c r="G221" s="79"/>
+      <c r="H221" s="79"/>
+      <c r="I221" s="79"/>
+      <c r="J221" s="79"/>
+      <c r="K221" s="79"/>
+      <c r="L221" s="79"/>
     </row>
     <row r="222" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A222" s="76" t="s">
+      <c r="A222" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B222" s="76"/>
-      <c r="C222" s="76"/>
-      <c r="D222" s="76"/>
-      <c r="E222" s="76"/>
-      <c r="F222" s="77"/>
-      <c r="G222" s="76" t="s">
+      <c r="B222" s="77"/>
+      <c r="C222" s="77"/>
+      <c r="D222" s="77"/>
+      <c r="E222" s="77"/>
+      <c r="F222" s="78"/>
+      <c r="G222" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="H222" s="76"/>
-      <c r="I222" s="76"/>
-      <c r="J222" s="76"/>
-      <c r="K222" s="76"/>
-      <c r="L222" s="77"/>
+      <c r="H222" s="77"/>
+      <c r="I222" s="77"/>
+      <c r="J222" s="77"/>
+      <c r="K222" s="77"/>
+      <c r="L222" s="78"/>
     </row>
     <row r="223" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A223" s="78" t="s">
+      <c r="A223" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B223" s="79"/>
+      <c r="B223" s="69"/>
       <c r="C223" s="21">
         <v>7</v>
       </c>
-      <c r="D223" s="68" t="s">
+      <c r="D223" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E223" s="69"/>
-      <c r="F223" s="70"/>
-      <c r="G223" s="78" t="s">
+      <c r="E223" s="71"/>
+      <c r="F223" s="72"/>
+      <c r="G223" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H223" s="79"/>
+      <c r="H223" s="69"/>
       <c r="I223" s="21">
         <v>7</v>
       </c>
-      <c r="J223" s="68" t="s">
+      <c r="J223" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K223" s="69"/>
-      <c r="L223" s="70"/>
+      <c r="K223" s="71"/>
+      <c r="L223" s="72"/>
     </row>
     <row r="224" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="42" t="s">
@@ -11214,10 +11213,10 @@
         <f>'Individual Treasure(2014)'!B25</f>
         <v>16324.756685731661</v>
       </c>
-      <c r="D230" s="71" t="s">
+      <c r="D230" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E230" s="72"/>
+      <c r="E230" s="76"/>
       <c r="F230" s="34">
         <f>SUMPRODUCT(C225:C229,F225:F229)</f>
         <v>16900</v>
@@ -11230,54 +11229,54 @@
         <f>'Individual Treasure(2014)'!B25</f>
         <v>16324.756685731661</v>
       </c>
-      <c r="J230" s="71" t="s">
+      <c r="J230" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K230" s="72"/>
+      <c r="K230" s="76"/>
       <c r="L230" s="34">
         <f>SUMPRODUCT(I225:I229,L225:L229)</f>
         <v>17250</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="75" t="s">
+      <c r="A231" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B231" s="75"/>
-      <c r="C231" s="75"/>
-      <c r="D231" s="75"/>
-      <c r="E231" s="75"/>
-      <c r="F231" s="75"/>
-      <c r="G231" s="75"/>
-      <c r="H231" s="75"/>
-      <c r="I231" s="75"/>
-      <c r="J231" s="75"/>
-      <c r="K231" s="75"/>
-      <c r="L231" s="75"/>
+      <c r="B231" s="79"/>
+      <c r="C231" s="79"/>
+      <c r="D231" s="79"/>
+      <c r="E231" s="79"/>
+      <c r="F231" s="79"/>
+      <c r="G231" s="79"/>
+      <c r="H231" s="79"/>
+      <c r="I231" s="79"/>
+      <c r="J231" s="79"/>
+      <c r="K231" s="79"/>
+      <c r="L231" s="79"/>
     </row>
     <row r="232" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="76" t="s">
+      <c r="A232" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="B232" s="76"/>
-      <c r="C232" s="76"/>
-      <c r="D232" s="76"/>
-      <c r="E232" s="76"/>
-      <c r="F232" s="77"/>
+      <c r="B232" s="77"/>
+      <c r="C232" s="77"/>
+      <c r="D232" s="77"/>
+      <c r="E232" s="77"/>
+      <c r="F232" s="78"/>
     </row>
     <row r="233" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="78" t="s">
+      <c r="A233" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B233" s="79"/>
+      <c r="B233" s="69"/>
       <c r="C233" s="21">
         <v>7</v>
       </c>
-      <c r="D233" s="68" t="s">
+      <c r="D233" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E233" s="69"/>
-      <c r="F233" s="70"/>
+      <c r="E233" s="71"/>
+      <c r="F233" s="72"/>
     </row>
     <row r="234" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="42" t="s">
@@ -11424,54 +11423,54 @@
         <f>'Individual Treasure(2014)'!B27</f>
         <v>39157.609472169628</v>
       </c>
-      <c r="D240" s="71" t="s">
+      <c r="D240" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E240" s="72"/>
+      <c r="E240" s="76"/>
       <c r="F240" s="34">
         <f>SUMPRODUCT(C235:C239,F235:F239)</f>
         <v>39000</v>
       </c>
     </row>
     <row r="241" spans="1:18" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A241" s="75" t="s">
+      <c r="A241" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B241" s="75"/>
-      <c r="C241" s="75"/>
-      <c r="D241" s="75"/>
-      <c r="E241" s="75"/>
-      <c r="F241" s="75"/>
-      <c r="G241" s="75"/>
-      <c r="H241" s="75"/>
-      <c r="I241" s="75"/>
-      <c r="J241" s="75"/>
-      <c r="K241" s="75"/>
-      <c r="L241" s="75"/>
+      <c r="B241" s="79"/>
+      <c r="C241" s="79"/>
+      <c r="D241" s="79"/>
+      <c r="E241" s="79"/>
+      <c r="F241" s="79"/>
+      <c r="G241" s="79"/>
+      <c r="H241" s="79"/>
+      <c r="I241" s="79"/>
+      <c r="J241" s="79"/>
+      <c r="K241" s="79"/>
+      <c r="L241" s="79"/>
     </row>
     <row r="242" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242" s="76" t="s">
+      <c r="A242" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="B242" s="76"/>
-      <c r="C242" s="76"/>
-      <c r="D242" s="76"/>
-      <c r="E242" s="76"/>
-      <c r="F242" s="77"/>
+      <c r="B242" s="77"/>
+      <c r="C242" s="77"/>
+      <c r="D242" s="77"/>
+      <c r="E242" s="77"/>
+      <c r="F242" s="78"/>
     </row>
     <row r="243" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A243" s="78" t="s">
+      <c r="A243" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B243" s="79"/>
+      <c r="B243" s="69"/>
       <c r="C243" s="21">
         <v>7</v>
       </c>
-      <c r="D243" s="68" t="s">
+      <c r="D243" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E243" s="69"/>
-      <c r="F243" s="70"/>
+      <c r="E243" s="71"/>
+      <c r="F243" s="72"/>
     </row>
     <row r="244" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A244" s="42" t="s">
@@ -11506,14 +11505,14 @@
         <v>0.05</v>
       </c>
       <c r="D245" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E245" s="8">
         <v>5000</v>
       </c>
       <c r="F245" s="19">
         <f>D245*E245</f>
-        <v>25000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.35">
@@ -11529,14 +11528,14 @@
         <v>0.1</v>
       </c>
       <c r="D246" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E246" s="8">
         <v>10000</v>
       </c>
       <c r="F246" s="19">
         <f>D246*E246</f>
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.35">
@@ -11552,14 +11551,14 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="D247" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E247" s="8">
         <v>10000</v>
       </c>
       <c r="F247" s="19">
         <f>D247*E247</f>
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.35">
@@ -11575,14 +11574,14 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="D248" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E248" s="8">
         <v>20000</v>
       </c>
       <c r="F248" s="19">
         <f>D248*E248</f>
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.35">
@@ -11599,14 +11598,14 @@
         <v>0.2</v>
       </c>
       <c r="D249" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E249" s="28">
         <v>20000</v>
       </c>
       <c r="F249" s="22">
         <f>D249*E249</f>
-        <v>100000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.35">
@@ -11618,94 +11617,94 @@
         <f>'Individual Treasure(2014)'!B28</f>
         <v>60645.823497639387</v>
       </c>
-      <c r="D250" s="71" t="s">
+      <c r="D250" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E250" s="72"/>
+      <c r="E250" s="76"/>
       <c r="F250" s="34">
         <f>SUMPRODUCT(C245:C249,F245:F249)</f>
-        <v>59750</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A251" s="75" t="s">
+      <c r="A251" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B251" s="75"/>
-      <c r="C251" s="75"/>
-      <c r="D251" s="75"/>
-      <c r="E251" s="75"/>
-      <c r="F251" s="75"/>
-      <c r="G251" s="75"/>
-      <c r="H251" s="75"/>
-      <c r="I251" s="75"/>
-      <c r="J251" s="75"/>
-      <c r="K251" s="75"/>
-      <c r="L251" s="75"/>
+      <c r="B251" s="79"/>
+      <c r="C251" s="79"/>
+      <c r="D251" s="79"/>
+      <c r="E251" s="79"/>
+      <c r="F251" s="79"/>
+      <c r="G251" s="79"/>
+      <c r="H251" s="79"/>
+      <c r="I251" s="79"/>
+      <c r="J251" s="79"/>
+      <c r="K251" s="79"/>
+      <c r="L251" s="79"/>
     </row>
     <row r="252" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A252" s="76" t="s">
+      <c r="A252" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="B252" s="76"/>
-      <c r="C252" s="76"/>
-      <c r="D252" s="76"/>
-      <c r="E252" s="76"/>
-      <c r="F252" s="77"/>
-      <c r="G252" s="76" t="s">
+      <c r="B252" s="77"/>
+      <c r="C252" s="77"/>
+      <c r="D252" s="77"/>
+      <c r="E252" s="77"/>
+      <c r="F252" s="78"/>
+      <c r="G252" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="H252" s="76"/>
-      <c r="I252" s="76"/>
-      <c r="J252" s="76"/>
-      <c r="K252" s="76"/>
-      <c r="L252" s="77"/>
-      <c r="M252" s="76" t="s">
+      <c r="H252" s="77"/>
+      <c r="I252" s="77"/>
+      <c r="J252" s="77"/>
+      <c r="K252" s="77"/>
+      <c r="L252" s="78"/>
+      <c r="M252" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="N252" s="76"/>
-      <c r="O252" s="76"/>
-      <c r="P252" s="76"/>
-      <c r="Q252" s="76"/>
-      <c r="R252" s="77"/>
+      <c r="N252" s="77"/>
+      <c r="O252" s="77"/>
+      <c r="P252" s="77"/>
+      <c r="Q252" s="77"/>
+      <c r="R252" s="78"/>
     </row>
     <row r="253" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A253" s="78" t="s">
+      <c r="A253" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B253" s="79"/>
+      <c r="B253" s="69"/>
       <c r="C253" s="21">
         <v>7</v>
       </c>
-      <c r="D253" s="68" t="s">
+      <c r="D253" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E253" s="69"/>
-      <c r="F253" s="70"/>
-      <c r="G253" s="78" t="s">
+      <c r="E253" s="71"/>
+      <c r="F253" s="72"/>
+      <c r="G253" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H253" s="79"/>
+      <c r="H253" s="69"/>
       <c r="I253" s="21">
         <v>7</v>
       </c>
-      <c r="J253" s="68" t="s">
+      <c r="J253" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K253" s="69"/>
-      <c r="L253" s="70"/>
-      <c r="M253" s="78" t="s">
+      <c r="K253" s="71"/>
+      <c r="L253" s="72"/>
+      <c r="M253" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="N253" s="79"/>
+      <c r="N253" s="69"/>
       <c r="O253" s="21">
         <v>7</v>
       </c>
-      <c r="P253" s="68" t="s">
+      <c r="P253" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="Q253" s="69"/>
-      <c r="R253" s="70"/>
+      <c r="Q253" s="71"/>
+      <c r="R253" s="72"/>
     </row>
     <row r="254" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A254" s="42" t="s">
@@ -12100,10 +12099,10 @@
         <f>'Individual Treasure(2014)'!B29</f>
         <v>93925.956085772239</v>
       </c>
-      <c r="D260" s="71" t="s">
+      <c r="D260" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E260" s="72"/>
+      <c r="E260" s="76"/>
       <c r="F260" s="34">
         <f>SUMPRODUCT(C255:C259,F255:F259)</f>
         <v>94000</v>
@@ -12116,10 +12115,10 @@
         <f>'Individual Treasure(2014)'!B29</f>
         <v>93925.956085772239</v>
       </c>
-      <c r="J260" s="71" t="s">
+      <c r="J260" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K260" s="72"/>
+      <c r="K260" s="76"/>
       <c r="L260" s="34">
         <f>SUMPRODUCT(I255:I259,L255:L259)</f>
         <v>31500.000000000004</v>
@@ -12132,10 +12131,10 @@
         <f>'Individual Treasure(2014)'!B29</f>
         <v>93925.956085772239</v>
       </c>
-      <c r="P260" s="71" t="s">
+      <c r="P260" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="Q260" s="72"/>
+      <c r="Q260" s="76"/>
       <c r="R260" s="34">
         <f>SUMPRODUCT(O255:O259,R255:R259)</f>
         <v>67500</v>
@@ -12146,64 +12145,64 @@
       </c>
     </row>
     <row r="261" spans="1:19" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A261" s="75" t="s">
+      <c r="A261" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="B261" s="75"/>
-      <c r="C261" s="75"/>
-      <c r="D261" s="75"/>
-      <c r="E261" s="75"/>
-      <c r="F261" s="75"/>
-      <c r="G261" s="75"/>
-      <c r="H261" s="75"/>
-      <c r="I261" s="75"/>
-      <c r="J261" s="75"/>
-      <c r="K261" s="75"/>
-      <c r="L261" s="75"/>
+      <c r="B261" s="79"/>
+      <c r="C261" s="79"/>
+      <c r="D261" s="79"/>
+      <c r="E261" s="79"/>
+      <c r="F261" s="79"/>
+      <c r="G261" s="79"/>
+      <c r="H261" s="79"/>
+      <c r="I261" s="79"/>
+      <c r="J261" s="79"/>
+      <c r="K261" s="79"/>
+      <c r="L261" s="79"/>
     </row>
     <row r="262" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A262" s="76" t="s">
+      <c r="A262" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B262" s="76"/>
-      <c r="C262" s="76"/>
-      <c r="D262" s="76"/>
-      <c r="E262" s="76"/>
-      <c r="F262" s="77"/>
-      <c r="G262" s="76" t="s">
+      <c r="B262" s="77"/>
+      <c r="C262" s="77"/>
+      <c r="D262" s="77"/>
+      <c r="E262" s="77"/>
+      <c r="F262" s="78"/>
+      <c r="G262" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="H262" s="76"/>
-      <c r="I262" s="76"/>
-      <c r="J262" s="76"/>
-      <c r="K262" s="76"/>
-      <c r="L262" s="77"/>
+      <c r="H262" s="77"/>
+      <c r="I262" s="77"/>
+      <c r="J262" s="77"/>
+      <c r="K262" s="77"/>
+      <c r="L262" s="78"/>
     </row>
     <row r="263" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A263" s="78" t="s">
+      <c r="A263" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B263" s="79"/>
+      <c r="B263" s="69"/>
       <c r="C263" s="21">
         <v>7</v>
       </c>
-      <c r="D263" s="68" t="s">
+      <c r="D263" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E263" s="69"/>
-      <c r="F263" s="70"/>
-      <c r="G263" s="78" t="s">
+      <c r="E263" s="71"/>
+      <c r="F263" s="72"/>
+      <c r="G263" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H263" s="79"/>
+      <c r="H263" s="69"/>
       <c r="I263" s="21">
         <v>7</v>
       </c>
-      <c r="J263" s="68" t="s">
+      <c r="J263" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="K263" s="69"/>
-      <c r="L263" s="70"/>
+      <c r="K263" s="71"/>
+      <c r="L263" s="72"/>
     </row>
     <row r="264" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A264" s="42" t="s">
@@ -12474,10 +12473,10 @@
         <f>'Individual Treasure(2014)'!B30</f>
         <v>145468.96583851028</v>
       </c>
-      <c r="D270" s="71" t="s">
+      <c r="D270" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E270" s="72"/>
+      <c r="E270" s="76"/>
       <c r="F270" s="34">
         <f>SUMPRODUCT(C265:C269,F265:F269)</f>
         <v>150000</v>
@@ -12490,10 +12489,10 @@
         <f>'Individual Treasure(2014)'!B39</f>
         <v>0</v>
       </c>
-      <c r="J270" s="71" t="s">
+      <c r="J270" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="K270" s="72"/>
+      <c r="K270" s="76"/>
       <c r="L270" s="34">
         <f>SUMPRODUCT(I265:I269,L265:L269)</f>
         <v>31500.000000000004</v>
@@ -12501,25 +12500,240 @@
     </row>
   </sheetData>
   <mergeCells count="277">
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="J213:L213"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="G220:H220"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="G222:L222"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M173:O173"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="G270:H270"/>
+    <mergeCell ref="J270:K270"/>
+    <mergeCell ref="A261:L261"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="G262:L262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="G263:H263"/>
+    <mergeCell ref="J263:L263"/>
+    <mergeCell ref="M260:N260"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="A181:L181"/>
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="G82:L82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="G102:L102"/>
+    <mergeCell ref="A91:L91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="G72:L72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P260:Q260"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="P203:R203"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="P210:Q210"/>
+    <mergeCell ref="G252:L252"/>
+    <mergeCell ref="M252:R252"/>
+    <mergeCell ref="G253:H253"/>
+    <mergeCell ref="J253:L253"/>
+    <mergeCell ref="M253:N253"/>
+    <mergeCell ref="P253:R253"/>
+    <mergeCell ref="M212:R212"/>
+    <mergeCell ref="M213:N213"/>
+    <mergeCell ref="P213:R213"/>
+    <mergeCell ref="M220:N220"/>
+    <mergeCell ref="P220:Q220"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="J223:L223"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G92:L92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="G112:L112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="A131:L131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A121:L121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G122:L122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="G132:L132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="J133:L133"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="A151:L151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="A141:L141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="G152:L152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="J153:L153"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="A161:L161"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="A171:L171"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="G172:L172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="J173:L173"/>
+    <mergeCell ref="A191:L191"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A221:L221"/>
+    <mergeCell ref="A222:F222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="A201:L201"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="G202:L202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="J203:L203"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="A211:L211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="G212:L212"/>
     <mergeCell ref="A252:F252"/>
     <mergeCell ref="A253:B253"/>
     <mergeCell ref="D253:F253"/>
@@ -12544,240 +12758,25 @@
     <mergeCell ref="D243:F243"/>
     <mergeCell ref="A250:B250"/>
     <mergeCell ref="D250:E250"/>
-    <mergeCell ref="A191:L191"/>
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A221:L221"/>
-    <mergeCell ref="A222:F222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="A201:L201"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="D203:F203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="G202:L202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="J203:L203"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="A211:L211"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="G212:L212"/>
-    <mergeCell ref="A161:L161"/>
-    <mergeCell ref="A162:F162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="A171:L171"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="G172:L172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="J173:L173"/>
-    <mergeCell ref="A151:L151"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="A141:L141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="G152:L152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="J153:L153"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="A131:L131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A121:L121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G122:L122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="G132:L132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A111:L111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A101:L101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="G112:L112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G92:L92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="P260:Q260"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="P203:R203"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="P210:Q210"/>
-    <mergeCell ref="G252:L252"/>
-    <mergeCell ref="M252:R252"/>
-    <mergeCell ref="G253:H253"/>
-    <mergeCell ref="J253:L253"/>
-    <mergeCell ref="M253:N253"/>
-    <mergeCell ref="P253:R253"/>
-    <mergeCell ref="M212:R212"/>
-    <mergeCell ref="M213:N213"/>
-    <mergeCell ref="P213:R213"/>
-    <mergeCell ref="M220:N220"/>
-    <mergeCell ref="P220:Q220"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="J223:L223"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="G72:L72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="M103:O103"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="G82:L82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="G102:L102"/>
-    <mergeCell ref="A91:L91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="M173:O173"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="G270:H270"/>
-    <mergeCell ref="J270:K270"/>
-    <mergeCell ref="A261:L261"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="G262:L262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="D263:F263"/>
-    <mergeCell ref="G263:H263"/>
-    <mergeCell ref="J263:L263"/>
-    <mergeCell ref="M260:N260"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="A181:L181"/>
-    <mergeCell ref="A182:F182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="J213:L213"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="G222:L222"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12785,6 +12784,925 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502D695B-DF3A-422B-9589-AE3BF8DBBAE4}">
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="11" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" style="8"/>
+    <col min="14" max="14" width="10.7265625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="8"/>
+    <col min="17" max="17" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="8"/>
+    <col min="20" max="20" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="8"/>
+    <col min="23" max="23" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1796875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+    </row>
+    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="83"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+    </row>
+    <row r="3" spans="1:23" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <f>(($B$4-$A$4+1)*0.05)*(C4*D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="19">
+        <f>(($B$4-$A$4+1)*0.05)*(F4*G4)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="19">
+        <f>(($B$4-$A$4+1)*0.05)*(I4*J4)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="18">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="19">
+        <f>(($B$4-$A$4+1)*0.05)*(L4*M4)</f>
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="18">
+        <v>2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="19">
+        <f>(($B$4-$A$4+1)*0.05)*(O4*P4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1</v>
+      </c>
+      <c r="T4" s="19">
+        <f>(($B$4-$A$4+1)*0.05)*(R4*S4)</f>
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="18">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="19">
+        <f>(($B$4-$A$4+1)*0.05)*(U4*V4)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>6</v>
+      </c>
+      <c r="B5" s="19">
+        <v>12</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="19">
+        <f>(($B$5-$A$5+1)*0.05)*(C5*D5)</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="19">
+        <f>(($B$5-$A$5+1)*0.05)*(F5*G5)</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="I5" s="18">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="19">
+        <f>(($B$5-$A$5+1)*0.05)*(I5*J5)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L5" s="18">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
+        <f>(($B$5-$A$5+1)*0.05)*(L5*M5)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="O5" s="18">
+        <v>3</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>(($B$5-$A$5+1)*0.05)*(O5*P5)</f>
+        <v>1.05</v>
+      </c>
+      <c r="R5" s="18">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>5</v>
+      </c>
+      <c r="T5" s="19">
+        <f>(($B$5-$A$5+1)*0.05)*(R5*S5)</f>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="U5" s="18">
+        <v>2</v>
+      </c>
+      <c r="V5" s="8">
+        <v>5</v>
+      </c>
+      <c r="W5" s="19">
+        <f>(($B$5-$A$5+1)*0.05)*(U5*V5)</f>
+        <v>3.5000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="19">
+        <f>(($B$6-$A$6+1)*0.05)*(C6*D6)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="19">
+        <f>(($B$6-$A$6+1)*0.05)*(F6*G6)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
+        <f>(($B$6-$A$6+1)*0.05)*(I6*J6)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="18">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
+        <f>(($B$6-$A$6+1)*0.05)*(L6*M6)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="O6" s="18">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>(($B$6-$A$6+1)*0.05)*(O6*P6)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="18">
+        <v>2</v>
+      </c>
+      <c r="S6" s="8">
+        <v>5</v>
+      </c>
+      <c r="T6" s="19">
+        <f>(($B$6-$A$6+1)*0.05)*(R6*S6)</f>
+        <v>2</v>
+      </c>
+      <c r="U6" s="18">
+        <v>3</v>
+      </c>
+      <c r="V6" s="8">
+        <v>5</v>
+      </c>
+      <c r="W6" s="19">
+        <f>(($B$6-$A$6+1)*0.05)*(U6*V6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19">
+        <v>20</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="19">
+        <f>(($B$7-$A$7+1)*0.05)*(C7*D7)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <f>(($B$7-$A$7+1)*0.05)*(F7*G7)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="18">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <f>(($B$7-$A$7+1)*0.05)*(I7*J7)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L7" s="18">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="19">
+        <f>(($B$7-$A$7+1)*0.05)*(L7*M7)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O7" s="18">
+        <v>2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="19">
+        <f>(($B$7-$A$7+1)*0.05)*(O7*P7)</f>
+        <v>2</v>
+      </c>
+      <c r="R7" s="18">
+        <v>3</v>
+      </c>
+      <c r="S7" s="8">
+        <v>5</v>
+      </c>
+      <c r="T7" s="19">
+        <f>(($B$7-$A$7+1)*0.05)*(R7*S7)</f>
+        <v>3</v>
+      </c>
+      <c r="U7" s="18">
+        <v>2</v>
+      </c>
+      <c r="V7" s="8">
+        <v>10</v>
+      </c>
+      <c r="W7" s="19">
+        <f>(($B$7-$A$7+1)*0.05)*(U7*V7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19">
+        <v>23</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <f>(($B$8-$A$8+1)*0.05)*(C8*D8)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19">
+        <f>(($B$8-$A$8+1)*0.05)*(F8*G8)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I8" s="18">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="19">
+        <f>(($B$8-$A$8+1)*0.05)*(I8*J8)</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="L8" s="18">
+        <v>5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="19">
+        <f>(($B$8-$A$8+1)*0.05)*(L8*M8)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="19">
+        <f>(($B$8-$A$8+1)*0.05)*(O8*P8)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="R8" s="18">
+        <v>2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>10</v>
+      </c>
+      <c r="T8" s="19">
+        <f>(($B$8-$A$8+1)*0.05)*(R8*S8)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="U8" s="18">
+        <v>3</v>
+      </c>
+      <c r="V8" s="8">
+        <v>10</v>
+      </c>
+      <c r="W8" s="19">
+        <f>(($B$8-$A$8+1)*0.05)*(U8*V8)</f>
+        <v>4.5000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="27">
+        <f>'Individual Treasure(2014)'!B3</f>
+        <v>1.0794007754789445</v>
+      </c>
+      <c r="E9" s="10">
+        <f>SUM(E4:E8)</f>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="27">
+        <f>'Individual Treasure(2014)'!$C4</f>
+        <v>1.7</v>
+      </c>
+      <c r="H9" s="10">
+        <f>SUM(H4:H8)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="27">
+        <f>'Individual Treasure(2014)'!$C5</f>
+        <v>2.6</v>
+      </c>
+      <c r="K9" s="10">
+        <f>SUM(K4:K8)</f>
+        <v>2.5250000000000004</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="27">
+        <f>'Individual Treasure(2014)'!$C6</f>
+        <v>4</v>
+      </c>
+      <c r="N9" s="10">
+        <f>SUM(N4:N8)</f>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="27">
+        <f>'Individual Treasure(2014)'!$C7</f>
+        <v>6.2</v>
+      </c>
+      <c r="Q9" s="10">
+        <f>SUM(Q4:Q8)</f>
+        <v>5.75</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="27">
+        <f>'Individual Treasure(2014)'!$C8</f>
+        <v>9.6</v>
+      </c>
+      <c r="T9" s="10">
+        <f>SUM(T4:T8)</f>
+        <v>9.8500000000000014</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="27">
+        <f>'Individual Treasure(2014)'!$C9</f>
+        <v>15</v>
+      </c>
+      <c r="W9" s="10">
+        <f>SUM(W4:W8)</f>
+        <v>15.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+    </row>
+    <row r="11" spans="1:23" ht="26" x14ac:dyDescent="0.6">
+      <c r="A11" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+    </row>
+    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="86"/>
+      <c r="C12" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
+        <f>(($B$14-$A$14+1)*0.05)*(C14*D14)</f>
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19">
+        <f>(($B$14-$A$14+1)*0.05)*(F14*G14)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="19">
+        <f>(($B$15-$A$15+1)*0.05)*(C15*D15)</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="F15" s="18">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
+        <v>5</v>
+      </c>
+      <c r="H15" s="19">
+        <f>(($B$15-$A$15+1)*0.05)*(F15*G15)</f>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
+        <v>5</v>
+      </c>
+      <c r="E16" s="19">
+        <f>(($B$16-$A$16+1)*0.05)*(C16*D16)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="18">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="19">
+        <f>(($B$16-$A$16+1)*0.05)*(F16*G16)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>20</v>
+      </c>
+      <c r="C17" s="18">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>10</v>
+      </c>
+      <c r="E17" s="19">
+        <f>(($B$17-$A$17+1)*0.05)*(C17*D17)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F17" s="18">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
+      <c r="H17" s="19">
+        <f>(($B$17-$A$17+1)*0.05)*(F17*G17)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8">
+        <v>25</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>50</v>
+      </c>
+      <c r="E18" s="19">
+        <f>(($B$18-$A$18+1)*0.05)*(C18*D18)</f>
+        <v>12.5</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>50</v>
+      </c>
+      <c r="H18" s="19">
+        <f>(($B$18-$A$18+1)*0.05)*(F18*G18)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C19" s="20"/>
+      <c r="D19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="10">
+        <f>SUM(E14:E18)</f>
+        <v>23.75</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="10">
+        <f>SUM(H14:H18)</f>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A11:W11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FAE5A8-D9EC-4389-895A-462C5E856E69}">
   <dimension ref="A1:W19"/>
   <sheetViews>
@@ -12848,10 +13766,10 @@
       <c r="W1" s="85"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="82" t="s">
         <v>12</v>
       </c>
@@ -13483,10 +14401,10 @@
       <c r="W11" s="85"/>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="87"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="82" t="s">
         <v>38</v>
       </c>
@@ -13697,925 +14615,6 @@
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="A12:B12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502D695B-DF3A-422B-9589-AE3BF8DBBAE4}">
-  <dimension ref="A1:W19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="8"/>
-    <col min="14" max="14" width="10.7265625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="8"/>
-    <col min="17" max="17" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="8"/>
-    <col min="20" max="20" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" style="8"/>
-    <col min="23" max="23" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1796875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-    </row>
-    <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="83"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="84"/>
-    </row>
-    <row r="3" spans="1:23" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
-        <v>4</v>
-      </c>
-      <c r="B4" s="19">
-        <v>5</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <f>(($B$4-$A$4+1)*0.05)*(C4*D4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="19">
-        <f>(($B$4-$A$4+1)*0.05)*(F4*G4)</f>
-        <v>0.05</v>
-      </c>
-      <c r="I4" s="18">
-        <v>2</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="19">
-        <f>(($B$4-$A$4+1)*0.05)*(I4*J4)</f>
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="18">
-        <v>2</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="19">
-        <f>(($B$4-$A$4+1)*0.05)*(L4*M4)</f>
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="18">
-        <v>2</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="19">
-        <f>(($B$4-$A$4+1)*0.05)*(O4*P4)</f>
-        <v>0.2</v>
-      </c>
-      <c r="R4" s="18">
-        <v>1</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1</v>
-      </c>
-      <c r="T4" s="19">
-        <f>(($B$4-$A$4+1)*0.05)*(R4*S4)</f>
-        <v>0.1</v>
-      </c>
-      <c r="U4" s="18">
-        <v>1</v>
-      </c>
-      <c r="V4" s="8">
-        <v>1</v>
-      </c>
-      <c r="W4" s="19">
-        <f>(($B$4-$A$4+1)*0.05)*(U4*V4)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
-        <v>6</v>
-      </c>
-      <c r="B5" s="19">
-        <v>12</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="19">
-        <f>(($B$5-$A$5+1)*0.05)*(C5*D5)</f>
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="F5" s="18">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="19">
-        <f>(($B$5-$A$5+1)*0.05)*(F5*G5)</f>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="I5" s="18">
-        <v>3</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="19">
-        <f>(($B$5-$A$5+1)*0.05)*(I5*J5)</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="L5" s="18">
-        <v>2</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="19">
-        <f>(($B$5-$A$5+1)*0.05)*(L5*M5)</f>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="O5" s="18">
-        <v>3</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="19">
-        <f>(($B$5-$A$5+1)*0.05)*(O5*P5)</f>
-        <v>1.05</v>
-      </c>
-      <c r="R5" s="18">
-        <v>1</v>
-      </c>
-      <c r="S5" s="8">
-        <v>5</v>
-      </c>
-      <c r="T5" s="19">
-        <f>(($B$5-$A$5+1)*0.05)*(R5*S5)</f>
-        <v>1.7500000000000002</v>
-      </c>
-      <c r="U5" s="18">
-        <v>2</v>
-      </c>
-      <c r="V5" s="8">
-        <v>5</v>
-      </c>
-      <c r="W5" s="19">
-        <f>(($B$5-$A$5+1)*0.05)*(U5*V5)</f>
-        <v>3.5000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
-        <v>13</v>
-      </c>
-      <c r="B6" s="19">
-        <v>16</v>
-      </c>
-      <c r="C6" s="18">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="19">
-        <f>(($B$6-$A$6+1)*0.05)*(C6*D6)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="18">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="19">
-        <f>(($B$6-$A$6+1)*0.05)*(F6*G6)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I6" s="18">
-        <v>2</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19">
-        <f>(($B$6-$A$6+1)*0.05)*(I6*J6)</f>
-        <v>0.4</v>
-      </c>
-      <c r="L6" s="18">
-        <v>3</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="19">
-        <f>(($B$6-$A$6+1)*0.05)*(L6*M6)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="O6" s="18">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="19">
-        <f>(($B$6-$A$6+1)*0.05)*(O6*P6)</f>
-        <v>1</v>
-      </c>
-      <c r="R6" s="18">
-        <v>2</v>
-      </c>
-      <c r="S6" s="8">
-        <v>5</v>
-      </c>
-      <c r="T6" s="19">
-        <f>(($B$6-$A$6+1)*0.05)*(R6*S6)</f>
-        <v>2</v>
-      </c>
-      <c r="U6" s="18">
-        <v>3</v>
-      </c>
-      <c r="V6" s="8">
-        <v>5</v>
-      </c>
-      <c r="W6" s="19">
-        <f>(($B$6-$A$6+1)*0.05)*(U6*V6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
-        <v>17</v>
-      </c>
-      <c r="B7" s="19">
-        <v>20</v>
-      </c>
-      <c r="C7" s="18">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="19">
-        <f>(($B$7-$A$7+1)*0.05)*(C7*D7)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F7" s="18">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <f>(($B$7-$A$7+1)*0.05)*(F7*G7)</f>
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="18">
-        <v>3</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <f>(($B$7-$A$7+1)*0.05)*(I7*J7)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="L7" s="18">
-        <v>3</v>
-      </c>
-      <c r="M7" s="8">
-        <v>2</v>
-      </c>
-      <c r="N7" s="19">
-        <f>(($B$7-$A$7+1)*0.05)*(L7*M7)</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="O7" s="18">
-        <v>2</v>
-      </c>
-      <c r="P7" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="19">
-        <f>(($B$7-$A$7+1)*0.05)*(O7*P7)</f>
-        <v>2</v>
-      </c>
-      <c r="R7" s="18">
-        <v>3</v>
-      </c>
-      <c r="S7" s="8">
-        <v>5</v>
-      </c>
-      <c r="T7" s="19">
-        <f>(($B$7-$A$7+1)*0.05)*(R7*S7)</f>
-        <v>3</v>
-      </c>
-      <c r="U7" s="18">
-        <v>2</v>
-      </c>
-      <c r="V7" s="8">
-        <v>10</v>
-      </c>
-      <c r="W7" s="19">
-        <f>(($B$7-$A$7+1)*0.05)*(U7*V7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
-        <v>21</v>
-      </c>
-      <c r="B8" s="19">
-        <v>23</v>
-      </c>
-      <c r="C8" s="18">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
-        <f>(($B$8-$A$8+1)*0.05)*(C8*D8)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F8" s="18">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="19">
-        <f>(($B$8-$A$8+1)*0.05)*(F8*G8)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I8" s="18">
-        <v>3</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="19">
-        <f>(($B$8-$A$8+1)*0.05)*(I8*J8)</f>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="L8" s="18">
-        <v>5</v>
-      </c>
-      <c r="M8" s="8">
-        <v>2</v>
-      </c>
-      <c r="N8" s="19">
-        <f>(($B$8-$A$8+1)*0.05)*(L8*M8)</f>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="O8" s="18">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="19">
-        <f>(($B$8-$A$8+1)*0.05)*(O8*P8)</f>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="R8" s="18">
-        <v>2</v>
-      </c>
-      <c r="S8" s="8">
-        <v>10</v>
-      </c>
-      <c r="T8" s="19">
-        <f>(($B$8-$A$8+1)*0.05)*(R8*S8)</f>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="U8" s="18">
-        <v>3</v>
-      </c>
-      <c r="V8" s="8">
-        <v>10</v>
-      </c>
-      <c r="W8" s="19">
-        <f>(($B$8-$A$8+1)*0.05)*(U8*V8)</f>
-        <v>4.5000000000000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="27">
-        <f>'Individual Treasure(2014)'!B3</f>
-        <v>1.0794007754789445</v>
-      </c>
-      <c r="E9" s="10">
-        <f>SUM(E4:E8)</f>
-        <v>0.97500000000000009</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="27">
-        <f>'Individual Treasure(2014)'!$C4</f>
-        <v>1.7</v>
-      </c>
-      <c r="H9" s="10">
-        <f>SUM(H4:H8)</f>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="27">
-        <f>'Individual Treasure(2014)'!$C5</f>
-        <v>2.6</v>
-      </c>
-      <c r="K9" s="10">
-        <f>SUM(K4:K8)</f>
-        <v>2.5250000000000004</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="27">
-        <f>'Individual Treasure(2014)'!$C6</f>
-        <v>4</v>
-      </c>
-      <c r="N9" s="10">
-        <f>SUM(N4:N8)</f>
-        <v>4.1000000000000005</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="27">
-        <f>'Individual Treasure(2014)'!$C7</f>
-        <v>6.2</v>
-      </c>
-      <c r="Q9" s="10">
-        <f>SUM(Q4:Q8)</f>
-        <v>5.75</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="27">
-        <f>'Individual Treasure(2014)'!$C8</f>
-        <v>9.6</v>
-      </c>
-      <c r="T9" s="10">
-        <f>SUM(T4:T8)</f>
-        <v>9.8500000000000014</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="27">
-        <f>'Individual Treasure(2014)'!$C9</f>
-        <v>15</v>
-      </c>
-      <c r="W9" s="10">
-        <f>SUM(W4:W8)</f>
-        <v>15.100000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-    </row>
-    <row r="11" spans="1:23" ht="26" x14ac:dyDescent="0.6">
-      <c r="A11" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-    </row>
-    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-    </row>
-    <row r="13" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8">
-        <v>10</v>
-      </c>
-      <c r="C14" s="18">
-        <v>3</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="19">
-        <f>(($B$14-$A$14+1)*0.05)*(C14*D14)</f>
-        <v>0.75</v>
-      </c>
-      <c r="F14" s="18">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19">
-        <f>(($B$14-$A$14+1)*0.05)*(F14*G14)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>5</v>
-      </c>
-      <c r="E15" s="19">
-        <f>(($B$15-$A$15+1)*0.05)*(C15*D15)</f>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="F15" s="18">
-        <v>3</v>
-      </c>
-      <c r="G15" s="8">
-        <v>5</v>
-      </c>
-      <c r="H15" s="19">
-        <f>(($B$15-$A$15+1)*0.05)*(F15*G15)</f>
-        <v>2.2500000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8">
-        <v>15</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8">
-        <v>5</v>
-      </c>
-      <c r="E16" s="19">
-        <f>(($B$16-$A$16+1)*0.05)*(C16*D16)</f>
-        <v>1.5</v>
-      </c>
-      <c r="F16" s="18">
-        <v>5</v>
-      </c>
-      <c r="G16" s="8">
-        <v>5</v>
-      </c>
-      <c r="H16" s="19">
-        <f>(($B$16-$A$16+1)*0.05)*(F16*G16)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8">
-        <v>20</v>
-      </c>
-      <c r="C17" s="18">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8">
-        <v>10</v>
-      </c>
-      <c r="E17" s="19">
-        <f>(($B$17-$A$17+1)*0.05)*(C17*D17)</f>
-        <v>7.5</v>
-      </c>
-      <c r="F17" s="18">
-        <v>3</v>
-      </c>
-      <c r="G17" s="8">
-        <v>10</v>
-      </c>
-      <c r="H17" s="19">
-        <f>(($B$17-$A$17+1)*0.05)*(F17*G17)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8">
-        <v>25</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>50</v>
-      </c>
-      <c r="E18" s="19">
-        <f>(($B$18-$A$18+1)*0.05)*(C18*D18)</f>
-        <v>12.5</v>
-      </c>
-      <c r="F18" s="18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="8">
-        <v>50</v>
-      </c>
-      <c r="H18" s="19">
-        <f>(($B$18-$A$18+1)*0.05)*(F18*G18)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C19" s="20"/>
-      <c r="D19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="10">
-        <f>SUM(E14:E18)</f>
-        <v>23.75</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="10">
-        <f>SUM(H14:H18)</f>
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A11:W11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14686,10 +14685,10 @@
       <c r="W1" s="85"/>
     </row>
     <row r="2" spans="1:23" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="82" t="s">
         <v>12</v>
       </c>
@@ -15321,10 +15320,10 @@
       <c r="W11" s="85"/>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="87"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="82" t="s">
         <v>38</v>
       </c>

--- a/Individual Treasure Averages.xlsx
+++ b/Individual Treasure Averages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanks\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3403DE-5CAF-4155-8F4D-CFA6AC5737BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23890694-66BF-4645-B3AC-2352F74DDBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="616" firstSheet="1" activeTab="3" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="25820" windowHeight="13900" tabRatio="616" firstSheet="1" activeTab="3" xr2:uid="{5E3698F5-01A8-41EE-A738-BAB99CC962C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Treasure(2024 Less)" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="115">
   <si>
     <t>Individual gp Per Formula</t>
   </si>
@@ -359,6 +359,24 @@
   </si>
   <si>
     <t>10 (10.5)</t>
+  </si>
+  <si>
+    <t>CR 21 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 21: Humanoid</t>
+  </si>
+  <si>
+    <t>CR 26 Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR 26: Humanoid</t>
+  </si>
+  <si>
+    <t>CR Big Individual Treasure Tables</t>
+  </si>
+  <si>
+    <t>CR Big: Humanoid</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA1D1B-31BB-4664-B29D-FA377A6BC162}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -2524,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC15E73-F0F4-4548-8983-0DBE959992CA}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3202,10 +3220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD8D082-213D-4692-B6C5-868C3C1BDB24}">
-  <dimension ref="A1:AD270"/>
+  <dimension ref="A1:AD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="D248" sqref="D248"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8562,21 +8580,21 @@
         <v>8</v>
       </c>
       <c r="B155" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C155" s="31">
         <f>((B155-A155+1)*0.05)</f>
-        <v>0.05</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D155" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" s="8">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F155" s="19">
         <f>D155*E155</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G155" s="43">
         <f>I153+1</f>
@@ -8603,24 +8621,24 @@
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="43">
         <f>B155+1</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B156" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C156" s="31">
         <f>((B156-A156+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D156" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156" s="8">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F156" s="19">
         <f>D156*E156</f>
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G156" s="43">
         <f>H155+1</f>
@@ -8647,24 +8665,24 @@
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="43">
         <f>B156+1</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B157" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C157" s="31">
         <f>((B157-A157+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D157" s="18">
         <v>1</v>
       </c>
       <c r="E157" s="8">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F157" s="19">
         <f>D157*E157</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G157" s="43">
         <f>H156+1</f>
@@ -8691,14 +8709,14 @@
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="43">
         <f>B157+1</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B158" s="8">
         <v>25</v>
       </c>
       <c r="C158" s="31">
         <f>((B158-A158+1)*0.05)</f>
-        <v>0.35000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="D158" s="18">
         <v>1</v>
@@ -8746,10 +8764,10 @@
         <v>0.1</v>
       </c>
       <c r="D159" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159" s="28">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F159" s="22">
         <f>D159*E159</f>
@@ -8793,7 +8811,7 @@
       <c r="E160" s="76"/>
       <c r="F160" s="34">
         <f>SUMPRODUCT(C155:C159,F155:F159)</f>
-        <v>760</v>
+        <v>1025</v>
       </c>
       <c r="G160" s="73" t="s">
         <v>41</v>
@@ -9727,14 +9745,14 @@
         <v>0.1</v>
       </c>
       <c r="D195" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E195" s="8">
         <v>500</v>
       </c>
       <c r="F195" s="19">
         <f>D195*E195</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.35">
@@ -9743,53 +9761,53 @@
         <v>10</v>
       </c>
       <c r="B196" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C196" s="31">
         <f>((B196-A196+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D196" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E196" s="8">
         <v>500</v>
       </c>
       <c r="F196" s="19">
         <f>D196*E196</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197" s="43">
         <f>B196+1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B197" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C197" s="31">
         <f>((B197-A197+1)*0.05)</f>
-        <v>0.30000000000000004</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D197" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E197" s="8">
         <v>1000</v>
       </c>
       <c r="F197" s="19">
         <f>D197*E197</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" s="43">
         <f>B197+1</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B198" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C198" s="31">
         <f>((B198-A198+1)*0.05)</f>
@@ -9809,7 +9827,7 @@
     <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" s="43">
         <f>B198+1</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B199" s="44">
         <f>20+C193</f>
@@ -9817,7 +9835,7 @@
       </c>
       <c r="C199" s="31">
         <f>((B199-A199+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D199" s="20">
         <v>5</v>
@@ -9845,7 +9863,7 @@
       <c r="E200" s="76"/>
       <c r="F200" s="34">
         <f>SUMPRODUCT(C195:C199,F195:F199)</f>
-        <v>4350</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="201" spans="1:18" ht="28.5" x14ac:dyDescent="0.35">
@@ -9997,14 +10015,14 @@
         <v>0.1</v>
       </c>
       <c r="D205" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E205" s="8">
         <v>500</v>
       </c>
       <c r="F205" s="19">
         <f>D205*E205</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G205" s="43">
         <f>I203+1</f>
@@ -10062,14 +10080,14 @@
         <v>0.1</v>
       </c>
       <c r="D206" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E206" s="8">
         <v>1000</v>
       </c>
       <c r="F206" s="19">
         <f>D206*E206</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G206" s="43">
         <f>H205+1</f>
@@ -10127,14 +10145,14 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="D207" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E207" s="8">
         <v>1000</v>
       </c>
       <c r="F207" s="19">
         <f>D207*E207</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G207" s="43">
         <f>H206+1</f>
@@ -10258,14 +10276,14 @@
         <v>0.2</v>
       </c>
       <c r="D209" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E209" s="28">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F209" s="22">
         <f>D209*E209</f>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G209" s="43">
         <f>H208+1</f>
@@ -10327,7 +10345,7 @@
       <c r="E210" s="76"/>
       <c r="F210" s="34">
         <f>SUMPRODUCT(C205:C209,F205:F209)</f>
-        <v>6850</v>
+        <v>5700</v>
       </c>
       <c r="G210" s="73" t="s">
         <v>41</v>
@@ -10515,14 +10533,14 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="D215" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215" s="8">
         <v>1000</v>
       </c>
       <c r="F215" s="19">
         <f>D215*E215</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G215" s="43">
         <f>I213+1</f>
@@ -10703,21 +10721,21 @@
         <v>22</v>
       </c>
       <c r="B218" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C218" s="31">
         <f>((B218-A218+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D218" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E218" s="8">
         <v>10000</v>
       </c>
       <c r="F218" s="19">
         <f>D218*E218</f>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G218" s="43">
         <f>H217+1</f>
@@ -10765,7 +10783,7 @@
     <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" s="43">
         <f>B218+1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B219" s="44">
         <f>20+C213</f>
@@ -10773,17 +10791,17 @@
       </c>
       <c r="C219" s="31">
         <f>((B219-A219+1)*0.05)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D219" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E219" s="28">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F219" s="22">
         <f>D219*E219</f>
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G219" s="43">
         <f>H218+1</f>
@@ -10845,7 +10863,7 @@
       <c r="E220" s="76"/>
       <c r="F220" s="34">
         <f>SUMPRODUCT(C215:C219,F215:F219)</f>
-        <v>11050</v>
+        <v>8400</v>
       </c>
       <c r="G220" s="73" t="s">
         <v>41</v>
@@ -10995,10 +11013,10 @@
         <v>0.1</v>
       </c>
       <c r="D225" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E225" s="8">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F225" s="19">
         <f>D225*E225</f>
@@ -11226,8 +11244,8 @@
       </c>
       <c r="H230" s="74"/>
       <c r="I230" s="33">
-        <f>'Individual Treasure(2014)'!B25</f>
-        <v>16324.756685731661</v>
+        <f>'Individual Treasure(2014)'!B15</f>
+        <v>205.58879840633722</v>
       </c>
       <c r="J230" s="75" t="s">
         <v>42</v>
@@ -11240,7 +11258,7 @@
     </row>
     <row r="231" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A231" s="79" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B231" s="79"/>
       <c r="C231" s="79"/>
@@ -11256,13 +11274,21 @@
     </row>
     <row r="232" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="77" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B232" s="77"/>
       <c r="C232" s="77"/>
       <c r="D232" s="77"/>
       <c r="E232" s="77"/>
       <c r="F232" s="78"/>
+      <c r="G232" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H232" s="77"/>
+      <c r="I232" s="77"/>
+      <c r="J232" s="77"/>
+      <c r="K232" s="77"/>
+      <c r="L232" s="78"/>
     </row>
     <row r="233" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A233" s="68" t="s">
@@ -11277,8 +11303,20 @@
       </c>
       <c r="E233" s="71"/>
       <c r="F233" s="72"/>
-    </row>
-    <row r="234" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="G233" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H233" s="69"/>
+      <c r="I233" s="21">
+        <v>7</v>
+      </c>
+      <c r="J233" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K233" s="71"/>
+      <c r="L233" s="72"/>
+    </row>
+    <row r="234" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A234" s="42" t="s">
         <v>9</v>
       </c>
@@ -11295,6 +11333,24 @@
         <v>24</v>
       </c>
       <c r="F234" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G234" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H234" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I234" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J234" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L234" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11311,14 +11367,35 @@
         <v>0.1</v>
       </c>
       <c r="D235" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235" s="8">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F235" s="19">
         <f>D235*E235</f>
-        <v>10000</v>
+        <v>1000</v>
+      </c>
+      <c r="G235" s="43">
+        <f>I233+1</f>
+        <v>8</v>
+      </c>
+      <c r="H235" s="8">
+        <v>8</v>
+      </c>
+      <c r="I235" s="31">
+        <f>((H235-G235+1)*0.05)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J235" s="18">
+        <v>10</v>
+      </c>
+      <c r="K235" s="8">
+        <v>500</v>
+      </c>
+      <c r="L235" s="19">
+        <f>J235*K235</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
@@ -11327,44 +11404,86 @@
         <v>10</v>
       </c>
       <c r="B236" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C236" s="31">
         <f>((B236-A236+1)*0.05)</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D236" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E236" s="8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F236" s="19">
         <f>D236*E236</f>
-        <v>30000</v>
+        <v>5000</v>
+      </c>
+      <c r="G236" s="43">
+        <f>H235+1</f>
+        <v>9</v>
+      </c>
+      <c r="H236" s="8">
+        <v>11</v>
+      </c>
+      <c r="I236" s="31">
+        <f>((H236-G236+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J236" s="18">
+        <v>10</v>
+      </c>
+      <c r="K236" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L236" s="19">
+        <f>J236*K236</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="43">
         <f>B236+1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B237" s="8">
         <v>18</v>
       </c>
       <c r="C237" s="31">
         <f>((B237-A237+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D237" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E237" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F237" s="19">
         <f>D237*E237</f>
-        <v>40000</v>
+        <v>10000</v>
+      </c>
+      <c r="G237" s="43">
+        <f>H236+1</f>
+        <v>12</v>
+      </c>
+      <c r="H237" s="8">
+        <v>18</v>
+      </c>
+      <c r="I237" s="31">
+        <f>((H237-G237+1)*0.05)</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="J237" s="18">
+        <v>14</v>
+      </c>
+      <c r="K237" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L237" s="19">
+        <f>J237*K237</f>
+        <v>14000</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
@@ -11383,11 +11502,32 @@
         <v>2</v>
       </c>
       <c r="E238" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F238" s="19">
         <f>D238*E238</f>
-        <v>40000</v>
+        <v>20000</v>
+      </c>
+      <c r="G238" s="43">
+        <f>H237+1</f>
+        <v>19</v>
+      </c>
+      <c r="H238" s="8">
+        <v>23</v>
+      </c>
+      <c r="I238" s="31">
+        <f>((H238-G238+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J238" s="18">
+        <v>10</v>
+      </c>
+      <c r="K238" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L238" s="19">
+        <f>J238*K238</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
@@ -11404,14 +11544,36 @@
         <v>0.2</v>
       </c>
       <c r="D239" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E239" s="28">
         <v>20000</v>
       </c>
       <c r="F239" s="22">
         <f>D239*E239</f>
-        <v>60000</v>
+        <v>40000</v>
+      </c>
+      <c r="G239" s="43">
+        <f>H238+1</f>
+        <v>24</v>
+      </c>
+      <c r="H239" s="44">
+        <f>20+I233</f>
+        <v>27</v>
+      </c>
+      <c r="I239" s="31">
+        <f>((H239-G239+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J239" s="20">
+        <v>14</v>
+      </c>
+      <c r="K239" s="28">
+        <v>2000</v>
+      </c>
+      <c r="L239" s="22">
+        <f>J239*K239</f>
+        <v>28000</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
@@ -11420,8 +11582,8 @@
       </c>
       <c r="B240" s="74"/>
       <c r="C240" s="33">
-        <f>'Individual Treasure(2014)'!B27</f>
-        <v>39157.609472169628</v>
+        <f>'Individual Treasure(2014)'!B26</f>
+        <v>25283.165288944179</v>
       </c>
       <c r="D240" s="75" t="s">
         <v>42</v>
@@ -11429,12 +11591,28 @@
       <c r="E240" s="76"/>
       <c r="F240" s="34">
         <f>SUMPRODUCT(C235:C239,F235:F239)</f>
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" ht="28.5" x14ac:dyDescent="0.35">
+        <v>17100</v>
+      </c>
+      <c r="G240" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H240" s="74"/>
+      <c r="I240" s="33">
+        <f>'Individual Treasure(2014)'!B25</f>
+        <v>16324.756685731661</v>
+      </c>
+      <c r="J240" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K240" s="76"/>
+      <c r="L240" s="34">
+        <f>SUMPRODUCT(I235:I239,L235:L239)</f>
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A241" s="79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B241" s="79"/>
       <c r="C241" s="79"/>
@@ -11448,9 +11626,9 @@
       <c r="K241" s="79"/>
       <c r="L241" s="79"/>
     </row>
-    <row r="242" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="77" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B242" s="77"/>
       <c r="C242" s="77"/>
@@ -11458,7 +11636,7 @@
       <c r="E242" s="77"/>
       <c r="F242" s="78"/>
     </row>
-    <row r="243" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A243" s="68" t="s">
         <v>50</v>
       </c>
@@ -11472,7 +11650,7 @@
       <c r="E243" s="71"/>
       <c r="F243" s="72"/>
     </row>
-    <row r="244" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A244" s="42" t="s">
         <v>9</v>
       </c>
@@ -11492,86 +11670,86 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="43">
         <f>C243+1</f>
         <v>8</v>
       </c>
       <c r="B245" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C245" s="31">
         <f>((B245-A245+1)*0.05)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D245" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E245" s="8">
         <v>5000</v>
       </c>
       <c r="F245" s="19">
         <f>D245*E245</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="43">
         <f>B245+1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B246" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C246" s="31">
         <f>((B246-A246+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D246" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E246" s="8">
         <v>10000</v>
       </c>
       <c r="F246" s="19">
         <f>D246*E246</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="43">
         <f>B246+1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B247" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C247" s="31">
         <f>((B247-A247+1)*0.05)</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="D247" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E247" s="8">
         <v>10000</v>
       </c>
       <c r="F247" s="19">
         <f>D247*E247</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="43">
         <f>B247+1</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B248" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C248" s="31">
         <f>((B248-A248+1)*0.05)</f>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="D248" s="18">
         <v>2</v>
@@ -11584,10 +11762,10 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="43">
         <f>B248+1</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B249" s="44">
         <f>20+C243</f>
@@ -11595,7 +11773,7 @@
       </c>
       <c r="C249" s="31">
         <f>((B249-A249+1)*0.05)</f>
-        <v>0.2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D249" s="20">
         <v>3</v>
@@ -11608,14 +11786,14 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="73" t="s">
         <v>41</v>
       </c>
       <c r="B250" s="74"/>
       <c r="C250" s="33">
-        <f>'Individual Treasure(2014)'!B28</f>
-        <v>60645.823497639387</v>
+        <f>'Individual Treasure(2014)'!B27</f>
+        <v>39157.609472169628</v>
       </c>
       <c r="D250" s="75" t="s">
         <v>42</v>
@@ -11623,12 +11801,12 @@
       <c r="E250" s="76"/>
       <c r="F250" s="34">
         <f>SUMPRODUCT(C245:C249,F245:F249)</f>
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18" ht="28.5" x14ac:dyDescent="0.35">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A251" s="79" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B251" s="79"/>
       <c r="C251" s="79"/>
@@ -11642,33 +11820,17 @@
       <c r="K251" s="79"/>
       <c r="L251" s="79"/>
     </row>
-    <row r="252" spans="1:18" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="77" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B252" s="77"/>
       <c r="C252" s="77"/>
       <c r="D252" s="77"/>
       <c r="E252" s="77"/>
       <c r="F252" s="78"/>
-      <c r="G252" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="H252" s="77"/>
-      <c r="I252" s="77"/>
-      <c r="J252" s="77"/>
-      <c r="K252" s="77"/>
-      <c r="L252" s="78"/>
-      <c r="M252" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="N252" s="77"/>
-      <c r="O252" s="77"/>
-      <c r="P252" s="77"/>
-      <c r="Q252" s="77"/>
-      <c r="R252" s="78"/>
-    </row>
-    <row r="253" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A253" s="68" t="s">
         <v>50</v>
       </c>
@@ -11681,32 +11843,8 @@
       </c>
       <c r="E253" s="71"/>
       <c r="F253" s="72"/>
-      <c r="G253" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="H253" s="69"/>
-      <c r="I253" s="21">
-        <v>7</v>
-      </c>
-      <c r="J253" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K253" s="71"/>
-      <c r="L253" s="72"/>
-      <c r="M253" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="N253" s="69"/>
-      <c r="O253" s="21">
-        <v>7</v>
-      </c>
-      <c r="P253" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q253" s="71"/>
-      <c r="R253" s="72"/>
-    </row>
-    <row r="254" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A254" s="42" t="s">
         <v>9</v>
       </c>
@@ -11725,44 +11863,8 @@
       <c r="F254" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G254" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H254" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I254" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J254" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="L254" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M254" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N254" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O254" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="P254" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q254" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="R254" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="43">
         <f>C253+1</f>
         <v>8</v>
@@ -11775,251 +11877,83 @@
         <v>0.1</v>
       </c>
       <c r="D255" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E255" s="8">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F255" s="19">
         <f>D255*E255</f>
-        <v>40000</v>
-      </c>
-      <c r="G255" s="43">
-        <f>I253+1</f>
-        <v>8</v>
-      </c>
-      <c r="H255" s="8">
-        <v>9</v>
-      </c>
-      <c r="I255" s="31">
-        <f>((H255-G255+1)*0.05)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J255" s="18">
-        <v>10</v>
-      </c>
-      <c r="K255" s="8">
-        <v>500</v>
-      </c>
-      <c r="L255" s="19">
-        <f>J255*K255</f>
-        <v>5000</v>
-      </c>
-      <c r="M255" s="43">
-        <f>O253+1</f>
-        <v>8</v>
-      </c>
-      <c r="N255" s="8">
-        <v>9</v>
-      </c>
-      <c r="O255" s="31">
-        <f>((N255-M255+1)*0.05)</f>
-        <v>0.1</v>
-      </c>
-      <c r="P255" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q255" s="8">
-        <v>5000</v>
-      </c>
-      <c r="R255" s="19">
-        <f>P255*Q255</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="43">
         <f>B255+1</f>
         <v>10</v>
       </c>
       <c r="B256" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C256" s="31">
         <f>((B256-A256+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D256" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E256" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F256" s="19">
         <f>D256*E256</f>
-        <v>60000</v>
-      </c>
-      <c r="G256" s="43">
-        <f>H255+1</f>
-        <v>10</v>
-      </c>
-      <c r="H256" s="8">
-        <v>11</v>
-      </c>
-      <c r="I256" s="31">
-        <f>((H256-G256+1)*0.05)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J256" s="18">
-        <v>10</v>
-      </c>
-      <c r="K256" s="8">
-        <v>1000</v>
-      </c>
-      <c r="L256" s="19">
-        <f>J256*K256</f>
-        <v>10000</v>
-      </c>
-      <c r="M256" s="43">
-        <f>N255+1</f>
-        <v>10</v>
-      </c>
-      <c r="N256" s="8">
-        <v>9</v>
-      </c>
-      <c r="O256" s="31">
-        <f>((N256-M256+1)*0.05)</f>
-        <v>0</v>
-      </c>
-      <c r="P256" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q256" s="8">
-        <v>5000</v>
-      </c>
-      <c r="R256" s="19">
-        <f>P256*Q256</f>
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257" s="43">
         <f>B256+1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B257" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C257" s="31">
         <f>((B257-A257+1)*0.05)</f>
-        <v>0.2</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D257" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E257" s="8">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F257" s="19">
         <f>D257*E257</f>
-        <v>100000</v>
-      </c>
-      <c r="G257" s="43">
-        <f>H256+1</f>
-        <v>12</v>
-      </c>
-      <c r="H257" s="8">
-        <v>17</v>
-      </c>
-      <c r="I257" s="31">
-        <f>((H257-G257+1)*0.05)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="J257" s="18">
-        <v>20</v>
-      </c>
-      <c r="K257" s="8">
-        <v>1000</v>
-      </c>
-      <c r="L257" s="19">
-        <f>J257*K257</f>
-        <v>20000</v>
-      </c>
-      <c r="M257" s="43">
-        <f>N256+1</f>
-        <v>10</v>
-      </c>
-      <c r="N257" s="8">
-        <v>19</v>
-      </c>
-      <c r="O257" s="31">
-        <f>((N257-M257+1)*0.05)</f>
-        <v>0.5</v>
-      </c>
-      <c r="P257" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q257" s="8">
-        <v>10000</v>
-      </c>
-      <c r="R257" s="19">
-        <f>P257*Q257</f>
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" s="43">
         <f>B257+1</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B258" s="8">
         <v>25</v>
       </c>
       <c r="C258" s="31">
         <f>((B258-A258+1)*0.05)</f>
-        <v>0.35000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="D258" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E258" s="8">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="F258" s="19">
         <f>D258*E258</f>
-        <v>100000</v>
-      </c>
-      <c r="G258" s="43">
-        <f>H257+1</f>
-        <v>18</v>
-      </c>
-      <c r="H258" s="8">
-        <v>23</v>
-      </c>
-      <c r="I258" s="31">
-        <f>((H258-G258+1)*0.05)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="J258" s="18">
-        <v>20</v>
-      </c>
-      <c r="K258" s="8">
-        <v>2000</v>
-      </c>
-      <c r="L258" s="19">
-        <f>J258*K258</f>
-        <v>40000</v>
-      </c>
-      <c r="M258" s="43">
-        <f>N257+1</f>
-        <v>20</v>
-      </c>
-      <c r="N258" s="8">
-        <v>19</v>
-      </c>
-      <c r="O258" s="31">
-        <f>((N258-M258+1)*0.05)</f>
-        <v>0</v>
-      </c>
-      <c r="P258" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q258" s="8">
-        <v>10000</v>
-      </c>
-      <c r="R258" s="19">
-        <f>P258*Q258</f>
-        <v>50000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.35">
@@ -12036,57 +11970,13 @@
         <v>0.1</v>
       </c>
       <c r="D259" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E259" s="28">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="F259" s="22">
         <f>D259*E259</f>
-        <v>200000</v>
-      </c>
-      <c r="G259" s="43">
-        <f>H258+1</f>
-        <v>24</v>
-      </c>
-      <c r="H259" s="44">
-        <f>20+I253</f>
-        <v>27</v>
-      </c>
-      <c r="I259" s="31">
-        <f>((H259-G259+1)*0.05)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J259" s="20">
-        <v>30</v>
-      </c>
-      <c r="K259" s="28">
-        <v>2000</v>
-      </c>
-      <c r="L259" s="22">
-        <f>J259*K259</f>
-        <v>60000</v>
-      </c>
-      <c r="M259" s="43">
-        <f>N258+1</f>
-        <v>20</v>
-      </c>
-      <c r="N259" s="44">
-        <f>20+O253</f>
-        <v>27</v>
-      </c>
-      <c r="O259" s="31">
-        <f>((N259-M259+1)*0.05)</f>
-        <v>0.4</v>
-      </c>
-      <c r="P259" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q259" s="28">
-        <v>20000</v>
-      </c>
-      <c r="R259" s="22">
-        <f>P259*Q259</f>
         <v>100000</v>
       </c>
     </row>
@@ -12096,8 +11986,8 @@
       </c>
       <c r="B260" s="74"/>
       <c r="C260" s="33">
-        <f>'Individual Treasure(2014)'!B29</f>
-        <v>93925.956085772239</v>
+        <f>'Individual Treasure(2014)'!B28</f>
+        <v>60645.823497639387</v>
       </c>
       <c r="D260" s="75" t="s">
         <v>42</v>
@@ -12105,48 +11995,12 @@
       <c r="E260" s="76"/>
       <c r="F260" s="34">
         <f>SUMPRODUCT(C255:C259,F255:F259)</f>
-        <v>94000</v>
-      </c>
-      <c r="G260" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="H260" s="74"/>
-      <c r="I260" s="33">
-        <f>'Individual Treasure(2014)'!B29</f>
-        <v>93925.956085772239</v>
-      </c>
-      <c r="J260" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="K260" s="76"/>
-      <c r="L260" s="34">
-        <f>SUMPRODUCT(I255:I259,L255:L259)</f>
-        <v>31500.000000000004</v>
-      </c>
-      <c r="M260" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="N260" s="74"/>
-      <c r="O260" s="33">
-        <f>'Individual Treasure(2014)'!B29</f>
-        <v>93925.956085772239</v>
-      </c>
-      <c r="P260" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q260" s="76"/>
-      <c r="R260" s="34">
-        <f>SUMPRODUCT(O255:O259,R255:R259)</f>
-        <v>67500</v>
-      </c>
-      <c r="S260" s="8">
-        <f>L260+R260</f>
-        <v>99000</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="261" spans="1:19" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A261" s="79" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B261" s="79"/>
       <c r="C261" s="79"/>
@@ -12162,7 +12016,7 @@
     </row>
     <row r="262" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="77" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B262" s="77"/>
       <c r="C262" s="77"/>
@@ -12170,13 +12024,21 @@
       <c r="E262" s="77"/>
       <c r="F262" s="78"/>
       <c r="G262" s="77" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H262" s="77"/>
       <c r="I262" s="77"/>
       <c r="J262" s="77"/>
       <c r="K262" s="77"/>
       <c r="L262" s="78"/>
+      <c r="M262" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="N262" s="77"/>
+      <c r="O262" s="77"/>
+      <c r="P262" s="77"/>
+      <c r="Q262" s="77"/>
+      <c r="R262" s="78"/>
     </row>
     <row r="263" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A263" s="68" t="s">
@@ -12203,6 +12065,18 @@
       </c>
       <c r="K263" s="71"/>
       <c r="L263" s="72"/>
+      <c r="M263" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="N263" s="69"/>
+      <c r="O263" s="21">
+        <v>7</v>
+      </c>
+      <c r="P263" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q263" s="71"/>
+      <c r="R263" s="72"/>
     </row>
     <row r="264" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A264" s="42" t="s">
@@ -12239,6 +12113,24 @@
         <v>24</v>
       </c>
       <c r="L264" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M264" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N264" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O264" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="P264" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q264" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R264" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12255,14 +12147,14 @@
         <v>0.1</v>
       </c>
       <c r="D265" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E265" s="8">
         <v>50000</v>
       </c>
       <c r="F265" s="19">
         <f>D265*E265</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G265" s="43">
         <f>I263+1</f>
@@ -12285,6 +12177,27 @@
         <f>J265*K265</f>
         <v>5000</v>
       </c>
+      <c r="M265" s="43">
+        <f>O263+1</f>
+        <v>8</v>
+      </c>
+      <c r="N265" s="8">
+        <v>9</v>
+      </c>
+      <c r="O265" s="31">
+        <f>((N265-M265+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P265" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q265" s="8">
+        <v>5000</v>
+      </c>
+      <c r="R265" s="19">
+        <f>P265*Q265</f>
+        <v>25000</v>
+      </c>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266" s="43">
@@ -12292,17 +12205,17 @@
         <v>10</v>
       </c>
       <c r="B266" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C266" s="31">
         <f>((B266-A266+1)*0.05)</f>
-        <v>0.25</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D266" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E266" s="8">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F266" s="19">
         <f>D266*E266</f>
@@ -12329,28 +12242,49 @@
         <f>J266*K266</f>
         <v>10000</v>
       </c>
+      <c r="M266" s="43">
+        <f>N265+1</f>
+        <v>10</v>
+      </c>
+      <c r="N266" s="8">
+        <v>9</v>
+      </c>
+      <c r="O266" s="31">
+        <f>((N266-M266+1)*0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P266" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q266" s="8">
+        <v>5000</v>
+      </c>
+      <c r="R266" s="19">
+        <f>P266*Q266</f>
+        <v>25000</v>
+      </c>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267" s="43">
         <f>B266+1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B267" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C267" s="31">
         <f>((B267-A267+1)*0.05)</f>
-        <v>0.30000000000000004</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D267" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E267" s="8">
         <v>100000</v>
       </c>
       <c r="F267" s="19">
         <f>D267*E267</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G267" s="43">
         <f>H266+1</f>
@@ -12373,24 +12307,45 @@
         <f>J267*K267</f>
         <v>20000</v>
       </c>
+      <c r="M267" s="43">
+        <f>N266+1</f>
+        <v>10</v>
+      </c>
+      <c r="N267" s="8">
+        <v>19</v>
+      </c>
+      <c r="O267" s="31">
+        <f>((N267-M267+1)*0.05)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P267" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q267" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R267" s="19">
+        <f>P267*Q267</f>
+        <v>50000</v>
+      </c>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A268" s="43">
         <f>B267+1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B268" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C268" s="31">
         <f>((B268-A268+1)*0.05)</f>
         <v>0.25</v>
       </c>
       <c r="D268" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E268" s="8">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F268" s="19">
         <f>D268*E268</f>
@@ -12417,11 +12372,32 @@
         <f>J268*K268</f>
         <v>40000</v>
       </c>
+      <c r="M268" s="43">
+        <f>N267+1</f>
+        <v>20</v>
+      </c>
+      <c r="N268" s="8">
+        <v>19</v>
+      </c>
+      <c r="O268" s="31">
+        <f>((N268-M268+1)*0.05)</f>
+        <v>0</v>
+      </c>
+      <c r="P268" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q268" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R268" s="19">
+        <f>P268*Q268</f>
+        <v>50000</v>
+      </c>
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A269" s="43">
         <f>B268+1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B269" s="44">
         <f>20+C263</f>
@@ -12429,7 +12405,7 @@
       </c>
       <c r="C269" s="31">
         <f>((B269-A269+1)*0.05)</f>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D269" s="20">
         <v>2</v>
@@ -12463,6 +12439,28 @@
         <f>J269*K269</f>
         <v>60000</v>
       </c>
+      <c r="M269" s="43">
+        <f>N268+1</f>
+        <v>20</v>
+      </c>
+      <c r="N269" s="44">
+        <f>20+O263</f>
+        <v>27</v>
+      </c>
+      <c r="O269" s="31">
+        <f>((N269-M269+1)*0.05)</f>
+        <v>0.4</v>
+      </c>
+      <c r="P269" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q269" s="28">
+        <v>20000</v>
+      </c>
+      <c r="R269" s="22">
+        <f>P269*Q269</f>
+        <v>100000</v>
+      </c>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A270" s="73" t="s">
@@ -12470,8 +12468,8 @@
       </c>
       <c r="B270" s="74"/>
       <c r="C270" s="33">
-        <f>'Individual Treasure(2014)'!B30</f>
-        <v>145468.96583851028</v>
+        <f>'Individual Treasure(2014)'!B29</f>
+        <v>93925.956085772239</v>
       </c>
       <c r="D270" s="75" t="s">
         <v>42</v>
@@ -12479,15 +12477,15 @@
       <c r="E270" s="76"/>
       <c r="F270" s="34">
         <f>SUMPRODUCT(C265:C269,F265:F269)</f>
-        <v>150000</v>
+        <v>205000</v>
       </c>
       <c r="G270" s="73" t="s">
         <v>41</v>
       </c>
       <c r="H270" s="74"/>
       <c r="I270" s="33">
-        <f>'Individual Treasure(2014)'!B39</f>
-        <v>0</v>
+        <f>'Individual Treasure(2014)'!B29</f>
+        <v>93925.956085772239</v>
       </c>
       <c r="J270" s="75" t="s">
         <v>42</v>
@@ -12497,23 +12495,1127 @@
         <f>SUMPRODUCT(I265:I269,L265:L269)</f>
         <v>31500.000000000004</v>
       </c>
+      <c r="M270" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="N270" s="74"/>
+      <c r="O270" s="33">
+        <f>'Individual Treasure(2014)'!B29</f>
+        <v>93925.956085772239</v>
+      </c>
+      <c r="P270" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q270" s="76"/>
+      <c r="R270" s="34">
+        <f>SUMPRODUCT(O265:O269,R265:R269)</f>
+        <v>67500</v>
+      </c>
+      <c r="S270" s="8">
+        <f>L270+R270</f>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A271" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B271" s="79"/>
+      <c r="C271" s="79"/>
+      <c r="D271" s="79"/>
+      <c r="E271" s="79"/>
+      <c r="F271" s="79"/>
+      <c r="G271" s="79"/>
+      <c r="H271" s="79"/>
+      <c r="I271" s="79"/>
+      <c r="J271" s="79"/>
+      <c r="K271" s="79"/>
+      <c r="L271" s="79"/>
+    </row>
+    <row r="272" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B272" s="77"/>
+      <c r="C272" s="77"/>
+      <c r="D272" s="77"/>
+      <c r="E272" s="77"/>
+      <c r="F272" s="78"/>
+      <c r="G272" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H272" s="77"/>
+      <c r="I272" s="77"/>
+      <c r="J272" s="77"/>
+      <c r="K272" s="77"/>
+      <c r="L272" s="78"/>
+    </row>
+    <row r="273" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A273" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B273" s="69"/>
+      <c r="C273" s="21">
+        <v>7</v>
+      </c>
+      <c r="D273" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E273" s="71"/>
+      <c r="F273" s="72"/>
+      <c r="G273" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H273" s="69"/>
+      <c r="I273" s="21">
+        <v>7</v>
+      </c>
+      <c r="J273" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K273" s="71"/>
+      <c r="L273" s="72"/>
+    </row>
+    <row r="274" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A274" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D274" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F274" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G274" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H274" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I274" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J274" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L274" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A275" s="43">
+        <f>C273+1</f>
+        <v>8</v>
+      </c>
+      <c r="B275" s="8">
+        <v>8</v>
+      </c>
+      <c r="C275" s="31">
+        <f>((B275-A275+1)*0.05)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D275" s="18">
+        <v>1</v>
+      </c>
+      <c r="E275" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F275" s="19">
+        <f>D275*E275</f>
+        <v>20000</v>
+      </c>
+      <c r="G275" s="43">
+        <f>I273+1</f>
+        <v>8</v>
+      </c>
+      <c r="H275" s="8">
+        <v>9</v>
+      </c>
+      <c r="I275" s="31">
+        <f>((H275-G275+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J275" s="18">
+        <v>10</v>
+      </c>
+      <c r="K275" s="8">
+        <v>500</v>
+      </c>
+      <c r="L275" s="19">
+        <f>J275*K275</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A276" s="43">
+        <f>B275+1</f>
+        <v>9</v>
+      </c>
+      <c r="B276" s="8">
+        <v>12</v>
+      </c>
+      <c r="C276" s="31">
+        <f>((B276-A276+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D276" s="18">
+        <v>2</v>
+      </c>
+      <c r="E276" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F276" s="19">
+        <f>D276*E276</f>
+        <v>40000</v>
+      </c>
+      <c r="G276" s="43">
+        <f>H275+1</f>
+        <v>10</v>
+      </c>
+      <c r="H276" s="8">
+        <v>11</v>
+      </c>
+      <c r="I276" s="31">
+        <f>((H276-G276+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J276" s="18">
+        <v>10</v>
+      </c>
+      <c r="K276" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L276" s="19">
+        <f>J276*K276</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A277" s="43">
+        <f>B276+1</f>
+        <v>13</v>
+      </c>
+      <c r="B277" s="8">
+        <v>19</v>
+      </c>
+      <c r="C277" s="31">
+        <f>((B277-A277+1)*0.05)</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D277" s="18">
+        <v>1</v>
+      </c>
+      <c r="E277" s="8">
+        <v>50000</v>
+      </c>
+      <c r="F277" s="19">
+        <f>D277*E277</f>
+        <v>50000</v>
+      </c>
+      <c r="G277" s="43">
+        <f>H276+1</f>
+        <v>12</v>
+      </c>
+      <c r="H277" s="8">
+        <v>17</v>
+      </c>
+      <c r="I277" s="31">
+        <f>((H277-G277+1)*0.05)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J277" s="18">
+        <v>20</v>
+      </c>
+      <c r="K277" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L277" s="19">
+        <f>J277*K277</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A278" s="43">
+        <f>B277+1</f>
+        <v>20</v>
+      </c>
+      <c r="B278" s="8">
+        <v>24</v>
+      </c>
+      <c r="C278" s="31">
+        <f>((B278-A278+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D278" s="18">
+        <v>1</v>
+      </c>
+      <c r="E278" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F278" s="19">
+        <f>D278*E278</f>
+        <v>100000</v>
+      </c>
+      <c r="G278" s="43">
+        <f>H277+1</f>
+        <v>18</v>
+      </c>
+      <c r="H278" s="8">
+        <v>23</v>
+      </c>
+      <c r="I278" s="31">
+        <f>((H278-G278+1)*0.05)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J278" s="18">
+        <v>20</v>
+      </c>
+      <c r="K278" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L278" s="19">
+        <f>J278*K278</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A279" s="43">
+        <f>B278+1</f>
+        <v>25</v>
+      </c>
+      <c r="B279" s="44">
+        <f>20+C273</f>
+        <v>27</v>
+      </c>
+      <c r="C279" s="31">
+        <f>((B279-A279+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D279" s="20">
+        <v>1</v>
+      </c>
+      <c r="E279" s="28">
+        <v>200000</v>
+      </c>
+      <c r="F279" s="22">
+        <f>D279*E279</f>
+        <v>200000</v>
+      </c>
+      <c r="G279" s="43">
+        <f>H278+1</f>
+        <v>24</v>
+      </c>
+      <c r="H279" s="44">
+        <f>20+I273</f>
+        <v>27</v>
+      </c>
+      <c r="I279" s="31">
+        <f>((H279-G279+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J279" s="20">
+        <v>30</v>
+      </c>
+      <c r="K279" s="28">
+        <v>2000</v>
+      </c>
+      <c r="L279" s="22">
+        <f>J279*K279</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A280" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B280" s="74"/>
+      <c r="C280" s="33">
+        <f>'Individual Treasure(2014)'!B30</f>
+        <v>145468.96583851028</v>
+      </c>
+      <c r="D280" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E280" s="76"/>
+      <c r="F280" s="34">
+        <f>SUMPRODUCT(C275:C279,F275:F279)</f>
+        <v>81500</v>
+      </c>
+      <c r="G280" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H280" s="74"/>
+      <c r="I280" s="33">
+        <f>'Individual Treasure(2014)'!B39</f>
+        <v>0</v>
+      </c>
+      <c r="J280" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K280" s="76"/>
+      <c r="L280" s="34">
+        <f>SUMPRODUCT(I275:I279,L275:L279)</f>
+        <v>31500.000000000004</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B281" s="79"/>
+      <c r="C281" s="79"/>
+      <c r="D281" s="79"/>
+      <c r="E281" s="79"/>
+      <c r="F281" s="79"/>
+      <c r="G281" s="79"/>
+      <c r="H281" s="79"/>
+      <c r="I281" s="79"/>
+      <c r="J281" s="79"/>
+      <c r="K281" s="79"/>
+      <c r="L281" s="79"/>
+    </row>
+    <row r="282" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B282" s="77"/>
+      <c r="C282" s="77"/>
+      <c r="D282" s="77"/>
+      <c r="E282" s="77"/>
+      <c r="F282" s="78"/>
+      <c r="G282" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H282" s="77"/>
+      <c r="I282" s="77"/>
+      <c r="J282" s="77"/>
+      <c r="K282" s="77"/>
+      <c r="L282" s="78"/>
+    </row>
+    <row r="283" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A283" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B283" s="69"/>
+      <c r="C283" s="21">
+        <v>7</v>
+      </c>
+      <c r="D283" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E283" s="71"/>
+      <c r="F283" s="72"/>
+      <c r="G283" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H283" s="69"/>
+      <c r="I283" s="21">
+        <v>7</v>
+      </c>
+      <c r="J283" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K283" s="71"/>
+      <c r="L283" s="72"/>
+    </row>
+    <row r="284" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A284" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D284" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F284" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G284" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H284" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I284" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J284" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L284" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A285" s="43">
+        <f>C283+1</f>
+        <v>8</v>
+      </c>
+      <c r="B285" s="8">
+        <v>9</v>
+      </c>
+      <c r="C285" s="31">
+        <f>((B285-A285+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D285" s="18">
+        <v>1</v>
+      </c>
+      <c r="E285" s="8">
+        <v>50000</v>
+      </c>
+      <c r="F285" s="19">
+        <f>D285*E285</f>
+        <v>50000</v>
+      </c>
+      <c r="G285" s="43">
+        <f>I283+1</f>
+        <v>8</v>
+      </c>
+      <c r="H285" s="8">
+        <v>9</v>
+      </c>
+      <c r="I285" s="31">
+        <f>((H285-G285+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J285" s="18">
+        <v>10</v>
+      </c>
+      <c r="K285" s="8">
+        <v>500</v>
+      </c>
+      <c r="L285" s="19">
+        <f>J285*K285</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A286" s="43">
+        <f>B285+1</f>
+        <v>10</v>
+      </c>
+      <c r="B286" s="8">
+        <v>13</v>
+      </c>
+      <c r="C286" s="31">
+        <f>((B286-A286+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D286" s="18">
+        <v>2</v>
+      </c>
+      <c r="E286" s="8">
+        <v>50000</v>
+      </c>
+      <c r="F286" s="19">
+        <f>D286*E286</f>
+        <v>100000</v>
+      </c>
+      <c r="G286" s="43">
+        <f>H285+1</f>
+        <v>10</v>
+      </c>
+      <c r="H286" s="8">
+        <v>11</v>
+      </c>
+      <c r="I286" s="31">
+        <f>((H286-G286+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J286" s="18">
+        <v>10</v>
+      </c>
+      <c r="K286" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L286" s="19">
+        <f>J286*K286</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A287" s="43">
+        <f>B286+1</f>
+        <v>14</v>
+      </c>
+      <c r="B287" s="8">
+        <v>20</v>
+      </c>
+      <c r="C287" s="31">
+        <f>((B287-A287+1)*0.05)</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D287" s="18">
+        <v>1</v>
+      </c>
+      <c r="E287" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F287" s="19">
+        <f>D287*E287</f>
+        <v>100000</v>
+      </c>
+      <c r="G287" s="43">
+        <f>H286+1</f>
+        <v>12</v>
+      </c>
+      <c r="H287" s="8">
+        <v>17</v>
+      </c>
+      <c r="I287" s="31">
+        <f>((H287-G287+1)*0.05)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J287" s="18">
+        <v>20</v>
+      </c>
+      <c r="K287" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L287" s="19">
+        <f>J287*K287</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A288" s="43">
+        <f>B287+1</f>
+        <v>21</v>
+      </c>
+      <c r="B288" s="8">
+        <v>24</v>
+      </c>
+      <c r="C288" s="31">
+        <f>((B288-A288+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D288" s="18">
+        <v>2</v>
+      </c>
+      <c r="E288" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F288" s="19">
+        <f>D288*E288</f>
+        <v>200000</v>
+      </c>
+      <c r="G288" s="43">
+        <f>H287+1</f>
+        <v>18</v>
+      </c>
+      <c r="H288" s="8">
+        <v>23</v>
+      </c>
+      <c r="I288" s="31">
+        <f>((H288-G288+1)*0.05)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J288" s="18">
+        <v>20</v>
+      </c>
+      <c r="K288" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L288" s="19">
+        <f>J288*K288</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A289" s="43">
+        <f>B288+1</f>
+        <v>25</v>
+      </c>
+      <c r="B289" s="44">
+        <f>20+C283</f>
+        <v>27</v>
+      </c>
+      <c r="C289" s="31">
+        <f>((B289-A289+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D289" s="20">
+        <v>1</v>
+      </c>
+      <c r="E289" s="28">
+        <v>200000</v>
+      </c>
+      <c r="F289" s="22">
+        <f>D289*E289</f>
+        <v>200000</v>
+      </c>
+      <c r="G289" s="43">
+        <f>H288+1</f>
+        <v>24</v>
+      </c>
+      <c r="H289" s="44">
+        <f>20+I283</f>
+        <v>27</v>
+      </c>
+      <c r="I289" s="31">
+        <f>((H289-G289+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J289" s="20">
+        <v>30</v>
+      </c>
+      <c r="K289" s="28">
+        <v>2000</v>
+      </c>
+      <c r="L289" s="22">
+        <f>J289*K289</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A290" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B290" s="74"/>
+      <c r="C290" s="33">
+        <f>'Individual Treasure(2014)'!B31</f>
+        <v>225296.82852311266</v>
+      </c>
+      <c r="D290" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E290" s="76"/>
+      <c r="F290" s="34">
+        <f>SUMPRODUCT(C285:C289,F285:F289)</f>
+        <v>130000</v>
+      </c>
+      <c r="G290" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H290" s="74"/>
+      <c r="I290" s="33">
+        <f>'Individual Treasure(2014)'!B49</f>
+        <v>0</v>
+      </c>
+      <c r="J290" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K290" s="76"/>
+      <c r="L290" s="34">
+        <f>SUMPRODUCT(I285:I289,L285:L289)</f>
+        <v>31500.000000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A291" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B291" s="79"/>
+      <c r="C291" s="79"/>
+      <c r="D291" s="79"/>
+      <c r="E291" s="79"/>
+      <c r="F291" s="79"/>
+      <c r="G291" s="79"/>
+      <c r="H291" s="79"/>
+      <c r="I291" s="79"/>
+      <c r="J291" s="79"/>
+      <c r="K291" s="79"/>
+      <c r="L291" s="79"/>
+    </row>
+    <row r="292" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B292" s="77"/>
+      <c r="C292" s="77"/>
+      <c r="D292" s="77"/>
+      <c r="E292" s="77"/>
+      <c r="F292" s="78"/>
+      <c r="G292" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H292" s="77"/>
+      <c r="I292" s="77"/>
+      <c r="J292" s="77"/>
+      <c r="K292" s="77"/>
+      <c r="L292" s="78"/>
+    </row>
+    <row r="293" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A293" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B293" s="69"/>
+      <c r="C293" s="21">
+        <v>7</v>
+      </c>
+      <c r="D293" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E293" s="71"/>
+      <c r="F293" s="72"/>
+      <c r="G293" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H293" s="69"/>
+      <c r="I293" s="21">
+        <v>7</v>
+      </c>
+      <c r="J293" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K293" s="71"/>
+      <c r="L293" s="72"/>
+    </row>
+    <row r="294" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A294" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D294" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F294" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G294" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H294" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I294" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J294" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L294" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A295" s="43">
+        <f>C293+1</f>
+        <v>8</v>
+      </c>
+      <c r="B295" s="8">
+        <v>9</v>
+      </c>
+      <c r="C295" s="31">
+        <f>((B295-A295+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D295" s="18">
+        <v>1</v>
+      </c>
+      <c r="E295" s="8">
+        <v>50000</v>
+      </c>
+      <c r="F295" s="19">
+        <f>D295*E295</f>
+        <v>50000</v>
+      </c>
+      <c r="G295" s="43">
+        <f>I293+1</f>
+        <v>8</v>
+      </c>
+      <c r="H295" s="8">
+        <v>9</v>
+      </c>
+      <c r="I295" s="31">
+        <f>((H295-G295+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J295" s="18">
+        <v>10</v>
+      </c>
+      <c r="K295" s="8">
+        <v>500</v>
+      </c>
+      <c r="L295" s="19">
+        <f>J295*K295</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A296" s="43">
+        <f>B295+1</f>
+        <v>10</v>
+      </c>
+      <c r="B296" s="8">
+        <v>12</v>
+      </c>
+      <c r="C296" s="31">
+        <f>((B296-A296+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D296" s="18">
+        <v>1</v>
+      </c>
+      <c r="E296" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F296" s="19">
+        <f>D296*E296</f>
+        <v>100000</v>
+      </c>
+      <c r="G296" s="43">
+        <f>H295+1</f>
+        <v>10</v>
+      </c>
+      <c r="H296" s="8">
+        <v>11</v>
+      </c>
+      <c r="I296" s="31">
+        <f>((H296-G296+1)*0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J296" s="18">
+        <v>10</v>
+      </c>
+      <c r="K296" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L296" s="19">
+        <f>J296*K296</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A297" s="43">
+        <f>B296+1</f>
+        <v>13</v>
+      </c>
+      <c r="B297" s="8">
+        <v>19</v>
+      </c>
+      <c r="C297" s="31">
+        <f>((B297-A297+1)*0.05)</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D297" s="18">
+        <v>2</v>
+      </c>
+      <c r="E297" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F297" s="19">
+        <f>D297*E297</f>
+        <v>200000</v>
+      </c>
+      <c r="G297" s="43">
+        <f>H296+1</f>
+        <v>12</v>
+      </c>
+      <c r="H297" s="8">
+        <v>17</v>
+      </c>
+      <c r="I297" s="31">
+        <f>((H297-G297+1)*0.05)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J297" s="18">
+        <v>20</v>
+      </c>
+      <c r="K297" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L297" s="19">
+        <f>J297*K297</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A298" s="43">
+        <f>B297+1</f>
+        <v>20</v>
+      </c>
+      <c r="B298" s="8">
+        <v>24</v>
+      </c>
+      <c r="C298" s="31">
+        <f>((B298-A298+1)*0.05)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D298" s="18">
+        <v>2</v>
+      </c>
+      <c r="E298" s="8">
+        <v>200000</v>
+      </c>
+      <c r="F298" s="19">
+        <f>D298*E298</f>
+        <v>400000</v>
+      </c>
+      <c r="G298" s="43">
+        <f>H297+1</f>
+        <v>18</v>
+      </c>
+      <c r="H298" s="8">
+        <v>23</v>
+      </c>
+      <c r="I298" s="31">
+        <f>((H298-G298+1)*0.05)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J298" s="18">
+        <v>20</v>
+      </c>
+      <c r="K298" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L298" s="19">
+        <f>J298*K298</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A299" s="43">
+        <f>B298+1</f>
+        <v>25</v>
+      </c>
+      <c r="B299" s="44">
+        <f>20+C293</f>
+        <v>27</v>
+      </c>
+      <c r="C299" s="31">
+        <f>((B299-A299+1)*0.05)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D299" s="20">
+        <v>3</v>
+      </c>
+      <c r="E299" s="28">
+        <v>200000</v>
+      </c>
+      <c r="F299" s="22">
+        <f>D299*E299</f>
+        <v>600000</v>
+      </c>
+      <c r="G299" s="43">
+        <f>H298+1</f>
+        <v>24</v>
+      </c>
+      <c r="H299" s="44">
+        <f>20+I293</f>
+        <v>27</v>
+      </c>
+      <c r="I299" s="31">
+        <f>((H299-G299+1)*0.05)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J299" s="20">
+        <v>30</v>
+      </c>
+      <c r="K299" s="28">
+        <v>2000</v>
+      </c>
+      <c r="L299" s="22">
+        <f>J299*K299</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A300" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B300" s="74"/>
+      <c r="C300" s="33">
+        <f>'Individual Treasure(2014)'!B41</f>
+        <v>0</v>
+      </c>
+      <c r="D300" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E300" s="76"/>
+      <c r="F300" s="34">
+        <f>SUMPRODUCT(C295:C299,F295:F299)</f>
+        <v>280000</v>
+      </c>
+      <c r="G300" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H300" s="74"/>
+      <c r="I300" s="33">
+        <f>'Individual Treasure(2014)'!B59</f>
+        <v>0</v>
+      </c>
+      <c r="J300" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K300" s="76"/>
+      <c r="L300" s="34">
+        <f>SUMPRODUCT(I295:I299,L295:L299)</f>
+        <v>31500.000000000004</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="310">
+    <mergeCell ref="A291:L291"/>
+    <mergeCell ref="J300:K300"/>
+    <mergeCell ref="G300:H300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="J293:L293"/>
+    <mergeCell ref="G293:H293"/>
+    <mergeCell ref="D293:F293"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="G292:L292"/>
+    <mergeCell ref="A292:F292"/>
+    <mergeCell ref="A281:L281"/>
+    <mergeCell ref="A282:F282"/>
+    <mergeCell ref="G282:L282"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="D283:F283"/>
+    <mergeCell ref="G283:H283"/>
+    <mergeCell ref="J283:L283"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="G290:H290"/>
+    <mergeCell ref="J290:K290"/>
     <mergeCell ref="M173:O173"/>
     <mergeCell ref="M180:N180"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="G270:H270"/>
-    <mergeCell ref="J270:K270"/>
-    <mergeCell ref="A261:L261"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="G262:L262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="D263:F263"/>
-    <mergeCell ref="G263:H263"/>
-    <mergeCell ref="J263:L263"/>
-    <mergeCell ref="M260:N260"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="G280:H280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="A271:L271"/>
+    <mergeCell ref="A272:F272"/>
+    <mergeCell ref="G272:L272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="G273:H273"/>
+    <mergeCell ref="J273:L273"/>
+    <mergeCell ref="M270:N270"/>
     <mergeCell ref="A180:B180"/>
     <mergeCell ref="D180:E180"/>
     <mergeCell ref="A181:L181"/>
@@ -12559,25 +13661,25 @@
     <mergeCell ref="G73:H73"/>
     <mergeCell ref="J73:L73"/>
     <mergeCell ref="M73:O73"/>
-    <mergeCell ref="P260:Q260"/>
+    <mergeCell ref="P270:Q270"/>
     <mergeCell ref="M202:R202"/>
     <mergeCell ref="M203:N203"/>
     <mergeCell ref="P203:R203"/>
     <mergeCell ref="M210:N210"/>
     <mergeCell ref="P210:Q210"/>
-    <mergeCell ref="G252:L252"/>
-    <mergeCell ref="M252:R252"/>
-    <mergeCell ref="G253:H253"/>
-    <mergeCell ref="J253:L253"/>
-    <mergeCell ref="M253:N253"/>
-    <mergeCell ref="P253:R253"/>
+    <mergeCell ref="G262:L262"/>
+    <mergeCell ref="M262:R262"/>
+    <mergeCell ref="G263:H263"/>
+    <mergeCell ref="J263:L263"/>
+    <mergeCell ref="M263:N263"/>
+    <mergeCell ref="P263:R263"/>
     <mergeCell ref="M212:R212"/>
     <mergeCell ref="M213:N213"/>
     <mergeCell ref="P213:R213"/>
     <mergeCell ref="M220:N220"/>
     <mergeCell ref="P220:Q220"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="J223:L223"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="J233:L233"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:B33"/>
@@ -12716,10 +13818,10 @@
     <mergeCell ref="D193:F193"/>
     <mergeCell ref="A200:B200"/>
     <mergeCell ref="D200:E200"/>
-    <mergeCell ref="A221:L221"/>
-    <mergeCell ref="A222:F222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="A231:L231"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="D233:F233"/>
     <mergeCell ref="A201:L201"/>
     <mergeCell ref="A202:F202"/>
     <mergeCell ref="A203:B203"/>
@@ -12734,30 +13836,30 @@
     <mergeCell ref="A211:L211"/>
     <mergeCell ref="A212:F212"/>
     <mergeCell ref="G212:L212"/>
-    <mergeCell ref="A252:F252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="D253:F253"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="A231:L231"/>
-    <mergeCell ref="A232:F232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="D270:E270"/>
     <mergeCell ref="A240:B240"/>
     <mergeCell ref="D240:E240"/>
-    <mergeCell ref="A251:L251"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="J260:K260"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="J230:K230"/>
     <mergeCell ref="A241:L241"/>
     <mergeCell ref="A242:F242"/>
     <mergeCell ref="A243:B243"/>
     <mergeCell ref="D243:F243"/>
     <mergeCell ref="A250:B250"/>
     <mergeCell ref="D250:E250"/>
+    <mergeCell ref="A261:L261"/>
+    <mergeCell ref="G270:H270"/>
+    <mergeCell ref="J270:K270"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="A251:L251"/>
+    <mergeCell ref="A252:F252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="D260:E260"/>
     <mergeCell ref="G32:L32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="J33:L33"/>
@@ -12776,7 +13878,18 @@
     <mergeCell ref="D220:E220"/>
     <mergeCell ref="G220:H220"/>
     <mergeCell ref="J220:K220"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="A221:L221"/>
+    <mergeCell ref="A222:F222"/>
     <mergeCell ref="G222:L222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="J223:L223"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="J230:K230"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
